--- a/SANDEEP STAFF.xlsx
+++ b/SANDEEP STAFF.xlsx
@@ -1228,7 +1228,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1603,11 +1603,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1713,6 +1724,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1734,17 +1756,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2050,7 +2064,7 @@
   <dimension ref="A1:F1372"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1353" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B1370" sqref="B1370"/>
+      <selection activeCell="A1363" sqref="A1363:F1363"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2071,13 +2085,13 @@
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="40"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="45"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
@@ -2164,13 +2178,13 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="18.75">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4" t="s">
@@ -2310,13 +2324,13 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="18.75">
-      <c r="A26" s="37" t="s">
+      <c r="A26" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="4" t="s">
@@ -2443,13 +2457,13 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="18.75">
-      <c r="A39" s="37" t="s">
+      <c r="A39" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="B39" s="37"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="4" t="s">
@@ -2554,13 +2568,13 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="18.75">
-      <c r="A50" s="37" t="s">
+      <c r="A50" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="B50" s="37"/>
-      <c r="C50" s="37"/>
-      <c r="D50" s="37"/>
-      <c r="E50" s="37"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="42"/>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="4" t="s">
@@ -2679,13 +2693,13 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="18.75">
-      <c r="A62" s="37" t="s">
+      <c r="A62" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="B62" s="37"/>
-      <c r="C62" s="37"/>
-      <c r="D62" s="37"/>
-      <c r="E62" s="37"/>
+      <c r="B62" s="42"/>
+      <c r="C62" s="42"/>
+      <c r="D62" s="42"/>
+      <c r="E62" s="42"/>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="4" t="s">
@@ -2781,13 +2795,13 @@
       </c>
     </row>
     <row r="72" spans="1:5" ht="18.75">
-      <c r="A72" s="37" t="s">
+      <c r="A72" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="B72" s="37"/>
-      <c r="C72" s="37"/>
-      <c r="D72" s="37"/>
-      <c r="E72" s="37"/>
+      <c r="B72" s="42"/>
+      <c r="C72" s="42"/>
+      <c r="D72" s="42"/>
+      <c r="E72" s="42"/>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="4" t="s">
@@ -2892,13 +2906,13 @@
       </c>
     </row>
     <row r="82" spans="1:5" ht="18.75">
-      <c r="A82" s="37" t="s">
+      <c r="A82" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="B82" s="37"/>
-      <c r="C82" s="37"/>
-      <c r="D82" s="37"/>
-      <c r="E82" s="37"/>
+      <c r="B82" s="42"/>
+      <c r="C82" s="42"/>
+      <c r="D82" s="42"/>
+      <c r="E82" s="42"/>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="4" t="s">
@@ -3047,13 +3061,13 @@
       </c>
     </row>
     <row r="95" spans="1:5" ht="18.75">
-      <c r="A95" s="37" t="s">
+      <c r="A95" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="B95" s="37"/>
-      <c r="C95" s="37"/>
-      <c r="D95" s="37"/>
-      <c r="E95" s="37"/>
+      <c r="B95" s="42"/>
+      <c r="C95" s="42"/>
+      <c r="D95" s="42"/>
+      <c r="E95" s="42"/>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="4" t="s">
@@ -3205,13 +3219,13 @@
       </c>
     </row>
     <row r="110" spans="1:6" ht="18.75">
-      <c r="A110" s="37" t="s">
+      <c r="A110" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="B110" s="37"/>
-      <c r="C110" s="37"/>
-      <c r="D110" s="37"/>
-      <c r="E110" s="37"/>
+      <c r="B110" s="42"/>
+      <c r="C110" s="42"/>
+      <c r="D110" s="42"/>
+      <c r="E110" s="42"/>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="4" t="s">
@@ -3360,13 +3374,13 @@
       </c>
     </row>
     <row r="125" spans="1:6" ht="18.75">
-      <c r="A125" s="37" t="s">
+      <c r="A125" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="B125" s="37"/>
-      <c r="C125" s="37"/>
-      <c r="D125" s="37"/>
-      <c r="E125" s="37"/>
+      <c r="B125" s="42"/>
+      <c r="C125" s="42"/>
+      <c r="D125" s="42"/>
+      <c r="E125" s="42"/>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="4" t="s">
@@ -3523,13 +3537,13 @@
       </c>
     </row>
     <row r="140" spans="1:6" ht="18.75">
-      <c r="A140" s="37" t="s">
+      <c r="A140" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="B140" s="37"/>
-      <c r="C140" s="37"/>
-      <c r="D140" s="37"/>
-      <c r="E140" s="37"/>
+      <c r="B140" s="42"/>
+      <c r="C140" s="42"/>
+      <c r="D140" s="42"/>
+      <c r="E140" s="42"/>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="4" t="s">
@@ -3678,13 +3692,13 @@
       </c>
     </row>
     <row r="155" spans="1:5" ht="18.75">
-      <c r="A155" s="37" t="s">
+      <c r="A155" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B155" s="37"/>
-      <c r="C155" s="37"/>
-      <c r="D155" s="37"/>
-      <c r="E155" s="37"/>
+      <c r="B155" s="42"/>
+      <c r="C155" s="42"/>
+      <c r="D155" s="42"/>
+      <c r="E155" s="42"/>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="4" t="s">
@@ -3833,13 +3847,13 @@
       </c>
     </row>
     <row r="170" spans="1:5" ht="18.75">
-      <c r="A170" s="37" t="s">
+      <c r="A170" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="B170" s="37"/>
-      <c r="C170" s="37"/>
-      <c r="D170" s="37"/>
-      <c r="E170" s="37"/>
+      <c r="B170" s="42"/>
+      <c r="C170" s="42"/>
+      <c r="D170" s="42"/>
+      <c r="E170" s="42"/>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="4" t="s">
@@ -3988,13 +4002,13 @@
       </c>
     </row>
     <row r="185" spans="1:5" ht="18.75">
-      <c r="A185" s="37" t="s">
+      <c r="A185" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="B185" s="37"/>
-      <c r="C185" s="37"/>
-      <c r="D185" s="37"/>
-      <c r="E185" s="37"/>
+      <c r="B185" s="42"/>
+      <c r="C185" s="42"/>
+      <c r="D185" s="42"/>
+      <c r="E185" s="42"/>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="4" t="s">
@@ -4143,13 +4157,13 @@
       </c>
     </row>
     <row r="200" spans="1:5" ht="18.75">
-      <c r="A200" s="37" t="s">
+      <c r="A200" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B200" s="37"/>
-      <c r="C200" s="37"/>
-      <c r="D200" s="37"/>
-      <c r="E200" s="37"/>
+      <c r="B200" s="42"/>
+      <c r="C200" s="42"/>
+      <c r="D200" s="42"/>
+      <c r="E200" s="42"/>
     </row>
     <row r="201" spans="1:5">
       <c r="A201" s="4" t="s">
@@ -4298,13 +4312,13 @@
       </c>
     </row>
     <row r="215" spans="1:5" ht="18.75">
-      <c r="A215" s="37" t="s">
+      <c r="A215" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B215" s="37"/>
-      <c r="C215" s="37"/>
-      <c r="D215" s="37"/>
-      <c r="E215" s="37"/>
+      <c r="B215" s="42"/>
+      <c r="C215" s="42"/>
+      <c r="D215" s="42"/>
+      <c r="E215" s="42"/>
     </row>
     <row r="216" spans="1:5">
       <c r="A216" s="4" t="s">
@@ -4453,13 +4467,13 @@
       </c>
     </row>
     <row r="230" spans="1:5" ht="18.75">
-      <c r="A230" s="37" t="s">
+      <c r="A230" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="B230" s="37"/>
-      <c r="C230" s="37"/>
-      <c r="D230" s="37"/>
-      <c r="E230" s="37"/>
+      <c r="B230" s="42"/>
+      <c r="C230" s="42"/>
+      <c r="D230" s="42"/>
+      <c r="E230" s="42"/>
     </row>
     <row r="231" spans="1:5">
       <c r="A231" s="4" t="s">
@@ -4554,13 +4568,13 @@
       </c>
     </row>
     <row r="240" spans="1:5" ht="18.75">
-      <c r="A240" s="37" t="s">
+      <c r="A240" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="B240" s="37"/>
-      <c r="C240" s="37"/>
-      <c r="D240" s="37"/>
-      <c r="E240" s="37"/>
+      <c r="B240" s="42"/>
+      <c r="C240" s="42"/>
+      <c r="D240" s="42"/>
+      <c r="E240" s="42"/>
     </row>
     <row r="241" spans="1:5">
       <c r="A241" s="4" t="s">
@@ -4654,13 +4668,13 @@
       </c>
     </row>
     <row r="250" spans="1:5" ht="18.75">
-      <c r="A250" s="37" t="s">
+      <c r="A250" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="B250" s="37"/>
-      <c r="C250" s="37"/>
-      <c r="D250" s="37"/>
-      <c r="E250" s="37"/>
+      <c r="B250" s="42"/>
+      <c r="C250" s="42"/>
+      <c r="D250" s="42"/>
+      <c r="E250" s="42"/>
     </row>
     <row r="251" spans="1:5">
       <c r="A251" s="4" t="s">
@@ -4754,13 +4768,13 @@
       </c>
     </row>
     <row r="260" spans="1:5" ht="18.75">
-      <c r="A260" s="37" t="s">
+      <c r="A260" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="B260" s="37"/>
-      <c r="C260" s="37"/>
-      <c r="D260" s="37"/>
-      <c r="E260" s="37"/>
+      <c r="B260" s="42"/>
+      <c r="C260" s="42"/>
+      <c r="D260" s="42"/>
+      <c r="E260" s="42"/>
     </row>
     <row r="261" spans="1:5">
       <c r="A261" s="4" t="s">
@@ -4856,13 +4870,13 @@
       </c>
     </row>
     <row r="270" spans="1:5" ht="18.75">
-      <c r="A270" s="37" t="s">
+      <c r="A270" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="B270" s="37"/>
-      <c r="C270" s="37"/>
-      <c r="D270" s="37"/>
-      <c r="E270" s="37"/>
+      <c r="B270" s="42"/>
+      <c r="C270" s="42"/>
+      <c r="D270" s="42"/>
+      <c r="E270" s="42"/>
     </row>
     <row r="271" spans="1:5">
       <c r="A271" s="4" t="s">
@@ -4978,13 +4992,13 @@
       </c>
     </row>
     <row r="282" spans="1:5" ht="18.75">
-      <c r="A282" s="37" t="s">
+      <c r="A282" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="B282" s="37"/>
-      <c r="C282" s="37"/>
-      <c r="D282" s="37"/>
-      <c r="E282" s="37"/>
+      <c r="B282" s="42"/>
+      <c r="C282" s="42"/>
+      <c r="D282" s="42"/>
+      <c r="E282" s="42"/>
     </row>
     <row r="283" spans="1:5">
       <c r="A283" s="4" t="s">
@@ -5100,13 +5114,13 @@
       </c>
     </row>
     <row r="294" spans="1:5" ht="18.75">
-      <c r="A294" s="37" t="s">
+      <c r="A294" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="B294" s="37"/>
-      <c r="C294" s="37"/>
-      <c r="D294" s="37"/>
-      <c r="E294" s="37"/>
+      <c r="B294" s="42"/>
+      <c r="C294" s="42"/>
+      <c r="D294" s="42"/>
+      <c r="E294" s="42"/>
     </row>
     <row r="295" spans="1:5">
       <c r="A295" s="4" t="s">
@@ -5222,13 +5236,13 @@
       </c>
     </row>
     <row r="306" spans="1:5" ht="18.75">
-      <c r="A306" s="37" t="s">
+      <c r="A306" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="B306" s="37"/>
-      <c r="C306" s="37"/>
-      <c r="D306" s="37"/>
-      <c r="E306" s="37"/>
+      <c r="B306" s="42"/>
+      <c r="C306" s="42"/>
+      <c r="D306" s="42"/>
+      <c r="E306" s="42"/>
     </row>
     <row r="307" spans="1:5">
       <c r="A307" s="4" t="s">
@@ -5346,13 +5360,13 @@
       </c>
     </row>
     <row r="318" spans="1:5" ht="18.75">
-      <c r="A318" s="37" t="s">
+      <c r="A318" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="B318" s="37"/>
-      <c r="C318" s="37"/>
-      <c r="D318" s="37"/>
-      <c r="E318" s="37"/>
+      <c r="B318" s="42"/>
+      <c r="C318" s="42"/>
+      <c r="D318" s="42"/>
+      <c r="E318" s="42"/>
     </row>
     <row r="319" spans="1:5">
       <c r="A319" s="4" t="s">
@@ -5468,13 +5482,13 @@
       </c>
     </row>
     <row r="330" spans="1:5" ht="18.75">
-      <c r="A330" s="37" t="s">
+      <c r="A330" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="B330" s="37"/>
-      <c r="C330" s="37"/>
-      <c r="D330" s="37"/>
-      <c r="E330" s="37"/>
+      <c r="B330" s="42"/>
+      <c r="C330" s="42"/>
+      <c r="D330" s="42"/>
+      <c r="E330" s="42"/>
     </row>
     <row r="331" spans="1:5">
       <c r="A331" s="4" t="s">
@@ -5601,13 +5615,13 @@
       </c>
     </row>
     <row r="343" spans="1:5" ht="18.75">
-      <c r="A343" s="37" t="s">
+      <c r="A343" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="B343" s="37"/>
-      <c r="C343" s="37"/>
-      <c r="D343" s="37"/>
-      <c r="E343" s="37"/>
+      <c r="B343" s="42"/>
+      <c r="C343" s="42"/>
+      <c r="D343" s="42"/>
+      <c r="E343" s="42"/>
     </row>
     <row r="344" spans="1:5">
       <c r="A344" s="4" t="s">
@@ -5701,13 +5715,13 @@
       </c>
     </row>
     <row r="353" spans="1:5" ht="18.75">
-      <c r="A353" s="37" t="s">
+      <c r="A353" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="B353" s="37"/>
-      <c r="C353" s="37"/>
-      <c r="D353" s="37"/>
-      <c r="E353" s="37"/>
+      <c r="B353" s="42"/>
+      <c r="C353" s="42"/>
+      <c r="D353" s="42"/>
+      <c r="E353" s="42"/>
     </row>
     <row r="354" spans="1:5">
       <c r="A354" s="4" t="s">
@@ -5834,13 +5848,13 @@
       </c>
     </row>
     <row r="366" spans="1:5" ht="18.75">
-      <c r="A366" s="37" t="s">
+      <c r="A366" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="B366" s="37"/>
-      <c r="C366" s="37"/>
-      <c r="D366" s="37"/>
-      <c r="E366" s="37"/>
+      <c r="B366" s="42"/>
+      <c r="C366" s="42"/>
+      <c r="D366" s="42"/>
+      <c r="E366" s="42"/>
     </row>
     <row r="367" spans="1:5">
       <c r="A367" s="4" t="s">
@@ -5925,13 +5939,13 @@
       </c>
     </row>
     <row r="375" spans="1:5" ht="18.75">
-      <c r="A375" s="37" t="s">
+      <c r="A375" s="42" t="s">
         <v>130</v>
       </c>
-      <c r="B375" s="37"/>
-      <c r="C375" s="37"/>
-      <c r="D375" s="37"/>
-      <c r="E375" s="37"/>
+      <c r="B375" s="42"/>
+      <c r="C375" s="42"/>
+      <c r="D375" s="42"/>
+      <c r="E375" s="42"/>
     </row>
     <row r="376" spans="1:5">
       <c r="A376" s="4" t="s">
@@ -6003,13 +6017,13 @@
       </c>
     </row>
     <row r="383" spans="1:5" ht="18.75">
-      <c r="A383" s="37" t="s">
+      <c r="A383" s="42" t="s">
         <v>136</v>
       </c>
-      <c r="B383" s="37"/>
-      <c r="C383" s="37"/>
-      <c r="D383" s="37"/>
-      <c r="E383" s="37"/>
+      <c r="B383" s="42"/>
+      <c r="C383" s="42"/>
+      <c r="D383" s="42"/>
+      <c r="E383" s="42"/>
     </row>
     <row r="384" spans="1:5">
       <c r="A384" s="4" t="s">
@@ -6094,13 +6108,13 @@
       </c>
     </row>
     <row r="392" spans="1:5" ht="18.75">
-      <c r="A392" s="37" t="s">
+      <c r="A392" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="B392" s="37"/>
-      <c r="C392" s="37"/>
-      <c r="D392" s="37"/>
-      <c r="E392" s="37"/>
+      <c r="B392" s="42"/>
+      <c r="C392" s="42"/>
+      <c r="D392" s="42"/>
+      <c r="E392" s="42"/>
     </row>
     <row r="393" spans="1:5">
       <c r="A393" s="4" t="s">
@@ -6183,13 +6197,13 @@
       </c>
     </row>
     <row r="401" spans="1:5" ht="18.75">
-      <c r="A401" s="37" t="s">
+      <c r="A401" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="B401" s="37"/>
-      <c r="C401" s="37"/>
-      <c r="D401" s="37"/>
-      <c r="E401" s="37"/>
+      <c r="B401" s="42"/>
+      <c r="C401" s="42"/>
+      <c r="D401" s="42"/>
+      <c r="E401" s="42"/>
     </row>
     <row r="402" spans="1:5">
       <c r="A402" s="4" t="s">
@@ -6250,13 +6264,13 @@
       </c>
     </row>
     <row r="408" spans="1:5" ht="18.75">
-      <c r="A408" s="37" t="s">
+      <c r="A408" s="42" t="s">
         <v>140</v>
       </c>
-      <c r="B408" s="37"/>
-      <c r="C408" s="37"/>
-      <c r="D408" s="37"/>
-      <c r="E408" s="37"/>
+      <c r="B408" s="42"/>
+      <c r="C408" s="42"/>
+      <c r="D408" s="42"/>
+      <c r="E408" s="42"/>
     </row>
     <row r="409" spans="1:5">
       <c r="A409" s="4" t="s">
@@ -6317,13 +6331,13 @@
       </c>
     </row>
     <row r="415" spans="1:5" ht="18.75">
-      <c r="A415" s="37" t="s">
+      <c r="A415" s="42" t="s">
         <v>141</v>
       </c>
-      <c r="B415" s="37"/>
-      <c r="C415" s="37"/>
-      <c r="D415" s="37"/>
-      <c r="E415" s="37"/>
+      <c r="B415" s="42"/>
+      <c r="C415" s="42"/>
+      <c r="D415" s="42"/>
+      <c r="E415" s="42"/>
     </row>
     <row r="416" spans="1:5">
       <c r="A416" s="4" t="s">
@@ -6406,13 +6420,13 @@
       </c>
     </row>
     <row r="424" spans="1:5" ht="18.75">
-      <c r="A424" s="37" t="s">
+      <c r="A424" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="B424" s="37"/>
-      <c r="C424" s="37"/>
-      <c r="D424" s="37"/>
-      <c r="E424" s="37"/>
+      <c r="B424" s="42"/>
+      <c r="C424" s="42"/>
+      <c r="D424" s="42"/>
+      <c r="E424" s="42"/>
     </row>
     <row r="425" spans="1:5">
       <c r="A425" s="4" t="s">
@@ -6495,13 +6509,13 @@
       </c>
     </row>
     <row r="433" spans="1:5" ht="18.75">
-      <c r="A433" s="37" t="s">
+      <c r="A433" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="B433" s="37"/>
-      <c r="C433" s="37"/>
-      <c r="D433" s="37"/>
-      <c r="E433" s="37"/>
+      <c r="B433" s="42"/>
+      <c r="C433" s="42"/>
+      <c r="D433" s="42"/>
+      <c r="E433" s="42"/>
     </row>
     <row r="434" spans="1:5">
       <c r="A434" s="4" t="s">
@@ -6573,13 +6587,13 @@
       </c>
     </row>
     <row r="441" spans="1:5" ht="18.75">
-      <c r="A441" s="37" t="s">
+      <c r="A441" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="B441" s="37"/>
-      <c r="C441" s="37"/>
-      <c r="D441" s="37"/>
-      <c r="E441" s="37"/>
+      <c r="B441" s="42"/>
+      <c r="C441" s="42"/>
+      <c r="D441" s="42"/>
+      <c r="E441" s="42"/>
     </row>
     <row r="442" spans="1:5">
       <c r="A442" s="4" t="s">
@@ -6730,13 +6744,13 @@
       </c>
     </row>
     <row r="456" spans="1:5" ht="18.75">
-      <c r="A456" s="37" t="s">
+      <c r="A456" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="B456" s="37"/>
-      <c r="C456" s="37"/>
-      <c r="D456" s="37"/>
-      <c r="E456" s="37"/>
+      <c r="B456" s="42"/>
+      <c r="C456" s="42"/>
+      <c r="D456" s="42"/>
+      <c r="E456" s="42"/>
     </row>
     <row r="457" spans="1:5">
       <c r="A457" s="4" t="s">
@@ -6795,13 +6809,13 @@
       </c>
     </row>
     <row r="463" spans="1:5" ht="18.75">
-      <c r="A463" s="37" t="s">
+      <c r="A463" s="42" t="s">
         <v>160</v>
       </c>
-      <c r="B463" s="37"/>
-      <c r="C463" s="37"/>
-      <c r="D463" s="37"/>
-      <c r="E463" s="37"/>
+      <c r="B463" s="42"/>
+      <c r="C463" s="42"/>
+      <c r="D463" s="42"/>
+      <c r="E463" s="42"/>
     </row>
     <row r="464" spans="1:5">
       <c r="A464" s="4" t="s">
@@ -6895,13 +6909,13 @@
       </c>
     </row>
     <row r="473" spans="1:5" ht="18.75">
-      <c r="A473" s="37" t="s">
+      <c r="A473" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="B473" s="37"/>
-      <c r="C473" s="37"/>
-      <c r="D473" s="37"/>
-      <c r="E473" s="37"/>
+      <c r="B473" s="42"/>
+      <c r="C473" s="42"/>
+      <c r="D473" s="42"/>
+      <c r="E473" s="42"/>
     </row>
     <row r="474" spans="1:5">
       <c r="A474" s="4" t="s">
@@ -7059,13 +7073,13 @@
       </c>
     </row>
     <row r="489" spans="1:5" ht="18.75">
-      <c r="A489" s="37" t="s">
+      <c r="A489" s="42" t="s">
         <v>171</v>
       </c>
-      <c r="B489" s="37"/>
-      <c r="C489" s="37"/>
-      <c r="D489" s="37"/>
-      <c r="E489" s="37"/>
+      <c r="B489" s="42"/>
+      <c r="C489" s="42"/>
+      <c r="D489" s="42"/>
+      <c r="E489" s="42"/>
     </row>
     <row r="490" spans="1:5">
       <c r="A490" s="4" t="s">
@@ -7212,13 +7226,13 @@
       </c>
     </row>
     <row r="504" spans="1:5" ht="18.75">
-      <c r="A504" s="37" t="s">
+      <c r="A504" s="42" t="s">
         <v>172</v>
       </c>
-      <c r="B504" s="37"/>
-      <c r="C504" s="37"/>
-      <c r="D504" s="37"/>
-      <c r="E504" s="37"/>
+      <c r="B504" s="42"/>
+      <c r="C504" s="42"/>
+      <c r="D504" s="42"/>
+      <c r="E504" s="42"/>
     </row>
     <row r="505" spans="1:5">
       <c r="A505" s="4" t="s">
@@ -7365,13 +7379,13 @@
       </c>
     </row>
     <row r="519" spans="1:5" ht="18.75">
-      <c r="A519" s="37" t="s">
+      <c r="A519" s="42" t="s">
         <v>173</v>
       </c>
-      <c r="B519" s="37"/>
-      <c r="C519" s="37"/>
-      <c r="D519" s="37"/>
-      <c r="E519" s="37"/>
+      <c r="B519" s="42"/>
+      <c r="C519" s="42"/>
+      <c r="D519" s="42"/>
+      <c r="E519" s="42"/>
     </row>
     <row r="520" spans="1:5">
       <c r="A520" s="4" t="s">
@@ -7520,13 +7534,13 @@
       </c>
     </row>
     <row r="534" spans="1:5" ht="18.75">
-      <c r="A534" s="37" t="s">
+      <c r="A534" s="42" t="s">
         <v>175</v>
       </c>
-      <c r="B534" s="37"/>
-      <c r="C534" s="37"/>
-      <c r="D534" s="37"/>
-      <c r="E534" s="37"/>
+      <c r="B534" s="42"/>
+      <c r="C534" s="42"/>
+      <c r="D534" s="42"/>
+      <c r="E534" s="42"/>
     </row>
     <row r="535" spans="1:5">
       <c r="A535" s="4" t="s">
@@ -7673,13 +7687,13 @@
       </c>
     </row>
     <row r="549" spans="1:5" ht="18.75">
-      <c r="A549" s="37" t="s">
+      <c r="A549" s="42" t="s">
         <v>176</v>
       </c>
-      <c r="B549" s="37"/>
-      <c r="C549" s="37"/>
-      <c r="D549" s="37"/>
-      <c r="E549" s="37"/>
+      <c r="B549" s="42"/>
+      <c r="C549" s="42"/>
+      <c r="D549" s="42"/>
+      <c r="E549" s="42"/>
     </row>
     <row r="550" spans="1:5">
       <c r="A550" s="4" t="s">
@@ -7859,13 +7873,13 @@
       </c>
     </row>
     <row r="567" spans="1:5" ht="18.75">
-      <c r="A567" s="37" t="s">
+      <c r="A567" s="42" t="s">
         <v>180</v>
       </c>
-      <c r="B567" s="37"/>
-      <c r="C567" s="37"/>
-      <c r="D567" s="37"/>
-      <c r="E567" s="37"/>
+      <c r="B567" s="42"/>
+      <c r="C567" s="42"/>
+      <c r="D567" s="42"/>
+      <c r="E567" s="42"/>
     </row>
     <row r="568" spans="1:5">
       <c r="A568" s="4" t="s">
@@ -7946,13 +7960,13 @@
       </c>
     </row>
     <row r="576" spans="1:5" ht="18.75">
-      <c r="A576" s="37" t="s">
+      <c r="A576" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="B576" s="37"/>
-      <c r="C576" s="37"/>
-      <c r="D576" s="37"/>
-      <c r="E576" s="37"/>
+      <c r="B576" s="42"/>
+      <c r="C576" s="42"/>
+      <c r="D576" s="42"/>
+      <c r="E576" s="42"/>
     </row>
     <row r="577" spans="1:5">
       <c r="A577" s="4" t="s">
@@ -8101,13 +8115,13 @@
       </c>
     </row>
     <row r="591" spans="1:5" ht="18.75">
-      <c r="A591" s="37" t="s">
+      <c r="A591" s="42" t="s">
         <v>186</v>
       </c>
-      <c r="B591" s="37"/>
-      <c r="C591" s="37"/>
-      <c r="D591" s="37"/>
-      <c r="E591" s="37"/>
+      <c r="B591" s="42"/>
+      <c r="C591" s="42"/>
+      <c r="D591" s="42"/>
+      <c r="E591" s="42"/>
     </row>
     <row r="592" spans="1:5">
       <c r="A592" s="4" t="s">
@@ -8254,13 +8268,13 @@
       </c>
     </row>
     <row r="606" spans="1:5" ht="18.75">
-      <c r="A606" s="37" t="s">
+      <c r="A606" s="42" t="s">
         <v>187</v>
       </c>
-      <c r="B606" s="37"/>
-      <c r="C606" s="37"/>
-      <c r="D606" s="37"/>
-      <c r="E606" s="37"/>
+      <c r="B606" s="42"/>
+      <c r="C606" s="42"/>
+      <c r="D606" s="42"/>
+      <c r="E606" s="42"/>
     </row>
     <row r="607" spans="1:5">
       <c r="A607" s="4" t="s">
@@ -8440,13 +8454,13 @@
       </c>
     </row>
     <row r="624" spans="1:5" ht="18.75">
-      <c r="A624" s="37" t="s">
+      <c r="A624" s="42" t="s">
         <v>191</v>
       </c>
-      <c r="B624" s="37"/>
-      <c r="C624" s="37"/>
-      <c r="D624" s="37"/>
-      <c r="E624" s="37"/>
+      <c r="B624" s="42"/>
+      <c r="C624" s="42"/>
+      <c r="D624" s="42"/>
+      <c r="E624" s="42"/>
     </row>
     <row r="625" spans="1:5">
       <c r="A625" s="4" t="s">
@@ -8538,13 +8552,13 @@
       </c>
     </row>
     <row r="634" spans="1:5" ht="18.75">
-      <c r="A634" s="37" t="s">
+      <c r="A634" s="42" t="s">
         <v>194</v>
       </c>
-      <c r="B634" s="37"/>
-      <c r="C634" s="37"/>
-      <c r="D634" s="37"/>
-      <c r="E634" s="37"/>
+      <c r="B634" s="42"/>
+      <c r="C634" s="42"/>
+      <c r="D634" s="42"/>
+      <c r="E634" s="42"/>
     </row>
     <row r="635" spans="1:5">
       <c r="A635" s="4" t="s">
@@ -8693,13 +8707,13 @@
       </c>
     </row>
     <row r="649" spans="1:5" ht="18.75">
-      <c r="A649" s="37" t="s">
+      <c r="A649" s="42" t="s">
         <v>195</v>
       </c>
-      <c r="B649" s="37"/>
-      <c r="C649" s="37"/>
-      <c r="D649" s="37"/>
-      <c r="E649" s="37"/>
+      <c r="B649" s="42"/>
+      <c r="C649" s="42"/>
+      <c r="D649" s="42"/>
+      <c r="E649" s="42"/>
     </row>
     <row r="650" spans="1:5">
       <c r="A650" s="4" t="s">
@@ -8846,13 +8860,13 @@
       </c>
     </row>
     <row r="664" spans="1:5" ht="18.75">
-      <c r="A664" s="37" t="s">
+      <c r="A664" s="42" t="s">
         <v>196</v>
       </c>
-      <c r="B664" s="37"/>
-      <c r="C664" s="37"/>
-      <c r="D664" s="37"/>
-      <c r="E664" s="37"/>
+      <c r="B664" s="42"/>
+      <c r="C664" s="42"/>
+      <c r="D664" s="42"/>
+      <c r="E664" s="42"/>
     </row>
     <row r="665" spans="1:5">
       <c r="A665" s="4" t="s">
@@ -8999,13 +9013,13 @@
       </c>
     </row>
     <row r="679" spans="1:5" ht="18.75">
-      <c r="A679" s="37" t="s">
+      <c r="A679" s="42" t="s">
         <v>197</v>
       </c>
-      <c r="B679" s="37"/>
-      <c r="C679" s="37"/>
-      <c r="D679" s="37"/>
-      <c r="E679" s="37"/>
+      <c r="B679" s="42"/>
+      <c r="C679" s="42"/>
+      <c r="D679" s="42"/>
+      <c r="E679" s="42"/>
     </row>
     <row r="680" spans="1:5">
       <c r="A680" s="4" t="s">
@@ -9152,13 +9166,13 @@
       </c>
     </row>
     <row r="694" spans="1:5" ht="18.75">
-      <c r="A694" s="37" t="s">
+      <c r="A694" s="42" t="s">
         <v>198</v>
       </c>
-      <c r="B694" s="37"/>
-      <c r="C694" s="37"/>
-      <c r="D694" s="37"/>
-      <c r="E694" s="37"/>
+      <c r="B694" s="42"/>
+      <c r="C694" s="42"/>
+      <c r="D694" s="42"/>
+      <c r="E694" s="42"/>
     </row>
     <row r="695" spans="1:5">
       <c r="A695" s="4" t="s">
@@ -9307,13 +9321,13 @@
       </c>
     </row>
     <row r="709" spans="1:5" ht="18.75">
-      <c r="A709" s="37" t="s">
+      <c r="A709" s="42" t="s">
         <v>199</v>
       </c>
-      <c r="B709" s="37"/>
-      <c r="C709" s="37"/>
-      <c r="D709" s="37"/>
-      <c r="E709" s="37"/>
+      <c r="B709" s="42"/>
+      <c r="C709" s="42"/>
+      <c r="D709" s="42"/>
+      <c r="E709" s="42"/>
     </row>
     <row r="710" spans="1:5">
       <c r="A710" s="4" t="s">
@@ -9460,13 +9474,13 @@
       </c>
     </row>
     <row r="724" spans="1:5" ht="18.75">
-      <c r="A724" s="37" t="s">
+      <c r="A724" s="42" t="s">
         <v>201</v>
       </c>
-      <c r="B724" s="37"/>
-      <c r="C724" s="37"/>
-      <c r="D724" s="37"/>
-      <c r="E724" s="37"/>
+      <c r="B724" s="42"/>
+      <c r="C724" s="42"/>
+      <c r="D724" s="42"/>
+      <c r="E724" s="42"/>
     </row>
     <row r="725" spans="1:5">
       <c r="A725" s="4" t="s">
@@ -9624,13 +9638,13 @@
       </c>
     </row>
     <row r="740" spans="1:5" ht="18.75">
-      <c r="A740" s="37" t="s">
+      <c r="A740" s="42" t="s">
         <v>208</v>
       </c>
-      <c r="B740" s="37"/>
-      <c r="C740" s="37"/>
-      <c r="D740" s="37"/>
-      <c r="E740" s="37"/>
+      <c r="B740" s="42"/>
+      <c r="C740" s="42"/>
+      <c r="D740" s="42"/>
+      <c r="E740" s="42"/>
     </row>
     <row r="741" spans="1:5">
       <c r="A741" s="4" t="s">
@@ -9724,13 +9738,13 @@
       </c>
     </row>
     <row r="750" spans="1:5" ht="18.75">
-      <c r="A750" s="37" t="s">
+      <c r="A750" s="42" t="s">
         <v>209</v>
       </c>
-      <c r="B750" s="37"/>
-      <c r="C750" s="37"/>
-      <c r="D750" s="37"/>
-      <c r="E750" s="37"/>
+      <c r="B750" s="42"/>
+      <c r="C750" s="42"/>
+      <c r="D750" s="42"/>
+      <c r="E750" s="42"/>
     </row>
     <row r="751" spans="1:5">
       <c r="A751" s="4" t="s">
@@ -9800,13 +9814,13 @@
       </c>
     </row>
     <row r="758" spans="1:5" ht="18.75">
-      <c r="A758" s="37" t="s">
+      <c r="A758" s="42" t="s">
         <v>210</v>
       </c>
-      <c r="B758" s="37"/>
-      <c r="C758" s="37"/>
-      <c r="D758" s="37"/>
-      <c r="E758" s="37"/>
+      <c r="B758" s="42"/>
+      <c r="C758" s="42"/>
+      <c r="D758" s="42"/>
+      <c r="E758" s="42"/>
     </row>
     <row r="759" spans="1:5">
       <c r="A759" s="4" t="s">
@@ -9887,13 +9901,13 @@
       </c>
     </row>
     <row r="767" spans="1:5" ht="18.75">
-      <c r="A767" s="37" t="s">
+      <c r="A767" s="42" t="s">
         <v>212</v>
       </c>
-      <c r="B767" s="37"/>
-      <c r="C767" s="37"/>
-      <c r="D767" s="37"/>
-      <c r="E767" s="37"/>
+      <c r="B767" s="42"/>
+      <c r="C767" s="42"/>
+      <c r="D767" s="42"/>
+      <c r="E767" s="42"/>
     </row>
     <row r="768" spans="1:5">
       <c r="A768" s="4" t="s">
@@ -9976,13 +9990,13 @@
       </c>
     </row>
     <row r="776" spans="1:5" ht="18.75">
-      <c r="A776" s="37" t="s">
+      <c r="A776" s="42" t="s">
         <v>213</v>
       </c>
-      <c r="B776" s="37"/>
-      <c r="C776" s="37"/>
-      <c r="D776" s="37"/>
-      <c r="E776" s="37"/>
+      <c r="B776" s="42"/>
+      <c r="C776" s="42"/>
+      <c r="D776" s="42"/>
+      <c r="E776" s="42"/>
     </row>
     <row r="777" spans="1:5">
       <c r="A777" s="4" t="s">
@@ -10063,13 +10077,13 @@
       </c>
     </row>
     <row r="785" spans="1:5" ht="18.75">
-      <c r="A785" s="37" t="s">
+      <c r="A785" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="B785" s="37"/>
-      <c r="C785" s="37"/>
-      <c r="D785" s="37"/>
-      <c r="E785" s="37"/>
+      <c r="B785" s="42"/>
+      <c r="C785" s="42"/>
+      <c r="D785" s="42"/>
+      <c r="E785" s="42"/>
     </row>
     <row r="786" spans="1:5">
       <c r="A786" s="4" t="s">
@@ -10150,13 +10164,13 @@
       </c>
     </row>
     <row r="794" spans="1:5" ht="18.75">
-      <c r="A794" s="37" t="s">
+      <c r="A794" s="42" t="s">
         <v>215</v>
       </c>
-      <c r="B794" s="37"/>
-      <c r="C794" s="37"/>
-      <c r="D794" s="37"/>
-      <c r="E794" s="37"/>
+      <c r="B794" s="42"/>
+      <c r="C794" s="42"/>
+      <c r="D794" s="42"/>
+      <c r="E794" s="42"/>
     </row>
     <row r="795" spans="1:5">
       <c r="A795" s="4" t="s">
@@ -10237,13 +10251,13 @@
       </c>
     </row>
     <row r="803" spans="1:5" ht="18.75">
-      <c r="A803" s="37" t="s">
+      <c r="A803" s="42" t="s">
         <v>216</v>
       </c>
-      <c r="B803" s="37"/>
-      <c r="C803" s="37"/>
-      <c r="D803" s="37"/>
-      <c r="E803" s="37"/>
+      <c r="B803" s="42"/>
+      <c r="C803" s="42"/>
+      <c r="D803" s="42"/>
+      <c r="E803" s="42"/>
     </row>
     <row r="804" spans="1:5">
       <c r="A804" s="4" t="s">
@@ -10326,13 +10340,13 @@
       </c>
     </row>
     <row r="812" spans="1:5" ht="18.75">
-      <c r="A812" s="37" t="s">
+      <c r="A812" s="42" t="s">
         <v>217</v>
       </c>
-      <c r="B812" s="37"/>
-      <c r="C812" s="37"/>
-      <c r="D812" s="37"/>
-      <c r="E812" s="37"/>
+      <c r="B812" s="42"/>
+      <c r="C812" s="42"/>
+      <c r="D812" s="42"/>
+      <c r="E812" s="42"/>
     </row>
     <row r="813" spans="1:5">
       <c r="A813" s="4" t="s">
@@ -10413,13 +10427,13 @@
       </c>
     </row>
     <row r="821" spans="1:5" ht="18.75">
-      <c r="A821" s="37" t="s">
+      <c r="A821" s="42" t="s">
         <v>218</v>
       </c>
-      <c r="B821" s="37"/>
-      <c r="C821" s="37"/>
-      <c r="D821" s="37"/>
-      <c r="E821" s="37"/>
+      <c r="B821" s="42"/>
+      <c r="C821" s="42"/>
+      <c r="D821" s="42"/>
+      <c r="E821" s="42"/>
     </row>
     <row r="822" spans="1:5">
       <c r="A822" s="4" t="s">
@@ -10511,13 +10525,13 @@
       </c>
     </row>
     <row r="831" spans="1:5" ht="18.75">
-      <c r="A831" s="37" t="s">
+      <c r="A831" s="42" t="s">
         <v>223</v>
       </c>
-      <c r="B831" s="37"/>
-      <c r="C831" s="37"/>
-      <c r="D831" s="37"/>
-      <c r="E831" s="37"/>
+      <c r="B831" s="42"/>
+      <c r="C831" s="42"/>
+      <c r="D831" s="42"/>
+      <c r="E831" s="42"/>
     </row>
     <row r="832" spans="1:5">
       <c r="A832" s="4" t="s">
@@ -10611,13 +10625,13 @@
       </c>
     </row>
     <row r="841" spans="1:5" ht="18.75">
-      <c r="A841" s="37" t="s">
+      <c r="A841" s="42" t="s">
         <v>227</v>
       </c>
-      <c r="B841" s="37"/>
-      <c r="C841" s="37"/>
-      <c r="D841" s="37"/>
-      <c r="E841" s="37"/>
+      <c r="B841" s="42"/>
+      <c r="C841" s="42"/>
+      <c r="D841" s="42"/>
+      <c r="E841" s="42"/>
     </row>
     <row r="842" spans="1:5">
       <c r="A842" s="4" t="s">
@@ -10698,13 +10712,13 @@
       </c>
     </row>
     <row r="850" spans="1:5" ht="18.75">
-      <c r="A850" s="37" t="s">
+      <c r="A850" s="42" t="s">
         <v>230</v>
       </c>
-      <c r="B850" s="37"/>
-      <c r="C850" s="37"/>
-      <c r="D850" s="37"/>
-      <c r="E850" s="37"/>
+      <c r="B850" s="42"/>
+      <c r="C850" s="42"/>
+      <c r="D850" s="42"/>
+      <c r="E850" s="42"/>
     </row>
     <row r="851" spans="1:5">
       <c r="A851" s="4" t="s">
@@ -10785,13 +10799,13 @@
       </c>
     </row>
     <row r="859" spans="1:5" ht="18.75">
-      <c r="A859" s="37" t="s">
+      <c r="A859" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="B859" s="37"/>
-      <c r="C859" s="37"/>
-      <c r="D859" s="37"/>
-      <c r="E859" s="37"/>
+      <c r="B859" s="42"/>
+      <c r="C859" s="42"/>
+      <c r="D859" s="42"/>
+      <c r="E859" s="42"/>
     </row>
     <row r="860" spans="1:5">
       <c r="A860" s="4" t="s">
@@ -10872,13 +10886,13 @@
       </c>
     </row>
     <row r="868" spans="1:6" ht="18.75">
-      <c r="A868" s="37" t="s">
+      <c r="A868" s="42" t="s">
         <v>236</v>
       </c>
-      <c r="B868" s="37"/>
-      <c r="C868" s="37"/>
-      <c r="D868" s="37"/>
-      <c r="E868" s="37"/>
+      <c r="B868" s="42"/>
+      <c r="C868" s="42"/>
+      <c r="D868" s="42"/>
+      <c r="E868" s="42"/>
     </row>
     <row r="869" spans="1:6">
       <c r="A869" s="4" t="s">
@@ -10966,13 +10980,13 @@
       </c>
     </row>
     <row r="877" spans="1:6" ht="18.75">
-      <c r="A877" s="37" t="s">
+      <c r="A877" s="42" t="s">
         <v>240</v>
       </c>
-      <c r="B877" s="37"/>
-      <c r="C877" s="37"/>
-      <c r="D877" s="37"/>
-      <c r="E877" s="37"/>
+      <c r="B877" s="42"/>
+      <c r="C877" s="42"/>
+      <c r="D877" s="42"/>
+      <c r="E877" s="42"/>
     </row>
     <row r="878" spans="1:6">
       <c r="A878" s="4" t="s">
@@ -11069,13 +11083,13 @@
       </c>
     </row>
     <row r="887" spans="1:6" ht="18.75">
-      <c r="A887" s="37" t="s">
+      <c r="A887" s="42" t="s">
         <v>244</v>
       </c>
-      <c r="B887" s="37"/>
-      <c r="C887" s="37"/>
-      <c r="D887" s="37"/>
-      <c r="E887" s="37"/>
+      <c r="B887" s="42"/>
+      <c r="C887" s="42"/>
+      <c r="D887" s="42"/>
+      <c r="E887" s="42"/>
     </row>
     <row r="888" spans="1:6">
       <c r="A888" s="4" t="s">
@@ -11139,13 +11153,13 @@
       </c>
     </row>
     <row r="894" spans="1:6" ht="18.75">
-      <c r="A894" s="37" t="s">
+      <c r="A894" s="42" t="s">
         <v>245</v>
       </c>
-      <c r="B894" s="37"/>
-      <c r="C894" s="37"/>
-      <c r="D894" s="37"/>
-      <c r="E894" s="37"/>
+      <c r="B894" s="42"/>
+      <c r="C894" s="42"/>
+      <c r="D894" s="42"/>
+      <c r="E894" s="42"/>
     </row>
     <row r="895" spans="1:6">
       <c r="A895" s="4" t="s">
@@ -11231,13 +11245,13 @@
       </c>
     </row>
     <row r="903" spans="1:6" ht="18.75">
-      <c r="A903" s="37" t="s">
+      <c r="A903" s="42" t="s">
         <v>247</v>
       </c>
-      <c r="B903" s="37"/>
-      <c r="C903" s="37"/>
-      <c r="D903" s="37"/>
-      <c r="E903" s="37"/>
+      <c r="B903" s="42"/>
+      <c r="C903" s="42"/>
+      <c r="D903" s="42"/>
+      <c r="E903" s="42"/>
     </row>
     <row r="904" spans="1:6">
       <c r="A904" s="4" t="s">
@@ -11323,13 +11337,13 @@
       </c>
     </row>
     <row r="912" spans="1:6" ht="18.75">
-      <c r="A912" s="37" t="s">
+      <c r="A912" s="42" t="s">
         <v>248</v>
       </c>
-      <c r="B912" s="37"/>
-      <c r="C912" s="37"/>
-      <c r="D912" s="37"/>
-      <c r="E912" s="37"/>
+      <c r="B912" s="42"/>
+      <c r="C912" s="42"/>
+      <c r="D912" s="42"/>
+      <c r="E912" s="42"/>
     </row>
     <row r="913" spans="1:6">
       <c r="A913" s="4" t="s">
@@ -11417,13 +11431,13 @@
       </c>
     </row>
     <row r="921" spans="1:6" ht="18.75">
-      <c r="A921" s="37" t="s">
+      <c r="A921" s="42" t="s">
         <v>249</v>
       </c>
-      <c r="B921" s="37"/>
-      <c r="C921" s="37"/>
-      <c r="D921" s="37"/>
-      <c r="E921" s="37"/>
+      <c r="B921" s="42"/>
+      <c r="C921" s="42"/>
+      <c r="D921" s="42"/>
+      <c r="E921" s="42"/>
     </row>
     <row r="922" spans="1:6">
       <c r="A922" s="4" t="s">
@@ -11522,13 +11536,13 @@
       </c>
     </row>
     <row r="931" spans="1:6" ht="18.75">
-      <c r="A931" s="37" t="s">
+      <c r="A931" s="42" t="s">
         <v>251</v>
       </c>
-      <c r="B931" s="37"/>
-      <c r="C931" s="37"/>
-      <c r="D931" s="37"/>
-      <c r="E931" s="37"/>
+      <c r="B931" s="42"/>
+      <c r="C931" s="42"/>
+      <c r="D931" s="42"/>
+      <c r="E931" s="42"/>
     </row>
     <row r="932" spans="1:6">
       <c r="A932" s="4" t="s">
@@ -11638,13 +11652,13 @@
       </c>
     </row>
     <row r="942" spans="1:6" ht="18.75">
-      <c r="A942" s="37" t="s">
+      <c r="A942" s="42" t="s">
         <v>254</v>
       </c>
-      <c r="B942" s="37"/>
-      <c r="C942" s="37"/>
-      <c r="D942" s="37"/>
-      <c r="E942" s="37"/>
+      <c r="B942" s="42"/>
+      <c r="C942" s="42"/>
+      <c r="D942" s="42"/>
+      <c r="E942" s="42"/>
     </row>
     <row r="943" spans="1:6">
       <c r="A943" s="4" t="s">
@@ -11743,13 +11757,13 @@
       </c>
     </row>
     <row r="952" spans="1:6" ht="18.75">
-      <c r="A952" s="37" t="s">
+      <c r="A952" s="42" t="s">
         <v>257</v>
       </c>
-      <c r="B952" s="37"/>
-      <c r="C952" s="37"/>
-      <c r="D952" s="37"/>
-      <c r="E952" s="37"/>
+      <c r="B952" s="42"/>
+      <c r="C952" s="42"/>
+      <c r="D952" s="42"/>
+      <c r="E952" s="42"/>
     </row>
     <row r="953" spans="1:6">
       <c r="A953" s="4" t="s">
@@ -11868,13 +11882,13 @@
       </c>
     </row>
     <row r="964" spans="1:6" ht="18.75">
-      <c r="A964" s="37" t="s">
+      <c r="A964" s="42" t="s">
         <v>263</v>
       </c>
-      <c r="B964" s="37"/>
-      <c r="C964" s="37"/>
-      <c r="D964" s="37"/>
-      <c r="E964" s="37"/>
+      <c r="B964" s="42"/>
+      <c r="C964" s="42"/>
+      <c r="D964" s="42"/>
+      <c r="E964" s="42"/>
     </row>
     <row r="965" spans="1:6">
       <c r="A965" s="4" t="s">
@@ -11971,13 +11985,13 @@
       </c>
     </row>
     <row r="974" spans="1:6" ht="18.75">
-      <c r="A974" s="37" t="s">
+      <c r="A974" s="42" t="s">
         <v>266</v>
       </c>
-      <c r="B974" s="37"/>
-      <c r="C974" s="37"/>
-      <c r="D974" s="37"/>
-      <c r="E974" s="37"/>
+      <c r="B974" s="42"/>
+      <c r="C974" s="42"/>
+      <c r="D974" s="42"/>
+      <c r="E974" s="42"/>
     </row>
     <row r="975" spans="1:6">
       <c r="A975" s="4" t="s">
@@ -12063,13 +12077,13 @@
       </c>
     </row>
     <row r="983" spans="1:6" ht="18.75">
-      <c r="A983" s="37" t="s">
+      <c r="A983" s="42" t="s">
         <v>267</v>
       </c>
-      <c r="B983" s="37"/>
-      <c r="C983" s="37"/>
-      <c r="D983" s="37"/>
-      <c r="E983" s="37"/>
+      <c r="B983" s="42"/>
+      <c r="C983" s="42"/>
+      <c r="D983" s="42"/>
+      <c r="E983" s="42"/>
     </row>
     <row r="984" spans="1:6">
       <c r="A984" s="4" t="s">
@@ -12155,13 +12169,13 @@
       </c>
     </row>
     <row r="992" spans="1:6" ht="18.75">
-      <c r="A992" s="37" t="s">
+      <c r="A992" s="42" t="s">
         <v>268</v>
       </c>
-      <c r="B992" s="37"/>
-      <c r="C992" s="37"/>
-      <c r="D992" s="37"/>
-      <c r="E992" s="37"/>
+      <c r="B992" s="42"/>
+      <c r="C992" s="42"/>
+      <c r="D992" s="42"/>
+      <c r="E992" s="42"/>
     </row>
     <row r="993" spans="1:6">
       <c r="A993" s="4" t="s">
@@ -12249,13 +12263,13 @@
       </c>
     </row>
     <row r="1001" spans="1:6" ht="18.75">
-      <c r="A1001" s="37" t="s">
+      <c r="A1001" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="B1001" s="37"/>
-      <c r="C1001" s="37"/>
-      <c r="D1001" s="37"/>
-      <c r="E1001" s="37"/>
+      <c r="B1001" s="42"/>
+      <c r="C1001" s="42"/>
+      <c r="D1001" s="42"/>
+      <c r="E1001" s="42"/>
     </row>
     <row r="1002" spans="1:6">
       <c r="A1002" s="4" t="s">
@@ -12354,13 +12368,13 @@
       </c>
     </row>
     <row r="1011" spans="1:6" ht="18.75">
-      <c r="A1011" s="37" t="s">
+      <c r="A1011" s="42" t="s">
         <v>270</v>
       </c>
-      <c r="B1011" s="37"/>
-      <c r="C1011" s="37"/>
-      <c r="D1011" s="37"/>
-      <c r="E1011" s="37"/>
+      <c r="B1011" s="42"/>
+      <c r="C1011" s="42"/>
+      <c r="D1011" s="42"/>
+      <c r="E1011" s="42"/>
     </row>
     <row r="1012" spans="1:6">
       <c r="A1012" s="4" t="s">
@@ -12446,13 +12460,13 @@
       </c>
     </row>
     <row r="1020" spans="1:6" ht="18.75">
-      <c r="A1020" s="37" t="s">
+      <c r="A1020" s="42" t="s">
         <v>271</v>
       </c>
-      <c r="B1020" s="37"/>
-      <c r="C1020" s="37"/>
-      <c r="D1020" s="37"/>
-      <c r="E1020" s="37"/>
+      <c r="B1020" s="42"/>
+      <c r="C1020" s="42"/>
+      <c r="D1020" s="42"/>
+      <c r="E1020" s="42"/>
     </row>
     <row r="1021" spans="1:6">
       <c r="A1021" s="4" t="s">
@@ -12538,13 +12552,13 @@
       </c>
     </row>
     <row r="1029" spans="1:6" ht="18.75">
-      <c r="A1029" s="37" t="s">
+      <c r="A1029" s="42" t="s">
         <v>272</v>
       </c>
-      <c r="B1029" s="37"/>
-      <c r="C1029" s="37"/>
-      <c r="D1029" s="37"/>
-      <c r="E1029" s="37"/>
+      <c r="B1029" s="42"/>
+      <c r="C1029" s="42"/>
+      <c r="D1029" s="42"/>
+      <c r="E1029" s="42"/>
     </row>
     <row r="1030" spans="1:6">
       <c r="A1030" s="4" t="s">
@@ -12643,13 +12657,13 @@
       </c>
     </row>
     <row r="1039" spans="1:6" ht="18.75">
-      <c r="A1039" s="37" t="s">
+      <c r="A1039" s="42" t="s">
         <v>273</v>
       </c>
-      <c r="B1039" s="37"/>
-      <c r="C1039" s="37"/>
-      <c r="D1039" s="37"/>
-      <c r="E1039" s="37"/>
+      <c r="B1039" s="42"/>
+      <c r="C1039" s="42"/>
+      <c r="D1039" s="42"/>
+      <c r="E1039" s="42"/>
     </row>
     <row r="1040" spans="1:6">
       <c r="A1040" s="4" t="s">
@@ -12746,13 +12760,13 @@
       </c>
     </row>
     <row r="1049" spans="1:6" ht="18.75">
-      <c r="A1049" s="37" t="s">
+      <c r="A1049" s="42" t="s">
         <v>278</v>
       </c>
-      <c r="B1049" s="37"/>
-      <c r="C1049" s="37"/>
-      <c r="D1049" s="37"/>
-      <c r="E1049" s="37"/>
+      <c r="B1049" s="42"/>
+      <c r="C1049" s="42"/>
+      <c r="D1049" s="42"/>
+      <c r="E1049" s="42"/>
     </row>
     <row r="1050" spans="1:6">
       <c r="A1050" s="4" t="s">
@@ -12862,13 +12876,13 @@
       </c>
     </row>
     <row r="1060" spans="1:6" ht="18.75">
-      <c r="A1060" s="37" t="s">
+      <c r="A1060" s="42" t="s">
         <v>284</v>
       </c>
-      <c r="B1060" s="37"/>
-      <c r="C1060" s="37"/>
-      <c r="D1060" s="37"/>
-      <c r="E1060" s="37"/>
+      <c r="B1060" s="42"/>
+      <c r="C1060" s="42"/>
+      <c r="D1060" s="42"/>
+      <c r="E1060" s="42"/>
     </row>
     <row r="1061" spans="1:6">
       <c r="A1061" s="4" t="s">
@@ -12965,13 +12979,13 @@
       </c>
     </row>
     <row r="1070" spans="1:6" ht="18.75">
-      <c r="A1070" s="37" t="s">
+      <c r="A1070" s="42" t="s">
         <v>288</v>
       </c>
-      <c r="B1070" s="37"/>
-      <c r="C1070" s="37"/>
-      <c r="D1070" s="37"/>
-      <c r="E1070" s="37"/>
+      <c r="B1070" s="42"/>
+      <c r="C1070" s="42"/>
+      <c r="D1070" s="42"/>
+      <c r="E1070" s="42"/>
     </row>
     <row r="1071" spans="1:6">
       <c r="A1071" s="4" t="s">
@@ -13068,13 +13082,13 @@
       </c>
     </row>
     <row r="1080" spans="1:6" ht="18.75">
-      <c r="A1080" s="37" t="s">
+      <c r="A1080" s="42" t="s">
         <v>290</v>
       </c>
-      <c r="B1080" s="37"/>
-      <c r="C1080" s="37"/>
-      <c r="D1080" s="37"/>
-      <c r="E1080" s="37"/>
+      <c r="B1080" s="42"/>
+      <c r="C1080" s="42"/>
+      <c r="D1080" s="42"/>
+      <c r="E1080" s="42"/>
     </row>
     <row r="1081" spans="1:6">
       <c r="A1081" s="4" t="s">
@@ -13160,13 +13174,13 @@
       </c>
     </row>
     <row r="1089" spans="1:6" ht="18.75">
-      <c r="A1089" s="37" t="s">
+      <c r="A1089" s="42" t="s">
         <v>292</v>
       </c>
-      <c r="B1089" s="37"/>
-      <c r="C1089" s="37"/>
-      <c r="D1089" s="37"/>
-      <c r="E1089" s="37"/>
+      <c r="B1089" s="42"/>
+      <c r="C1089" s="42"/>
+      <c r="D1089" s="42"/>
+      <c r="E1089" s="42"/>
     </row>
     <row r="1090" spans="1:6">
       <c r="A1090" s="4" t="s">
@@ -13252,13 +13266,13 @@
       </c>
     </row>
     <row r="1098" spans="1:6" ht="18.75">
-      <c r="A1098" s="37" t="s">
+      <c r="A1098" s="42" t="s">
         <v>293</v>
       </c>
-      <c r="B1098" s="37"/>
-      <c r="C1098" s="37"/>
-      <c r="D1098" s="37"/>
-      <c r="E1098" s="37"/>
+      <c r="B1098" s="42"/>
+      <c r="C1098" s="42"/>
+      <c r="D1098" s="42"/>
+      <c r="E1098" s="42"/>
     </row>
     <row r="1099" spans="1:6">
       <c r="A1099" s="4" t="s">
@@ -13357,13 +13371,13 @@
       </c>
     </row>
     <row r="1108" spans="1:6" ht="18.75">
-      <c r="A1108" s="37" t="s">
+      <c r="A1108" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="B1108" s="37"/>
-      <c r="C1108" s="37"/>
-      <c r="D1108" s="37"/>
-      <c r="E1108" s="37"/>
+      <c r="B1108" s="42"/>
+      <c r="C1108" s="42"/>
+      <c r="D1108" s="42"/>
+      <c r="E1108" s="42"/>
     </row>
     <row r="1109" spans="1:6">
       <c r="A1109" s="4" t="s">
@@ -13449,13 +13463,13 @@
       </c>
     </row>
     <row r="1117" spans="1:6" ht="18.75">
-      <c r="A1117" s="37" t="s">
+      <c r="A1117" s="42" t="s">
         <v>295</v>
       </c>
-      <c r="B1117" s="37"/>
-      <c r="C1117" s="37"/>
-      <c r="D1117" s="37"/>
-      <c r="E1117" s="37"/>
+      <c r="B1117" s="42"/>
+      <c r="C1117" s="42"/>
+      <c r="D1117" s="42"/>
+      <c r="E1117" s="42"/>
     </row>
     <row r="1118" spans="1:6">
       <c r="A1118" s="4" t="s">
@@ -13541,13 +13555,13 @@
       </c>
     </row>
     <row r="1126" spans="1:6" ht="18.75">
-      <c r="A1126" s="37" t="s">
+      <c r="A1126" s="42" t="s">
         <v>296</v>
       </c>
-      <c r="B1126" s="37"/>
-      <c r="C1126" s="37"/>
-      <c r="D1126" s="37"/>
-      <c r="E1126" s="37"/>
+      <c r="B1126" s="42"/>
+      <c r="C1126" s="42"/>
+      <c r="D1126" s="42"/>
+      <c r="E1126" s="42"/>
     </row>
     <row r="1127" spans="1:6">
       <c r="A1127" s="4" t="s">
@@ -13633,13 +13647,13 @@
       </c>
     </row>
     <row r="1135" spans="1:6" ht="18.75">
-      <c r="A1135" s="37" t="s">
+      <c r="A1135" s="42" t="s">
         <v>297</v>
       </c>
-      <c r="B1135" s="37"/>
-      <c r="C1135" s="37"/>
-      <c r="D1135" s="37"/>
-      <c r="E1135" s="37"/>
+      <c r="B1135" s="42"/>
+      <c r="C1135" s="42"/>
+      <c r="D1135" s="42"/>
+      <c r="E1135" s="42"/>
     </row>
     <row r="1136" spans="1:6">
       <c r="A1136" s="4" t="s">
@@ -13771,13 +13785,13 @@
       </c>
     </row>
     <row r="1148" spans="1:6" ht="18.75">
-      <c r="A1148" s="37" t="s">
+      <c r="A1148" s="42" t="s">
         <v>302</v>
       </c>
-      <c r="B1148" s="37"/>
-      <c r="C1148" s="37"/>
-      <c r="D1148" s="37"/>
-      <c r="E1148" s="37"/>
+      <c r="B1148" s="42"/>
+      <c r="C1148" s="42"/>
+      <c r="D1148" s="42"/>
+      <c r="E1148" s="42"/>
     </row>
     <row r="1149" spans="1:6">
       <c r="A1149" s="4" t="s">
@@ -13876,13 +13890,13 @@
       </c>
     </row>
     <row r="1158" spans="1:6" ht="18.75">
-      <c r="A1158" s="37" t="s">
+      <c r="A1158" s="42" t="s">
         <v>303</v>
       </c>
-      <c r="B1158" s="37"/>
-      <c r="C1158" s="37"/>
-      <c r="D1158" s="37"/>
-      <c r="E1158" s="37"/>
+      <c r="B1158" s="42"/>
+      <c r="C1158" s="42"/>
+      <c r="D1158" s="42"/>
+      <c r="E1158" s="42"/>
     </row>
     <row r="1159" spans="1:6">
       <c r="A1159" s="4" t="s">
@@ -13979,13 +13993,13 @@
       </c>
     </row>
     <row r="1168" spans="1:6" ht="18.75">
-      <c r="A1168" s="37" t="s">
+      <c r="A1168" s="42" t="s">
         <v>307</v>
       </c>
-      <c r="B1168" s="37"/>
-      <c r="C1168" s="37"/>
-      <c r="D1168" s="37"/>
-      <c r="E1168" s="37"/>
+      <c r="B1168" s="42"/>
+      <c r="C1168" s="42"/>
+      <c r="D1168" s="42"/>
+      <c r="E1168" s="42"/>
     </row>
     <row r="1169" spans="1:6">
       <c r="A1169" s="4" t="s">
@@ -14137,13 +14151,13 @@
       </c>
     </row>
     <row r="1183" spans="1:6" ht="18.75">
-      <c r="A1183" s="37" t="s">
+      <c r="A1183" s="42" t="s">
         <v>315</v>
       </c>
-      <c r="B1183" s="37"/>
-      <c r="C1183" s="37"/>
-      <c r="D1183" s="37"/>
-      <c r="E1183" s="37"/>
+      <c r="B1183" s="42"/>
+      <c r="C1183" s="42"/>
+      <c r="D1183" s="42"/>
+      <c r="E1183" s="42"/>
     </row>
     <row r="1184" spans="1:6">
       <c r="A1184" s="4" t="s">
@@ -14240,13 +14254,13 @@
       </c>
     </row>
     <row r="1193" spans="1:6" ht="18.75">
-      <c r="A1193" s="37" t="s">
+      <c r="A1193" s="42" t="s">
         <v>319</v>
       </c>
-      <c r="B1193" s="37"/>
-      <c r="C1193" s="37"/>
-      <c r="D1193" s="37"/>
-      <c r="E1193" s="37"/>
+      <c r="B1193" s="42"/>
+      <c r="C1193" s="42"/>
+      <c r="D1193" s="42"/>
+      <c r="E1193" s="42"/>
     </row>
     <row r="1194" spans="1:6">
       <c r="A1194" s="4" t="s">
@@ -14334,13 +14348,13 @@
       </c>
     </row>
     <row r="1202" spans="1:6" ht="18.75">
-      <c r="A1202" s="37" t="s">
+      <c r="A1202" s="42" t="s">
         <v>321</v>
       </c>
-      <c r="B1202" s="37"/>
-      <c r="C1202" s="37"/>
-      <c r="D1202" s="37"/>
-      <c r="E1202" s="37"/>
+      <c r="B1202" s="42"/>
+      <c r="C1202" s="42"/>
+      <c r="D1202" s="42"/>
+      <c r="E1202" s="42"/>
     </row>
     <row r="1203" spans="1:6">
       <c r="A1203" s="4" t="s">
@@ -14426,13 +14440,13 @@
       </c>
     </row>
     <row r="1211" spans="1:6" ht="18.75">
-      <c r="A1211" s="37" t="s">
+      <c r="A1211" s="42" t="s">
         <v>322</v>
       </c>
-      <c r="B1211" s="37"/>
-      <c r="C1211" s="37"/>
-      <c r="D1211" s="37"/>
-      <c r="E1211" s="37"/>
+      <c r="B1211" s="42"/>
+      <c r="C1211" s="42"/>
+      <c r="D1211" s="42"/>
+      <c r="E1211" s="42"/>
     </row>
     <row r="1212" spans="1:6">
       <c r="A1212" s="4" t="s">
@@ -14518,13 +14532,13 @@
       </c>
     </row>
     <row r="1220" spans="1:6" ht="18.75">
-      <c r="A1220" s="37" t="s">
+      <c r="A1220" s="42" t="s">
         <v>323</v>
       </c>
-      <c r="B1220" s="37"/>
-      <c r="C1220" s="37"/>
-      <c r="D1220" s="37"/>
-      <c r="E1220" s="37"/>
+      <c r="B1220" s="42"/>
+      <c r="C1220" s="42"/>
+      <c r="D1220" s="42"/>
+      <c r="E1220" s="42"/>
     </row>
     <row r="1221" spans="1:6">
       <c r="A1221" s="4" t="s">
@@ -14634,13 +14648,13 @@
       </c>
     </row>
     <row r="1231" spans="1:6" ht="18.75">
-      <c r="A1231" s="37" t="s">
+      <c r="A1231" s="42" t="s">
         <v>326</v>
       </c>
-      <c r="B1231" s="37"/>
-      <c r="C1231" s="37"/>
-      <c r="D1231" s="37"/>
-      <c r="E1231" s="37"/>
+      <c r="B1231" s="42"/>
+      <c r="C1231" s="42"/>
+      <c r="D1231" s="42"/>
+      <c r="E1231" s="42"/>
     </row>
     <row r="1232" spans="1:6">
       <c r="A1232" s="4" t="s">
@@ -14726,13 +14740,13 @@
       </c>
     </row>
     <row r="1240" spans="1:6" ht="18.75">
-      <c r="A1240" s="37" t="s">
+      <c r="A1240" s="42" t="s">
         <v>330</v>
       </c>
-      <c r="B1240" s="37"/>
-      <c r="C1240" s="37"/>
-      <c r="D1240" s="37"/>
-      <c r="E1240" s="37"/>
+      <c r="B1240" s="42"/>
+      <c r="C1240" s="42"/>
+      <c r="D1240" s="42"/>
+      <c r="E1240" s="42"/>
     </row>
     <row r="1241" spans="1:6">
       <c r="A1241" s="4" t="s">
@@ -14820,13 +14834,13 @@
       </c>
     </row>
     <row r="1249" spans="1:6" ht="18.75">
-      <c r="A1249" s="37" t="s">
+      <c r="A1249" s="42" t="s">
         <v>332</v>
       </c>
-      <c r="B1249" s="37"/>
-      <c r="C1249" s="37"/>
-      <c r="D1249" s="37"/>
-      <c r="E1249" s="37"/>
+      <c r="B1249" s="42"/>
+      <c r="C1249" s="42"/>
+      <c r="D1249" s="42"/>
+      <c r="E1249" s="42"/>
     </row>
     <row r="1250" spans="1:6">
       <c r="A1250" s="4" t="s">
@@ -14958,14 +14972,14 @@
       </c>
     </row>
     <row r="1262" spans="1:6" ht="18.75">
-      <c r="A1262" s="44" t="s">
+      <c r="A1262" s="39" t="s">
         <v>339</v>
       </c>
-      <c r="B1262" s="45"/>
-      <c r="C1262" s="45"/>
-      <c r="D1262" s="45"/>
-      <c r="E1262" s="45"/>
-      <c r="F1262" s="46"/>
+      <c r="B1262" s="40"/>
+      <c r="C1262" s="40"/>
+      <c r="D1262" s="40"/>
+      <c r="E1262" s="40"/>
+      <c r="F1262" s="41"/>
     </row>
     <row r="1263" spans="1:6">
       <c r="A1263" s="5" t="s">
@@ -14983,7 +14997,7 @@
       <c r="E1263" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1263" s="47"/>
+      <c r="F1263" s="37"/>
     </row>
     <row r="1264" spans="1:6">
       <c r="A1264" s="7">
@@ -14998,7 +15012,7 @@
       </c>
       <c r="D1264" s="8"/>
       <c r="E1264" s="6"/>
-      <c r="F1264" s="47"/>
+      <c r="F1264" s="37"/>
     </row>
     <row r="1265" spans="1:6">
       <c r="A1265" s="31"/>
@@ -15010,7 +15024,7 @@
       </c>
       <c r="D1265" s="8"/>
       <c r="E1265" s="6"/>
-      <c r="F1265" s="47"/>
+      <c r="F1265" s="37"/>
     </row>
     <row r="1266" spans="1:6">
       <c r="A1266" s="31"/>
@@ -15022,7 +15036,7 @@
       </c>
       <c r="D1266" s="8"/>
       <c r="E1266" s="6"/>
-      <c r="F1266" s="47"/>
+      <c r="F1266" s="37"/>
     </row>
     <row r="1267" spans="1:6">
       <c r="A1267" s="31"/>
@@ -15034,7 +15048,7 @@
       </c>
       <c r="D1267" s="8"/>
       <c r="E1267" s="6"/>
-      <c r="F1267" s="47"/>
+      <c r="F1267" s="37"/>
     </row>
     <row r="1268" spans="1:6">
       <c r="A1268" s="31"/>
@@ -15046,7 +15060,7 @@
       </c>
       <c r="D1268" s="8"/>
       <c r="E1268" s="6"/>
-      <c r="F1268" s="47"/>
+      <c r="F1268" s="37"/>
     </row>
     <row r="1269" spans="1:6">
       <c r="A1269" s="31"/>
@@ -15058,7 +15072,7 @@
       </c>
       <c r="D1269" s="8"/>
       <c r="E1269" s="6"/>
-      <c r="F1269" s="47"/>
+      <c r="F1269" s="37"/>
     </row>
     <row r="1270" spans="1:6">
       <c r="A1270" s="31"/>
@@ -15070,7 +15084,7 @@
       </c>
       <c r="D1270" s="8"/>
       <c r="E1270" s="6"/>
-      <c r="F1270" s="47"/>
+      <c r="F1270" s="37"/>
     </row>
     <row r="1271" spans="1:6">
       <c r="A1271" s="31"/>
@@ -15082,7 +15096,7 @@
       </c>
       <c r="D1271" s="8"/>
       <c r="E1271" s="6"/>
-      <c r="F1271" s="47"/>
+      <c r="F1271" s="37"/>
     </row>
     <row r="1272" spans="1:6">
       <c r="A1272" s="34"/>
@@ -15098,20 +15112,20 @@
         <f>A1264-C1272</f>
         <v>-14202</v>
       </c>
-      <c r="F1272" s="48">
+      <c r="F1272" s="38">
         <f>E1272+45</f>
         <v>-14157</v>
       </c>
     </row>
     <row r="1275" spans="1:6" ht="18.75">
-      <c r="A1275" s="44" t="s">
+      <c r="A1275" s="39" t="s">
         <v>346</v>
       </c>
-      <c r="B1275" s="45"/>
-      <c r="C1275" s="45"/>
-      <c r="D1275" s="45"/>
-      <c r="E1275" s="45"/>
-      <c r="F1275" s="46"/>
+      <c r="B1275" s="40"/>
+      <c r="C1275" s="40"/>
+      <c r="D1275" s="40"/>
+      <c r="E1275" s="40"/>
+      <c r="F1275" s="41"/>
     </row>
     <row r="1276" spans="1:6">
       <c r="A1276" s="5" t="s">
@@ -15129,7 +15143,7 @@
       <c r="E1276" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1276" s="47"/>
+      <c r="F1276" s="37"/>
     </row>
     <row r="1277" spans="1:6">
       <c r="A1277" s="7">
@@ -15146,7 +15160,7 @@
         <v>3000</v>
       </c>
       <c r="E1277" s="6"/>
-      <c r="F1277" s="47"/>
+      <c r="F1277" s="37"/>
     </row>
     <row r="1278" spans="1:6">
       <c r="A1278" s="31"/>
@@ -15158,7 +15172,7 @@
       </c>
       <c r="D1278" s="8"/>
       <c r="E1278" s="6"/>
-      <c r="F1278" s="47"/>
+      <c r="F1278" s="37"/>
     </row>
     <row r="1279" spans="1:6">
       <c r="A1279" s="31"/>
@@ -15170,7 +15184,7 @@
       </c>
       <c r="D1279" s="8"/>
       <c r="E1279" s="6"/>
-      <c r="F1279" s="47"/>
+      <c r="F1279" s="37"/>
     </row>
     <row r="1280" spans="1:6">
       <c r="A1280" s="31"/>
@@ -15182,7 +15196,7 @@
       </c>
       <c r="D1280" s="8"/>
       <c r="E1280" s="6"/>
-      <c r="F1280" s="47"/>
+      <c r="F1280" s="37"/>
     </row>
     <row r="1281" spans="1:6">
       <c r="A1281" s="31"/>
@@ -15194,7 +15208,7 @@
       </c>
       <c r="D1281" s="8"/>
       <c r="E1281" s="6"/>
-      <c r="F1281" s="47"/>
+      <c r="F1281" s="37"/>
     </row>
     <row r="1282" spans="1:6">
       <c r="A1282" s="31"/>
@@ -15206,7 +15220,7 @@
       </c>
       <c r="D1282" s="8"/>
       <c r="E1282" s="6"/>
-      <c r="F1282" s="47"/>
+      <c r="F1282" s="37"/>
     </row>
     <row r="1283" spans="1:6">
       <c r="A1283" s="31"/>
@@ -15218,7 +15232,7 @@
       </c>
       <c r="D1283" s="8"/>
       <c r="E1283" s="6"/>
-      <c r="F1283" s="47"/>
+      <c r="F1283" s="37"/>
     </row>
     <row r="1284" spans="1:6">
       <c r="A1284" s="31"/>
@@ -15230,7 +15244,7 @@
       </c>
       <c r="D1284" s="8"/>
       <c r="E1284" s="6"/>
-      <c r="F1284" s="47"/>
+      <c r="F1284" s="37"/>
     </row>
     <row r="1285" spans="1:6">
       <c r="A1285" s="31"/>
@@ -15242,7 +15256,7 @@
       </c>
       <c r="D1285" s="8"/>
       <c r="E1285" s="6"/>
-      <c r="F1285" s="47"/>
+      <c r="F1285" s="37"/>
     </row>
     <row r="1286" spans="1:6">
       <c r="A1286" s="34"/>
@@ -15258,20 +15272,20 @@
         <f>A1277-C1286</f>
         <v>-12282</v>
       </c>
-      <c r="F1286" s="48">
+      <c r="F1286" s="38">
         <f>E1286+45</f>
         <v>-12237</v>
       </c>
     </row>
     <row r="1289" spans="1:6" ht="18.75">
-      <c r="A1289" s="44" t="s">
+      <c r="A1289" s="39" t="s">
         <v>353</v>
       </c>
-      <c r="B1289" s="45"/>
-      <c r="C1289" s="45"/>
-      <c r="D1289" s="45"/>
-      <c r="E1289" s="45"/>
-      <c r="F1289" s="46"/>
+      <c r="B1289" s="40"/>
+      <c r="C1289" s="40"/>
+      <c r="D1289" s="40"/>
+      <c r="E1289" s="40"/>
+      <c r="F1289" s="41"/>
     </row>
     <row r="1290" spans="1:6">
       <c r="A1290" s="5" t="s">
@@ -15289,7 +15303,7 @@
       <c r="E1290" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1290" s="47"/>
+      <c r="F1290" s="37"/>
     </row>
     <row r="1291" spans="1:6">
       <c r="A1291" s="7">
@@ -15304,7 +15318,7 @@
       </c>
       <c r="D1291" s="8"/>
       <c r="E1291" s="6"/>
-      <c r="F1291" s="47"/>
+      <c r="F1291" s="37"/>
     </row>
     <row r="1292" spans="1:6">
       <c r="A1292" s="31"/>
@@ -15316,7 +15330,7 @@
       </c>
       <c r="D1292" s="8"/>
       <c r="E1292" s="6"/>
-      <c r="F1292" s="47"/>
+      <c r="F1292" s="37"/>
     </row>
     <row r="1293" spans="1:6">
       <c r="A1293" s="31"/>
@@ -15328,7 +15342,7 @@
       </c>
       <c r="D1293" s="8"/>
       <c r="E1293" s="6"/>
-      <c r="F1293" s="47"/>
+      <c r="F1293" s="37"/>
     </row>
     <row r="1294" spans="1:6">
       <c r="A1294" s="31"/>
@@ -15340,7 +15354,7 @@
       </c>
       <c r="D1294" s="8"/>
       <c r="E1294" s="6"/>
-      <c r="F1294" s="47"/>
+      <c r="F1294" s="37"/>
     </row>
     <row r="1295" spans="1:6">
       <c r="A1295" s="31"/>
@@ -15352,7 +15366,7 @@
       </c>
       <c r="D1295" s="8"/>
       <c r="E1295" s="6"/>
-      <c r="F1295" s="47"/>
+      <c r="F1295" s="37"/>
     </row>
     <row r="1296" spans="1:6">
       <c r="A1296" s="31"/>
@@ -15364,7 +15378,7 @@
       </c>
       <c r="D1296" s="8"/>
       <c r="E1296" s="6"/>
-      <c r="F1296" s="47"/>
+      <c r="F1296" s="37"/>
     </row>
     <row r="1297" spans="1:6">
       <c r="A1297" s="31"/>
@@ -15376,7 +15390,7 @@
       </c>
       <c r="D1297" s="8"/>
       <c r="E1297" s="6"/>
-      <c r="F1297" s="47"/>
+      <c r="F1297" s="37"/>
     </row>
     <row r="1298" spans="1:6">
       <c r="A1298" s="34"/>
@@ -15392,20 +15406,20 @@
         <f>A1291-C1298</f>
         <v>-13632</v>
       </c>
-      <c r="F1298" s="48">
+      <c r="F1298" s="38">
         <f>E1298+45</f>
         <v>-13587</v>
       </c>
     </row>
     <row r="1301" spans="1:6" ht="18.75">
-      <c r="A1301" s="44" t="s">
+      <c r="A1301" s="39" t="s">
         <v>356</v>
       </c>
-      <c r="B1301" s="45"/>
-      <c r="C1301" s="45"/>
-      <c r="D1301" s="45"/>
-      <c r="E1301" s="45"/>
-      <c r="F1301" s="46"/>
+      <c r="B1301" s="40"/>
+      <c r="C1301" s="40"/>
+      <c r="D1301" s="40"/>
+      <c r="E1301" s="40"/>
+      <c r="F1301" s="41"/>
     </row>
     <row r="1302" spans="1:6">
       <c r="A1302" s="5" t="s">
@@ -15423,7 +15437,7 @@
       <c r="E1302" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1302" s="47"/>
+      <c r="F1302" s="37"/>
     </row>
     <row r="1303" spans="1:6">
       <c r="A1303" s="7">
@@ -15438,7 +15452,7 @@
       </c>
       <c r="D1303" s="8"/>
       <c r="E1303" s="6"/>
-      <c r="F1303" s="47"/>
+      <c r="F1303" s="37"/>
     </row>
     <row r="1304" spans="1:6">
       <c r="A1304" s="31"/>
@@ -15450,7 +15464,7 @@
       </c>
       <c r="D1304" s="8"/>
       <c r="E1304" s="6"/>
-      <c r="F1304" s="47"/>
+      <c r="F1304" s="37"/>
     </row>
     <row r="1305" spans="1:6">
       <c r="A1305" s="31"/>
@@ -15462,7 +15476,7 @@
       </c>
       <c r="D1305" s="8"/>
       <c r="E1305" s="6"/>
-      <c r="F1305" s="47"/>
+      <c r="F1305" s="37"/>
     </row>
     <row r="1306" spans="1:6">
       <c r="A1306" s="34"/>
@@ -15478,20 +15492,20 @@
         <f>A1303-C1306</f>
         <v>-14032</v>
       </c>
-      <c r="F1306" s="48">
+      <c r="F1306" s="38">
         <f>E1306+45</f>
         <v>-13987</v>
       </c>
     </row>
     <row r="1309" spans="1:6" ht="18.75">
-      <c r="A1309" s="44" t="s">
+      <c r="A1309" s="39" t="s">
         <v>359</v>
       </c>
-      <c r="B1309" s="45"/>
-      <c r="C1309" s="45"/>
-      <c r="D1309" s="45"/>
-      <c r="E1309" s="45"/>
-      <c r="F1309" s="46"/>
+      <c r="B1309" s="40"/>
+      <c r="C1309" s="40"/>
+      <c r="D1309" s="40"/>
+      <c r="E1309" s="40"/>
+      <c r="F1309" s="41"/>
     </row>
     <row r="1310" spans="1:6">
       <c r="A1310" s="5" t="s">
@@ -15509,7 +15523,7 @@
       <c r="E1310" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1310" s="47"/>
+      <c r="F1310" s="37"/>
     </row>
     <row r="1311" spans="1:6">
       <c r="A1311" s="7">
@@ -15524,7 +15538,7 @@
       </c>
       <c r="D1311" s="8"/>
       <c r="E1311" s="6"/>
-      <c r="F1311" s="47"/>
+      <c r="F1311" s="37"/>
     </row>
     <row r="1312" spans="1:6">
       <c r="A1312" s="34"/>
@@ -15540,20 +15554,20 @@
         <f>A1311-C1312</f>
         <v>-14332</v>
       </c>
-      <c r="F1312" s="48">
+      <c r="F1312" s="38">
         <f>E1312+45</f>
         <v>-14287</v>
       </c>
     </row>
     <row r="1315" spans="1:6" ht="18.75">
-      <c r="A1315" s="44" t="s">
+      <c r="A1315" s="39" t="s">
         <v>360</v>
       </c>
-      <c r="B1315" s="45"/>
-      <c r="C1315" s="45"/>
-      <c r="D1315" s="45"/>
-      <c r="E1315" s="45"/>
-      <c r="F1315" s="46"/>
+      <c r="B1315" s="40"/>
+      <c r="C1315" s="40"/>
+      <c r="D1315" s="40"/>
+      <c r="E1315" s="40"/>
+      <c r="F1315" s="41"/>
     </row>
     <row r="1316" spans="1:6">
       <c r="A1316" s="5" t="s">
@@ -15571,7 +15585,7 @@
       <c r="E1316" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1316" s="47"/>
+      <c r="F1316" s="37"/>
     </row>
     <row r="1317" spans="1:6">
       <c r="A1317" s="7">
@@ -15586,7 +15600,7 @@
       </c>
       <c r="D1317" s="8"/>
       <c r="E1317" s="6"/>
-      <c r="F1317" s="47"/>
+      <c r="F1317" s="37"/>
     </row>
     <row r="1318" spans="1:6">
       <c r="A1318" s="7"/>
@@ -15598,7 +15612,7 @@
       </c>
       <c r="D1318" s="8"/>
       <c r="E1318" s="36"/>
-      <c r="F1318" s="47"/>
+      <c r="F1318" s="37"/>
     </row>
     <row r="1319" spans="1:6">
       <c r="A1319" s="7"/>
@@ -15610,7 +15624,7 @@
       </c>
       <c r="D1319" s="8"/>
       <c r="E1319" s="36"/>
-      <c r="F1319" s="47"/>
+      <c r="F1319" s="37"/>
     </row>
     <row r="1320" spans="1:6">
       <c r="A1320" s="7"/>
@@ -15622,7 +15636,7 @@
       </c>
       <c r="D1320" s="8"/>
       <c r="E1320" s="36"/>
-      <c r="F1320" s="47"/>
+      <c r="F1320" s="37"/>
     </row>
     <row r="1321" spans="1:6">
       <c r="A1321" s="7"/>
@@ -15634,7 +15648,7 @@
       </c>
       <c r="D1321" s="8"/>
       <c r="E1321" s="36"/>
-      <c r="F1321" s="47"/>
+      <c r="F1321" s="37"/>
     </row>
     <row r="1322" spans="1:6">
       <c r="A1322" s="7"/>
@@ -15646,7 +15660,7 @@
       </c>
       <c r="D1322" s="8"/>
       <c r="E1322" s="36"/>
-      <c r="F1322" s="47"/>
+      <c r="F1322" s="37"/>
     </row>
     <row r="1323" spans="1:6">
       <c r="A1323" s="7"/>
@@ -15658,7 +15672,7 @@
       </c>
       <c r="D1323" s="8"/>
       <c r="E1323" s="36"/>
-      <c r="F1323" s="47"/>
+      <c r="F1323" s="37"/>
     </row>
     <row r="1324" spans="1:6">
       <c r="A1324" s="7"/>
@@ -15670,7 +15684,7 @@
       </c>
       <c r="D1324" s="8"/>
       <c r="E1324" s="36"/>
-      <c r="F1324" s="47"/>
+      <c r="F1324" s="37"/>
     </row>
     <row r="1325" spans="1:6">
       <c r="A1325" s="7"/>
@@ -15682,7 +15696,7 @@
       </c>
       <c r="D1325" s="8"/>
       <c r="E1325" s="36"/>
-      <c r="F1325" s="47"/>
+      <c r="F1325" s="37"/>
     </row>
     <row r="1326" spans="1:6">
       <c r="A1326" s="34"/>
@@ -15698,20 +15712,20 @@
         <f>A1317-C1326</f>
         <v>-15822</v>
       </c>
-      <c r="F1326" s="48">
+      <c r="F1326" s="38">
         <f>E1326+45</f>
         <v>-15777</v>
       </c>
     </row>
     <row r="1329" spans="1:6" ht="18.75">
-      <c r="A1329" s="44" t="s">
+      <c r="A1329" s="39" t="s">
         <v>368</v>
       </c>
-      <c r="B1329" s="45"/>
-      <c r="C1329" s="45"/>
-      <c r="D1329" s="45"/>
-      <c r="E1329" s="45"/>
-      <c r="F1329" s="46"/>
+      <c r="B1329" s="40"/>
+      <c r="C1329" s="40"/>
+      <c r="D1329" s="40"/>
+      <c r="E1329" s="40"/>
+      <c r="F1329" s="41"/>
     </row>
     <row r="1330" spans="1:6">
       <c r="A1330" s="5" t="s">
@@ -15729,7 +15743,7 @@
       <c r="E1330" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1330" s="47"/>
+      <c r="F1330" s="37"/>
     </row>
     <row r="1331" spans="1:6">
       <c r="A1331" s="7">
@@ -15746,7 +15760,7 @@
         <v>3000</v>
       </c>
       <c r="E1331" s="6"/>
-      <c r="F1331" s="47"/>
+      <c r="F1331" s="37"/>
     </row>
     <row r="1332" spans="1:6">
       <c r="A1332" s="7"/>
@@ -15758,7 +15772,7 @@
       </c>
       <c r="D1332" s="8"/>
       <c r="E1332" s="36"/>
-      <c r="F1332" s="47"/>
+      <c r="F1332" s="37"/>
     </row>
     <row r="1333" spans="1:6">
       <c r="A1333" s="7"/>
@@ -15770,7 +15784,7 @@
       </c>
       <c r="D1333" s="8"/>
       <c r="E1333" s="36"/>
-      <c r="F1333" s="47"/>
+      <c r="F1333" s="37"/>
     </row>
     <row r="1334" spans="1:6">
       <c r="A1334" s="7"/>
@@ -15782,7 +15796,7 @@
       </c>
       <c r="D1334" s="8"/>
       <c r="E1334" s="36"/>
-      <c r="F1334" s="47"/>
+      <c r="F1334" s="37"/>
     </row>
     <row r="1335" spans="1:6">
       <c r="A1335" s="7"/>
@@ -15794,7 +15808,7 @@
       </c>
       <c r="D1335" s="8"/>
       <c r="E1335" s="36"/>
-      <c r="F1335" s="47"/>
+      <c r="F1335" s="37"/>
     </row>
     <row r="1336" spans="1:6">
       <c r="A1336" s="7"/>
@@ -15806,7 +15820,7 @@
       </c>
       <c r="D1336" s="8"/>
       <c r="E1336" s="36"/>
-      <c r="F1336" s="47"/>
+      <c r="F1336" s="37"/>
     </row>
     <row r="1337" spans="1:6">
       <c r="A1337" s="7"/>
@@ -15818,7 +15832,7 @@
       </c>
       <c r="D1337" s="8"/>
       <c r="E1337" s="36"/>
-      <c r="F1337" s="47"/>
+      <c r="F1337" s="37"/>
     </row>
     <row r="1338" spans="1:6">
       <c r="A1338" s="34"/>
@@ -15834,20 +15848,20 @@
         <f>A1331-C1338</f>
         <v>-14112</v>
       </c>
-      <c r="F1338" s="48">
+      <c r="F1338" s="38">
         <f>E1338+45</f>
         <v>-14067</v>
       </c>
     </row>
     <row r="1341" spans="1:6" ht="18.75">
-      <c r="A1341" s="44" t="s">
+      <c r="A1341" s="39" t="s">
         <v>372</v>
       </c>
-      <c r="B1341" s="45"/>
-      <c r="C1341" s="45"/>
-      <c r="D1341" s="45"/>
-      <c r="E1341" s="45"/>
-      <c r="F1341" s="46"/>
+      <c r="B1341" s="40"/>
+      <c r="C1341" s="40"/>
+      <c r="D1341" s="40"/>
+      <c r="E1341" s="40"/>
+      <c r="F1341" s="41"/>
     </row>
     <row r="1342" spans="1:6">
       <c r="A1342" s="5" t="s">
@@ -15865,7 +15879,7 @@
       <c r="E1342" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1342" s="47"/>
+      <c r="F1342" s="37"/>
     </row>
     <row r="1343" spans="1:6">
       <c r="A1343" s="7">
@@ -15880,7 +15894,7 @@
       </c>
       <c r="D1343" s="8"/>
       <c r="E1343" s="6"/>
-      <c r="F1343" s="47"/>
+      <c r="F1343" s="37"/>
     </row>
     <row r="1344" spans="1:6">
       <c r="A1344" s="7"/>
@@ -15892,7 +15906,7 @@
       </c>
       <c r="D1344" s="8"/>
       <c r="E1344" s="36"/>
-      <c r="F1344" s="47"/>
+      <c r="F1344" s="37"/>
     </row>
     <row r="1345" spans="1:6">
       <c r="A1345" s="7"/>
@@ -15904,7 +15918,7 @@
       </c>
       <c r="D1345" s="8"/>
       <c r="E1345" s="36"/>
-      <c r="F1345" s="47"/>
+      <c r="F1345" s="37"/>
     </row>
     <row r="1346" spans="1:6">
       <c r="A1346" s="7"/>
@@ -15916,7 +15930,7 @@
       </c>
       <c r="D1346" s="8"/>
       <c r="E1346" s="36"/>
-      <c r="F1346" s="47"/>
+      <c r="F1346" s="37"/>
     </row>
     <row r="1347" spans="1:6">
       <c r="A1347" s="7"/>
@@ -15928,7 +15942,7 @@
       </c>
       <c r="D1347" s="8"/>
       <c r="E1347" s="36"/>
-      <c r="F1347" s="47"/>
+      <c r="F1347" s="37"/>
     </row>
     <row r="1348" spans="1:6">
       <c r="A1348" s="7"/>
@@ -15940,7 +15954,7 @@
       </c>
       <c r="D1348" s="8"/>
       <c r="E1348" s="36"/>
-      <c r="F1348" s="47"/>
+      <c r="F1348" s="37"/>
     </row>
     <row r="1349" spans="1:6">
       <c r="A1349" s="34"/>
@@ -15956,20 +15970,20 @@
         <f>A1343-C1349</f>
         <v>-15102</v>
       </c>
-      <c r="F1349" s="48">
+      <c r="F1349" s="38">
         <f>E1349+45</f>
         <v>-15057</v>
       </c>
     </row>
     <row r="1352" spans="1:6" ht="18.75">
-      <c r="A1352" s="44" t="s">
+      <c r="A1352" s="39" t="s">
         <v>373</v>
       </c>
-      <c r="B1352" s="45"/>
-      <c r="C1352" s="45"/>
-      <c r="D1352" s="45"/>
-      <c r="E1352" s="45"/>
-      <c r="F1352" s="46"/>
+      <c r="B1352" s="40"/>
+      <c r="C1352" s="40"/>
+      <c r="D1352" s="40"/>
+      <c r="E1352" s="40"/>
+      <c r="F1352" s="41"/>
     </row>
     <row r="1353" spans="1:6">
       <c r="A1353" s="5" t="s">
@@ -15987,7 +16001,7 @@
       <c r="E1353" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1353" s="47"/>
+      <c r="F1353" s="37"/>
     </row>
     <row r="1354" spans="1:6">
       <c r="A1354" s="7">
@@ -16002,7 +16016,7 @@
       </c>
       <c r="D1354" s="8"/>
       <c r="E1354" s="6"/>
-      <c r="F1354" s="47"/>
+      <c r="F1354" s="37"/>
     </row>
     <row r="1355" spans="1:6">
       <c r="A1355" s="7"/>
@@ -16014,7 +16028,7 @@
       </c>
       <c r="D1355" s="8"/>
       <c r="E1355" s="36"/>
-      <c r="F1355" s="47"/>
+      <c r="F1355" s="37"/>
     </row>
     <row r="1356" spans="1:6">
       <c r="A1356" s="7"/>
@@ -16026,7 +16040,7 @@
       </c>
       <c r="D1356" s="8"/>
       <c r="E1356" s="36"/>
-      <c r="F1356" s="47"/>
+      <c r="F1356" s="37"/>
     </row>
     <row r="1357" spans="1:6">
       <c r="A1357" s="7"/>
@@ -16038,7 +16052,7 @@
       </c>
       <c r="D1357" s="8"/>
       <c r="E1357" s="36"/>
-      <c r="F1357" s="47"/>
+      <c r="F1357" s="37"/>
     </row>
     <row r="1358" spans="1:6">
       <c r="A1358" s="7"/>
@@ -16050,7 +16064,7 @@
       </c>
       <c r="D1358" s="8"/>
       <c r="E1358" s="36"/>
-      <c r="F1358" s="47"/>
+      <c r="F1358" s="37"/>
     </row>
     <row r="1359" spans="1:6">
       <c r="A1359" s="7"/>
@@ -16062,7 +16076,7 @@
       </c>
       <c r="D1359" s="8"/>
       <c r="E1359" s="36"/>
-      <c r="F1359" s="47"/>
+      <c r="F1359" s="37"/>
     </row>
     <row r="1360" spans="1:6">
       <c r="A1360" s="34"/>
@@ -16078,20 +16092,20 @@
         <f>A1354-C1360</f>
         <v>-16092</v>
       </c>
-      <c r="F1360" s="48">
+      <c r="F1360" s="38">
         <f>E1360+45</f>
         <v>-16047</v>
       </c>
     </row>
     <row r="1363" spans="1:6" ht="18.75">
-      <c r="A1363" s="44" t="s">
+      <c r="A1363" s="39" t="s">
         <v>374</v>
       </c>
-      <c r="B1363" s="45"/>
-      <c r="C1363" s="45"/>
-      <c r="D1363" s="45"/>
-      <c r="E1363" s="45"/>
-      <c r="F1363" s="46"/>
+      <c r="B1363" s="40"/>
+      <c r="C1363" s="40"/>
+      <c r="D1363" s="40"/>
+      <c r="E1363" s="40"/>
+      <c r="F1363" s="41"/>
     </row>
     <row r="1364" spans="1:6">
       <c r="A1364" s="5" t="s">
@@ -16106,10 +16120,10 @@
       <c r="D1364" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1364" s="6" t="s">
+      <c r="E1364" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="F1364" s="47"/>
+      <c r="F1364" s="49"/>
     </row>
     <row r="1365" spans="1:6">
       <c r="A1365" s="7">
@@ -16125,8 +16139,8 @@
       <c r="D1365" s="8">
         <v>3000</v>
       </c>
-      <c r="E1365" s="6"/>
-      <c r="F1365" s="47"/>
+      <c r="E1365" s="36"/>
+      <c r="F1365" s="50"/>
     </row>
     <row r="1366" spans="1:6">
       <c r="A1366" s="7"/>
@@ -16138,7 +16152,7 @@
       </c>
       <c r="D1366" s="8"/>
       <c r="E1366" s="36"/>
-      <c r="F1366" s="47"/>
+      <c r="F1366" s="50"/>
     </row>
     <row r="1367" spans="1:6">
       <c r="A1367" s="7"/>
@@ -16150,7 +16164,7 @@
       </c>
       <c r="D1367" s="8"/>
       <c r="E1367" s="36"/>
-      <c r="F1367" s="47"/>
+      <c r="F1367" s="50"/>
     </row>
     <row r="1368" spans="1:6">
       <c r="A1368" s="7"/>
@@ -16162,7 +16176,7 @@
       </c>
       <c r="D1368" s="8"/>
       <c r="E1368" s="36"/>
-      <c r="F1368" s="47"/>
+      <c r="F1368" s="50"/>
     </row>
     <row r="1369" spans="1:6">
       <c r="A1369" s="7"/>
@@ -16174,7 +16188,7 @@
       </c>
       <c r="D1369" s="8"/>
       <c r="E1369" s="36"/>
-      <c r="F1369" s="47"/>
+      <c r="F1369" s="50"/>
     </row>
     <row r="1370" spans="1:6">
       <c r="A1370" s="7"/>
@@ -16186,7 +16200,7 @@
       </c>
       <c r="D1370" s="8"/>
       <c r="E1370" s="36"/>
-      <c r="F1370" s="47"/>
+      <c r="F1370" s="50"/>
     </row>
     <row r="1371" spans="1:6">
       <c r="A1371" s="7"/>
@@ -16198,7 +16212,7 @@
       </c>
       <c r="D1371" s="8"/>
       <c r="E1371" s="36"/>
-      <c r="F1371" s="47"/>
+      <c r="F1371" s="50"/>
     </row>
     <row r="1372" spans="1:6">
       <c r="A1372" s="34"/>
@@ -16210,57 +16224,73 @@
         <v>1350</v>
       </c>
       <c r="D1372" s="34"/>
-      <c r="E1372" s="24">
+      <c r="E1372" s="35">
         <f>A1365-C1372</f>
         <v>-14442</v>
       </c>
-      <c r="F1372" s="48">
+      <c r="F1372" s="51">
         <f>E1372+45</f>
         <v>-14397</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="123">
-    <mergeCell ref="A1352:F1352"/>
-    <mergeCell ref="A1363:F1363"/>
-    <mergeCell ref="A1262:F1262"/>
-    <mergeCell ref="A1275:F1275"/>
-    <mergeCell ref="A1289:F1289"/>
-    <mergeCell ref="A1301:F1301"/>
-    <mergeCell ref="A1309:F1309"/>
-    <mergeCell ref="A1315:F1315"/>
-    <mergeCell ref="A1329:F1329"/>
-    <mergeCell ref="A1341:F1341"/>
-    <mergeCell ref="A1168:E1168"/>
-    <mergeCell ref="A1183:E1183"/>
-    <mergeCell ref="A1193:E1193"/>
-    <mergeCell ref="A1202:E1202"/>
-    <mergeCell ref="A1211:E1211"/>
-    <mergeCell ref="A1220:E1220"/>
-    <mergeCell ref="A1231:E1231"/>
-    <mergeCell ref="A1240:E1240"/>
-    <mergeCell ref="A1249:E1249"/>
-    <mergeCell ref="A903:E903"/>
-    <mergeCell ref="A912:E912"/>
-    <mergeCell ref="A974:E974"/>
-    <mergeCell ref="A921:E921"/>
-    <mergeCell ref="A931:E931"/>
-    <mergeCell ref="A942:E942"/>
-    <mergeCell ref="A534:E534"/>
-    <mergeCell ref="A549:E549"/>
-    <mergeCell ref="A567:E567"/>
-    <mergeCell ref="A576:E576"/>
-    <mergeCell ref="A591:E591"/>
-    <mergeCell ref="A785:E785"/>
-    <mergeCell ref="A868:E868"/>
-    <mergeCell ref="A821:E821"/>
-    <mergeCell ref="A831:E831"/>
-    <mergeCell ref="A841:E841"/>
-    <mergeCell ref="A850:E850"/>
-    <mergeCell ref="A859:E859"/>
-    <mergeCell ref="A877:E877"/>
-    <mergeCell ref="A887:E887"/>
-    <mergeCell ref="A894:E894"/>
+    <mergeCell ref="A776:E776"/>
+    <mergeCell ref="A1135:E1135"/>
+    <mergeCell ref="A1148:E1148"/>
+    <mergeCell ref="A1158:E1158"/>
+    <mergeCell ref="A1089:E1089"/>
+    <mergeCell ref="A1098:E1098"/>
+    <mergeCell ref="A1108:E1108"/>
+    <mergeCell ref="A1117:E1117"/>
+    <mergeCell ref="A1126:E1126"/>
+    <mergeCell ref="A952:E952"/>
+    <mergeCell ref="A964:E964"/>
+    <mergeCell ref="A992:E992"/>
+    <mergeCell ref="A1080:E1080"/>
+    <mergeCell ref="A1049:E1049"/>
+    <mergeCell ref="A1060:E1060"/>
+    <mergeCell ref="A1070:E1070"/>
+    <mergeCell ref="A1001:E1001"/>
+    <mergeCell ref="A1011:E1011"/>
+    <mergeCell ref="A1020:E1020"/>
+    <mergeCell ref="A1029:E1029"/>
+    <mergeCell ref="A1039:E1039"/>
+    <mergeCell ref="A983:E983"/>
+    <mergeCell ref="A606:E606"/>
+    <mergeCell ref="A624:E624"/>
+    <mergeCell ref="A634:E634"/>
+    <mergeCell ref="A649:E649"/>
+    <mergeCell ref="A664:E664"/>
+    <mergeCell ref="A679:E679"/>
+    <mergeCell ref="A694:E694"/>
+    <mergeCell ref="A767:E767"/>
+    <mergeCell ref="A709:E709"/>
+    <mergeCell ref="A724:E724"/>
+    <mergeCell ref="A740:E740"/>
+    <mergeCell ref="A750:E750"/>
+    <mergeCell ref="A758:E758"/>
+    <mergeCell ref="A401:E401"/>
+    <mergeCell ref="A408:E408"/>
+    <mergeCell ref="A415:E415"/>
+    <mergeCell ref="A473:E473"/>
+    <mergeCell ref="A489:E489"/>
+    <mergeCell ref="A504:E504"/>
+    <mergeCell ref="A519:E519"/>
+    <mergeCell ref="A424:E424"/>
+    <mergeCell ref="A433:E433"/>
+    <mergeCell ref="A441:E441"/>
+    <mergeCell ref="A456:E456"/>
+    <mergeCell ref="A463:E463"/>
+    <mergeCell ref="A366:E366"/>
+    <mergeCell ref="A375:E375"/>
+    <mergeCell ref="A306:E306"/>
+    <mergeCell ref="A318:E318"/>
+    <mergeCell ref="A330:E330"/>
+    <mergeCell ref="A343:E343"/>
+    <mergeCell ref="A353:E353"/>
+    <mergeCell ref="A383:E383"/>
+    <mergeCell ref="A392:E392"/>
     <mergeCell ref="A250:E250"/>
     <mergeCell ref="A260:E260"/>
     <mergeCell ref="A270:E270"/>
@@ -16285,65 +16315,49 @@
     <mergeCell ref="A170:E170"/>
     <mergeCell ref="A185:E185"/>
     <mergeCell ref="A200:E200"/>
-    <mergeCell ref="A366:E366"/>
-    <mergeCell ref="A375:E375"/>
-    <mergeCell ref="A306:E306"/>
-    <mergeCell ref="A318:E318"/>
-    <mergeCell ref="A330:E330"/>
-    <mergeCell ref="A343:E343"/>
-    <mergeCell ref="A353:E353"/>
-    <mergeCell ref="A383:E383"/>
-    <mergeCell ref="A392:E392"/>
-    <mergeCell ref="A401:E401"/>
-    <mergeCell ref="A408:E408"/>
-    <mergeCell ref="A415:E415"/>
-    <mergeCell ref="A473:E473"/>
-    <mergeCell ref="A489:E489"/>
-    <mergeCell ref="A504:E504"/>
-    <mergeCell ref="A519:E519"/>
-    <mergeCell ref="A424:E424"/>
-    <mergeCell ref="A433:E433"/>
-    <mergeCell ref="A441:E441"/>
-    <mergeCell ref="A456:E456"/>
-    <mergeCell ref="A463:E463"/>
+    <mergeCell ref="A903:E903"/>
+    <mergeCell ref="A912:E912"/>
+    <mergeCell ref="A974:E974"/>
+    <mergeCell ref="A921:E921"/>
+    <mergeCell ref="A931:E931"/>
+    <mergeCell ref="A942:E942"/>
+    <mergeCell ref="A534:E534"/>
+    <mergeCell ref="A549:E549"/>
+    <mergeCell ref="A567:E567"/>
+    <mergeCell ref="A576:E576"/>
+    <mergeCell ref="A591:E591"/>
+    <mergeCell ref="A785:E785"/>
+    <mergeCell ref="A868:E868"/>
+    <mergeCell ref="A821:E821"/>
+    <mergeCell ref="A831:E831"/>
+    <mergeCell ref="A841:E841"/>
+    <mergeCell ref="A850:E850"/>
+    <mergeCell ref="A859:E859"/>
+    <mergeCell ref="A877:E877"/>
+    <mergeCell ref="A887:E887"/>
+    <mergeCell ref="A894:E894"/>
     <mergeCell ref="A794:E794"/>
     <mergeCell ref="A803:E803"/>
     <mergeCell ref="A812:E812"/>
-    <mergeCell ref="A606:E606"/>
-    <mergeCell ref="A624:E624"/>
-    <mergeCell ref="A634:E634"/>
-    <mergeCell ref="A649:E649"/>
-    <mergeCell ref="A664:E664"/>
-    <mergeCell ref="A679:E679"/>
-    <mergeCell ref="A694:E694"/>
-    <mergeCell ref="A767:E767"/>
-    <mergeCell ref="A709:E709"/>
-    <mergeCell ref="A724:E724"/>
-    <mergeCell ref="A740:E740"/>
-    <mergeCell ref="A750:E750"/>
-    <mergeCell ref="A758:E758"/>
-    <mergeCell ref="A776:E776"/>
-    <mergeCell ref="A1135:E1135"/>
-    <mergeCell ref="A1148:E1148"/>
-    <mergeCell ref="A1158:E1158"/>
-    <mergeCell ref="A1089:E1089"/>
-    <mergeCell ref="A1098:E1098"/>
-    <mergeCell ref="A1108:E1108"/>
-    <mergeCell ref="A1117:E1117"/>
-    <mergeCell ref="A1126:E1126"/>
-    <mergeCell ref="A952:E952"/>
-    <mergeCell ref="A964:E964"/>
-    <mergeCell ref="A992:E992"/>
-    <mergeCell ref="A1080:E1080"/>
-    <mergeCell ref="A1049:E1049"/>
-    <mergeCell ref="A1060:E1060"/>
-    <mergeCell ref="A1070:E1070"/>
-    <mergeCell ref="A1001:E1001"/>
-    <mergeCell ref="A1011:E1011"/>
-    <mergeCell ref="A1020:E1020"/>
-    <mergeCell ref="A1029:E1029"/>
-    <mergeCell ref="A1039:E1039"/>
-    <mergeCell ref="A983:E983"/>
+    <mergeCell ref="A1168:E1168"/>
+    <mergeCell ref="A1183:E1183"/>
+    <mergeCell ref="A1193:E1193"/>
+    <mergeCell ref="A1202:E1202"/>
+    <mergeCell ref="A1211:E1211"/>
+    <mergeCell ref="A1220:E1220"/>
+    <mergeCell ref="A1231:E1231"/>
+    <mergeCell ref="A1240:E1240"/>
+    <mergeCell ref="A1249:E1249"/>
+    <mergeCell ref="A1352:F1352"/>
+    <mergeCell ref="A1363:F1363"/>
+    <mergeCell ref="A1262:F1262"/>
+    <mergeCell ref="A1275:F1275"/>
+    <mergeCell ref="A1289:F1289"/>
+    <mergeCell ref="A1301:F1301"/>
+    <mergeCell ref="A1309:F1309"/>
+    <mergeCell ref="A1315:F1315"/>
+    <mergeCell ref="A1329:F1329"/>
+    <mergeCell ref="A1341:F1341"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -16371,13 +16385,13 @@
       </c>
     </row>
     <row r="4" spans="2:6" ht="19.5" thickBot="1">
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="43"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="48"/>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="4" t="s">
@@ -16423,13 +16437,13 @@
     </row>
     <row r="8" spans="2:6" ht="15.75" thickBot="1"/>
     <row r="9" spans="2:6" ht="19.5" thickBot="1">
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="43"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="48"/>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="4" t="s">
@@ -16502,13 +16516,13 @@
     </row>
     <row r="15" spans="2:6" ht="15.75" thickBot="1"/>
     <row r="16" spans="2:6" ht="19.5" thickBot="1">
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="43"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="48"/>
     </row>
     <row r="17" spans="2:6" ht="15.75" thickBot="1">
       <c r="B17" s="4" t="s">
@@ -16570,13 +16584,13 @@
     </row>
     <row r="21" spans="2:6" ht="15.75" thickBot="1"/>
     <row r="22" spans="2:6" ht="19.5" thickBot="1">
-      <c r="B22" s="41" t="s">
+      <c r="B22" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="43"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="48"/>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="4" t="s">
@@ -16650,13 +16664,13 @@
     </row>
     <row r="28" spans="2:6" ht="15.75" thickBot="1"/>
     <row r="29" spans="2:6" ht="19.5" thickBot="1">
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="43"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="48"/>
     </row>
     <row r="30" spans="2:6">
       <c r="B30" s="4" t="s">
@@ -16729,13 +16743,13 @@
     </row>
     <row r="35" spans="2:6" ht="15.75" thickBot="1"/>
     <row r="36" spans="2:6" ht="19.5" thickBot="1">
-      <c r="B36" s="41" t="s">
+      <c r="B36" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="43"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="48"/>
     </row>
     <row r="37" spans="2:6">
       <c r="B37" s="4" t="s">
@@ -16796,13 +16810,13 @@
     </row>
     <row r="41" spans="2:6" ht="15.75" thickBot="1"/>
     <row r="42" spans="2:6" ht="19.5" thickBot="1">
-      <c r="B42" s="41" t="s">
+      <c r="B42" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C42" s="42"/>
-      <c r="D42" s="42"/>
-      <c r="E42" s="42"/>
-      <c r="F42" s="43"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="48"/>
     </row>
     <row r="43" spans="2:6">
       <c r="B43" s="4" t="s">
@@ -16863,13 +16877,13 @@
     </row>
     <row r="47" spans="2:6" ht="15.75" thickBot="1"/>
     <row r="48" spans="2:6" ht="19.5" thickBot="1">
-      <c r="B48" s="41" t="s">
+      <c r="B48" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="C48" s="42"/>
-      <c r="D48" s="42"/>
-      <c r="E48" s="42"/>
-      <c r="F48" s="43"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="47"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="48"/>
     </row>
     <row r="49" spans="2:6">
       <c r="B49" s="4" t="s">
@@ -16932,13 +16946,13 @@
     </row>
     <row r="53" spans="2:6" ht="15.75" thickBot="1"/>
     <row r="54" spans="2:6" ht="19.5" thickBot="1">
-      <c r="B54" s="41" t="s">
+      <c r="B54" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="C54" s="42"/>
-      <c r="D54" s="42"/>
-      <c r="E54" s="42"/>
-      <c r="F54" s="43"/>
+      <c r="C54" s="47"/>
+      <c r="D54" s="47"/>
+      <c r="E54" s="47"/>
+      <c r="F54" s="48"/>
     </row>
     <row r="55" spans="2:6">
       <c r="B55" s="4" t="s">
@@ -16999,13 +17013,13 @@
     </row>
     <row r="59" spans="2:6" ht="15.75" thickBot="1"/>
     <row r="60" spans="2:6" ht="19.5" thickBot="1">
-      <c r="B60" s="41" t="s">
+      <c r="B60" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="C60" s="42"/>
-      <c r="D60" s="42"/>
-      <c r="E60" s="42"/>
-      <c r="F60" s="43"/>
+      <c r="C60" s="47"/>
+      <c r="D60" s="47"/>
+      <c r="E60" s="47"/>
+      <c r="F60" s="48"/>
     </row>
     <row r="61" spans="2:6">
       <c r="B61" s="4" t="s">

--- a/SANDEEP STAFF.xlsx
+++ b/SANDEEP STAFF.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1767" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1840" uniqueCount="389">
   <si>
     <t xml:space="preserve">opening balance </t>
   </si>
@@ -1149,6 +1149,39 @@
   </si>
   <si>
     <t>RAMPUR TORAHA TO HOTEL</t>
+  </si>
+  <si>
+    <t>03.07.24</t>
+  </si>
+  <si>
+    <t>04.07.24</t>
+  </si>
+  <si>
+    <t>MJF TO DELHI</t>
+  </si>
+  <si>
+    <t>DELHI TO KANPUR</t>
+  </si>
+  <si>
+    <t>07.07.24</t>
+  </si>
+  <si>
+    <t>KANPUR TO MJF</t>
+  </si>
+  <si>
+    <t>MJF TO BHARAT OORJHA</t>
+  </si>
+  <si>
+    <t>OORJHA TO MJF</t>
+  </si>
+  <si>
+    <t>08.07.24</t>
+  </si>
+  <si>
+    <t>09.07.24</t>
+  </si>
+  <si>
+    <t>10.07.24</t>
   </si>
 </sst>
 </file>
@@ -1726,15 +1759,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1747,6 +1774,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1756,9 +1792,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2061,10 +2094,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1372"/>
+  <dimension ref="A1:F1433"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1353" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A1363" sqref="A1363:F1363"/>
+    <sheetView tabSelected="1" topLeftCell="A1413" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B1429" sqref="B1429"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14972,14 +15005,14 @@
       </c>
     </row>
     <row r="1262" spans="1:6" ht="18.75">
-      <c r="A1262" s="39" t="s">
+      <c r="A1262" s="46" t="s">
         <v>339</v>
       </c>
-      <c r="B1262" s="40"/>
-      <c r="C1262" s="40"/>
-      <c r="D1262" s="40"/>
-      <c r="E1262" s="40"/>
-      <c r="F1262" s="41"/>
+      <c r="B1262" s="47"/>
+      <c r="C1262" s="47"/>
+      <c r="D1262" s="47"/>
+      <c r="E1262" s="47"/>
+      <c r="F1262" s="48"/>
     </row>
     <row r="1263" spans="1:6">
       <c r="A1263" s="5" t="s">
@@ -15118,14 +15151,14 @@
       </c>
     </row>
     <row r="1275" spans="1:6" ht="18.75">
-      <c r="A1275" s="39" t="s">
+      <c r="A1275" s="46" t="s">
         <v>346</v>
       </c>
-      <c r="B1275" s="40"/>
-      <c r="C1275" s="40"/>
-      <c r="D1275" s="40"/>
-      <c r="E1275" s="40"/>
-      <c r="F1275" s="41"/>
+      <c r="B1275" s="47"/>
+      <c r="C1275" s="47"/>
+      <c r="D1275" s="47"/>
+      <c r="E1275" s="47"/>
+      <c r="F1275" s="48"/>
     </row>
     <row r="1276" spans="1:6">
       <c r="A1276" s="5" t="s">
@@ -15278,14 +15311,14 @@
       </c>
     </row>
     <row r="1289" spans="1:6" ht="18.75">
-      <c r="A1289" s="39" t="s">
+      <c r="A1289" s="46" t="s">
         <v>353</v>
       </c>
-      <c r="B1289" s="40"/>
-      <c r="C1289" s="40"/>
-      <c r="D1289" s="40"/>
-      <c r="E1289" s="40"/>
-      <c r="F1289" s="41"/>
+      <c r="B1289" s="47"/>
+      <c r="C1289" s="47"/>
+      <c r="D1289" s="47"/>
+      <c r="E1289" s="47"/>
+      <c r="F1289" s="48"/>
     </row>
     <row r="1290" spans="1:6">
       <c r="A1290" s="5" t="s">
@@ -15412,14 +15445,14 @@
       </c>
     </row>
     <row r="1301" spans="1:6" ht="18.75">
-      <c r="A1301" s="39" t="s">
+      <c r="A1301" s="46" t="s">
         <v>356</v>
       </c>
-      <c r="B1301" s="40"/>
-      <c r="C1301" s="40"/>
-      <c r="D1301" s="40"/>
-      <c r="E1301" s="40"/>
-      <c r="F1301" s="41"/>
+      <c r="B1301" s="47"/>
+      <c r="C1301" s="47"/>
+      <c r="D1301" s="47"/>
+      <c r="E1301" s="47"/>
+      <c r="F1301" s="48"/>
     </row>
     <row r="1302" spans="1:6">
       <c r="A1302" s="5" t="s">
@@ -15498,14 +15531,14 @@
       </c>
     </row>
     <row r="1309" spans="1:6" ht="18.75">
-      <c r="A1309" s="39" t="s">
+      <c r="A1309" s="46" t="s">
         <v>359</v>
       </c>
-      <c r="B1309" s="40"/>
-      <c r="C1309" s="40"/>
-      <c r="D1309" s="40"/>
-      <c r="E1309" s="40"/>
-      <c r="F1309" s="41"/>
+      <c r="B1309" s="47"/>
+      <c r="C1309" s="47"/>
+      <c r="D1309" s="47"/>
+      <c r="E1309" s="47"/>
+      <c r="F1309" s="48"/>
     </row>
     <row r="1310" spans="1:6">
       <c r="A1310" s="5" t="s">
@@ -15560,14 +15593,14 @@
       </c>
     </row>
     <row r="1315" spans="1:6" ht="18.75">
-      <c r="A1315" s="39" t="s">
+      <c r="A1315" s="46" t="s">
         <v>360</v>
       </c>
-      <c r="B1315" s="40"/>
-      <c r="C1315" s="40"/>
-      <c r="D1315" s="40"/>
-      <c r="E1315" s="40"/>
-      <c r="F1315" s="41"/>
+      <c r="B1315" s="47"/>
+      <c r="C1315" s="47"/>
+      <c r="D1315" s="47"/>
+      <c r="E1315" s="47"/>
+      <c r="F1315" s="48"/>
     </row>
     <row r="1316" spans="1:6">
       <c r="A1316" s="5" t="s">
@@ -15718,14 +15751,14 @@
       </c>
     </row>
     <row r="1329" spans="1:6" ht="18.75">
-      <c r="A1329" s="39" t="s">
+      <c r="A1329" s="46" t="s">
         <v>368</v>
       </c>
-      <c r="B1329" s="40"/>
-      <c r="C1329" s="40"/>
-      <c r="D1329" s="40"/>
-      <c r="E1329" s="40"/>
-      <c r="F1329" s="41"/>
+      <c r="B1329" s="47"/>
+      <c r="C1329" s="47"/>
+      <c r="D1329" s="47"/>
+      <c r="E1329" s="47"/>
+      <c r="F1329" s="48"/>
     </row>
     <row r="1330" spans="1:6">
       <c r="A1330" s="5" t="s">
@@ -15854,14 +15887,14 @@
       </c>
     </row>
     <row r="1341" spans="1:6" ht="18.75">
-      <c r="A1341" s="39" t="s">
+      <c r="A1341" s="46" t="s">
         <v>372</v>
       </c>
-      <c r="B1341" s="40"/>
-      <c r="C1341" s="40"/>
-      <c r="D1341" s="40"/>
-      <c r="E1341" s="40"/>
-      <c r="F1341" s="41"/>
+      <c r="B1341" s="47"/>
+      <c r="C1341" s="47"/>
+      <c r="D1341" s="47"/>
+      <c r="E1341" s="47"/>
+      <c r="F1341" s="48"/>
     </row>
     <row r="1342" spans="1:6">
       <c r="A1342" s="5" t="s">
@@ -15976,14 +16009,14 @@
       </c>
     </row>
     <row r="1352" spans="1:6" ht="18.75">
-      <c r="A1352" s="39" t="s">
+      <c r="A1352" s="46" t="s">
         <v>373</v>
       </c>
-      <c r="B1352" s="40"/>
-      <c r="C1352" s="40"/>
-      <c r="D1352" s="40"/>
-      <c r="E1352" s="40"/>
-      <c r="F1352" s="41"/>
+      <c r="B1352" s="47"/>
+      <c r="C1352" s="47"/>
+      <c r="D1352" s="47"/>
+      <c r="E1352" s="47"/>
+      <c r="F1352" s="48"/>
     </row>
     <row r="1353" spans="1:6">
       <c r="A1353" s="5" t="s">
@@ -16098,14 +16131,14 @@
       </c>
     </row>
     <row r="1363" spans="1:6" ht="18.75">
-      <c r="A1363" s="39" t="s">
+      <c r="A1363" s="46" t="s">
         <v>374</v>
       </c>
-      <c r="B1363" s="40"/>
-      <c r="C1363" s="40"/>
-      <c r="D1363" s="40"/>
-      <c r="E1363" s="40"/>
-      <c r="F1363" s="41"/>
+      <c r="B1363" s="47"/>
+      <c r="C1363" s="47"/>
+      <c r="D1363" s="47"/>
+      <c r="E1363" s="47"/>
+      <c r="F1363" s="48"/>
     </row>
     <row r="1364" spans="1:6">
       <c r="A1364" s="5" t="s">
@@ -16123,7 +16156,7 @@
       <c r="E1364" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="F1364" s="49"/>
+      <c r="F1364" s="39"/>
     </row>
     <row r="1365" spans="1:6">
       <c r="A1365" s="7">
@@ -16140,7 +16173,7 @@
         <v>3000</v>
       </c>
       <c r="E1365" s="36"/>
-      <c r="F1365" s="50"/>
+      <c r="F1365" s="40"/>
     </row>
     <row r="1366" spans="1:6">
       <c r="A1366" s="7"/>
@@ -16152,7 +16185,7 @@
       </c>
       <c r="D1366" s="8"/>
       <c r="E1366" s="36"/>
-      <c r="F1366" s="50"/>
+      <c r="F1366" s="40"/>
     </row>
     <row r="1367" spans="1:6">
       <c r="A1367" s="7"/>
@@ -16164,7 +16197,7 @@
       </c>
       <c r="D1367" s="8"/>
       <c r="E1367" s="36"/>
-      <c r="F1367" s="50"/>
+      <c r="F1367" s="40"/>
     </row>
     <row r="1368" spans="1:6">
       <c r="A1368" s="7"/>
@@ -16176,7 +16209,7 @@
       </c>
       <c r="D1368" s="8"/>
       <c r="E1368" s="36"/>
-      <c r="F1368" s="50"/>
+      <c r="F1368" s="40"/>
     </row>
     <row r="1369" spans="1:6">
       <c r="A1369" s="7"/>
@@ -16188,7 +16221,7 @@
       </c>
       <c r="D1369" s="8"/>
       <c r="E1369" s="36"/>
-      <c r="F1369" s="50"/>
+      <c r="F1369" s="40"/>
     </row>
     <row r="1370" spans="1:6">
       <c r="A1370" s="7"/>
@@ -16200,7 +16233,7 @@
       </c>
       <c r="D1370" s="8"/>
       <c r="E1370" s="36"/>
-      <c r="F1370" s="50"/>
+      <c r="F1370" s="40"/>
     </row>
     <row r="1371" spans="1:6">
       <c r="A1371" s="7"/>
@@ -16212,7 +16245,7 @@
       </c>
       <c r="D1371" s="8"/>
       <c r="E1371" s="36"/>
-      <c r="F1371" s="50"/>
+      <c r="F1371" s="40"/>
     </row>
     <row r="1372" spans="1:6">
       <c r="A1372" s="34"/>
@@ -16228,69 +16261,736 @@
         <f>A1365-C1372</f>
         <v>-14442</v>
       </c>
-      <c r="F1372" s="51">
+      <c r="F1372" s="41">
         <f>E1372+45</f>
         <v>-14397</v>
       </c>
     </row>
+    <row r="1375" spans="1:6" ht="18.75">
+      <c r="A1375" s="46" t="s">
+        <v>378</v>
+      </c>
+      <c r="B1375" s="47"/>
+      <c r="C1375" s="47"/>
+      <c r="D1375" s="47"/>
+      <c r="E1375" s="47"/>
+      <c r="F1375" s="48"/>
+    </row>
+    <row r="1376" spans="1:6">
+      <c r="A1376" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1376" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1376" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1376" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1376" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1376" s="39"/>
+    </row>
+    <row r="1377" spans="1:6">
+      <c r="A1377" s="7">
+        <f>E1372+D1377</f>
+        <v>-14442</v>
+      </c>
+      <c r="B1377" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="C1377" s="5">
+        <v>20</v>
+      </c>
+      <c r="D1377" s="8"/>
+      <c r="E1377" s="36"/>
+      <c r="F1377" s="40"/>
+    </row>
+    <row r="1378" spans="1:6">
+      <c r="A1378" s="7"/>
+      <c r="B1378" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="C1378" s="5">
+        <v>30</v>
+      </c>
+      <c r="D1378" s="8"/>
+      <c r="E1378" s="36"/>
+      <c r="F1378" s="40"/>
+    </row>
+    <row r="1379" spans="1:6">
+      <c r="A1379" s="7"/>
+      <c r="B1379" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="C1379" s="5">
+        <v>30</v>
+      </c>
+      <c r="D1379" s="8"/>
+      <c r="E1379" s="36"/>
+      <c r="F1379" s="40"/>
+    </row>
+    <row r="1380" spans="1:6">
+      <c r="A1380" s="7"/>
+      <c r="B1380" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="C1380" s="5">
+        <v>20</v>
+      </c>
+      <c r="D1380" s="8"/>
+      <c r="E1380" s="36"/>
+      <c r="F1380" s="40"/>
+    </row>
+    <row r="1381" spans="1:6">
+      <c r="A1381" s="7"/>
+      <c r="B1381" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1381" s="5">
+        <v>300</v>
+      </c>
+      <c r="D1381" s="8"/>
+      <c r="E1381" s="36"/>
+      <c r="F1381" s="40"/>
+    </row>
+    <row r="1382" spans="1:6">
+      <c r="A1382" s="7"/>
+      <c r="B1382" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1382" s="5">
+        <v>550</v>
+      </c>
+      <c r="D1382" s="8"/>
+      <c r="E1382" s="36"/>
+      <c r="F1382" s="40"/>
+    </row>
+    <row r="1383" spans="1:6">
+      <c r="A1383" s="34"/>
+      <c r="B1383" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1383" s="7">
+        <f>SUM(C1377:C1382)</f>
+        <v>950</v>
+      </c>
+      <c r="D1383" s="34"/>
+      <c r="E1383" s="35">
+        <f>A1377-C1383</f>
+        <v>-15392</v>
+      </c>
+      <c r="F1383" s="41">
+        <f>E1383-5</f>
+        <v>-15397</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:6" ht="18.75">
+      <c r="A1386" s="46" t="s">
+        <v>379</v>
+      </c>
+      <c r="B1386" s="47"/>
+      <c r="C1386" s="47"/>
+      <c r="D1386" s="47"/>
+      <c r="E1386" s="47"/>
+      <c r="F1386" s="48"/>
+    </row>
+    <row r="1387" spans="1:6">
+      <c r="A1387" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1387" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1387" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1387" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1387" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1387" s="39"/>
+    </row>
+    <row r="1388" spans="1:6">
+      <c r="A1388" s="7">
+        <f>E1383+D1388</f>
+        <v>-13892</v>
+      </c>
+      <c r="B1388" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="C1388" s="5">
+        <v>20</v>
+      </c>
+      <c r="D1388" s="8">
+        <v>1500</v>
+      </c>
+      <c r="E1388" s="36"/>
+      <c r="F1388" s="40"/>
+    </row>
+    <row r="1389" spans="1:6">
+      <c r="A1389" s="7"/>
+      <c r="B1389" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="C1389" s="5">
+        <v>30</v>
+      </c>
+      <c r="D1389" s="8"/>
+      <c r="E1389" s="36"/>
+      <c r="F1389" s="40"/>
+    </row>
+    <row r="1390" spans="1:6">
+      <c r="A1390" s="7"/>
+      <c r="B1390" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="C1390" s="5">
+        <v>30</v>
+      </c>
+      <c r="D1390" s="8"/>
+      <c r="E1390" s="36"/>
+      <c r="F1390" s="40"/>
+    </row>
+    <row r="1391" spans="1:6">
+      <c r="A1391" s="7"/>
+      <c r="B1391" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="C1391" s="5">
+        <v>20</v>
+      </c>
+      <c r="D1391" s="8"/>
+      <c r="E1391" s="36"/>
+      <c r="F1391" s="40"/>
+    </row>
+    <row r="1392" spans="1:6">
+      <c r="A1392" s="7"/>
+      <c r="B1392" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C1392" s="5">
+        <v>1600</v>
+      </c>
+      <c r="D1392" s="8"/>
+      <c r="E1392" s="36"/>
+      <c r="F1392" s="40"/>
+    </row>
+    <row r="1393" spans="1:6">
+      <c r="A1393" s="7"/>
+      <c r="B1393" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1393" s="5">
+        <v>300</v>
+      </c>
+      <c r="D1393" s="8"/>
+      <c r="E1393" s="36"/>
+      <c r="F1393" s="40"/>
+    </row>
+    <row r="1394" spans="1:6">
+      <c r="A1394" s="7"/>
+      <c r="B1394" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="C1394" s="5">
+        <v>200</v>
+      </c>
+      <c r="D1394" s="8"/>
+      <c r="E1394" s="36"/>
+      <c r="F1394" s="40"/>
+    </row>
+    <row r="1395" spans="1:6">
+      <c r="A1395" s="7"/>
+      <c r="B1395" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="C1395" s="5">
+        <v>700</v>
+      </c>
+      <c r="D1395" s="8"/>
+      <c r="E1395" s="36"/>
+      <c r="F1395" s="40"/>
+    </row>
+    <row r="1396" spans="1:6">
+      <c r="A1396" s="34"/>
+      <c r="B1396" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1396" s="7">
+        <f>SUM(C1388:C1395)</f>
+        <v>2900</v>
+      </c>
+      <c r="D1396" s="34"/>
+      <c r="E1396" s="35">
+        <f>A1388-C1396</f>
+        <v>-16792</v>
+      </c>
+      <c r="F1396" s="41">
+        <f>E1396+45</f>
+        <v>-16747</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:6" ht="18.75">
+      <c r="A1399" s="46" t="s">
+        <v>382</v>
+      </c>
+      <c r="B1399" s="47"/>
+      <c r="C1399" s="47"/>
+      <c r="D1399" s="47"/>
+      <c r="E1399" s="47"/>
+      <c r="F1399" s="48"/>
+    </row>
+    <row r="1400" spans="1:6">
+      <c r="A1400" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1400" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1400" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1400" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1400" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1400" s="39"/>
+    </row>
+    <row r="1401" spans="1:6">
+      <c r="A1401" s="7">
+        <f>E1396+D1401</f>
+        <v>-10428</v>
+      </c>
+      <c r="B1401" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="C1401" s="5">
+        <v>1364</v>
+      </c>
+      <c r="D1401" s="8">
+        <v>6364</v>
+      </c>
+      <c r="E1401" s="36"/>
+      <c r="F1401" s="40"/>
+    </row>
+    <row r="1402" spans="1:6">
+      <c r="A1402" s="7"/>
+      <c r="B1402" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="C1402" s="5">
+        <v>70</v>
+      </c>
+      <c r="D1402" s="8"/>
+      <c r="E1402" s="36"/>
+      <c r="F1402" s="40"/>
+    </row>
+    <row r="1403" spans="1:6">
+      <c r="A1403" s="7"/>
+      <c r="B1403" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="C1403" s="5">
+        <v>70</v>
+      </c>
+      <c r="D1403" s="8"/>
+      <c r="E1403" s="36"/>
+      <c r="F1403" s="40"/>
+    </row>
+    <row r="1404" spans="1:6">
+      <c r="A1404" s="7"/>
+      <c r="B1404" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1404" s="5">
+        <v>300</v>
+      </c>
+      <c r="D1404" s="8"/>
+      <c r="E1404" s="36"/>
+      <c r="F1404" s="40"/>
+    </row>
+    <row r="1405" spans="1:6">
+      <c r="A1405" s="7"/>
+      <c r="B1405" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1405" s="5">
+        <v>500</v>
+      </c>
+      <c r="D1405" s="8"/>
+      <c r="E1405" s="36"/>
+      <c r="F1405" s="40"/>
+    </row>
+    <row r="1406" spans="1:6">
+      <c r="A1406" s="34"/>
+      <c r="B1406" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1406" s="7">
+        <f>SUM(C1401:C1405)</f>
+        <v>2304</v>
+      </c>
+      <c r="D1406" s="34"/>
+      <c r="E1406" s="35">
+        <f>A1401-C1406</f>
+        <v>-12732</v>
+      </c>
+      <c r="F1406" s="41">
+        <f>E1406+45</f>
+        <v>-12687</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:6" ht="18.75">
+      <c r="A1409" s="46" t="s">
+        <v>386</v>
+      </c>
+      <c r="B1409" s="47"/>
+      <c r="C1409" s="47"/>
+      <c r="D1409" s="47"/>
+      <c r="E1409" s="47"/>
+      <c r="F1409" s="48"/>
+    </row>
+    <row r="1410" spans="1:6">
+      <c r="A1410" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1410" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1410" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1410" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1410" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1410" s="39"/>
+    </row>
+    <row r="1411" spans="1:6">
+      <c r="A1411" s="7">
+        <f>E1406+D1411</f>
+        <v>-12732</v>
+      </c>
+      <c r="B1411" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="C1411" s="5">
+        <v>70</v>
+      </c>
+      <c r="D1411" s="8"/>
+      <c r="E1411" s="36"/>
+      <c r="F1411" s="40"/>
+    </row>
+    <row r="1412" spans="1:6">
+      <c r="A1412" s="7"/>
+      <c r="B1412" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="C1412" s="5">
+        <v>70</v>
+      </c>
+      <c r="D1412" s="8"/>
+      <c r="E1412" s="36"/>
+      <c r="F1412" s="40"/>
+    </row>
+    <row r="1413" spans="1:6">
+      <c r="A1413" s="7"/>
+      <c r="B1413" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1413" s="5">
+        <v>300</v>
+      </c>
+      <c r="D1413" s="8"/>
+      <c r="E1413" s="36"/>
+      <c r="F1413" s="40"/>
+    </row>
+    <row r="1414" spans="1:6">
+      <c r="A1414" s="7"/>
+      <c r="B1414" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1414" s="5">
+        <v>500</v>
+      </c>
+      <c r="D1414" s="8"/>
+      <c r="E1414" s="36"/>
+      <c r="F1414" s="40"/>
+    </row>
+    <row r="1415" spans="1:6">
+      <c r="A1415" s="34"/>
+      <c r="B1415" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1415" s="7">
+        <f>SUM(C1411:C1414)</f>
+        <v>940</v>
+      </c>
+      <c r="D1415" s="34"/>
+      <c r="E1415" s="35">
+        <f>A1411-C1415</f>
+        <v>-13672</v>
+      </c>
+      <c r="F1415" s="41">
+        <f>E1415+45</f>
+        <v>-13627</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:6" ht="18.75">
+      <c r="A1418" s="46" t="s">
+        <v>387</v>
+      </c>
+      <c r="B1418" s="47"/>
+      <c r="C1418" s="47"/>
+      <c r="D1418" s="47"/>
+      <c r="E1418" s="47"/>
+      <c r="F1418" s="48"/>
+    </row>
+    <row r="1419" spans="1:6">
+      <c r="A1419" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1419" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1419" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1419" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1419" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1419" s="39"/>
+    </row>
+    <row r="1420" spans="1:6">
+      <c r="A1420" s="7">
+        <f>E1415+D1420</f>
+        <v>-13672</v>
+      </c>
+      <c r="B1420" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="C1420" s="5">
+        <v>70</v>
+      </c>
+      <c r="D1420" s="8"/>
+      <c r="E1420" s="36"/>
+      <c r="F1420" s="40"/>
+    </row>
+    <row r="1421" spans="1:6">
+      <c r="A1421" s="7"/>
+      <c r="B1421" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="C1421" s="5">
+        <v>70</v>
+      </c>
+      <c r="D1421" s="8"/>
+      <c r="E1421" s="36"/>
+      <c r="F1421" s="40"/>
+    </row>
+    <row r="1422" spans="1:6">
+      <c r="A1422" s="7"/>
+      <c r="B1422" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1422" s="5">
+        <v>300</v>
+      </c>
+      <c r="D1422" s="8"/>
+      <c r="E1422" s="36"/>
+      <c r="F1422" s="40"/>
+    </row>
+    <row r="1423" spans="1:6">
+      <c r="A1423" s="7"/>
+      <c r="B1423" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1423" s="5">
+        <v>500</v>
+      </c>
+      <c r="D1423" s="8"/>
+      <c r="E1423" s="36"/>
+      <c r="F1423" s="40"/>
+    </row>
+    <row r="1424" spans="1:6">
+      <c r="A1424" s="34"/>
+      <c r="B1424" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1424" s="7">
+        <f>SUM(C1420:C1423)</f>
+        <v>940</v>
+      </c>
+      <c r="D1424" s="34"/>
+      <c r="E1424" s="35">
+        <f>A1420-C1424</f>
+        <v>-14612</v>
+      </c>
+      <c r="F1424" s="41">
+        <f>E1424+45</f>
+        <v>-14567</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:6" ht="18.75">
+      <c r="A1427" s="46" t="s">
+        <v>388</v>
+      </c>
+      <c r="B1427" s="47"/>
+      <c r="C1427" s="47"/>
+      <c r="D1427" s="47"/>
+      <c r="E1427" s="47"/>
+      <c r="F1427" s="48"/>
+    </row>
+    <row r="1428" spans="1:6">
+      <c r="A1428" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1428" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1428" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1428" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1428" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1428" s="39"/>
+    </row>
+    <row r="1429" spans="1:6">
+      <c r="A1429" s="7">
+        <f>E1424+D1429</f>
+        <v>-14612</v>
+      </c>
+      <c r="B1429" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="C1429" s="5">
+        <v>70</v>
+      </c>
+      <c r="D1429" s="8"/>
+      <c r="E1429" s="36"/>
+      <c r="F1429" s="40"/>
+    </row>
+    <row r="1430" spans="1:6">
+      <c r="A1430" s="7"/>
+      <c r="B1430" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="C1430" s="5">
+        <v>70</v>
+      </c>
+      <c r="D1430" s="8"/>
+      <c r="E1430" s="36"/>
+      <c r="F1430" s="40"/>
+    </row>
+    <row r="1431" spans="1:6">
+      <c r="A1431" s="7"/>
+      <c r="B1431" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1431" s="5">
+        <v>300</v>
+      </c>
+      <c r="D1431" s="8"/>
+      <c r="E1431" s="36"/>
+      <c r="F1431" s="40"/>
+    </row>
+    <row r="1432" spans="1:6">
+      <c r="A1432" s="7"/>
+      <c r="B1432" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1432" s="5">
+        <v>500</v>
+      </c>
+      <c r="D1432" s="8"/>
+      <c r="E1432" s="36"/>
+      <c r="F1432" s="40"/>
+    </row>
+    <row r="1433" spans="1:6">
+      <c r="A1433" s="34"/>
+      <c r="B1433" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1433" s="7">
+        <f>SUM(C1429:C1432)</f>
+        <v>940</v>
+      </c>
+      <c r="D1433" s="34"/>
+      <c r="E1433" s="35">
+        <f>A1429-C1433</f>
+        <v>-15552</v>
+      </c>
+      <c r="F1433" s="41">
+        <f>E1433+45</f>
+        <v>-15507</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="123">
-    <mergeCell ref="A776:E776"/>
-    <mergeCell ref="A1135:E1135"/>
-    <mergeCell ref="A1148:E1148"/>
-    <mergeCell ref="A1158:E1158"/>
-    <mergeCell ref="A1089:E1089"/>
-    <mergeCell ref="A1098:E1098"/>
-    <mergeCell ref="A1108:E1108"/>
-    <mergeCell ref="A1117:E1117"/>
-    <mergeCell ref="A1126:E1126"/>
-    <mergeCell ref="A952:E952"/>
-    <mergeCell ref="A964:E964"/>
-    <mergeCell ref="A992:E992"/>
-    <mergeCell ref="A1080:E1080"/>
-    <mergeCell ref="A1049:E1049"/>
-    <mergeCell ref="A1060:E1060"/>
-    <mergeCell ref="A1070:E1070"/>
-    <mergeCell ref="A1001:E1001"/>
-    <mergeCell ref="A1011:E1011"/>
-    <mergeCell ref="A1020:E1020"/>
-    <mergeCell ref="A1029:E1029"/>
-    <mergeCell ref="A1039:E1039"/>
-    <mergeCell ref="A983:E983"/>
-    <mergeCell ref="A606:E606"/>
-    <mergeCell ref="A624:E624"/>
-    <mergeCell ref="A634:E634"/>
-    <mergeCell ref="A649:E649"/>
-    <mergeCell ref="A664:E664"/>
-    <mergeCell ref="A679:E679"/>
-    <mergeCell ref="A694:E694"/>
-    <mergeCell ref="A767:E767"/>
-    <mergeCell ref="A709:E709"/>
-    <mergeCell ref="A724:E724"/>
-    <mergeCell ref="A740:E740"/>
-    <mergeCell ref="A750:E750"/>
-    <mergeCell ref="A758:E758"/>
-    <mergeCell ref="A401:E401"/>
-    <mergeCell ref="A408:E408"/>
-    <mergeCell ref="A415:E415"/>
-    <mergeCell ref="A473:E473"/>
-    <mergeCell ref="A489:E489"/>
-    <mergeCell ref="A504:E504"/>
-    <mergeCell ref="A519:E519"/>
-    <mergeCell ref="A424:E424"/>
-    <mergeCell ref="A433:E433"/>
-    <mergeCell ref="A441:E441"/>
-    <mergeCell ref="A456:E456"/>
-    <mergeCell ref="A463:E463"/>
-    <mergeCell ref="A366:E366"/>
-    <mergeCell ref="A375:E375"/>
-    <mergeCell ref="A306:E306"/>
-    <mergeCell ref="A318:E318"/>
-    <mergeCell ref="A330:E330"/>
-    <mergeCell ref="A343:E343"/>
-    <mergeCell ref="A353:E353"/>
-    <mergeCell ref="A383:E383"/>
-    <mergeCell ref="A392:E392"/>
+  <mergeCells count="129">
+    <mergeCell ref="A1375:F1375"/>
+    <mergeCell ref="A1386:F1386"/>
+    <mergeCell ref="A1399:F1399"/>
+    <mergeCell ref="A1409:F1409"/>
+    <mergeCell ref="A1418:F1418"/>
+    <mergeCell ref="A1427:F1427"/>
+    <mergeCell ref="A1352:F1352"/>
+    <mergeCell ref="A1363:F1363"/>
+    <mergeCell ref="A1262:F1262"/>
+    <mergeCell ref="A1275:F1275"/>
+    <mergeCell ref="A1289:F1289"/>
+    <mergeCell ref="A1301:F1301"/>
+    <mergeCell ref="A1309:F1309"/>
+    <mergeCell ref="A1315:F1315"/>
+    <mergeCell ref="A1329:F1329"/>
+    <mergeCell ref="A1341:F1341"/>
+    <mergeCell ref="A1168:E1168"/>
+    <mergeCell ref="A1183:E1183"/>
+    <mergeCell ref="A1193:E1193"/>
+    <mergeCell ref="A1202:E1202"/>
+    <mergeCell ref="A1211:E1211"/>
+    <mergeCell ref="A1220:E1220"/>
+    <mergeCell ref="A1231:E1231"/>
+    <mergeCell ref="A1240:E1240"/>
+    <mergeCell ref="A1249:E1249"/>
+    <mergeCell ref="A974:E974"/>
+    <mergeCell ref="A921:E921"/>
+    <mergeCell ref="A931:E931"/>
+    <mergeCell ref="A942:E942"/>
+    <mergeCell ref="A534:E534"/>
+    <mergeCell ref="A549:E549"/>
+    <mergeCell ref="A567:E567"/>
+    <mergeCell ref="A576:E576"/>
+    <mergeCell ref="A591:E591"/>
+    <mergeCell ref="A785:E785"/>
+    <mergeCell ref="A868:E868"/>
+    <mergeCell ref="A821:E821"/>
+    <mergeCell ref="A831:E831"/>
+    <mergeCell ref="A841:E841"/>
+    <mergeCell ref="A850:E850"/>
+    <mergeCell ref="A859:E859"/>
+    <mergeCell ref="A877:E877"/>
+    <mergeCell ref="A887:E887"/>
+    <mergeCell ref="A894:E894"/>
+    <mergeCell ref="A794:E794"/>
+    <mergeCell ref="A803:E803"/>
+    <mergeCell ref="A812:E812"/>
     <mergeCell ref="A250:E250"/>
     <mergeCell ref="A260:E260"/>
     <mergeCell ref="A270:E270"/>
@@ -16315,49 +17015,64 @@
     <mergeCell ref="A170:E170"/>
     <mergeCell ref="A185:E185"/>
     <mergeCell ref="A200:E200"/>
+    <mergeCell ref="A366:E366"/>
+    <mergeCell ref="A375:E375"/>
+    <mergeCell ref="A306:E306"/>
+    <mergeCell ref="A318:E318"/>
+    <mergeCell ref="A330:E330"/>
+    <mergeCell ref="A343:E343"/>
+    <mergeCell ref="A353:E353"/>
+    <mergeCell ref="A383:E383"/>
+    <mergeCell ref="A392:E392"/>
+    <mergeCell ref="A401:E401"/>
+    <mergeCell ref="A408:E408"/>
+    <mergeCell ref="A415:E415"/>
+    <mergeCell ref="A473:E473"/>
+    <mergeCell ref="A489:E489"/>
+    <mergeCell ref="A504:E504"/>
+    <mergeCell ref="A519:E519"/>
+    <mergeCell ref="A424:E424"/>
+    <mergeCell ref="A433:E433"/>
+    <mergeCell ref="A441:E441"/>
+    <mergeCell ref="A456:E456"/>
+    <mergeCell ref="A463:E463"/>
+    <mergeCell ref="A606:E606"/>
+    <mergeCell ref="A624:E624"/>
+    <mergeCell ref="A634:E634"/>
+    <mergeCell ref="A649:E649"/>
+    <mergeCell ref="A664:E664"/>
+    <mergeCell ref="A679:E679"/>
+    <mergeCell ref="A694:E694"/>
+    <mergeCell ref="A767:E767"/>
+    <mergeCell ref="A709:E709"/>
+    <mergeCell ref="A724:E724"/>
+    <mergeCell ref="A740:E740"/>
+    <mergeCell ref="A750:E750"/>
+    <mergeCell ref="A758:E758"/>
+    <mergeCell ref="A776:E776"/>
+    <mergeCell ref="A1135:E1135"/>
+    <mergeCell ref="A1148:E1148"/>
+    <mergeCell ref="A1158:E1158"/>
+    <mergeCell ref="A1089:E1089"/>
+    <mergeCell ref="A1098:E1098"/>
+    <mergeCell ref="A1108:E1108"/>
+    <mergeCell ref="A1117:E1117"/>
+    <mergeCell ref="A1126:E1126"/>
+    <mergeCell ref="A952:E952"/>
+    <mergeCell ref="A964:E964"/>
+    <mergeCell ref="A992:E992"/>
+    <mergeCell ref="A1080:E1080"/>
+    <mergeCell ref="A1049:E1049"/>
+    <mergeCell ref="A1060:E1060"/>
+    <mergeCell ref="A1070:E1070"/>
+    <mergeCell ref="A1001:E1001"/>
+    <mergeCell ref="A1011:E1011"/>
+    <mergeCell ref="A1020:E1020"/>
+    <mergeCell ref="A1029:E1029"/>
+    <mergeCell ref="A1039:E1039"/>
+    <mergeCell ref="A983:E983"/>
     <mergeCell ref="A903:E903"/>
     <mergeCell ref="A912:E912"/>
-    <mergeCell ref="A974:E974"/>
-    <mergeCell ref="A921:E921"/>
-    <mergeCell ref="A931:E931"/>
-    <mergeCell ref="A942:E942"/>
-    <mergeCell ref="A534:E534"/>
-    <mergeCell ref="A549:E549"/>
-    <mergeCell ref="A567:E567"/>
-    <mergeCell ref="A576:E576"/>
-    <mergeCell ref="A591:E591"/>
-    <mergeCell ref="A785:E785"/>
-    <mergeCell ref="A868:E868"/>
-    <mergeCell ref="A821:E821"/>
-    <mergeCell ref="A831:E831"/>
-    <mergeCell ref="A841:E841"/>
-    <mergeCell ref="A850:E850"/>
-    <mergeCell ref="A859:E859"/>
-    <mergeCell ref="A877:E877"/>
-    <mergeCell ref="A887:E887"/>
-    <mergeCell ref="A894:E894"/>
-    <mergeCell ref="A794:E794"/>
-    <mergeCell ref="A803:E803"/>
-    <mergeCell ref="A812:E812"/>
-    <mergeCell ref="A1168:E1168"/>
-    <mergeCell ref="A1183:E1183"/>
-    <mergeCell ref="A1193:E1193"/>
-    <mergeCell ref="A1202:E1202"/>
-    <mergeCell ref="A1211:E1211"/>
-    <mergeCell ref="A1220:E1220"/>
-    <mergeCell ref="A1231:E1231"/>
-    <mergeCell ref="A1240:E1240"/>
-    <mergeCell ref="A1249:E1249"/>
-    <mergeCell ref="A1352:F1352"/>
-    <mergeCell ref="A1363:F1363"/>
-    <mergeCell ref="A1262:F1262"/>
-    <mergeCell ref="A1275:F1275"/>
-    <mergeCell ref="A1289:F1289"/>
-    <mergeCell ref="A1301:F1301"/>
-    <mergeCell ref="A1309:F1309"/>
-    <mergeCell ref="A1315:F1315"/>
-    <mergeCell ref="A1329:F1329"/>
-    <mergeCell ref="A1341:F1341"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -16385,13 +17100,13 @@
       </c>
     </row>
     <row r="4" spans="2:6" ht="19.5" thickBot="1">
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="48"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="51"/>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="4" t="s">
@@ -16437,13 +17152,13 @@
     </row>
     <row r="8" spans="2:6" ht="15.75" thickBot="1"/>
     <row r="9" spans="2:6" ht="19.5" thickBot="1">
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="48"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="51"/>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="4" t="s">
@@ -16516,13 +17231,13 @@
     </row>
     <row r="15" spans="2:6" ht="15.75" thickBot="1"/>
     <row r="16" spans="2:6" ht="19.5" thickBot="1">
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="48"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="51"/>
     </row>
     <row r="17" spans="2:6" ht="15.75" thickBot="1">
       <c r="B17" s="4" t="s">
@@ -16584,13 +17299,13 @@
     </row>
     <row r="21" spans="2:6" ht="15.75" thickBot="1"/>
     <row r="22" spans="2:6" ht="19.5" thickBot="1">
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="48"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="51"/>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="4" t="s">
@@ -16664,13 +17379,13 @@
     </row>
     <row r="28" spans="2:6" ht="15.75" thickBot="1"/>
     <row r="29" spans="2:6" ht="19.5" thickBot="1">
-      <c r="B29" s="46" t="s">
+      <c r="B29" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="48"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="51"/>
     </row>
     <row r="30" spans="2:6">
       <c r="B30" s="4" t="s">
@@ -16743,13 +17458,13 @@
     </row>
     <row r="35" spans="2:6" ht="15.75" thickBot="1"/>
     <row r="36" spans="2:6" ht="19.5" thickBot="1">
-      <c r="B36" s="46" t="s">
+      <c r="B36" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="48"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="51"/>
     </row>
     <row r="37" spans="2:6">
       <c r="B37" s="4" t="s">
@@ -16810,13 +17525,13 @@
     </row>
     <row r="41" spans="2:6" ht="15.75" thickBot="1"/>
     <row r="42" spans="2:6" ht="19.5" thickBot="1">
-      <c r="B42" s="46" t="s">
+      <c r="B42" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C42" s="47"/>
-      <c r="D42" s="47"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="48"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="51"/>
     </row>
     <row r="43" spans="2:6">
       <c r="B43" s="4" t="s">
@@ -16877,13 +17592,13 @@
     </row>
     <row r="47" spans="2:6" ht="15.75" thickBot="1"/>
     <row r="48" spans="2:6" ht="19.5" thickBot="1">
-      <c r="B48" s="46" t="s">
+      <c r="B48" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="C48" s="47"/>
-      <c r="D48" s="47"/>
-      <c r="E48" s="47"/>
-      <c r="F48" s="48"/>
+      <c r="C48" s="50"/>
+      <c r="D48" s="50"/>
+      <c r="E48" s="50"/>
+      <c r="F48" s="51"/>
     </row>
     <row r="49" spans="2:6">
       <c r="B49" s="4" t="s">
@@ -16946,13 +17661,13 @@
     </row>
     <row r="53" spans="2:6" ht="15.75" thickBot="1"/>
     <row r="54" spans="2:6" ht="19.5" thickBot="1">
-      <c r="B54" s="46" t="s">
+      <c r="B54" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="C54" s="47"/>
-      <c r="D54" s="47"/>
-      <c r="E54" s="47"/>
-      <c r="F54" s="48"/>
+      <c r="C54" s="50"/>
+      <c r="D54" s="50"/>
+      <c r="E54" s="50"/>
+      <c r="F54" s="51"/>
     </row>
     <row r="55" spans="2:6">
       <c r="B55" s="4" t="s">
@@ -17013,13 +17728,13 @@
     </row>
     <row r="59" spans="2:6" ht="15.75" thickBot="1"/>
     <row r="60" spans="2:6" ht="19.5" thickBot="1">
-      <c r="B60" s="46" t="s">
+      <c r="B60" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="C60" s="47"/>
-      <c r="D60" s="47"/>
-      <c r="E60" s="47"/>
-      <c r="F60" s="48"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="50"/>
+      <c r="E60" s="50"/>
+      <c r="F60" s="51"/>
     </row>
     <row r="61" spans="2:6">
       <c r="B61" s="4" t="s">

--- a/SANDEEP STAFF.xlsx
+++ b/SANDEEP STAFF.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1840" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1934" uniqueCount="408">
   <si>
     <t xml:space="preserve">opening balance </t>
   </si>
@@ -1182,6 +1182,63 @@
   </si>
   <si>
     <t>10.07.24</t>
+  </si>
+  <si>
+    <t>11.07.24</t>
+  </si>
+  <si>
+    <t>12.07.24</t>
+  </si>
+  <si>
+    <t>13.07.24</t>
+  </si>
+  <si>
+    <t>14.07.24</t>
+  </si>
+  <si>
+    <t>15.07.24</t>
+  </si>
+  <si>
+    <t>MJF TO GOPAL GANJ</t>
+  </si>
+  <si>
+    <t>GOPAL GANJ TO GORAKHPUR</t>
+  </si>
+  <si>
+    <t>GORAKHPUR TO MEERUT</t>
+  </si>
+  <si>
+    <t>MEERUT TO IPL MUZAFFAR NAGAR</t>
+  </si>
+  <si>
+    <t>16.07.24</t>
+  </si>
+  <si>
+    <t>RAMPUR TIRAHA TO HOTEL</t>
+  </si>
+  <si>
+    <t>17.07.24</t>
+  </si>
+  <si>
+    <t>IPL TO MUZAFFAR NAGAR</t>
+  </si>
+  <si>
+    <t>MUZAFFAR NAGAR TO MEERUT</t>
+  </si>
+  <si>
+    <t>MEERUT TO DELHI BUS STAND</t>
+  </si>
+  <si>
+    <t>DELHI BUS STAND TO GORAKHPUR</t>
+  </si>
+  <si>
+    <t>18.07.24</t>
+  </si>
+  <si>
+    <t>BIHAR BUS STAND TO GOPAL GANJ</t>
+  </si>
+  <si>
+    <t>GOPAL GANJ TO MUZAFFARPUR</t>
   </si>
 </sst>
 </file>
@@ -1762,6 +1819,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1772,15 +1838,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2094,10 +2151,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1433"/>
+  <dimension ref="A1:F1511"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1413" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B1429" sqref="B1429"/>
+    <sheetView tabSelected="1" topLeftCell="A1497" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C1511" sqref="C1511"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2118,13 +2175,13 @@
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="45"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="48"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
@@ -2211,13 +2268,13 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="18.75">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4" t="s">
@@ -2357,13 +2414,13 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="18.75">
-      <c r="A26" s="42" t="s">
+      <c r="A26" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="4" t="s">
@@ -2490,13 +2547,13 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="18.75">
-      <c r="A39" s="42" t="s">
+      <c r="A39" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="B39" s="42"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="42"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="4" t="s">
@@ -2601,13 +2658,13 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="18.75">
-      <c r="A50" s="42" t="s">
+      <c r="A50" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="B50" s="42"/>
-      <c r="C50" s="42"/>
-      <c r="D50" s="42"/>
-      <c r="E50" s="42"/>
+      <c r="B50" s="45"/>
+      <c r="C50" s="45"/>
+      <c r="D50" s="45"/>
+      <c r="E50" s="45"/>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="4" t="s">
@@ -2726,13 +2783,13 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="18.75">
-      <c r="A62" s="42" t="s">
+      <c r="A62" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="B62" s="42"/>
-      <c r="C62" s="42"/>
-      <c r="D62" s="42"/>
-      <c r="E62" s="42"/>
+      <c r="B62" s="45"/>
+      <c r="C62" s="45"/>
+      <c r="D62" s="45"/>
+      <c r="E62" s="45"/>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="4" t="s">
@@ -2828,13 +2885,13 @@
       </c>
     </row>
     <row r="72" spans="1:5" ht="18.75">
-      <c r="A72" s="42" t="s">
+      <c r="A72" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="B72" s="42"/>
-      <c r="C72" s="42"/>
-      <c r="D72" s="42"/>
-      <c r="E72" s="42"/>
+      <c r="B72" s="45"/>
+      <c r="C72" s="45"/>
+      <c r="D72" s="45"/>
+      <c r="E72" s="45"/>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="4" t="s">
@@ -2939,13 +2996,13 @@
       </c>
     </row>
     <row r="82" spans="1:5" ht="18.75">
-      <c r="A82" s="42" t="s">
+      <c r="A82" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="B82" s="42"/>
-      <c r="C82" s="42"/>
-      <c r="D82" s="42"/>
-      <c r="E82" s="42"/>
+      <c r="B82" s="45"/>
+      <c r="C82" s="45"/>
+      <c r="D82" s="45"/>
+      <c r="E82" s="45"/>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="4" t="s">
@@ -3094,13 +3151,13 @@
       </c>
     </row>
     <row r="95" spans="1:5" ht="18.75">
-      <c r="A95" s="42" t="s">
+      <c r="A95" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="B95" s="42"/>
-      <c r="C95" s="42"/>
-      <c r="D95" s="42"/>
-      <c r="E95" s="42"/>
+      <c r="B95" s="45"/>
+      <c r="C95" s="45"/>
+      <c r="D95" s="45"/>
+      <c r="E95" s="45"/>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="4" t="s">
@@ -3252,13 +3309,13 @@
       </c>
     </row>
     <row r="110" spans="1:6" ht="18.75">
-      <c r="A110" s="42" t="s">
+      <c r="A110" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="B110" s="42"/>
-      <c r="C110" s="42"/>
-      <c r="D110" s="42"/>
-      <c r="E110" s="42"/>
+      <c r="B110" s="45"/>
+      <c r="C110" s="45"/>
+      <c r="D110" s="45"/>
+      <c r="E110" s="45"/>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="4" t="s">
@@ -3407,13 +3464,13 @@
       </c>
     </row>
     <row r="125" spans="1:6" ht="18.75">
-      <c r="A125" s="42" t="s">
+      <c r="A125" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B125" s="42"/>
-      <c r="C125" s="42"/>
-      <c r="D125" s="42"/>
-      <c r="E125" s="42"/>
+      <c r="B125" s="45"/>
+      <c r="C125" s="45"/>
+      <c r="D125" s="45"/>
+      <c r="E125" s="45"/>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="4" t="s">
@@ -3570,13 +3627,13 @@
       </c>
     </row>
     <row r="140" spans="1:6" ht="18.75">
-      <c r="A140" s="42" t="s">
+      <c r="A140" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="B140" s="42"/>
-      <c r="C140" s="42"/>
-      <c r="D140" s="42"/>
-      <c r="E140" s="42"/>
+      <c r="B140" s="45"/>
+      <c r="C140" s="45"/>
+      <c r="D140" s="45"/>
+      <c r="E140" s="45"/>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="4" t="s">
@@ -3725,13 +3782,13 @@
       </c>
     </row>
     <row r="155" spans="1:5" ht="18.75">
-      <c r="A155" s="42" t="s">
+      <c r="A155" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="B155" s="42"/>
-      <c r="C155" s="42"/>
-      <c r="D155" s="42"/>
-      <c r="E155" s="42"/>
+      <c r="B155" s="45"/>
+      <c r="C155" s="45"/>
+      <c r="D155" s="45"/>
+      <c r="E155" s="45"/>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="4" t="s">
@@ -3880,13 +3937,13 @@
       </c>
     </row>
     <row r="170" spans="1:5" ht="18.75">
-      <c r="A170" s="42" t="s">
+      <c r="A170" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B170" s="42"/>
-      <c r="C170" s="42"/>
-      <c r="D170" s="42"/>
-      <c r="E170" s="42"/>
+      <c r="B170" s="45"/>
+      <c r="C170" s="45"/>
+      <c r="D170" s="45"/>
+      <c r="E170" s="45"/>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="4" t="s">
@@ -4035,13 +4092,13 @@
       </c>
     </row>
     <row r="185" spans="1:5" ht="18.75">
-      <c r="A185" s="42" t="s">
+      <c r="A185" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="B185" s="42"/>
-      <c r="C185" s="42"/>
-      <c r="D185" s="42"/>
-      <c r="E185" s="42"/>
+      <c r="B185" s="45"/>
+      <c r="C185" s="45"/>
+      <c r="D185" s="45"/>
+      <c r="E185" s="45"/>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="4" t="s">
@@ -4190,13 +4247,13 @@
       </c>
     </row>
     <row r="200" spans="1:5" ht="18.75">
-      <c r="A200" s="42" t="s">
+      <c r="A200" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="B200" s="42"/>
-      <c r="C200" s="42"/>
-      <c r="D200" s="42"/>
-      <c r="E200" s="42"/>
+      <c r="B200" s="45"/>
+      <c r="C200" s="45"/>
+      <c r="D200" s="45"/>
+      <c r="E200" s="45"/>
     </row>
     <row r="201" spans="1:5">
       <c r="A201" s="4" t="s">
@@ -4345,13 +4402,13 @@
       </c>
     </row>
     <row r="215" spans="1:5" ht="18.75">
-      <c r="A215" s="42" t="s">
+      <c r="A215" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="B215" s="42"/>
-      <c r="C215" s="42"/>
-      <c r="D215" s="42"/>
-      <c r="E215" s="42"/>
+      <c r="B215" s="45"/>
+      <c r="C215" s="45"/>
+      <c r="D215" s="45"/>
+      <c r="E215" s="45"/>
     </row>
     <row r="216" spans="1:5">
       <c r="A216" s="4" t="s">
@@ -4500,13 +4557,13 @@
       </c>
     </row>
     <row r="230" spans="1:5" ht="18.75">
-      <c r="A230" s="42" t="s">
+      <c r="A230" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="B230" s="42"/>
-      <c r="C230" s="42"/>
-      <c r="D230" s="42"/>
-      <c r="E230" s="42"/>
+      <c r="B230" s="45"/>
+      <c r="C230" s="45"/>
+      <c r="D230" s="45"/>
+      <c r="E230" s="45"/>
     </row>
     <row r="231" spans="1:5">
       <c r="A231" s="4" t="s">
@@ -4601,13 +4658,13 @@
       </c>
     </row>
     <row r="240" spans="1:5" ht="18.75">
-      <c r="A240" s="42" t="s">
+      <c r="A240" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="B240" s="42"/>
-      <c r="C240" s="42"/>
-      <c r="D240" s="42"/>
-      <c r="E240" s="42"/>
+      <c r="B240" s="45"/>
+      <c r="C240" s="45"/>
+      <c r="D240" s="45"/>
+      <c r="E240" s="45"/>
     </row>
     <row r="241" spans="1:5">
       <c r="A241" s="4" t="s">
@@ -4701,13 +4758,13 @@
       </c>
     </row>
     <row r="250" spans="1:5" ht="18.75">
-      <c r="A250" s="42" t="s">
+      <c r="A250" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="B250" s="42"/>
-      <c r="C250" s="42"/>
-      <c r="D250" s="42"/>
-      <c r="E250" s="42"/>
+      <c r="B250" s="45"/>
+      <c r="C250" s="45"/>
+      <c r="D250" s="45"/>
+      <c r="E250" s="45"/>
     </row>
     <row r="251" spans="1:5">
       <c r="A251" s="4" t="s">
@@ -4801,13 +4858,13 @@
       </c>
     </row>
     <row r="260" spans="1:5" ht="18.75">
-      <c r="A260" s="42" t="s">
+      <c r="A260" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="B260" s="42"/>
-      <c r="C260" s="42"/>
-      <c r="D260" s="42"/>
-      <c r="E260" s="42"/>
+      <c r="B260" s="45"/>
+      <c r="C260" s="45"/>
+      <c r="D260" s="45"/>
+      <c r="E260" s="45"/>
     </row>
     <row r="261" spans="1:5">
       <c r="A261" s="4" t="s">
@@ -4903,13 +4960,13 @@
       </c>
     </row>
     <row r="270" spans="1:5" ht="18.75">
-      <c r="A270" s="42" t="s">
+      <c r="A270" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="B270" s="42"/>
-      <c r="C270" s="42"/>
-      <c r="D270" s="42"/>
-      <c r="E270" s="42"/>
+      <c r="B270" s="45"/>
+      <c r="C270" s="45"/>
+      <c r="D270" s="45"/>
+      <c r="E270" s="45"/>
     </row>
     <row r="271" spans="1:5">
       <c r="A271" s="4" t="s">
@@ -5025,13 +5082,13 @@
       </c>
     </row>
     <row r="282" spans="1:5" ht="18.75">
-      <c r="A282" s="42" t="s">
+      <c r="A282" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="B282" s="42"/>
-      <c r="C282" s="42"/>
-      <c r="D282" s="42"/>
-      <c r="E282" s="42"/>
+      <c r="B282" s="45"/>
+      <c r="C282" s="45"/>
+      <c r="D282" s="45"/>
+      <c r="E282" s="45"/>
     </row>
     <row r="283" spans="1:5">
       <c r="A283" s="4" t="s">
@@ -5147,13 +5204,13 @@
       </c>
     </row>
     <row r="294" spans="1:5" ht="18.75">
-      <c r="A294" s="42" t="s">
+      <c r="A294" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="B294" s="42"/>
-      <c r="C294" s="42"/>
-      <c r="D294" s="42"/>
-      <c r="E294" s="42"/>
+      <c r="B294" s="45"/>
+      <c r="C294" s="45"/>
+      <c r="D294" s="45"/>
+      <c r="E294" s="45"/>
     </row>
     <row r="295" spans="1:5">
       <c r="A295" s="4" t="s">
@@ -5269,13 +5326,13 @@
       </c>
     </row>
     <row r="306" spans="1:5" ht="18.75">
-      <c r="A306" s="42" t="s">
+      <c r="A306" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="B306" s="42"/>
-      <c r="C306" s="42"/>
-      <c r="D306" s="42"/>
-      <c r="E306" s="42"/>
+      <c r="B306" s="45"/>
+      <c r="C306" s="45"/>
+      <c r="D306" s="45"/>
+      <c r="E306" s="45"/>
     </row>
     <row r="307" spans="1:5">
       <c r="A307" s="4" t="s">
@@ -5393,13 +5450,13 @@
       </c>
     </row>
     <row r="318" spans="1:5" ht="18.75">
-      <c r="A318" s="42" t="s">
+      <c r="A318" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="B318" s="42"/>
-      <c r="C318" s="42"/>
-      <c r="D318" s="42"/>
-      <c r="E318" s="42"/>
+      <c r="B318" s="45"/>
+      <c r="C318" s="45"/>
+      <c r="D318" s="45"/>
+      <c r="E318" s="45"/>
     </row>
     <row r="319" spans="1:5">
       <c r="A319" s="4" t="s">
@@ -5515,13 +5572,13 @@
       </c>
     </row>
     <row r="330" spans="1:5" ht="18.75">
-      <c r="A330" s="42" t="s">
+      <c r="A330" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="B330" s="42"/>
-      <c r="C330" s="42"/>
-      <c r="D330" s="42"/>
-      <c r="E330" s="42"/>
+      <c r="B330" s="45"/>
+      <c r="C330" s="45"/>
+      <c r="D330" s="45"/>
+      <c r="E330" s="45"/>
     </row>
     <row r="331" spans="1:5">
       <c r="A331" s="4" t="s">
@@ -5648,13 +5705,13 @@
       </c>
     </row>
     <row r="343" spans="1:5" ht="18.75">
-      <c r="A343" s="42" t="s">
+      <c r="A343" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="B343" s="42"/>
-      <c r="C343" s="42"/>
-      <c r="D343" s="42"/>
-      <c r="E343" s="42"/>
+      <c r="B343" s="45"/>
+      <c r="C343" s="45"/>
+      <c r="D343" s="45"/>
+      <c r="E343" s="45"/>
     </row>
     <row r="344" spans="1:5">
       <c r="A344" s="4" t="s">
@@ -5748,13 +5805,13 @@
       </c>
     </row>
     <row r="353" spans="1:5" ht="18.75">
-      <c r="A353" s="42" t="s">
+      <c r="A353" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="B353" s="42"/>
-      <c r="C353" s="42"/>
-      <c r="D353" s="42"/>
-      <c r="E353" s="42"/>
+      <c r="B353" s="45"/>
+      <c r="C353" s="45"/>
+      <c r="D353" s="45"/>
+      <c r="E353" s="45"/>
     </row>
     <row r="354" spans="1:5">
       <c r="A354" s="4" t="s">
@@ -5881,13 +5938,13 @@
       </c>
     </row>
     <row r="366" spans="1:5" ht="18.75">
-      <c r="A366" s="42" t="s">
+      <c r="A366" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="B366" s="42"/>
-      <c r="C366" s="42"/>
-      <c r="D366" s="42"/>
-      <c r="E366" s="42"/>
+      <c r="B366" s="45"/>
+      <c r="C366" s="45"/>
+      <c r="D366" s="45"/>
+      <c r="E366" s="45"/>
     </row>
     <row r="367" spans="1:5">
       <c r="A367" s="4" t="s">
@@ -5972,13 +6029,13 @@
       </c>
     </row>
     <row r="375" spans="1:5" ht="18.75">
-      <c r="A375" s="42" t="s">
+      <c r="A375" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="B375" s="42"/>
-      <c r="C375" s="42"/>
-      <c r="D375" s="42"/>
-      <c r="E375" s="42"/>
+      <c r="B375" s="45"/>
+      <c r="C375" s="45"/>
+      <c r="D375" s="45"/>
+      <c r="E375" s="45"/>
     </row>
     <row r="376" spans="1:5">
       <c r="A376" s="4" t="s">
@@ -6050,13 +6107,13 @@
       </c>
     </row>
     <row r="383" spans="1:5" ht="18.75">
-      <c r="A383" s="42" t="s">
+      <c r="A383" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="B383" s="42"/>
-      <c r="C383" s="42"/>
-      <c r="D383" s="42"/>
-      <c r="E383" s="42"/>
+      <c r="B383" s="45"/>
+      <c r="C383" s="45"/>
+      <c r="D383" s="45"/>
+      <c r="E383" s="45"/>
     </row>
     <row r="384" spans="1:5">
       <c r="A384" s="4" t="s">
@@ -6141,13 +6198,13 @@
       </c>
     </row>
     <row r="392" spans="1:5" ht="18.75">
-      <c r="A392" s="42" t="s">
+      <c r="A392" s="45" t="s">
         <v>137</v>
       </c>
-      <c r="B392" s="42"/>
-      <c r="C392" s="42"/>
-      <c r="D392" s="42"/>
-      <c r="E392" s="42"/>
+      <c r="B392" s="45"/>
+      <c r="C392" s="45"/>
+      <c r="D392" s="45"/>
+      <c r="E392" s="45"/>
     </row>
     <row r="393" spans="1:5">
       <c r="A393" s="4" t="s">
@@ -6230,13 +6287,13 @@
       </c>
     </row>
     <row r="401" spans="1:5" ht="18.75">
-      <c r="A401" s="42" t="s">
+      <c r="A401" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="B401" s="42"/>
-      <c r="C401" s="42"/>
-      <c r="D401" s="42"/>
-      <c r="E401" s="42"/>
+      <c r="B401" s="45"/>
+      <c r="C401" s="45"/>
+      <c r="D401" s="45"/>
+      <c r="E401" s="45"/>
     </row>
     <row r="402" spans="1:5">
       <c r="A402" s="4" t="s">
@@ -6297,13 +6354,13 @@
       </c>
     </row>
     <row r="408" spans="1:5" ht="18.75">
-      <c r="A408" s="42" t="s">
+      <c r="A408" s="45" t="s">
         <v>140</v>
       </c>
-      <c r="B408" s="42"/>
-      <c r="C408" s="42"/>
-      <c r="D408" s="42"/>
-      <c r="E408" s="42"/>
+      <c r="B408" s="45"/>
+      <c r="C408" s="45"/>
+      <c r="D408" s="45"/>
+      <c r="E408" s="45"/>
     </row>
     <row r="409" spans="1:5">
       <c r="A409" s="4" t="s">
@@ -6364,13 +6421,13 @@
       </c>
     </row>
     <row r="415" spans="1:5" ht="18.75">
-      <c r="A415" s="42" t="s">
+      <c r="A415" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="B415" s="42"/>
-      <c r="C415" s="42"/>
-      <c r="D415" s="42"/>
-      <c r="E415" s="42"/>
+      <c r="B415" s="45"/>
+      <c r="C415" s="45"/>
+      <c r="D415" s="45"/>
+      <c r="E415" s="45"/>
     </row>
     <row r="416" spans="1:5">
       <c r="A416" s="4" t="s">
@@ -6453,13 +6510,13 @@
       </c>
     </row>
     <row r="424" spans="1:5" ht="18.75">
-      <c r="A424" s="42" t="s">
+      <c r="A424" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="B424" s="42"/>
-      <c r="C424" s="42"/>
-      <c r="D424" s="42"/>
-      <c r="E424" s="42"/>
+      <c r="B424" s="45"/>
+      <c r="C424" s="45"/>
+      <c r="D424" s="45"/>
+      <c r="E424" s="45"/>
     </row>
     <row r="425" spans="1:5">
       <c r="A425" s="4" t="s">
@@ -6542,13 +6599,13 @@
       </c>
     </row>
     <row r="433" spans="1:5" ht="18.75">
-      <c r="A433" s="42" t="s">
+      <c r="A433" s="45" t="s">
         <v>145</v>
       </c>
-      <c r="B433" s="42"/>
-      <c r="C433" s="42"/>
-      <c r="D433" s="42"/>
-      <c r="E433" s="42"/>
+      <c r="B433" s="45"/>
+      <c r="C433" s="45"/>
+      <c r="D433" s="45"/>
+      <c r="E433" s="45"/>
     </row>
     <row r="434" spans="1:5">
       <c r="A434" s="4" t="s">
@@ -6620,13 +6677,13 @@
       </c>
     </row>
     <row r="441" spans="1:5" ht="18.75">
-      <c r="A441" s="42" t="s">
+      <c r="A441" s="45" t="s">
         <v>147</v>
       </c>
-      <c r="B441" s="42"/>
-      <c r="C441" s="42"/>
-      <c r="D441" s="42"/>
-      <c r="E441" s="42"/>
+      <c r="B441" s="45"/>
+      <c r="C441" s="45"/>
+      <c r="D441" s="45"/>
+      <c r="E441" s="45"/>
     </row>
     <row r="442" spans="1:5">
       <c r="A442" s="4" t="s">
@@ -6777,13 +6834,13 @@
       </c>
     </row>
     <row r="456" spans="1:5" ht="18.75">
-      <c r="A456" s="42" t="s">
+      <c r="A456" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="B456" s="42"/>
-      <c r="C456" s="42"/>
-      <c r="D456" s="42"/>
-      <c r="E456" s="42"/>
+      <c r="B456" s="45"/>
+      <c r="C456" s="45"/>
+      <c r="D456" s="45"/>
+      <c r="E456" s="45"/>
     </row>
     <row r="457" spans="1:5">
       <c r="A457" s="4" t="s">
@@ -6842,13 +6899,13 @@
       </c>
     </row>
     <row r="463" spans="1:5" ht="18.75">
-      <c r="A463" s="42" t="s">
+      <c r="A463" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="B463" s="42"/>
-      <c r="C463" s="42"/>
-      <c r="D463" s="42"/>
-      <c r="E463" s="42"/>
+      <c r="B463" s="45"/>
+      <c r="C463" s="45"/>
+      <c r="D463" s="45"/>
+      <c r="E463" s="45"/>
     </row>
     <row r="464" spans="1:5">
       <c r="A464" s="4" t="s">
@@ -6942,13 +6999,13 @@
       </c>
     </row>
     <row r="473" spans="1:5" ht="18.75">
-      <c r="A473" s="42" t="s">
+      <c r="A473" s="45" t="s">
         <v>165</v>
       </c>
-      <c r="B473" s="42"/>
-      <c r="C473" s="42"/>
-      <c r="D473" s="42"/>
-      <c r="E473" s="42"/>
+      <c r="B473" s="45"/>
+      <c r="C473" s="45"/>
+      <c r="D473" s="45"/>
+      <c r="E473" s="45"/>
     </row>
     <row r="474" spans="1:5">
       <c r="A474" s="4" t="s">
@@ -7106,13 +7163,13 @@
       </c>
     </row>
     <row r="489" spans="1:5" ht="18.75">
-      <c r="A489" s="42" t="s">
+      <c r="A489" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="B489" s="42"/>
-      <c r="C489" s="42"/>
-      <c r="D489" s="42"/>
-      <c r="E489" s="42"/>
+      <c r="B489" s="45"/>
+      <c r="C489" s="45"/>
+      <c r="D489" s="45"/>
+      <c r="E489" s="45"/>
     </row>
     <row r="490" spans="1:5">
       <c r="A490" s="4" t="s">
@@ -7259,13 +7316,13 @@
       </c>
     </row>
     <row r="504" spans="1:5" ht="18.75">
-      <c r="A504" s="42" t="s">
+      <c r="A504" s="45" t="s">
         <v>172</v>
       </c>
-      <c r="B504" s="42"/>
-      <c r="C504" s="42"/>
-      <c r="D504" s="42"/>
-      <c r="E504" s="42"/>
+      <c r="B504" s="45"/>
+      <c r="C504" s="45"/>
+      <c r="D504" s="45"/>
+      <c r="E504" s="45"/>
     </row>
     <row r="505" spans="1:5">
       <c r="A505" s="4" t="s">
@@ -7412,13 +7469,13 @@
       </c>
     </row>
     <row r="519" spans="1:5" ht="18.75">
-      <c r="A519" s="42" t="s">
+      <c r="A519" s="45" t="s">
         <v>173</v>
       </c>
-      <c r="B519" s="42"/>
-      <c r="C519" s="42"/>
-      <c r="D519" s="42"/>
-      <c r="E519" s="42"/>
+      <c r="B519" s="45"/>
+      <c r="C519" s="45"/>
+      <c r="D519" s="45"/>
+      <c r="E519" s="45"/>
     </row>
     <row r="520" spans="1:5">
       <c r="A520" s="4" t="s">
@@ -7567,13 +7624,13 @@
       </c>
     </row>
     <row r="534" spans="1:5" ht="18.75">
-      <c r="A534" s="42" t="s">
+      <c r="A534" s="45" t="s">
         <v>175</v>
       </c>
-      <c r="B534" s="42"/>
-      <c r="C534" s="42"/>
-      <c r="D534" s="42"/>
-      <c r="E534" s="42"/>
+      <c r="B534" s="45"/>
+      <c r="C534" s="45"/>
+      <c r="D534" s="45"/>
+      <c r="E534" s="45"/>
     </row>
     <row r="535" spans="1:5">
       <c r="A535" s="4" t="s">
@@ -7720,13 +7777,13 @@
       </c>
     </row>
     <row r="549" spans="1:5" ht="18.75">
-      <c r="A549" s="42" t="s">
+      <c r="A549" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="B549" s="42"/>
-      <c r="C549" s="42"/>
-      <c r="D549" s="42"/>
-      <c r="E549" s="42"/>
+      <c r="B549" s="45"/>
+      <c r="C549" s="45"/>
+      <c r="D549" s="45"/>
+      <c r="E549" s="45"/>
     </row>
     <row r="550" spans="1:5">
       <c r="A550" s="4" t="s">
@@ -7906,13 +7963,13 @@
       </c>
     </row>
     <row r="567" spans="1:5" ht="18.75">
-      <c r="A567" s="42" t="s">
+      <c r="A567" s="45" t="s">
         <v>180</v>
       </c>
-      <c r="B567" s="42"/>
-      <c r="C567" s="42"/>
-      <c r="D567" s="42"/>
-      <c r="E567" s="42"/>
+      <c r="B567" s="45"/>
+      <c r="C567" s="45"/>
+      <c r="D567" s="45"/>
+      <c r="E567" s="45"/>
     </row>
     <row r="568" spans="1:5">
       <c r="A568" s="4" t="s">
@@ -7993,13 +8050,13 @@
       </c>
     </row>
     <row r="576" spans="1:5" ht="18.75">
-      <c r="A576" s="42" t="s">
+      <c r="A576" s="45" t="s">
         <v>185</v>
       </c>
-      <c r="B576" s="42"/>
-      <c r="C576" s="42"/>
-      <c r="D576" s="42"/>
-      <c r="E576" s="42"/>
+      <c r="B576" s="45"/>
+      <c r="C576" s="45"/>
+      <c r="D576" s="45"/>
+      <c r="E576" s="45"/>
     </row>
     <row r="577" spans="1:5">
       <c r="A577" s="4" t="s">
@@ -8148,13 +8205,13 @@
       </c>
     </row>
     <row r="591" spans="1:5" ht="18.75">
-      <c r="A591" s="42" t="s">
+      <c r="A591" s="45" t="s">
         <v>186</v>
       </c>
-      <c r="B591" s="42"/>
-      <c r="C591" s="42"/>
-      <c r="D591" s="42"/>
-      <c r="E591" s="42"/>
+      <c r="B591" s="45"/>
+      <c r="C591" s="45"/>
+      <c r="D591" s="45"/>
+      <c r="E591" s="45"/>
     </row>
     <row r="592" spans="1:5">
       <c r="A592" s="4" t="s">
@@ -8301,13 +8358,13 @@
       </c>
     </row>
     <row r="606" spans="1:5" ht="18.75">
-      <c r="A606" s="42" t="s">
+      <c r="A606" s="45" t="s">
         <v>187</v>
       </c>
-      <c r="B606" s="42"/>
-      <c r="C606" s="42"/>
-      <c r="D606" s="42"/>
-      <c r="E606" s="42"/>
+      <c r="B606" s="45"/>
+      <c r="C606" s="45"/>
+      <c r="D606" s="45"/>
+      <c r="E606" s="45"/>
     </row>
     <row r="607" spans="1:5">
       <c r="A607" s="4" t="s">
@@ -8487,13 +8544,13 @@
       </c>
     </row>
     <row r="624" spans="1:5" ht="18.75">
-      <c r="A624" s="42" t="s">
+      <c r="A624" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="B624" s="42"/>
-      <c r="C624" s="42"/>
-      <c r="D624" s="42"/>
-      <c r="E624" s="42"/>
+      <c r="B624" s="45"/>
+      <c r="C624" s="45"/>
+      <c r="D624" s="45"/>
+      <c r="E624" s="45"/>
     </row>
     <row r="625" spans="1:5">
       <c r="A625" s="4" t="s">
@@ -8585,13 +8642,13 @@
       </c>
     </row>
     <row r="634" spans="1:5" ht="18.75">
-      <c r="A634" s="42" t="s">
+      <c r="A634" s="45" t="s">
         <v>194</v>
       </c>
-      <c r="B634" s="42"/>
-      <c r="C634" s="42"/>
-      <c r="D634" s="42"/>
-      <c r="E634" s="42"/>
+      <c r="B634" s="45"/>
+      <c r="C634" s="45"/>
+      <c r="D634" s="45"/>
+      <c r="E634" s="45"/>
     </row>
     <row r="635" spans="1:5">
       <c r="A635" s="4" t="s">
@@ -8740,13 +8797,13 @@
       </c>
     </row>
     <row r="649" spans="1:5" ht="18.75">
-      <c r="A649" s="42" t="s">
+      <c r="A649" s="45" t="s">
         <v>195</v>
       </c>
-      <c r="B649" s="42"/>
-      <c r="C649" s="42"/>
-      <c r="D649" s="42"/>
-      <c r="E649" s="42"/>
+      <c r="B649" s="45"/>
+      <c r="C649" s="45"/>
+      <c r="D649" s="45"/>
+      <c r="E649" s="45"/>
     </row>
     <row r="650" spans="1:5">
       <c r="A650" s="4" t="s">
@@ -8893,13 +8950,13 @@
       </c>
     </row>
     <row r="664" spans="1:5" ht="18.75">
-      <c r="A664" s="42" t="s">
+      <c r="A664" s="45" t="s">
         <v>196</v>
       </c>
-      <c r="B664" s="42"/>
-      <c r="C664" s="42"/>
-      <c r="D664" s="42"/>
-      <c r="E664" s="42"/>
+      <c r="B664" s="45"/>
+      <c r="C664" s="45"/>
+      <c r="D664" s="45"/>
+      <c r="E664" s="45"/>
     </row>
     <row r="665" spans="1:5">
       <c r="A665" s="4" t="s">
@@ -9046,13 +9103,13 @@
       </c>
     </row>
     <row r="679" spans="1:5" ht="18.75">
-      <c r="A679" s="42" t="s">
+      <c r="A679" s="45" t="s">
         <v>197</v>
       </c>
-      <c r="B679" s="42"/>
-      <c r="C679" s="42"/>
-      <c r="D679" s="42"/>
-      <c r="E679" s="42"/>
+      <c r="B679" s="45"/>
+      <c r="C679" s="45"/>
+      <c r="D679" s="45"/>
+      <c r="E679" s="45"/>
     </row>
     <row r="680" spans="1:5">
       <c r="A680" s="4" t="s">
@@ -9199,13 +9256,13 @@
       </c>
     </row>
     <row r="694" spans="1:5" ht="18.75">
-      <c r="A694" s="42" t="s">
+      <c r="A694" s="45" t="s">
         <v>198</v>
       </c>
-      <c r="B694" s="42"/>
-      <c r="C694" s="42"/>
-      <c r="D694" s="42"/>
-      <c r="E694" s="42"/>
+      <c r="B694" s="45"/>
+      <c r="C694" s="45"/>
+      <c r="D694" s="45"/>
+      <c r="E694" s="45"/>
     </row>
     <row r="695" spans="1:5">
       <c r="A695" s="4" t="s">
@@ -9354,13 +9411,13 @@
       </c>
     </row>
     <row r="709" spans="1:5" ht="18.75">
-      <c r="A709" s="42" t="s">
+      <c r="A709" s="45" t="s">
         <v>199</v>
       </c>
-      <c r="B709" s="42"/>
-      <c r="C709" s="42"/>
-      <c r="D709" s="42"/>
-      <c r="E709" s="42"/>
+      <c r="B709" s="45"/>
+      <c r="C709" s="45"/>
+      <c r="D709" s="45"/>
+      <c r="E709" s="45"/>
     </row>
     <row r="710" spans="1:5">
       <c r="A710" s="4" t="s">
@@ -9507,13 +9564,13 @@
       </c>
     </row>
     <row r="724" spans="1:5" ht="18.75">
-      <c r="A724" s="42" t="s">
+      <c r="A724" s="45" t="s">
         <v>201</v>
       </c>
-      <c r="B724" s="42"/>
-      <c r="C724" s="42"/>
-      <c r="D724" s="42"/>
-      <c r="E724" s="42"/>
+      <c r="B724" s="45"/>
+      <c r="C724" s="45"/>
+      <c r="D724" s="45"/>
+      <c r="E724" s="45"/>
     </row>
     <row r="725" spans="1:5">
       <c r="A725" s="4" t="s">
@@ -9671,13 +9728,13 @@
       </c>
     </row>
     <row r="740" spans="1:5" ht="18.75">
-      <c r="A740" s="42" t="s">
+      <c r="A740" s="45" t="s">
         <v>208</v>
       </c>
-      <c r="B740" s="42"/>
-      <c r="C740" s="42"/>
-      <c r="D740" s="42"/>
-      <c r="E740" s="42"/>
+      <c r="B740" s="45"/>
+      <c r="C740" s="45"/>
+      <c r="D740" s="45"/>
+      <c r="E740" s="45"/>
     </row>
     <row r="741" spans="1:5">
       <c r="A741" s="4" t="s">
@@ -9771,13 +9828,13 @@
       </c>
     </row>
     <row r="750" spans="1:5" ht="18.75">
-      <c r="A750" s="42" t="s">
+      <c r="A750" s="45" t="s">
         <v>209</v>
       </c>
-      <c r="B750" s="42"/>
-      <c r="C750" s="42"/>
-      <c r="D750" s="42"/>
-      <c r="E750" s="42"/>
+      <c r="B750" s="45"/>
+      <c r="C750" s="45"/>
+      <c r="D750" s="45"/>
+      <c r="E750" s="45"/>
     </row>
     <row r="751" spans="1:5">
       <c r="A751" s="4" t="s">
@@ -9847,13 +9904,13 @@
       </c>
     </row>
     <row r="758" spans="1:5" ht="18.75">
-      <c r="A758" s="42" t="s">
+      <c r="A758" s="45" t="s">
         <v>210</v>
       </c>
-      <c r="B758" s="42"/>
-      <c r="C758" s="42"/>
-      <c r="D758" s="42"/>
-      <c r="E758" s="42"/>
+      <c r="B758" s="45"/>
+      <c r="C758" s="45"/>
+      <c r="D758" s="45"/>
+      <c r="E758" s="45"/>
     </row>
     <row r="759" spans="1:5">
       <c r="A759" s="4" t="s">
@@ -9934,13 +9991,13 @@
       </c>
     </row>
     <row r="767" spans="1:5" ht="18.75">
-      <c r="A767" s="42" t="s">
+      <c r="A767" s="45" t="s">
         <v>212</v>
       </c>
-      <c r="B767" s="42"/>
-      <c r="C767" s="42"/>
-      <c r="D767" s="42"/>
-      <c r="E767" s="42"/>
+      <c r="B767" s="45"/>
+      <c r="C767" s="45"/>
+      <c r="D767" s="45"/>
+      <c r="E767" s="45"/>
     </row>
     <row r="768" spans="1:5">
       <c r="A768" s="4" t="s">
@@ -10023,13 +10080,13 @@
       </c>
     </row>
     <row r="776" spans="1:5" ht="18.75">
-      <c r="A776" s="42" t="s">
+      <c r="A776" s="45" t="s">
         <v>213</v>
       </c>
-      <c r="B776" s="42"/>
-      <c r="C776" s="42"/>
-      <c r="D776" s="42"/>
-      <c r="E776" s="42"/>
+      <c r="B776" s="45"/>
+      <c r="C776" s="45"/>
+      <c r="D776" s="45"/>
+      <c r="E776" s="45"/>
     </row>
     <row r="777" spans="1:5">
       <c r="A777" s="4" t="s">
@@ -10110,13 +10167,13 @@
       </c>
     </row>
     <row r="785" spans="1:5" ht="18.75">
-      <c r="A785" s="42" t="s">
+      <c r="A785" s="45" t="s">
         <v>214</v>
       </c>
-      <c r="B785" s="42"/>
-      <c r="C785" s="42"/>
-      <c r="D785" s="42"/>
-      <c r="E785" s="42"/>
+      <c r="B785" s="45"/>
+      <c r="C785" s="45"/>
+      <c r="D785" s="45"/>
+      <c r="E785" s="45"/>
     </row>
     <row r="786" spans="1:5">
       <c r="A786" s="4" t="s">
@@ -10197,13 +10254,13 @@
       </c>
     </row>
     <row r="794" spans="1:5" ht="18.75">
-      <c r="A794" s="42" t="s">
+      <c r="A794" s="45" t="s">
         <v>215</v>
       </c>
-      <c r="B794" s="42"/>
-      <c r="C794" s="42"/>
-      <c r="D794" s="42"/>
-      <c r="E794" s="42"/>
+      <c r="B794" s="45"/>
+      <c r="C794" s="45"/>
+      <c r="D794" s="45"/>
+      <c r="E794" s="45"/>
     </row>
     <row r="795" spans="1:5">
       <c r="A795" s="4" t="s">
@@ -10284,13 +10341,13 @@
       </c>
     </row>
     <row r="803" spans="1:5" ht="18.75">
-      <c r="A803" s="42" t="s">
+      <c r="A803" s="45" t="s">
         <v>216</v>
       </c>
-      <c r="B803" s="42"/>
-      <c r="C803" s="42"/>
-      <c r="D803" s="42"/>
-      <c r="E803" s="42"/>
+      <c r="B803" s="45"/>
+      <c r="C803" s="45"/>
+      <c r="D803" s="45"/>
+      <c r="E803" s="45"/>
     </row>
     <row r="804" spans="1:5">
       <c r="A804" s="4" t="s">
@@ -10373,13 +10430,13 @@
       </c>
     </row>
     <row r="812" spans="1:5" ht="18.75">
-      <c r="A812" s="42" t="s">
+      <c r="A812" s="45" t="s">
         <v>217</v>
       </c>
-      <c r="B812" s="42"/>
-      <c r="C812" s="42"/>
-      <c r="D812" s="42"/>
-      <c r="E812" s="42"/>
+      <c r="B812" s="45"/>
+      <c r="C812" s="45"/>
+      <c r="D812" s="45"/>
+      <c r="E812" s="45"/>
     </row>
     <row r="813" spans="1:5">
       <c r="A813" s="4" t="s">
@@ -10460,13 +10517,13 @@
       </c>
     </row>
     <row r="821" spans="1:5" ht="18.75">
-      <c r="A821" s="42" t="s">
+      <c r="A821" s="45" t="s">
         <v>218</v>
       </c>
-      <c r="B821" s="42"/>
-      <c r="C821" s="42"/>
-      <c r="D821" s="42"/>
-      <c r="E821" s="42"/>
+      <c r="B821" s="45"/>
+      <c r="C821" s="45"/>
+      <c r="D821" s="45"/>
+      <c r="E821" s="45"/>
     </row>
     <row r="822" spans="1:5">
       <c r="A822" s="4" t="s">
@@ -10558,13 +10615,13 @@
       </c>
     </row>
     <row r="831" spans="1:5" ht="18.75">
-      <c r="A831" s="42" t="s">
+      <c r="A831" s="45" t="s">
         <v>223</v>
       </c>
-      <c r="B831" s="42"/>
-      <c r="C831" s="42"/>
-      <c r="D831" s="42"/>
-      <c r="E831" s="42"/>
+      <c r="B831" s="45"/>
+      <c r="C831" s="45"/>
+      <c r="D831" s="45"/>
+      <c r="E831" s="45"/>
     </row>
     <row r="832" spans="1:5">
       <c r="A832" s="4" t="s">
@@ -10658,13 +10715,13 @@
       </c>
     </row>
     <row r="841" spans="1:5" ht="18.75">
-      <c r="A841" s="42" t="s">
+      <c r="A841" s="45" t="s">
         <v>227</v>
       </c>
-      <c r="B841" s="42"/>
-      <c r="C841" s="42"/>
-      <c r="D841" s="42"/>
-      <c r="E841" s="42"/>
+      <c r="B841" s="45"/>
+      <c r="C841" s="45"/>
+      <c r="D841" s="45"/>
+      <c r="E841" s="45"/>
     </row>
     <row r="842" spans="1:5">
       <c r="A842" s="4" t="s">
@@ -10745,13 +10802,13 @@
       </c>
     </row>
     <row r="850" spans="1:5" ht="18.75">
-      <c r="A850" s="42" t="s">
+      <c r="A850" s="45" t="s">
         <v>230</v>
       </c>
-      <c r="B850" s="42"/>
-      <c r="C850" s="42"/>
-      <c r="D850" s="42"/>
-      <c r="E850" s="42"/>
+      <c r="B850" s="45"/>
+      <c r="C850" s="45"/>
+      <c r="D850" s="45"/>
+      <c r="E850" s="45"/>
     </row>
     <row r="851" spans="1:5">
       <c r="A851" s="4" t="s">
@@ -10832,13 +10889,13 @@
       </c>
     </row>
     <row r="859" spans="1:5" ht="18.75">
-      <c r="A859" s="42" t="s">
+      <c r="A859" s="45" t="s">
         <v>232</v>
       </c>
-      <c r="B859" s="42"/>
-      <c r="C859" s="42"/>
-      <c r="D859" s="42"/>
-      <c r="E859" s="42"/>
+      <c r="B859" s="45"/>
+      <c r="C859" s="45"/>
+      <c r="D859" s="45"/>
+      <c r="E859" s="45"/>
     </row>
     <row r="860" spans="1:5">
       <c r="A860" s="4" t="s">
@@ -10919,13 +10976,13 @@
       </c>
     </row>
     <row r="868" spans="1:6" ht="18.75">
-      <c r="A868" s="42" t="s">
+      <c r="A868" s="45" t="s">
         <v>236</v>
       </c>
-      <c r="B868" s="42"/>
-      <c r="C868" s="42"/>
-      <c r="D868" s="42"/>
-      <c r="E868" s="42"/>
+      <c r="B868" s="45"/>
+      <c r="C868" s="45"/>
+      <c r="D868" s="45"/>
+      <c r="E868" s="45"/>
     </row>
     <row r="869" spans="1:6">
       <c r="A869" s="4" t="s">
@@ -11013,13 +11070,13 @@
       </c>
     </row>
     <row r="877" spans="1:6" ht="18.75">
-      <c r="A877" s="42" t="s">
+      <c r="A877" s="45" t="s">
         <v>240</v>
       </c>
-      <c r="B877" s="42"/>
-      <c r="C877" s="42"/>
-      <c r="D877" s="42"/>
-      <c r="E877" s="42"/>
+      <c r="B877" s="45"/>
+      <c r="C877" s="45"/>
+      <c r="D877" s="45"/>
+      <c r="E877" s="45"/>
     </row>
     <row r="878" spans="1:6">
       <c r="A878" s="4" t="s">
@@ -11116,13 +11173,13 @@
       </c>
     </row>
     <row r="887" spans="1:6" ht="18.75">
-      <c r="A887" s="42" t="s">
+      <c r="A887" s="45" t="s">
         <v>244</v>
       </c>
-      <c r="B887" s="42"/>
-      <c r="C887" s="42"/>
-      <c r="D887" s="42"/>
-      <c r="E887" s="42"/>
+      <c r="B887" s="45"/>
+      <c r="C887" s="45"/>
+      <c r="D887" s="45"/>
+      <c r="E887" s="45"/>
     </row>
     <row r="888" spans="1:6">
       <c r="A888" s="4" t="s">
@@ -11186,13 +11243,13 @@
       </c>
     </row>
     <row r="894" spans="1:6" ht="18.75">
-      <c r="A894" s="42" t="s">
+      <c r="A894" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="B894" s="42"/>
-      <c r="C894" s="42"/>
-      <c r="D894" s="42"/>
-      <c r="E894" s="42"/>
+      <c r="B894" s="45"/>
+      <c r="C894" s="45"/>
+      <c r="D894" s="45"/>
+      <c r="E894" s="45"/>
     </row>
     <row r="895" spans="1:6">
       <c r="A895" s="4" t="s">
@@ -11278,13 +11335,13 @@
       </c>
     </row>
     <row r="903" spans="1:6" ht="18.75">
-      <c r="A903" s="42" t="s">
+      <c r="A903" s="45" t="s">
         <v>247</v>
       </c>
-      <c r="B903" s="42"/>
-      <c r="C903" s="42"/>
-      <c r="D903" s="42"/>
-      <c r="E903" s="42"/>
+      <c r="B903" s="45"/>
+      <c r="C903" s="45"/>
+      <c r="D903" s="45"/>
+      <c r="E903" s="45"/>
     </row>
     <row r="904" spans="1:6">
       <c r="A904" s="4" t="s">
@@ -11370,13 +11427,13 @@
       </c>
     </row>
     <row r="912" spans="1:6" ht="18.75">
-      <c r="A912" s="42" t="s">
+      <c r="A912" s="45" t="s">
         <v>248</v>
       </c>
-      <c r="B912" s="42"/>
-      <c r="C912" s="42"/>
-      <c r="D912" s="42"/>
-      <c r="E912" s="42"/>
+      <c r="B912" s="45"/>
+      <c r="C912" s="45"/>
+      <c r="D912" s="45"/>
+      <c r="E912" s="45"/>
     </row>
     <row r="913" spans="1:6">
       <c r="A913" s="4" t="s">
@@ -11464,13 +11521,13 @@
       </c>
     </row>
     <row r="921" spans="1:6" ht="18.75">
-      <c r="A921" s="42" t="s">
+      <c r="A921" s="45" t="s">
         <v>249</v>
       </c>
-      <c r="B921" s="42"/>
-      <c r="C921" s="42"/>
-      <c r="D921" s="42"/>
-      <c r="E921" s="42"/>
+      <c r="B921" s="45"/>
+      <c r="C921" s="45"/>
+      <c r="D921" s="45"/>
+      <c r="E921" s="45"/>
     </row>
     <row r="922" spans="1:6">
       <c r="A922" s="4" t="s">
@@ -11569,13 +11626,13 @@
       </c>
     </row>
     <row r="931" spans="1:6" ht="18.75">
-      <c r="A931" s="42" t="s">
+      <c r="A931" s="45" t="s">
         <v>251</v>
       </c>
-      <c r="B931" s="42"/>
-      <c r="C931" s="42"/>
-      <c r="D931" s="42"/>
-      <c r="E931" s="42"/>
+      <c r="B931" s="45"/>
+      <c r="C931" s="45"/>
+      <c r="D931" s="45"/>
+      <c r="E931" s="45"/>
     </row>
     <row r="932" spans="1:6">
       <c r="A932" s="4" t="s">
@@ -11685,13 +11742,13 @@
       </c>
     </row>
     <row r="942" spans="1:6" ht="18.75">
-      <c r="A942" s="42" t="s">
+      <c r="A942" s="45" t="s">
         <v>254</v>
       </c>
-      <c r="B942" s="42"/>
-      <c r="C942" s="42"/>
-      <c r="D942" s="42"/>
-      <c r="E942" s="42"/>
+      <c r="B942" s="45"/>
+      <c r="C942" s="45"/>
+      <c r="D942" s="45"/>
+      <c r="E942" s="45"/>
     </row>
     <row r="943" spans="1:6">
       <c r="A943" s="4" t="s">
@@ -11790,13 +11847,13 @@
       </c>
     </row>
     <row r="952" spans="1:6" ht="18.75">
-      <c r="A952" s="42" t="s">
+      <c r="A952" s="45" t="s">
         <v>257</v>
       </c>
-      <c r="B952" s="42"/>
-      <c r="C952" s="42"/>
-      <c r="D952" s="42"/>
-      <c r="E952" s="42"/>
+      <c r="B952" s="45"/>
+      <c r="C952" s="45"/>
+      <c r="D952" s="45"/>
+      <c r="E952" s="45"/>
     </row>
     <row r="953" spans="1:6">
       <c r="A953" s="4" t="s">
@@ -11915,13 +11972,13 @@
       </c>
     </row>
     <row r="964" spans="1:6" ht="18.75">
-      <c r="A964" s="42" t="s">
+      <c r="A964" s="45" t="s">
         <v>263</v>
       </c>
-      <c r="B964" s="42"/>
-      <c r="C964" s="42"/>
-      <c r="D964" s="42"/>
-      <c r="E964" s="42"/>
+      <c r="B964" s="45"/>
+      <c r="C964" s="45"/>
+      <c r="D964" s="45"/>
+      <c r="E964" s="45"/>
     </row>
     <row r="965" spans="1:6">
       <c r="A965" s="4" t="s">
@@ -12018,13 +12075,13 @@
       </c>
     </row>
     <row r="974" spans="1:6" ht="18.75">
-      <c r="A974" s="42" t="s">
+      <c r="A974" s="45" t="s">
         <v>266</v>
       </c>
-      <c r="B974" s="42"/>
-      <c r="C974" s="42"/>
-      <c r="D974" s="42"/>
-      <c r="E974" s="42"/>
+      <c r="B974" s="45"/>
+      <c r="C974" s="45"/>
+      <c r="D974" s="45"/>
+      <c r="E974" s="45"/>
     </row>
     <row r="975" spans="1:6">
       <c r="A975" s="4" t="s">
@@ -12110,13 +12167,13 @@
       </c>
     </row>
     <row r="983" spans="1:6" ht="18.75">
-      <c r="A983" s="42" t="s">
+      <c r="A983" s="45" t="s">
         <v>267</v>
       </c>
-      <c r="B983" s="42"/>
-      <c r="C983" s="42"/>
-      <c r="D983" s="42"/>
-      <c r="E983" s="42"/>
+      <c r="B983" s="45"/>
+      <c r="C983" s="45"/>
+      <c r="D983" s="45"/>
+      <c r="E983" s="45"/>
     </row>
     <row r="984" spans="1:6">
       <c r="A984" s="4" t="s">
@@ -12202,13 +12259,13 @@
       </c>
     </row>
     <row r="992" spans="1:6" ht="18.75">
-      <c r="A992" s="42" t="s">
+      <c r="A992" s="45" t="s">
         <v>268</v>
       </c>
-      <c r="B992" s="42"/>
-      <c r="C992" s="42"/>
-      <c r="D992" s="42"/>
-      <c r="E992" s="42"/>
+      <c r="B992" s="45"/>
+      <c r="C992" s="45"/>
+      <c r="D992" s="45"/>
+      <c r="E992" s="45"/>
     </row>
     <row r="993" spans="1:6">
       <c r="A993" s="4" t="s">
@@ -12296,13 +12353,13 @@
       </c>
     </row>
     <row r="1001" spans="1:6" ht="18.75">
-      <c r="A1001" s="42" t="s">
+      <c r="A1001" s="45" t="s">
         <v>269</v>
       </c>
-      <c r="B1001" s="42"/>
-      <c r="C1001" s="42"/>
-      <c r="D1001" s="42"/>
-      <c r="E1001" s="42"/>
+      <c r="B1001" s="45"/>
+      <c r="C1001" s="45"/>
+      <c r="D1001" s="45"/>
+      <c r="E1001" s="45"/>
     </row>
     <row r="1002" spans="1:6">
       <c r="A1002" s="4" t="s">
@@ -12401,13 +12458,13 @@
       </c>
     </row>
     <row r="1011" spans="1:6" ht="18.75">
-      <c r="A1011" s="42" t="s">
+      <c r="A1011" s="45" t="s">
         <v>270</v>
       </c>
-      <c r="B1011" s="42"/>
-      <c r="C1011" s="42"/>
-      <c r="D1011" s="42"/>
-      <c r="E1011" s="42"/>
+      <c r="B1011" s="45"/>
+      <c r="C1011" s="45"/>
+      <c r="D1011" s="45"/>
+      <c r="E1011" s="45"/>
     </row>
     <row r="1012" spans="1:6">
       <c r="A1012" s="4" t="s">
@@ -12493,13 +12550,13 @@
       </c>
     </row>
     <row r="1020" spans="1:6" ht="18.75">
-      <c r="A1020" s="42" t="s">
+      <c r="A1020" s="45" t="s">
         <v>271</v>
       </c>
-      <c r="B1020" s="42"/>
-      <c r="C1020" s="42"/>
-      <c r="D1020" s="42"/>
-      <c r="E1020" s="42"/>
+      <c r="B1020" s="45"/>
+      <c r="C1020" s="45"/>
+      <c r="D1020" s="45"/>
+      <c r="E1020" s="45"/>
     </row>
     <row r="1021" spans="1:6">
       <c r="A1021" s="4" t="s">
@@ -12585,13 +12642,13 @@
       </c>
     </row>
     <row r="1029" spans="1:6" ht="18.75">
-      <c r="A1029" s="42" t="s">
+      <c r="A1029" s="45" t="s">
         <v>272</v>
       </c>
-      <c r="B1029" s="42"/>
-      <c r="C1029" s="42"/>
-      <c r="D1029" s="42"/>
-      <c r="E1029" s="42"/>
+      <c r="B1029" s="45"/>
+      <c r="C1029" s="45"/>
+      <c r="D1029" s="45"/>
+      <c r="E1029" s="45"/>
     </row>
     <row r="1030" spans="1:6">
       <c r="A1030" s="4" t="s">
@@ -12690,13 +12747,13 @@
       </c>
     </row>
     <row r="1039" spans="1:6" ht="18.75">
-      <c r="A1039" s="42" t="s">
+      <c r="A1039" s="45" t="s">
         <v>273</v>
       </c>
-      <c r="B1039" s="42"/>
-      <c r="C1039" s="42"/>
-      <c r="D1039" s="42"/>
-      <c r="E1039" s="42"/>
+      <c r="B1039" s="45"/>
+      <c r="C1039" s="45"/>
+      <c r="D1039" s="45"/>
+      <c r="E1039" s="45"/>
     </row>
     <row r="1040" spans="1:6">
       <c r="A1040" s="4" t="s">
@@ -12793,13 +12850,13 @@
       </c>
     </row>
     <row r="1049" spans="1:6" ht="18.75">
-      <c r="A1049" s="42" t="s">
+      <c r="A1049" s="45" t="s">
         <v>278</v>
       </c>
-      <c r="B1049" s="42"/>
-      <c r="C1049" s="42"/>
-      <c r="D1049" s="42"/>
-      <c r="E1049" s="42"/>
+      <c r="B1049" s="45"/>
+      <c r="C1049" s="45"/>
+      <c r="D1049" s="45"/>
+      <c r="E1049" s="45"/>
     </row>
     <row r="1050" spans="1:6">
       <c r="A1050" s="4" t="s">
@@ -12909,13 +12966,13 @@
       </c>
     </row>
     <row r="1060" spans="1:6" ht="18.75">
-      <c r="A1060" s="42" t="s">
+      <c r="A1060" s="45" t="s">
         <v>284</v>
       </c>
-      <c r="B1060" s="42"/>
-      <c r="C1060" s="42"/>
-      <c r="D1060" s="42"/>
-      <c r="E1060" s="42"/>
+      <c r="B1060" s="45"/>
+      <c r="C1060" s="45"/>
+      <c r="D1060" s="45"/>
+      <c r="E1060" s="45"/>
     </row>
     <row r="1061" spans="1:6">
       <c r="A1061" s="4" t="s">
@@ -13012,13 +13069,13 @@
       </c>
     </row>
     <row r="1070" spans="1:6" ht="18.75">
-      <c r="A1070" s="42" t="s">
+      <c r="A1070" s="45" t="s">
         <v>288</v>
       </c>
-      <c r="B1070" s="42"/>
-      <c r="C1070" s="42"/>
-      <c r="D1070" s="42"/>
-      <c r="E1070" s="42"/>
+      <c r="B1070" s="45"/>
+      <c r="C1070" s="45"/>
+      <c r="D1070" s="45"/>
+      <c r="E1070" s="45"/>
     </row>
     <row r="1071" spans="1:6">
       <c r="A1071" s="4" t="s">
@@ -13115,13 +13172,13 @@
       </c>
     </row>
     <row r="1080" spans="1:6" ht="18.75">
-      <c r="A1080" s="42" t="s">
+      <c r="A1080" s="45" t="s">
         <v>290</v>
       </c>
-      <c r="B1080" s="42"/>
-      <c r="C1080" s="42"/>
-      <c r="D1080" s="42"/>
-      <c r="E1080" s="42"/>
+      <c r="B1080" s="45"/>
+      <c r="C1080" s="45"/>
+      <c r="D1080" s="45"/>
+      <c r="E1080" s="45"/>
     </row>
     <row r="1081" spans="1:6">
       <c r="A1081" s="4" t="s">
@@ -13207,13 +13264,13 @@
       </c>
     </row>
     <row r="1089" spans="1:6" ht="18.75">
-      <c r="A1089" s="42" t="s">
+      <c r="A1089" s="45" t="s">
         <v>292</v>
       </c>
-      <c r="B1089" s="42"/>
-      <c r="C1089" s="42"/>
-      <c r="D1089" s="42"/>
-      <c r="E1089" s="42"/>
+      <c r="B1089" s="45"/>
+      <c r="C1089" s="45"/>
+      <c r="D1089" s="45"/>
+      <c r="E1089" s="45"/>
     </row>
     <row r="1090" spans="1:6">
       <c r="A1090" s="4" t="s">
@@ -13299,13 +13356,13 @@
       </c>
     </row>
     <row r="1098" spans="1:6" ht="18.75">
-      <c r="A1098" s="42" t="s">
+      <c r="A1098" s="45" t="s">
         <v>293</v>
       </c>
-      <c r="B1098" s="42"/>
-      <c r="C1098" s="42"/>
-      <c r="D1098" s="42"/>
-      <c r="E1098" s="42"/>
+      <c r="B1098" s="45"/>
+      <c r="C1098" s="45"/>
+      <c r="D1098" s="45"/>
+      <c r="E1098" s="45"/>
     </row>
     <row r="1099" spans="1:6">
       <c r="A1099" s="4" t="s">
@@ -13404,13 +13461,13 @@
       </c>
     </row>
     <row r="1108" spans="1:6" ht="18.75">
-      <c r="A1108" s="42" t="s">
+      <c r="A1108" s="45" t="s">
         <v>294</v>
       </c>
-      <c r="B1108" s="42"/>
-      <c r="C1108" s="42"/>
-      <c r="D1108" s="42"/>
-      <c r="E1108" s="42"/>
+      <c r="B1108" s="45"/>
+      <c r="C1108" s="45"/>
+      <c r="D1108" s="45"/>
+      <c r="E1108" s="45"/>
     </row>
     <row r="1109" spans="1:6">
       <c r="A1109" s="4" t="s">
@@ -13496,13 +13553,13 @@
       </c>
     </row>
     <row r="1117" spans="1:6" ht="18.75">
-      <c r="A1117" s="42" t="s">
+      <c r="A1117" s="45" t="s">
         <v>295</v>
       </c>
-      <c r="B1117" s="42"/>
-      <c r="C1117" s="42"/>
-      <c r="D1117" s="42"/>
-      <c r="E1117" s="42"/>
+      <c r="B1117" s="45"/>
+      <c r="C1117" s="45"/>
+      <c r="D1117" s="45"/>
+      <c r="E1117" s="45"/>
     </row>
     <row r="1118" spans="1:6">
       <c r="A1118" s="4" t="s">
@@ -13588,13 +13645,13 @@
       </c>
     </row>
     <row r="1126" spans="1:6" ht="18.75">
-      <c r="A1126" s="42" t="s">
+      <c r="A1126" s="45" t="s">
         <v>296</v>
       </c>
-      <c r="B1126" s="42"/>
-      <c r="C1126" s="42"/>
-      <c r="D1126" s="42"/>
-      <c r="E1126" s="42"/>
+      <c r="B1126" s="45"/>
+      <c r="C1126" s="45"/>
+      <c r="D1126" s="45"/>
+      <c r="E1126" s="45"/>
     </row>
     <row r="1127" spans="1:6">
       <c r="A1127" s="4" t="s">
@@ -13680,13 +13737,13 @@
       </c>
     </row>
     <row r="1135" spans="1:6" ht="18.75">
-      <c r="A1135" s="42" t="s">
+      <c r="A1135" s="45" t="s">
         <v>297</v>
       </c>
-      <c r="B1135" s="42"/>
-      <c r="C1135" s="42"/>
-      <c r="D1135" s="42"/>
-      <c r="E1135" s="42"/>
+      <c r="B1135" s="45"/>
+      <c r="C1135" s="45"/>
+      <c r="D1135" s="45"/>
+      <c r="E1135" s="45"/>
     </row>
     <row r="1136" spans="1:6">
       <c r="A1136" s="4" t="s">
@@ -13818,13 +13875,13 @@
       </c>
     </row>
     <row r="1148" spans="1:6" ht="18.75">
-      <c r="A1148" s="42" t="s">
+      <c r="A1148" s="45" t="s">
         <v>302</v>
       </c>
-      <c r="B1148" s="42"/>
-      <c r="C1148" s="42"/>
-      <c r="D1148" s="42"/>
-      <c r="E1148" s="42"/>
+      <c r="B1148" s="45"/>
+      <c r="C1148" s="45"/>
+      <c r="D1148" s="45"/>
+      <c r="E1148" s="45"/>
     </row>
     <row r="1149" spans="1:6">
       <c r="A1149" s="4" t="s">
@@ -13923,13 +13980,13 @@
       </c>
     </row>
     <row r="1158" spans="1:6" ht="18.75">
-      <c r="A1158" s="42" t="s">
+      <c r="A1158" s="45" t="s">
         <v>303</v>
       </c>
-      <c r="B1158" s="42"/>
-      <c r="C1158" s="42"/>
-      <c r="D1158" s="42"/>
-      <c r="E1158" s="42"/>
+      <c r="B1158" s="45"/>
+      <c r="C1158" s="45"/>
+      <c r="D1158" s="45"/>
+      <c r="E1158" s="45"/>
     </row>
     <row r="1159" spans="1:6">
       <c r="A1159" s="4" t="s">
@@ -14026,13 +14083,13 @@
       </c>
     </row>
     <row r="1168" spans="1:6" ht="18.75">
-      <c r="A1168" s="42" t="s">
+      <c r="A1168" s="45" t="s">
         <v>307</v>
       </c>
-      <c r="B1168" s="42"/>
-      <c r="C1168" s="42"/>
-      <c r="D1168" s="42"/>
-      <c r="E1168" s="42"/>
+      <c r="B1168" s="45"/>
+      <c r="C1168" s="45"/>
+      <c r="D1168" s="45"/>
+      <c r="E1168" s="45"/>
     </row>
     <row r="1169" spans="1:6">
       <c r="A1169" s="4" t="s">
@@ -14184,13 +14241,13 @@
       </c>
     </row>
     <row r="1183" spans="1:6" ht="18.75">
-      <c r="A1183" s="42" t="s">
+      <c r="A1183" s="45" t="s">
         <v>315</v>
       </c>
-      <c r="B1183" s="42"/>
-      <c r="C1183" s="42"/>
-      <c r="D1183" s="42"/>
-      <c r="E1183" s="42"/>
+      <c r="B1183" s="45"/>
+      <c r="C1183" s="45"/>
+      <c r="D1183" s="45"/>
+      <c r="E1183" s="45"/>
     </row>
     <row r="1184" spans="1:6">
       <c r="A1184" s="4" t="s">
@@ -14287,13 +14344,13 @@
       </c>
     </row>
     <row r="1193" spans="1:6" ht="18.75">
-      <c r="A1193" s="42" t="s">
+      <c r="A1193" s="45" t="s">
         <v>319</v>
       </c>
-      <c r="B1193" s="42"/>
-      <c r="C1193" s="42"/>
-      <c r="D1193" s="42"/>
-      <c r="E1193" s="42"/>
+      <c r="B1193" s="45"/>
+      <c r="C1193" s="45"/>
+      <c r="D1193" s="45"/>
+      <c r="E1193" s="45"/>
     </row>
     <row r="1194" spans="1:6">
       <c r="A1194" s="4" t="s">
@@ -14381,13 +14438,13 @@
       </c>
     </row>
     <row r="1202" spans="1:6" ht="18.75">
-      <c r="A1202" s="42" t="s">
+      <c r="A1202" s="45" t="s">
         <v>321</v>
       </c>
-      <c r="B1202" s="42"/>
-      <c r="C1202" s="42"/>
-      <c r="D1202" s="42"/>
-      <c r="E1202" s="42"/>
+      <c r="B1202" s="45"/>
+      <c r="C1202" s="45"/>
+      <c r="D1202" s="45"/>
+      <c r="E1202" s="45"/>
     </row>
     <row r="1203" spans="1:6">
       <c r="A1203" s="4" t="s">
@@ -14473,13 +14530,13 @@
       </c>
     </row>
     <row r="1211" spans="1:6" ht="18.75">
-      <c r="A1211" s="42" t="s">
+      <c r="A1211" s="45" t="s">
         <v>322</v>
       </c>
-      <c r="B1211" s="42"/>
-      <c r="C1211" s="42"/>
-      <c r="D1211" s="42"/>
-      <c r="E1211" s="42"/>
+      <c r="B1211" s="45"/>
+      <c r="C1211" s="45"/>
+      <c r="D1211" s="45"/>
+      <c r="E1211" s="45"/>
     </row>
     <row r="1212" spans="1:6">
       <c r="A1212" s="4" t="s">
@@ -14565,13 +14622,13 @@
       </c>
     </row>
     <row r="1220" spans="1:6" ht="18.75">
-      <c r="A1220" s="42" t="s">
+      <c r="A1220" s="45" t="s">
         <v>323</v>
       </c>
-      <c r="B1220" s="42"/>
-      <c r="C1220" s="42"/>
-      <c r="D1220" s="42"/>
-      <c r="E1220" s="42"/>
+      <c r="B1220" s="45"/>
+      <c r="C1220" s="45"/>
+      <c r="D1220" s="45"/>
+      <c r="E1220" s="45"/>
     </row>
     <row r="1221" spans="1:6">
       <c r="A1221" s="4" t="s">
@@ -14681,13 +14738,13 @@
       </c>
     </row>
     <row r="1231" spans="1:6" ht="18.75">
-      <c r="A1231" s="42" t="s">
+      <c r="A1231" s="45" t="s">
         <v>326</v>
       </c>
-      <c r="B1231" s="42"/>
-      <c r="C1231" s="42"/>
-      <c r="D1231" s="42"/>
-      <c r="E1231" s="42"/>
+      <c r="B1231" s="45"/>
+      <c r="C1231" s="45"/>
+      <c r="D1231" s="45"/>
+      <c r="E1231" s="45"/>
     </row>
     <row r="1232" spans="1:6">
       <c r="A1232" s="4" t="s">
@@ -14773,13 +14830,13 @@
       </c>
     </row>
     <row r="1240" spans="1:6" ht="18.75">
-      <c r="A1240" s="42" t="s">
+      <c r="A1240" s="45" t="s">
         <v>330</v>
       </c>
-      <c r="B1240" s="42"/>
-      <c r="C1240" s="42"/>
-      <c r="D1240" s="42"/>
-      <c r="E1240" s="42"/>
+      <c r="B1240" s="45"/>
+      <c r="C1240" s="45"/>
+      <c r="D1240" s="45"/>
+      <c r="E1240" s="45"/>
     </row>
     <row r="1241" spans="1:6">
       <c r="A1241" s="4" t="s">
@@ -14867,13 +14924,13 @@
       </c>
     </row>
     <row r="1249" spans="1:6" ht="18.75">
-      <c r="A1249" s="42" t="s">
+      <c r="A1249" s="45" t="s">
         <v>332</v>
       </c>
-      <c r="B1249" s="42"/>
-      <c r="C1249" s="42"/>
-      <c r="D1249" s="42"/>
-      <c r="E1249" s="42"/>
+      <c r="B1249" s="45"/>
+      <c r="C1249" s="45"/>
+      <c r="D1249" s="45"/>
+      <c r="E1249" s="45"/>
     </row>
     <row r="1250" spans="1:6">
       <c r="A1250" s="4" t="s">
@@ -15005,14 +15062,14 @@
       </c>
     </row>
     <row r="1262" spans="1:6" ht="18.75">
-      <c r="A1262" s="46" t="s">
+      <c r="A1262" s="42" t="s">
         <v>339</v>
       </c>
-      <c r="B1262" s="47"/>
-      <c r="C1262" s="47"/>
-      <c r="D1262" s="47"/>
-      <c r="E1262" s="47"/>
-      <c r="F1262" s="48"/>
+      <c r="B1262" s="43"/>
+      <c r="C1262" s="43"/>
+      <c r="D1262" s="43"/>
+      <c r="E1262" s="43"/>
+      <c r="F1262" s="44"/>
     </row>
     <row r="1263" spans="1:6">
       <c r="A1263" s="5" t="s">
@@ -15151,14 +15208,14 @@
       </c>
     </row>
     <row r="1275" spans="1:6" ht="18.75">
-      <c r="A1275" s="46" t="s">
+      <c r="A1275" s="42" t="s">
         <v>346</v>
       </c>
-      <c r="B1275" s="47"/>
-      <c r="C1275" s="47"/>
-      <c r="D1275" s="47"/>
-      <c r="E1275" s="47"/>
-      <c r="F1275" s="48"/>
+      <c r="B1275" s="43"/>
+      <c r="C1275" s="43"/>
+      <c r="D1275" s="43"/>
+      <c r="E1275" s="43"/>
+      <c r="F1275" s="44"/>
     </row>
     <row r="1276" spans="1:6">
       <c r="A1276" s="5" t="s">
@@ -15311,14 +15368,14 @@
       </c>
     </row>
     <row r="1289" spans="1:6" ht="18.75">
-      <c r="A1289" s="46" t="s">
+      <c r="A1289" s="42" t="s">
         <v>353</v>
       </c>
-      <c r="B1289" s="47"/>
-      <c r="C1289" s="47"/>
-      <c r="D1289" s="47"/>
-      <c r="E1289" s="47"/>
-      <c r="F1289" s="48"/>
+      <c r="B1289" s="43"/>
+      <c r="C1289" s="43"/>
+      <c r="D1289" s="43"/>
+      <c r="E1289" s="43"/>
+      <c r="F1289" s="44"/>
     </row>
     <row r="1290" spans="1:6">
       <c r="A1290" s="5" t="s">
@@ -15445,14 +15502,14 @@
       </c>
     </row>
     <row r="1301" spans="1:6" ht="18.75">
-      <c r="A1301" s="46" t="s">
+      <c r="A1301" s="42" t="s">
         <v>356</v>
       </c>
-      <c r="B1301" s="47"/>
-      <c r="C1301" s="47"/>
-      <c r="D1301" s="47"/>
-      <c r="E1301" s="47"/>
-      <c r="F1301" s="48"/>
+      <c r="B1301" s="43"/>
+      <c r="C1301" s="43"/>
+      <c r="D1301" s="43"/>
+      <c r="E1301" s="43"/>
+      <c r="F1301" s="44"/>
     </row>
     <row r="1302" spans="1:6">
       <c r="A1302" s="5" t="s">
@@ -15531,14 +15588,14 @@
       </c>
     </row>
     <row r="1309" spans="1:6" ht="18.75">
-      <c r="A1309" s="46" t="s">
+      <c r="A1309" s="42" t="s">
         <v>359</v>
       </c>
-      <c r="B1309" s="47"/>
-      <c r="C1309" s="47"/>
-      <c r="D1309" s="47"/>
-      <c r="E1309" s="47"/>
-      <c r="F1309" s="48"/>
+      <c r="B1309" s="43"/>
+      <c r="C1309" s="43"/>
+      <c r="D1309" s="43"/>
+      <c r="E1309" s="43"/>
+      <c r="F1309" s="44"/>
     </row>
     <row r="1310" spans="1:6">
       <c r="A1310" s="5" t="s">
@@ -15593,14 +15650,14 @@
       </c>
     </row>
     <row r="1315" spans="1:6" ht="18.75">
-      <c r="A1315" s="46" t="s">
+      <c r="A1315" s="42" t="s">
         <v>360</v>
       </c>
-      <c r="B1315" s="47"/>
-      <c r="C1315" s="47"/>
-      <c r="D1315" s="47"/>
-      <c r="E1315" s="47"/>
-      <c r="F1315" s="48"/>
+      <c r="B1315" s="43"/>
+      <c r="C1315" s="43"/>
+      <c r="D1315" s="43"/>
+      <c r="E1315" s="43"/>
+      <c r="F1315" s="44"/>
     </row>
     <row r="1316" spans="1:6">
       <c r="A1316" s="5" t="s">
@@ -15751,14 +15808,14 @@
       </c>
     </row>
     <row r="1329" spans="1:6" ht="18.75">
-      <c r="A1329" s="46" t="s">
+      <c r="A1329" s="42" t="s">
         <v>368</v>
       </c>
-      <c r="B1329" s="47"/>
-      <c r="C1329" s="47"/>
-      <c r="D1329" s="47"/>
-      <c r="E1329" s="47"/>
-      <c r="F1329" s="48"/>
+      <c r="B1329" s="43"/>
+      <c r="C1329" s="43"/>
+      <c r="D1329" s="43"/>
+      <c r="E1329" s="43"/>
+      <c r="F1329" s="44"/>
     </row>
     <row r="1330" spans="1:6">
       <c r="A1330" s="5" t="s">
@@ -15887,14 +15944,14 @@
       </c>
     </row>
     <row r="1341" spans="1:6" ht="18.75">
-      <c r="A1341" s="46" t="s">
+      <c r="A1341" s="42" t="s">
         <v>372</v>
       </c>
-      <c r="B1341" s="47"/>
-      <c r="C1341" s="47"/>
-      <c r="D1341" s="47"/>
-      <c r="E1341" s="47"/>
-      <c r="F1341" s="48"/>
+      <c r="B1341" s="43"/>
+      <c r="C1341" s="43"/>
+      <c r="D1341" s="43"/>
+      <c r="E1341" s="43"/>
+      <c r="F1341" s="44"/>
     </row>
     <row r="1342" spans="1:6">
       <c r="A1342" s="5" t="s">
@@ -16009,14 +16066,14 @@
       </c>
     </row>
     <row r="1352" spans="1:6" ht="18.75">
-      <c r="A1352" s="46" t="s">
+      <c r="A1352" s="42" t="s">
         <v>373</v>
       </c>
-      <c r="B1352" s="47"/>
-      <c r="C1352" s="47"/>
-      <c r="D1352" s="47"/>
-      <c r="E1352" s="47"/>
-      <c r="F1352" s="48"/>
+      <c r="B1352" s="43"/>
+      <c r="C1352" s="43"/>
+      <c r="D1352" s="43"/>
+      <c r="E1352" s="43"/>
+      <c r="F1352" s="44"/>
     </row>
     <row r="1353" spans="1:6">
       <c r="A1353" s="5" t="s">
@@ -16131,14 +16188,14 @@
       </c>
     </row>
     <row r="1363" spans="1:6" ht="18.75">
-      <c r="A1363" s="46" t="s">
+      <c r="A1363" s="42" t="s">
         <v>374</v>
       </c>
-      <c r="B1363" s="47"/>
-      <c r="C1363" s="47"/>
-      <c r="D1363" s="47"/>
-      <c r="E1363" s="47"/>
-      <c r="F1363" s="48"/>
+      <c r="B1363" s="43"/>
+      <c r="C1363" s="43"/>
+      <c r="D1363" s="43"/>
+      <c r="E1363" s="43"/>
+      <c r="F1363" s="44"/>
     </row>
     <row r="1364" spans="1:6">
       <c r="A1364" s="5" t="s">
@@ -16267,14 +16324,14 @@
       </c>
     </row>
     <row r="1375" spans="1:6" ht="18.75">
-      <c r="A1375" s="46" t="s">
+      <c r="A1375" s="42" t="s">
         <v>378</v>
       </c>
-      <c r="B1375" s="47"/>
-      <c r="C1375" s="47"/>
-      <c r="D1375" s="47"/>
-      <c r="E1375" s="47"/>
-      <c r="F1375" s="48"/>
+      <c r="B1375" s="43"/>
+      <c r="C1375" s="43"/>
+      <c r="D1375" s="43"/>
+      <c r="E1375" s="43"/>
+      <c r="F1375" s="44"/>
     </row>
     <row r="1376" spans="1:6">
       <c r="A1376" s="5" t="s">
@@ -16389,14 +16446,14 @@
       </c>
     </row>
     <row r="1386" spans="1:6" ht="18.75">
-      <c r="A1386" s="46" t="s">
+      <c r="A1386" s="42" t="s">
         <v>379</v>
       </c>
-      <c r="B1386" s="47"/>
-      <c r="C1386" s="47"/>
-      <c r="D1386" s="47"/>
-      <c r="E1386" s="47"/>
-      <c r="F1386" s="48"/>
+      <c r="B1386" s="43"/>
+      <c r="C1386" s="43"/>
+      <c r="D1386" s="43"/>
+      <c r="E1386" s="43"/>
+      <c r="F1386" s="44"/>
     </row>
     <row r="1387" spans="1:6">
       <c r="A1387" s="5" t="s">
@@ -16537,14 +16594,14 @@
       </c>
     </row>
     <row r="1399" spans="1:6" ht="18.75">
-      <c r="A1399" s="46" t="s">
+      <c r="A1399" s="42" t="s">
         <v>382</v>
       </c>
-      <c r="B1399" s="47"/>
-      <c r="C1399" s="47"/>
-      <c r="D1399" s="47"/>
-      <c r="E1399" s="47"/>
-      <c r="F1399" s="48"/>
+      <c r="B1399" s="43"/>
+      <c r="C1399" s="43"/>
+      <c r="D1399" s="43"/>
+      <c r="E1399" s="43"/>
+      <c r="F1399" s="44"/>
     </row>
     <row r="1400" spans="1:6">
       <c r="A1400" s="5" t="s">
@@ -16649,14 +16706,14 @@
       </c>
     </row>
     <row r="1409" spans="1:6" ht="18.75">
-      <c r="A1409" s="46" t="s">
+      <c r="A1409" s="42" t="s">
         <v>386</v>
       </c>
-      <c r="B1409" s="47"/>
-      <c r="C1409" s="47"/>
-      <c r="D1409" s="47"/>
-      <c r="E1409" s="47"/>
-      <c r="F1409" s="48"/>
+      <c r="B1409" s="43"/>
+      <c r="C1409" s="43"/>
+      <c r="D1409" s="43"/>
+      <c r="E1409" s="43"/>
+      <c r="F1409" s="44"/>
     </row>
     <row r="1410" spans="1:6">
       <c r="A1410" s="5" t="s">
@@ -16747,14 +16804,14 @@
       </c>
     </row>
     <row r="1418" spans="1:6" ht="18.75">
-      <c r="A1418" s="46" t="s">
+      <c r="A1418" s="42" t="s">
         <v>387</v>
       </c>
-      <c r="B1418" s="47"/>
-      <c r="C1418" s="47"/>
-      <c r="D1418" s="47"/>
-      <c r="E1418" s="47"/>
-      <c r="F1418" s="48"/>
+      <c r="B1418" s="43"/>
+      <c r="C1418" s="43"/>
+      <c r="D1418" s="43"/>
+      <c r="E1418" s="43"/>
+      <c r="F1418" s="44"/>
     </row>
     <row r="1419" spans="1:6">
       <c r="A1419" s="5" t="s">
@@ -16845,14 +16902,14 @@
       </c>
     </row>
     <row r="1427" spans="1:6" ht="18.75">
-      <c r="A1427" s="46" t="s">
+      <c r="A1427" s="42" t="s">
         <v>388</v>
       </c>
-      <c r="B1427" s="47"/>
-      <c r="C1427" s="47"/>
-      <c r="D1427" s="47"/>
-      <c r="E1427" s="47"/>
-      <c r="F1427" s="48"/>
+      <c r="B1427" s="43"/>
+      <c r="C1427" s="43"/>
+      <c r="D1427" s="43"/>
+      <c r="E1427" s="43"/>
+      <c r="F1427" s="44"/>
     </row>
     <row r="1428" spans="1:6">
       <c r="A1428" s="5" t="s">
@@ -16942,55 +16999,934 @@
         <v>-15507</v>
       </c>
     </row>
+    <row r="1436" spans="1:6" ht="18.75">
+      <c r="A1436" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="B1436" s="43"/>
+      <c r="C1436" s="43"/>
+      <c r="D1436" s="43"/>
+      <c r="E1436" s="43"/>
+      <c r="F1436" s="44"/>
+    </row>
+    <row r="1437" spans="1:6">
+      <c r="A1437" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1437" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1437" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1437" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1437" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1437" s="39"/>
+    </row>
+    <row r="1438" spans="1:6">
+      <c r="A1438" s="7">
+        <f>E1433+D1438</f>
+        <v>-12552</v>
+      </c>
+      <c r="B1438" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="C1438" s="5">
+        <v>70</v>
+      </c>
+      <c r="D1438" s="8">
+        <v>3000</v>
+      </c>
+      <c r="E1438" s="36"/>
+      <c r="F1438" s="40"/>
+    </row>
+    <row r="1439" spans="1:6">
+      <c r="A1439" s="7"/>
+      <c r="B1439" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="C1439" s="5">
+        <v>70</v>
+      </c>
+      <c r="D1439" s="8"/>
+      <c r="E1439" s="36"/>
+      <c r="F1439" s="40"/>
+    </row>
+    <row r="1440" spans="1:6">
+      <c r="A1440" s="7"/>
+      <c r="B1440" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1440" s="5">
+        <v>300</v>
+      </c>
+      <c r="D1440" s="8"/>
+      <c r="E1440" s="36"/>
+      <c r="F1440" s="40"/>
+    </row>
+    <row r="1441" spans="1:6">
+      <c r="A1441" s="7"/>
+      <c r="B1441" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1441" s="5">
+        <v>500</v>
+      </c>
+      <c r="D1441" s="8"/>
+      <c r="E1441" s="36"/>
+      <c r="F1441" s="40"/>
+    </row>
+    <row r="1442" spans="1:6">
+      <c r="A1442" s="34"/>
+      <c r="B1442" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1442" s="7">
+        <f>SUM(C1438:C1441)</f>
+        <v>940</v>
+      </c>
+      <c r="D1442" s="34"/>
+      <c r="E1442" s="35">
+        <f>A1438-C1442</f>
+        <v>-13492</v>
+      </c>
+      <c r="F1442" s="41">
+        <f>E1442+45</f>
+        <v>-13447</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:6" ht="18.75">
+      <c r="A1445" s="42" t="s">
+        <v>390</v>
+      </c>
+      <c r="B1445" s="43"/>
+      <c r="C1445" s="43"/>
+      <c r="D1445" s="43"/>
+      <c r="E1445" s="43"/>
+      <c r="F1445" s="44"/>
+    </row>
+    <row r="1446" spans="1:6">
+      <c r="A1446" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1446" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1446" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1446" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1446" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1446" s="39"/>
+    </row>
+    <row r="1447" spans="1:6">
+      <c r="A1447" s="7">
+        <f>E1442+D1447</f>
+        <v>-13492</v>
+      </c>
+      <c r="B1447" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="C1447" s="5">
+        <v>70</v>
+      </c>
+      <c r="D1447" s="8"/>
+      <c r="E1447" s="36"/>
+      <c r="F1447" s="40"/>
+    </row>
+    <row r="1448" spans="1:6">
+      <c r="A1448" s="7"/>
+      <c r="B1448" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="C1448" s="5">
+        <v>70</v>
+      </c>
+      <c r="D1448" s="8"/>
+      <c r="E1448" s="36"/>
+      <c r="F1448" s="40"/>
+    </row>
+    <row r="1449" spans="1:6">
+      <c r="A1449" s="7"/>
+      <c r="B1449" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1449" s="5">
+        <v>300</v>
+      </c>
+      <c r="D1449" s="8"/>
+      <c r="E1449" s="36"/>
+      <c r="F1449" s="40"/>
+    </row>
+    <row r="1450" spans="1:6">
+      <c r="A1450" s="7"/>
+      <c r="B1450" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1450" s="5">
+        <v>500</v>
+      </c>
+      <c r="D1450" s="8"/>
+      <c r="E1450" s="36"/>
+      <c r="F1450" s="40"/>
+    </row>
+    <row r="1451" spans="1:6">
+      <c r="A1451" s="34"/>
+      <c r="B1451" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1451" s="7">
+        <f>SUM(C1447:C1450)</f>
+        <v>940</v>
+      </c>
+      <c r="D1451" s="34"/>
+      <c r="E1451" s="35">
+        <f>A1447-C1451</f>
+        <v>-14432</v>
+      </c>
+      <c r="F1451" s="41">
+        <f>E1451+45</f>
+        <v>-14387</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:6" ht="18.75">
+      <c r="A1454" s="42" t="s">
+        <v>391</v>
+      </c>
+      <c r="B1454" s="43"/>
+      <c r="C1454" s="43"/>
+      <c r="D1454" s="43"/>
+      <c r="E1454" s="43"/>
+      <c r="F1454" s="44"/>
+    </row>
+    <row r="1455" spans="1:6">
+      <c r="A1455" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1455" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1455" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1455" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1455" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1455" s="39"/>
+    </row>
+    <row r="1456" spans="1:6">
+      <c r="A1456" s="7">
+        <f>E1451+D1456</f>
+        <v>-14432</v>
+      </c>
+      <c r="B1456" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="C1456" s="5">
+        <v>70</v>
+      </c>
+      <c r="D1456" s="8"/>
+      <c r="E1456" s="36"/>
+      <c r="F1456" s="40"/>
+    </row>
+    <row r="1457" spans="1:6">
+      <c r="A1457" s="7"/>
+      <c r="B1457" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="C1457" s="5">
+        <v>70</v>
+      </c>
+      <c r="D1457" s="8"/>
+      <c r="E1457" s="36"/>
+      <c r="F1457" s="40"/>
+    </row>
+    <row r="1458" spans="1:6">
+      <c r="A1458" s="7"/>
+      <c r="B1458" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1458" s="5">
+        <v>300</v>
+      </c>
+      <c r="D1458" s="8"/>
+      <c r="E1458" s="36"/>
+      <c r="F1458" s="40"/>
+    </row>
+    <row r="1459" spans="1:6">
+      <c r="A1459" s="7"/>
+      <c r="B1459" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1459" s="5">
+        <v>500</v>
+      </c>
+      <c r="D1459" s="8"/>
+      <c r="E1459" s="36"/>
+      <c r="F1459" s="40"/>
+    </row>
+    <row r="1460" spans="1:6">
+      <c r="A1460" s="34"/>
+      <c r="B1460" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1460" s="7">
+        <f>SUM(C1456:C1459)</f>
+        <v>940</v>
+      </c>
+      <c r="D1460" s="34"/>
+      <c r="E1460" s="35">
+        <f>A1456-C1460</f>
+        <v>-15372</v>
+      </c>
+      <c r="F1460" s="41">
+        <f>E1460+45</f>
+        <v>-15327</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:6" ht="18.75">
+      <c r="A1463" s="42" t="s">
+        <v>392</v>
+      </c>
+      <c r="B1463" s="43"/>
+      <c r="C1463" s="43"/>
+      <c r="D1463" s="43"/>
+      <c r="E1463" s="43"/>
+      <c r="F1463" s="44"/>
+    </row>
+    <row r="1464" spans="1:6">
+      <c r="A1464" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1464" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1464" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1464" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1464" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1464" s="39"/>
+    </row>
+    <row r="1465" spans="1:6">
+      <c r="A1465" s="7">
+        <f>E1460+D1465</f>
+        <v>-15372</v>
+      </c>
+      <c r="B1465" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="C1465" s="5">
+        <v>70</v>
+      </c>
+      <c r="D1465" s="8"/>
+      <c r="E1465" s="36"/>
+      <c r="F1465" s="40"/>
+    </row>
+    <row r="1466" spans="1:6">
+      <c r="A1466" s="7"/>
+      <c r="B1466" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="C1466" s="5">
+        <v>70</v>
+      </c>
+      <c r="D1466" s="8"/>
+      <c r="E1466" s="36"/>
+      <c r="F1466" s="40"/>
+    </row>
+    <row r="1467" spans="1:6">
+      <c r="A1467" s="7"/>
+      <c r="B1467" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1467" s="5">
+        <v>300</v>
+      </c>
+      <c r="D1467" s="8"/>
+      <c r="E1467" s="36"/>
+      <c r="F1467" s="40"/>
+    </row>
+    <row r="1468" spans="1:6">
+      <c r="A1468" s="7"/>
+      <c r="B1468" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1468" s="5">
+        <v>500</v>
+      </c>
+      <c r="D1468" s="8"/>
+      <c r="E1468" s="36"/>
+      <c r="F1468" s="40"/>
+    </row>
+    <row r="1469" spans="1:6">
+      <c r="A1469" s="34"/>
+      <c r="B1469" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1469" s="7">
+        <f>SUM(C1465:C1468)</f>
+        <v>940</v>
+      </c>
+      <c r="D1469" s="34"/>
+      <c r="E1469" s="35">
+        <f>A1465-C1469</f>
+        <v>-16312</v>
+      </c>
+      <c r="F1469" s="41">
+        <f>E1469+45</f>
+        <v>-16267</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:6" ht="18.75">
+      <c r="A1472" s="42" t="s">
+        <v>393</v>
+      </c>
+      <c r="B1472" s="43"/>
+      <c r="C1472" s="43"/>
+      <c r="D1472" s="43"/>
+      <c r="E1472" s="43"/>
+      <c r="F1472" s="44"/>
+    </row>
+    <row r="1473" spans="1:6">
+      <c r="A1473" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1473" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1473" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1473" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1473" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1473" s="39"/>
+    </row>
+    <row r="1474" spans="1:6">
+      <c r="A1474" s="7">
+        <f>E1469+D1474</f>
+        <v>-11312</v>
+      </c>
+      <c r="B1474" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="C1474" s="5">
+        <v>300</v>
+      </c>
+      <c r="D1474" s="8">
+        <v>5000</v>
+      </c>
+      <c r="E1474" s="36"/>
+      <c r="F1474" s="40"/>
+    </row>
+    <row r="1475" spans="1:6">
+      <c r="A1475" s="7"/>
+      <c r="B1475" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="C1475" s="5">
+        <v>250</v>
+      </c>
+      <c r="D1475" s="8"/>
+      <c r="E1475" s="36"/>
+      <c r="F1475" s="40"/>
+    </row>
+    <row r="1476" spans="1:6">
+      <c r="A1476" s="7"/>
+      <c r="B1476" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="C1476" s="5">
+        <v>1360</v>
+      </c>
+      <c r="D1476" s="8"/>
+      <c r="E1476" s="36"/>
+      <c r="F1476" s="40"/>
+    </row>
+    <row r="1477" spans="1:6">
+      <c r="A1477" s="7"/>
+      <c r="B1477" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="C1477" s="5">
+        <v>150</v>
+      </c>
+      <c r="D1477" s="8"/>
+      <c r="E1477" s="36"/>
+      <c r="F1477" s="40"/>
+    </row>
+    <row r="1478" spans="1:6">
+      <c r="A1478" s="7"/>
+      <c r="B1478" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1478" s="5">
+        <v>300</v>
+      </c>
+      <c r="D1478" s="8"/>
+      <c r="E1478" s="36"/>
+      <c r="F1478" s="40"/>
+    </row>
+    <row r="1479" spans="1:6">
+      <c r="A1479" s="34"/>
+      <c r="B1479" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1479" s="7">
+        <f>SUM(C1474:C1478)</f>
+        <v>2360</v>
+      </c>
+      <c r="D1479" s="34"/>
+      <c r="E1479" s="35">
+        <f>A1474-C1479</f>
+        <v>-13672</v>
+      </c>
+      <c r="F1479" s="41">
+        <f>E1479+45</f>
+        <v>-13627</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:6" ht="18.75">
+      <c r="A1482" s="42" t="s">
+        <v>398</v>
+      </c>
+      <c r="B1482" s="43"/>
+      <c r="C1482" s="43"/>
+      <c r="D1482" s="43"/>
+      <c r="E1482" s="43"/>
+      <c r="F1482" s="44"/>
+    </row>
+    <row r="1483" spans="1:6">
+      <c r="A1483" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1483" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1483" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1483" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1483" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1483" s="39"/>
+    </row>
+    <row r="1484" spans="1:6">
+      <c r="A1484" s="7">
+        <f>E1479+D1484</f>
+        <v>-13672</v>
+      </c>
+      <c r="B1484" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="C1484" s="5">
+        <v>30</v>
+      </c>
+      <c r="D1484" s="8"/>
+      <c r="E1484" s="36"/>
+      <c r="F1484" s="40"/>
+    </row>
+    <row r="1485" spans="1:6">
+      <c r="A1485" s="7"/>
+      <c r="B1485" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="C1485" s="5">
+        <v>20</v>
+      </c>
+      <c r="D1485" s="8"/>
+      <c r="E1485" s="36"/>
+      <c r="F1485" s="40"/>
+    </row>
+    <row r="1486" spans="1:6">
+      <c r="A1486" s="7"/>
+      <c r="B1486" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1486" s="5">
+        <v>300</v>
+      </c>
+      <c r="D1486" s="8"/>
+      <c r="E1486" s="36"/>
+      <c r="F1486" s="40"/>
+    </row>
+    <row r="1487" spans="1:6">
+      <c r="A1487" s="7"/>
+      <c r="B1487" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1487" s="5">
+        <v>550</v>
+      </c>
+      <c r="D1487" s="8"/>
+      <c r="E1487" s="36"/>
+      <c r="F1487" s="40"/>
+    </row>
+    <row r="1488" spans="1:6">
+      <c r="A1488" s="34"/>
+      <c r="B1488" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1488" s="7">
+        <f>SUM(C1484:C1487)</f>
+        <v>900</v>
+      </c>
+      <c r="D1488" s="34"/>
+      <c r="E1488" s="35">
+        <f>A1484-C1488</f>
+        <v>-14572</v>
+      </c>
+      <c r="F1488" s="41">
+        <f>E1488+45</f>
+        <v>-14527</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:6" ht="18.75">
+      <c r="A1491" s="42" t="s">
+        <v>400</v>
+      </c>
+      <c r="B1491" s="43"/>
+      <c r="C1491" s="43"/>
+      <c r="D1491" s="43"/>
+      <c r="E1491" s="43"/>
+      <c r="F1491" s="44"/>
+    </row>
+    <row r="1492" spans="1:6">
+      <c r="A1492" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1492" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1492" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1492" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1492" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1492" s="39"/>
+    </row>
+    <row r="1493" spans="1:6">
+      <c r="A1493" s="7">
+        <f>E1488+D1493</f>
+        <v>-11572</v>
+      </c>
+      <c r="B1493" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="C1493" s="5">
+        <v>30</v>
+      </c>
+      <c r="D1493" s="8">
+        <v>3000</v>
+      </c>
+      <c r="E1493" s="36"/>
+      <c r="F1493" s="40"/>
+    </row>
+    <row r="1494" spans="1:6">
+      <c r="A1494" s="7"/>
+      <c r="B1494" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="C1494" s="5">
+        <v>20</v>
+      </c>
+      <c r="D1494" s="8"/>
+      <c r="E1494" s="36"/>
+      <c r="F1494" s="40"/>
+    </row>
+    <row r="1495" spans="1:6">
+      <c r="A1495" s="7"/>
+      <c r="B1495" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1495" s="5">
+        <v>40</v>
+      </c>
+      <c r="D1495" s="8"/>
+      <c r="E1495" s="36"/>
+      <c r="F1495" s="40"/>
+    </row>
+    <row r="1496" spans="1:6">
+      <c r="A1496" s="7"/>
+      <c r="B1496" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="C1496" s="5">
+        <v>115</v>
+      </c>
+      <c r="D1496" s="8"/>
+      <c r="E1496" s="36"/>
+      <c r="F1496" s="40"/>
+    </row>
+    <row r="1497" spans="1:6">
+      <c r="A1497" s="7"/>
+      <c r="B1497" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="C1497" s="5">
+        <v>128</v>
+      </c>
+      <c r="D1497" s="8"/>
+      <c r="E1497" s="36"/>
+      <c r="F1497" s="40"/>
+    </row>
+    <row r="1498" spans="1:6">
+      <c r="A1498" s="7"/>
+      <c r="B1498" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="C1498" s="5">
+        <v>1300</v>
+      </c>
+      <c r="D1498" s="8"/>
+      <c r="E1498" s="36"/>
+      <c r="F1498" s="40"/>
+    </row>
+    <row r="1499" spans="1:6">
+      <c r="A1499" s="7"/>
+      <c r="B1499" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1499" s="5">
+        <v>300</v>
+      </c>
+      <c r="D1499" s="8"/>
+      <c r="E1499" s="36"/>
+      <c r="F1499" s="40"/>
+    </row>
+    <row r="1500" spans="1:6">
+      <c r="A1500" s="7"/>
+      <c r="B1500" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1500" s="5">
+        <v>350</v>
+      </c>
+      <c r="D1500" s="8"/>
+      <c r="E1500" s="36"/>
+      <c r="F1500" s="40"/>
+    </row>
+    <row r="1501" spans="1:6">
+      <c r="A1501" s="34"/>
+      <c r="B1501" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1501" s="7">
+        <f>SUM(C1493:C1500)</f>
+        <v>2283</v>
+      </c>
+      <c r="D1501" s="34"/>
+      <c r="E1501" s="35">
+        <f>A1493-C1501</f>
+        <v>-13855</v>
+      </c>
+      <c r="F1501" s="41">
+        <f>E1501+45</f>
+        <v>-13810</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:6" ht="18.75">
+      <c r="A1504" s="42" t="s">
+        <v>405</v>
+      </c>
+      <c r="B1504" s="43"/>
+      <c r="C1504" s="43"/>
+      <c r="D1504" s="43"/>
+      <c r="E1504" s="43"/>
+      <c r="F1504" s="44"/>
+    </row>
+    <row r="1505" spans="1:6">
+      <c r="A1505" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1505" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1505" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1505" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1505" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1505" s="39"/>
+    </row>
+    <row r="1506" spans="1:6">
+      <c r="A1506" s="7">
+        <f>E1501+D1506</f>
+        <v>-13855</v>
+      </c>
+      <c r="B1506" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C1506" s="5">
+        <v>50</v>
+      </c>
+      <c r="D1506" s="8"/>
+      <c r="E1506" s="36"/>
+      <c r="F1506" s="40"/>
+    </row>
+    <row r="1507" spans="1:6">
+      <c r="A1507" s="7"/>
+      <c r="B1507" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="C1507" s="5">
+        <v>250</v>
+      </c>
+      <c r="D1507" s="8"/>
+      <c r="E1507" s="36"/>
+      <c r="F1507" s="40"/>
+    </row>
+    <row r="1508" spans="1:6">
+      <c r="A1508" s="7"/>
+      <c r="B1508" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="C1508" s="5">
+        <v>300</v>
+      </c>
+      <c r="D1508" s="8"/>
+      <c r="E1508" s="36"/>
+      <c r="F1508" s="40"/>
+    </row>
+    <row r="1509" spans="1:6">
+      <c r="A1509" s="7"/>
+      <c r="B1509" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1509" s="5">
+        <v>300</v>
+      </c>
+      <c r="D1509" s="8"/>
+      <c r="E1509" s="36"/>
+      <c r="F1509" s="40"/>
+    </row>
+    <row r="1510" spans="1:6">
+      <c r="A1510" s="7"/>
+      <c r="B1510" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1510" s="5">
+        <v>500</v>
+      </c>
+      <c r="D1510" s="8"/>
+      <c r="E1510" s="36"/>
+      <c r="F1510" s="40"/>
+    </row>
+    <row r="1511" spans="1:6">
+      <c r="A1511" s="34"/>
+      <c r="B1511" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1511" s="7">
+        <f>SUM(C1506:C1510)</f>
+        <v>1400</v>
+      </c>
+      <c r="D1511" s="34"/>
+      <c r="E1511" s="35">
+        <f>A1506-C1511</f>
+        <v>-15255</v>
+      </c>
+      <c r="F1511" s="41">
+        <f>E1511+45</f>
+        <v>-15210</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="129">
-    <mergeCell ref="A1375:F1375"/>
-    <mergeCell ref="A1386:F1386"/>
-    <mergeCell ref="A1399:F1399"/>
-    <mergeCell ref="A1409:F1409"/>
-    <mergeCell ref="A1418:F1418"/>
-    <mergeCell ref="A1427:F1427"/>
-    <mergeCell ref="A1352:F1352"/>
-    <mergeCell ref="A1363:F1363"/>
-    <mergeCell ref="A1262:F1262"/>
-    <mergeCell ref="A1275:F1275"/>
-    <mergeCell ref="A1289:F1289"/>
-    <mergeCell ref="A1301:F1301"/>
-    <mergeCell ref="A1309:F1309"/>
-    <mergeCell ref="A1315:F1315"/>
-    <mergeCell ref="A1329:F1329"/>
-    <mergeCell ref="A1341:F1341"/>
-    <mergeCell ref="A1168:E1168"/>
-    <mergeCell ref="A1183:E1183"/>
-    <mergeCell ref="A1193:E1193"/>
-    <mergeCell ref="A1202:E1202"/>
-    <mergeCell ref="A1211:E1211"/>
-    <mergeCell ref="A1220:E1220"/>
-    <mergeCell ref="A1231:E1231"/>
-    <mergeCell ref="A1240:E1240"/>
-    <mergeCell ref="A1249:E1249"/>
-    <mergeCell ref="A974:E974"/>
-    <mergeCell ref="A921:E921"/>
-    <mergeCell ref="A931:E931"/>
-    <mergeCell ref="A942:E942"/>
-    <mergeCell ref="A534:E534"/>
-    <mergeCell ref="A549:E549"/>
-    <mergeCell ref="A567:E567"/>
-    <mergeCell ref="A576:E576"/>
-    <mergeCell ref="A591:E591"/>
-    <mergeCell ref="A785:E785"/>
-    <mergeCell ref="A868:E868"/>
-    <mergeCell ref="A821:E821"/>
-    <mergeCell ref="A831:E831"/>
-    <mergeCell ref="A841:E841"/>
-    <mergeCell ref="A850:E850"/>
-    <mergeCell ref="A859:E859"/>
-    <mergeCell ref="A877:E877"/>
-    <mergeCell ref="A887:E887"/>
-    <mergeCell ref="A894:E894"/>
-    <mergeCell ref="A794:E794"/>
-    <mergeCell ref="A803:E803"/>
-    <mergeCell ref="A812:E812"/>
+  <mergeCells count="137">
+    <mergeCell ref="A1436:F1436"/>
+    <mergeCell ref="A1445:F1445"/>
+    <mergeCell ref="A1454:F1454"/>
+    <mergeCell ref="A1463:F1463"/>
+    <mergeCell ref="A1472:F1472"/>
+    <mergeCell ref="A1482:F1482"/>
+    <mergeCell ref="A1491:F1491"/>
+    <mergeCell ref="A1504:F1504"/>
+    <mergeCell ref="A776:E776"/>
+    <mergeCell ref="A1135:E1135"/>
+    <mergeCell ref="A1148:E1148"/>
+    <mergeCell ref="A1158:E1158"/>
+    <mergeCell ref="A1089:E1089"/>
+    <mergeCell ref="A1098:E1098"/>
+    <mergeCell ref="A1108:E1108"/>
+    <mergeCell ref="A1117:E1117"/>
+    <mergeCell ref="A1126:E1126"/>
+    <mergeCell ref="A952:E952"/>
+    <mergeCell ref="A964:E964"/>
+    <mergeCell ref="A992:E992"/>
+    <mergeCell ref="A1080:E1080"/>
+    <mergeCell ref="A1049:E1049"/>
+    <mergeCell ref="A1060:E1060"/>
+    <mergeCell ref="A1070:E1070"/>
+    <mergeCell ref="A1001:E1001"/>
+    <mergeCell ref="A1011:E1011"/>
+    <mergeCell ref="A1020:E1020"/>
+    <mergeCell ref="A1029:E1029"/>
+    <mergeCell ref="A1039:E1039"/>
+    <mergeCell ref="A983:E983"/>
+    <mergeCell ref="A903:E903"/>
+    <mergeCell ref="A912:E912"/>
+    <mergeCell ref="A634:E634"/>
+    <mergeCell ref="A649:E649"/>
+    <mergeCell ref="A664:E664"/>
+    <mergeCell ref="A679:E679"/>
+    <mergeCell ref="A694:E694"/>
+    <mergeCell ref="A767:E767"/>
+    <mergeCell ref="A709:E709"/>
+    <mergeCell ref="A724:E724"/>
+    <mergeCell ref="A740:E740"/>
+    <mergeCell ref="A750:E750"/>
+    <mergeCell ref="A758:E758"/>
+    <mergeCell ref="A401:E401"/>
+    <mergeCell ref="A408:E408"/>
+    <mergeCell ref="A415:E415"/>
+    <mergeCell ref="A473:E473"/>
+    <mergeCell ref="A489:E489"/>
+    <mergeCell ref="A504:E504"/>
+    <mergeCell ref="A519:E519"/>
+    <mergeCell ref="A424:E424"/>
+    <mergeCell ref="A433:E433"/>
+    <mergeCell ref="A441:E441"/>
+    <mergeCell ref="A456:E456"/>
+    <mergeCell ref="A463:E463"/>
+    <mergeCell ref="A366:E366"/>
+    <mergeCell ref="A375:E375"/>
+    <mergeCell ref="A306:E306"/>
+    <mergeCell ref="A318:E318"/>
+    <mergeCell ref="A330:E330"/>
+    <mergeCell ref="A343:E343"/>
+    <mergeCell ref="A353:E353"/>
+    <mergeCell ref="A383:E383"/>
+    <mergeCell ref="A392:E392"/>
     <mergeCell ref="A250:E250"/>
     <mergeCell ref="A260:E260"/>
     <mergeCell ref="A270:E270"/>
@@ -17015,64 +17951,55 @@
     <mergeCell ref="A170:E170"/>
     <mergeCell ref="A185:E185"/>
     <mergeCell ref="A200:E200"/>
-    <mergeCell ref="A366:E366"/>
-    <mergeCell ref="A375:E375"/>
-    <mergeCell ref="A306:E306"/>
-    <mergeCell ref="A318:E318"/>
-    <mergeCell ref="A330:E330"/>
-    <mergeCell ref="A343:E343"/>
-    <mergeCell ref="A353:E353"/>
-    <mergeCell ref="A383:E383"/>
-    <mergeCell ref="A392:E392"/>
-    <mergeCell ref="A401:E401"/>
-    <mergeCell ref="A408:E408"/>
-    <mergeCell ref="A415:E415"/>
-    <mergeCell ref="A473:E473"/>
-    <mergeCell ref="A489:E489"/>
-    <mergeCell ref="A504:E504"/>
-    <mergeCell ref="A519:E519"/>
-    <mergeCell ref="A424:E424"/>
-    <mergeCell ref="A433:E433"/>
-    <mergeCell ref="A441:E441"/>
-    <mergeCell ref="A456:E456"/>
-    <mergeCell ref="A463:E463"/>
+    <mergeCell ref="A974:E974"/>
+    <mergeCell ref="A921:E921"/>
+    <mergeCell ref="A931:E931"/>
+    <mergeCell ref="A942:E942"/>
+    <mergeCell ref="A534:E534"/>
+    <mergeCell ref="A549:E549"/>
+    <mergeCell ref="A567:E567"/>
+    <mergeCell ref="A576:E576"/>
+    <mergeCell ref="A591:E591"/>
+    <mergeCell ref="A785:E785"/>
+    <mergeCell ref="A868:E868"/>
+    <mergeCell ref="A821:E821"/>
+    <mergeCell ref="A831:E831"/>
+    <mergeCell ref="A841:E841"/>
+    <mergeCell ref="A850:E850"/>
+    <mergeCell ref="A859:E859"/>
+    <mergeCell ref="A877:E877"/>
+    <mergeCell ref="A887:E887"/>
+    <mergeCell ref="A894:E894"/>
+    <mergeCell ref="A794:E794"/>
+    <mergeCell ref="A803:E803"/>
+    <mergeCell ref="A812:E812"/>
     <mergeCell ref="A606:E606"/>
     <mergeCell ref="A624:E624"/>
-    <mergeCell ref="A634:E634"/>
-    <mergeCell ref="A649:E649"/>
-    <mergeCell ref="A664:E664"/>
-    <mergeCell ref="A679:E679"/>
-    <mergeCell ref="A694:E694"/>
-    <mergeCell ref="A767:E767"/>
-    <mergeCell ref="A709:E709"/>
-    <mergeCell ref="A724:E724"/>
-    <mergeCell ref="A740:E740"/>
-    <mergeCell ref="A750:E750"/>
-    <mergeCell ref="A758:E758"/>
-    <mergeCell ref="A776:E776"/>
-    <mergeCell ref="A1135:E1135"/>
-    <mergeCell ref="A1148:E1148"/>
-    <mergeCell ref="A1158:E1158"/>
-    <mergeCell ref="A1089:E1089"/>
-    <mergeCell ref="A1098:E1098"/>
-    <mergeCell ref="A1108:E1108"/>
-    <mergeCell ref="A1117:E1117"/>
-    <mergeCell ref="A1126:E1126"/>
-    <mergeCell ref="A952:E952"/>
-    <mergeCell ref="A964:E964"/>
-    <mergeCell ref="A992:E992"/>
-    <mergeCell ref="A1080:E1080"/>
-    <mergeCell ref="A1049:E1049"/>
-    <mergeCell ref="A1060:E1060"/>
-    <mergeCell ref="A1070:E1070"/>
-    <mergeCell ref="A1001:E1001"/>
-    <mergeCell ref="A1011:E1011"/>
-    <mergeCell ref="A1020:E1020"/>
-    <mergeCell ref="A1029:E1029"/>
-    <mergeCell ref="A1039:E1039"/>
-    <mergeCell ref="A983:E983"/>
-    <mergeCell ref="A903:E903"/>
-    <mergeCell ref="A912:E912"/>
+    <mergeCell ref="A1168:E1168"/>
+    <mergeCell ref="A1183:E1183"/>
+    <mergeCell ref="A1193:E1193"/>
+    <mergeCell ref="A1202:E1202"/>
+    <mergeCell ref="A1211:E1211"/>
+    <mergeCell ref="A1220:E1220"/>
+    <mergeCell ref="A1231:E1231"/>
+    <mergeCell ref="A1240:E1240"/>
+    <mergeCell ref="A1249:E1249"/>
+    <mergeCell ref="A1375:F1375"/>
+    <mergeCell ref="A1386:F1386"/>
+    <mergeCell ref="A1399:F1399"/>
+    <mergeCell ref="A1409:F1409"/>
+    <mergeCell ref="A1418:F1418"/>
+    <mergeCell ref="A1427:F1427"/>
+    <mergeCell ref="A1352:F1352"/>
+    <mergeCell ref="A1363:F1363"/>
+    <mergeCell ref="A1262:F1262"/>
+    <mergeCell ref="A1275:F1275"/>
+    <mergeCell ref="A1289:F1289"/>
+    <mergeCell ref="A1301:F1301"/>
+    <mergeCell ref="A1309:F1309"/>
+    <mergeCell ref="A1315:F1315"/>
+    <mergeCell ref="A1329:F1329"/>
+    <mergeCell ref="A1341:F1341"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/SANDEEP STAFF.xlsx
+++ b/SANDEEP STAFF.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1934" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2012" uniqueCount="418">
   <si>
     <t xml:space="preserve">opening balance </t>
   </si>
@@ -1239,6 +1239,36 @@
   </si>
   <si>
     <t>GOPAL GANJ TO MUZAFFARPUR</t>
+  </si>
+  <si>
+    <t>MJFPUR TO BHARAT ORJHA</t>
+  </si>
+  <si>
+    <t>BHARAT ORJHA TO MJFPUR</t>
+  </si>
+  <si>
+    <t>19.07.24</t>
+  </si>
+  <si>
+    <t>20.07.24</t>
+  </si>
+  <si>
+    <t>21.07.24</t>
+  </si>
+  <si>
+    <t>22.07.24</t>
+  </si>
+  <si>
+    <t>23.07.24</t>
+  </si>
+  <si>
+    <t>24.07.24</t>
+  </si>
+  <si>
+    <t>CASH FOR SAMPLE (IPL LAB)</t>
+  </si>
+  <si>
+    <t>25.07.24</t>
   </si>
 </sst>
 </file>
@@ -2151,10 +2181,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1511"/>
+  <dimension ref="A1:F1575"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1497" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C1511" sqref="C1511"/>
+    <sheetView tabSelected="1" topLeftCell="A1562" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B1575" sqref="B1575"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17861,8 +17891,830 @@
         <v>-15210</v>
       </c>
     </row>
+    <row r="1514" spans="1:6" ht="18.75">
+      <c r="A1514" s="42" t="s">
+        <v>410</v>
+      </c>
+      <c r="B1514" s="43"/>
+      <c r="C1514" s="43"/>
+      <c r="D1514" s="43"/>
+      <c r="E1514" s="43"/>
+      <c r="F1514" s="44"/>
+    </row>
+    <row r="1515" spans="1:6">
+      <c r="A1515" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1515" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1515" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1515" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1515" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1515" s="39"/>
+    </row>
+    <row r="1516" spans="1:6">
+      <c r="A1516" s="7">
+        <f>E1511+D1516</f>
+        <v>-15255</v>
+      </c>
+      <c r="B1516" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="C1516" s="5">
+        <v>70</v>
+      </c>
+      <c r="D1516" s="8"/>
+      <c r="E1516" s="36"/>
+      <c r="F1516" s="40"/>
+    </row>
+    <row r="1517" spans="1:6">
+      <c r="A1517" s="7"/>
+      <c r="B1517" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="C1517" s="5">
+        <v>70</v>
+      </c>
+      <c r="D1517" s="8"/>
+      <c r="E1517" s="36"/>
+      <c r="F1517" s="40"/>
+    </row>
+    <row r="1518" spans="1:6">
+      <c r="A1518" s="7"/>
+      <c r="B1518" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1518" s="5">
+        <v>300</v>
+      </c>
+      <c r="D1518" s="8"/>
+      <c r="E1518" s="36"/>
+      <c r="F1518" s="40"/>
+    </row>
+    <row r="1519" spans="1:6">
+      <c r="A1519" s="7"/>
+      <c r="B1519" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1519" s="5">
+        <v>500</v>
+      </c>
+      <c r="D1519" s="8"/>
+      <c r="E1519" s="36"/>
+      <c r="F1519" s="40"/>
+    </row>
+    <row r="1520" spans="1:6">
+      <c r="A1520" s="34"/>
+      <c r="B1520" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1520" s="7">
+        <f>SUM(C1516:C1519)</f>
+        <v>940</v>
+      </c>
+      <c r="D1520" s="34"/>
+      <c r="E1520" s="35">
+        <f>A1516-C1520</f>
+        <v>-16195</v>
+      </c>
+      <c r="F1520" s="41">
+        <f>E1520+45</f>
+        <v>-16150</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:6" ht="18.75">
+      <c r="A1523" s="42" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1523" s="43"/>
+      <c r="C1523" s="43"/>
+      <c r="D1523" s="43"/>
+      <c r="E1523" s="43"/>
+      <c r="F1523" s="44"/>
+    </row>
+    <row r="1524" spans="1:6">
+      <c r="A1524" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1524" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1524" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1524" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1524" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1524" s="39"/>
+    </row>
+    <row r="1525" spans="1:6">
+      <c r="A1525" s="7">
+        <f>E1520+D1525</f>
+        <v>-13195</v>
+      </c>
+      <c r="B1525" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="C1525" s="5">
+        <v>70</v>
+      </c>
+      <c r="D1525" s="8">
+        <v>3000</v>
+      </c>
+      <c r="E1525" s="36"/>
+      <c r="F1525" s="40"/>
+    </row>
+    <row r="1526" spans="1:6">
+      <c r="A1526" s="7"/>
+      <c r="B1526" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="C1526" s="5">
+        <v>70</v>
+      </c>
+      <c r="D1526" s="8"/>
+      <c r="E1526" s="36"/>
+      <c r="F1526" s="40"/>
+    </row>
+    <row r="1527" spans="1:6">
+      <c r="A1527" s="7"/>
+      <c r="B1527" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1527" s="5">
+        <v>300</v>
+      </c>
+      <c r="D1527" s="8"/>
+      <c r="E1527" s="36"/>
+      <c r="F1527" s="40"/>
+    </row>
+    <row r="1528" spans="1:6">
+      <c r="A1528" s="7"/>
+      <c r="B1528" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1528" s="5">
+        <v>500</v>
+      </c>
+      <c r="D1528" s="8"/>
+      <c r="E1528" s="36"/>
+      <c r="F1528" s="40"/>
+    </row>
+    <row r="1529" spans="1:6">
+      <c r="A1529" s="34"/>
+      <c r="B1529" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1529" s="7">
+        <f>SUM(C1525:C1528)</f>
+        <v>940</v>
+      </c>
+      <c r="D1529" s="34"/>
+      <c r="E1529" s="35">
+        <f>A1525-C1529</f>
+        <v>-14135</v>
+      </c>
+      <c r="F1529" s="41">
+        <f>E1529+45</f>
+        <v>-14090</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:6" ht="18.75">
+      <c r="A1532" s="42" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1532" s="43"/>
+      <c r="C1532" s="43"/>
+      <c r="D1532" s="43"/>
+      <c r="E1532" s="43"/>
+      <c r="F1532" s="44"/>
+    </row>
+    <row r="1533" spans="1:6">
+      <c r="A1533" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1533" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1533" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1533" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1533" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1533" s="39"/>
+    </row>
+    <row r="1534" spans="1:6">
+      <c r="A1534" s="7">
+        <f>E1529+D1534</f>
+        <v>-14135</v>
+      </c>
+      <c r="B1534" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="C1534" s="5">
+        <v>70</v>
+      </c>
+      <c r="D1534" s="8"/>
+      <c r="E1534" s="36"/>
+      <c r="F1534" s="40"/>
+    </row>
+    <row r="1535" spans="1:6">
+      <c r="A1535" s="7"/>
+      <c r="B1535" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="C1535" s="5">
+        <v>70</v>
+      </c>
+      <c r="D1535" s="8"/>
+      <c r="E1535" s="36"/>
+      <c r="F1535" s="40"/>
+    </row>
+    <row r="1536" spans="1:6">
+      <c r="A1536" s="7"/>
+      <c r="B1536" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1536" s="5">
+        <v>300</v>
+      </c>
+      <c r="D1536" s="8"/>
+      <c r="E1536" s="36"/>
+      <c r="F1536" s="40"/>
+    </row>
+    <row r="1537" spans="1:6">
+      <c r="A1537" s="7"/>
+      <c r="B1537" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1537" s="5">
+        <v>500</v>
+      </c>
+      <c r="D1537" s="8"/>
+      <c r="E1537" s="36"/>
+      <c r="F1537" s="40"/>
+    </row>
+    <row r="1538" spans="1:6">
+      <c r="A1538" s="34"/>
+      <c r="B1538" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1538" s="7">
+        <f>SUM(C1534:C1537)</f>
+        <v>940</v>
+      </c>
+      <c r="D1538" s="34"/>
+      <c r="E1538" s="35">
+        <f>A1534-C1538</f>
+        <v>-15075</v>
+      </c>
+      <c r="F1538" s="41">
+        <f>E1538+45</f>
+        <v>-15030</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:6" ht="18.75">
+      <c r="A1541" s="42" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1541" s="43"/>
+      <c r="C1541" s="43"/>
+      <c r="D1541" s="43"/>
+      <c r="E1541" s="43"/>
+      <c r="F1541" s="44"/>
+    </row>
+    <row r="1542" spans="1:6">
+      <c r="A1542" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1542" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1542" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1542" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1542" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1542" s="39"/>
+    </row>
+    <row r="1543" spans="1:6">
+      <c r="A1543" s="7">
+        <f>E1538+D1543</f>
+        <v>-15075</v>
+      </c>
+      <c r="B1543" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="C1543" s="5">
+        <v>70</v>
+      </c>
+      <c r="D1543" s="8"/>
+      <c r="E1543" s="36"/>
+      <c r="F1543" s="40"/>
+    </row>
+    <row r="1544" spans="1:6">
+      <c r="A1544" s="7"/>
+      <c r="B1544" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="C1544" s="5">
+        <v>70</v>
+      </c>
+      <c r="D1544" s="8"/>
+      <c r="E1544" s="36"/>
+      <c r="F1544" s="40"/>
+    </row>
+    <row r="1545" spans="1:6">
+      <c r="A1545" s="7"/>
+      <c r="B1545" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1545" s="5">
+        <v>300</v>
+      </c>
+      <c r="D1545" s="8"/>
+      <c r="E1545" s="36"/>
+      <c r="F1545" s="40"/>
+    </row>
+    <row r="1546" spans="1:6">
+      <c r="A1546" s="7"/>
+      <c r="B1546" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1546" s="5">
+        <v>500</v>
+      </c>
+      <c r="D1546" s="8"/>
+      <c r="E1546" s="36"/>
+      <c r="F1546" s="40"/>
+    </row>
+    <row r="1547" spans="1:6">
+      <c r="A1547" s="34"/>
+      <c r="B1547" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1547" s="7">
+        <f>SUM(C1543:C1546)</f>
+        <v>940</v>
+      </c>
+      <c r="D1547" s="34"/>
+      <c r="E1547" s="35">
+        <f>A1543-C1547</f>
+        <v>-16015</v>
+      </c>
+      <c r="F1547" s="41">
+        <f>E1547+45</f>
+        <v>-15970</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:6" ht="18.75">
+      <c r="A1550" s="42" t="s">
+        <v>414</v>
+      </c>
+      <c r="B1550" s="43"/>
+      <c r="C1550" s="43"/>
+      <c r="D1550" s="43"/>
+      <c r="E1550" s="43"/>
+      <c r="F1550" s="44"/>
+    </row>
+    <row r="1551" spans="1:6">
+      <c r="A1551" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1551" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1551" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1551" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1551" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1551" s="39"/>
+    </row>
+    <row r="1552" spans="1:6">
+      <c r="A1552" s="7">
+        <f>E1547+D1552</f>
+        <v>-16015</v>
+      </c>
+      <c r="B1552" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="C1552" s="5">
+        <v>70</v>
+      </c>
+      <c r="D1552" s="8"/>
+      <c r="E1552" s="36"/>
+      <c r="F1552" s="40"/>
+    </row>
+    <row r="1553" spans="1:6">
+      <c r="A1553" s="7"/>
+      <c r="B1553" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="C1553" s="5">
+        <v>70</v>
+      </c>
+      <c r="D1553" s="8"/>
+      <c r="E1553" s="36"/>
+      <c r="F1553" s="40"/>
+    </row>
+    <row r="1554" spans="1:6">
+      <c r="A1554" s="7"/>
+      <c r="B1554" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1554" s="5">
+        <v>300</v>
+      </c>
+      <c r="D1554" s="8"/>
+      <c r="E1554" s="36"/>
+      <c r="F1554" s="40"/>
+    </row>
+    <row r="1555" spans="1:6">
+      <c r="A1555" s="7"/>
+      <c r="B1555" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1555" s="5">
+        <v>500</v>
+      </c>
+      <c r="D1555" s="8"/>
+      <c r="E1555" s="36"/>
+      <c r="F1555" s="40"/>
+    </row>
+    <row r="1556" spans="1:6">
+      <c r="A1556" s="34"/>
+      <c r="B1556" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1556" s="7">
+        <f>SUM(C1552:C1555)</f>
+        <v>940</v>
+      </c>
+      <c r="D1556" s="34"/>
+      <c r="E1556" s="35">
+        <f>A1552-C1556</f>
+        <v>-16955</v>
+      </c>
+      <c r="F1556" s="41">
+        <f>E1556+45</f>
+        <v>-16910</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:6" ht="18.75">
+      <c r="A1559" s="42" t="s">
+        <v>415</v>
+      </c>
+      <c r="B1559" s="43"/>
+      <c r="C1559" s="43"/>
+      <c r="D1559" s="43"/>
+      <c r="E1559" s="43"/>
+      <c r="F1559" s="44"/>
+    </row>
+    <row r="1560" spans="1:6">
+      <c r="A1560" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1560" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1560" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1560" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1560" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1560" s="39"/>
+    </row>
+    <row r="1561" spans="1:6">
+      <c r="A1561" s="7">
+        <f>E1556+D1561</f>
+        <v>-11955</v>
+      </c>
+      <c r="B1561" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="C1561" s="5">
+        <v>70</v>
+      </c>
+      <c r="D1561" s="8">
+        <v>5000</v>
+      </c>
+      <c r="E1561" s="36"/>
+      <c r="F1561" s="40"/>
+    </row>
+    <row r="1562" spans="1:6">
+      <c r="A1562" s="7"/>
+      <c r="B1562" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="C1562" s="5">
+        <v>70</v>
+      </c>
+      <c r="D1562" s="8"/>
+      <c r="E1562" s="36"/>
+      <c r="F1562" s="40"/>
+    </row>
+    <row r="1563" spans="1:6">
+      <c r="A1563" s="7"/>
+      <c r="B1563" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1563" s="5">
+        <v>300</v>
+      </c>
+      <c r="D1563" s="8"/>
+      <c r="E1563" s="36"/>
+      <c r="F1563" s="40"/>
+    </row>
+    <row r="1564" spans="1:6">
+      <c r="A1564" s="7"/>
+      <c r="B1564" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1564" s="5">
+        <v>500</v>
+      </c>
+      <c r="D1564" s="8"/>
+      <c r="E1564" s="36"/>
+      <c r="F1564" s="40"/>
+    </row>
+    <row r="1565" spans="1:6">
+      <c r="A1565" s="7"/>
+      <c r="B1565" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="C1565" s="5">
+        <v>2000</v>
+      </c>
+      <c r="D1565" s="8"/>
+      <c r="E1565" s="36"/>
+      <c r="F1565" s="40"/>
+    </row>
+    <row r="1566" spans="1:6">
+      <c r="A1566" s="34"/>
+      <c r="B1566" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1566" s="7">
+        <f>SUM(C1561:C1565)</f>
+        <v>2940</v>
+      </c>
+      <c r="D1566" s="34"/>
+      <c r="E1566" s="35">
+        <f>A1561-C1566</f>
+        <v>-14895</v>
+      </c>
+      <c r="F1566" s="41">
+        <f>E1566+45</f>
+        <v>-14850</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:6" ht="18.75">
+      <c r="A1569" s="42" t="s">
+        <v>417</v>
+      </c>
+      <c r="B1569" s="43"/>
+      <c r="C1569" s="43"/>
+      <c r="D1569" s="43"/>
+      <c r="E1569" s="43"/>
+      <c r="F1569" s="44"/>
+    </row>
+    <row r="1570" spans="1:6">
+      <c r="A1570" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1570" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1570" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1570" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1570" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1570" s="39"/>
+    </row>
+    <row r="1571" spans="1:6">
+      <c r="A1571" s="7">
+        <f>E1566+D1571</f>
+        <v>-14895</v>
+      </c>
+      <c r="B1571" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="C1571" s="5">
+        <v>70</v>
+      </c>
+      <c r="D1571" s="8"/>
+      <c r="E1571" s="36"/>
+      <c r="F1571" s="40"/>
+    </row>
+    <row r="1572" spans="1:6">
+      <c r="A1572" s="7"/>
+      <c r="B1572" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="C1572" s="5">
+        <v>70</v>
+      </c>
+      <c r="D1572" s="8"/>
+      <c r="E1572" s="36"/>
+      <c r="F1572" s="40"/>
+    </row>
+    <row r="1573" spans="1:6">
+      <c r="A1573" s="7"/>
+      <c r="B1573" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1573" s="5">
+        <v>300</v>
+      </c>
+      <c r="D1573" s="8"/>
+      <c r="E1573" s="36"/>
+      <c r="F1573" s="40"/>
+    </row>
+    <row r="1574" spans="1:6">
+      <c r="A1574" s="7"/>
+      <c r="B1574" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1574" s="5">
+        <v>500</v>
+      </c>
+      <c r="D1574" s="8"/>
+      <c r="E1574" s="36"/>
+      <c r="F1574" s="40"/>
+    </row>
+    <row r="1575" spans="1:6">
+      <c r="A1575" s="34"/>
+      <c r="B1575" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1575" s="7">
+        <f>SUM(C1571:C1574)</f>
+        <v>940</v>
+      </c>
+      <c r="D1575" s="34"/>
+      <c r="E1575" s="35">
+        <f>A1571-C1575</f>
+        <v>-15835</v>
+      </c>
+      <c r="F1575" s="41">
+        <f>E1575+45</f>
+        <v>-15790</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="137">
+  <mergeCells count="144">
+    <mergeCell ref="A1514:F1514"/>
+    <mergeCell ref="A1523:F1523"/>
+    <mergeCell ref="A1532:F1532"/>
+    <mergeCell ref="A1541:F1541"/>
+    <mergeCell ref="A1550:F1550"/>
+    <mergeCell ref="A1559:F1559"/>
+    <mergeCell ref="A1569:F1569"/>
+    <mergeCell ref="A1399:F1399"/>
+    <mergeCell ref="A1409:F1409"/>
+    <mergeCell ref="A1418:F1418"/>
+    <mergeCell ref="A1427:F1427"/>
+    <mergeCell ref="A1352:F1352"/>
+    <mergeCell ref="A1363:F1363"/>
+    <mergeCell ref="A1262:F1262"/>
+    <mergeCell ref="A1275:F1275"/>
+    <mergeCell ref="A1289:F1289"/>
+    <mergeCell ref="A1301:F1301"/>
+    <mergeCell ref="A1309:F1309"/>
+    <mergeCell ref="A1315:F1315"/>
+    <mergeCell ref="A1329:F1329"/>
+    <mergeCell ref="A1341:F1341"/>
+    <mergeCell ref="A1193:E1193"/>
+    <mergeCell ref="A1202:E1202"/>
+    <mergeCell ref="A1211:E1211"/>
+    <mergeCell ref="A1220:E1220"/>
+    <mergeCell ref="A1231:E1231"/>
+    <mergeCell ref="A1240:E1240"/>
+    <mergeCell ref="A1249:E1249"/>
+    <mergeCell ref="A1375:F1375"/>
+    <mergeCell ref="A1386:F1386"/>
+    <mergeCell ref="A887:E887"/>
+    <mergeCell ref="A894:E894"/>
+    <mergeCell ref="A794:E794"/>
+    <mergeCell ref="A803:E803"/>
+    <mergeCell ref="A812:E812"/>
+    <mergeCell ref="A606:E606"/>
+    <mergeCell ref="A624:E624"/>
+    <mergeCell ref="A1168:E1168"/>
+    <mergeCell ref="A1183:E1183"/>
+    <mergeCell ref="A534:E534"/>
+    <mergeCell ref="A549:E549"/>
+    <mergeCell ref="A567:E567"/>
+    <mergeCell ref="A576:E576"/>
+    <mergeCell ref="A591:E591"/>
+    <mergeCell ref="A785:E785"/>
+    <mergeCell ref="A868:E868"/>
+    <mergeCell ref="A821:E821"/>
+    <mergeCell ref="A831:E831"/>
+    <mergeCell ref="A841:E841"/>
+    <mergeCell ref="A850:E850"/>
+    <mergeCell ref="A859:E859"/>
+    <mergeCell ref="A250:E250"/>
+    <mergeCell ref="A260:E260"/>
+    <mergeCell ref="A270:E270"/>
+    <mergeCell ref="A282:E282"/>
+    <mergeCell ref="A294:E294"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A62:E62"/>
+    <mergeCell ref="A72:E72"/>
+    <mergeCell ref="A95:E95"/>
+    <mergeCell ref="A110:E110"/>
+    <mergeCell ref="A125:E125"/>
+    <mergeCell ref="A82:E82"/>
+    <mergeCell ref="A215:E215"/>
+    <mergeCell ref="A230:E230"/>
+    <mergeCell ref="A240:E240"/>
+    <mergeCell ref="A140:E140"/>
+    <mergeCell ref="A155:E155"/>
+    <mergeCell ref="A170:E170"/>
+    <mergeCell ref="A185:E185"/>
+    <mergeCell ref="A200:E200"/>
+    <mergeCell ref="A366:E366"/>
+    <mergeCell ref="A375:E375"/>
+    <mergeCell ref="A306:E306"/>
+    <mergeCell ref="A318:E318"/>
+    <mergeCell ref="A330:E330"/>
+    <mergeCell ref="A343:E343"/>
+    <mergeCell ref="A353:E353"/>
+    <mergeCell ref="A383:E383"/>
+    <mergeCell ref="A392:E392"/>
+    <mergeCell ref="A401:E401"/>
+    <mergeCell ref="A408:E408"/>
+    <mergeCell ref="A415:E415"/>
+    <mergeCell ref="A473:E473"/>
+    <mergeCell ref="A489:E489"/>
+    <mergeCell ref="A504:E504"/>
+    <mergeCell ref="A519:E519"/>
+    <mergeCell ref="A424:E424"/>
+    <mergeCell ref="A433:E433"/>
+    <mergeCell ref="A441:E441"/>
+    <mergeCell ref="A456:E456"/>
+    <mergeCell ref="A463:E463"/>
+    <mergeCell ref="A1001:E1001"/>
+    <mergeCell ref="A1011:E1011"/>
+    <mergeCell ref="A1020:E1020"/>
+    <mergeCell ref="A1029:E1029"/>
+    <mergeCell ref="A1039:E1039"/>
+    <mergeCell ref="A983:E983"/>
+    <mergeCell ref="A903:E903"/>
+    <mergeCell ref="A912:E912"/>
+    <mergeCell ref="A634:E634"/>
+    <mergeCell ref="A649:E649"/>
+    <mergeCell ref="A664:E664"/>
+    <mergeCell ref="A679:E679"/>
+    <mergeCell ref="A694:E694"/>
+    <mergeCell ref="A767:E767"/>
+    <mergeCell ref="A709:E709"/>
+    <mergeCell ref="A724:E724"/>
+    <mergeCell ref="A740:E740"/>
+    <mergeCell ref="A750:E750"/>
+    <mergeCell ref="A758:E758"/>
+    <mergeCell ref="A974:E974"/>
+    <mergeCell ref="A921:E921"/>
+    <mergeCell ref="A931:E931"/>
+    <mergeCell ref="A942:E942"/>
+    <mergeCell ref="A877:E877"/>
     <mergeCell ref="A1436:F1436"/>
     <mergeCell ref="A1445:F1445"/>
     <mergeCell ref="A1454:F1454"/>
@@ -17887,119 +18739,6 @@
     <mergeCell ref="A1049:E1049"/>
     <mergeCell ref="A1060:E1060"/>
     <mergeCell ref="A1070:E1070"/>
-    <mergeCell ref="A1001:E1001"/>
-    <mergeCell ref="A1011:E1011"/>
-    <mergeCell ref="A1020:E1020"/>
-    <mergeCell ref="A1029:E1029"/>
-    <mergeCell ref="A1039:E1039"/>
-    <mergeCell ref="A983:E983"/>
-    <mergeCell ref="A903:E903"/>
-    <mergeCell ref="A912:E912"/>
-    <mergeCell ref="A634:E634"/>
-    <mergeCell ref="A649:E649"/>
-    <mergeCell ref="A664:E664"/>
-    <mergeCell ref="A679:E679"/>
-    <mergeCell ref="A694:E694"/>
-    <mergeCell ref="A767:E767"/>
-    <mergeCell ref="A709:E709"/>
-    <mergeCell ref="A724:E724"/>
-    <mergeCell ref="A740:E740"/>
-    <mergeCell ref="A750:E750"/>
-    <mergeCell ref="A758:E758"/>
-    <mergeCell ref="A401:E401"/>
-    <mergeCell ref="A408:E408"/>
-    <mergeCell ref="A415:E415"/>
-    <mergeCell ref="A473:E473"/>
-    <mergeCell ref="A489:E489"/>
-    <mergeCell ref="A504:E504"/>
-    <mergeCell ref="A519:E519"/>
-    <mergeCell ref="A424:E424"/>
-    <mergeCell ref="A433:E433"/>
-    <mergeCell ref="A441:E441"/>
-    <mergeCell ref="A456:E456"/>
-    <mergeCell ref="A463:E463"/>
-    <mergeCell ref="A366:E366"/>
-    <mergeCell ref="A375:E375"/>
-    <mergeCell ref="A306:E306"/>
-    <mergeCell ref="A318:E318"/>
-    <mergeCell ref="A330:E330"/>
-    <mergeCell ref="A343:E343"/>
-    <mergeCell ref="A353:E353"/>
-    <mergeCell ref="A383:E383"/>
-    <mergeCell ref="A392:E392"/>
-    <mergeCell ref="A250:E250"/>
-    <mergeCell ref="A260:E260"/>
-    <mergeCell ref="A270:E270"/>
-    <mergeCell ref="A282:E282"/>
-    <mergeCell ref="A294:E294"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A62:E62"/>
-    <mergeCell ref="A72:E72"/>
-    <mergeCell ref="A95:E95"/>
-    <mergeCell ref="A110:E110"/>
-    <mergeCell ref="A125:E125"/>
-    <mergeCell ref="A82:E82"/>
-    <mergeCell ref="A215:E215"/>
-    <mergeCell ref="A230:E230"/>
-    <mergeCell ref="A240:E240"/>
-    <mergeCell ref="A140:E140"/>
-    <mergeCell ref="A155:E155"/>
-    <mergeCell ref="A170:E170"/>
-    <mergeCell ref="A185:E185"/>
-    <mergeCell ref="A200:E200"/>
-    <mergeCell ref="A974:E974"/>
-    <mergeCell ref="A921:E921"/>
-    <mergeCell ref="A931:E931"/>
-    <mergeCell ref="A942:E942"/>
-    <mergeCell ref="A534:E534"/>
-    <mergeCell ref="A549:E549"/>
-    <mergeCell ref="A567:E567"/>
-    <mergeCell ref="A576:E576"/>
-    <mergeCell ref="A591:E591"/>
-    <mergeCell ref="A785:E785"/>
-    <mergeCell ref="A868:E868"/>
-    <mergeCell ref="A821:E821"/>
-    <mergeCell ref="A831:E831"/>
-    <mergeCell ref="A841:E841"/>
-    <mergeCell ref="A850:E850"/>
-    <mergeCell ref="A859:E859"/>
-    <mergeCell ref="A877:E877"/>
-    <mergeCell ref="A887:E887"/>
-    <mergeCell ref="A894:E894"/>
-    <mergeCell ref="A794:E794"/>
-    <mergeCell ref="A803:E803"/>
-    <mergeCell ref="A812:E812"/>
-    <mergeCell ref="A606:E606"/>
-    <mergeCell ref="A624:E624"/>
-    <mergeCell ref="A1168:E1168"/>
-    <mergeCell ref="A1183:E1183"/>
-    <mergeCell ref="A1193:E1193"/>
-    <mergeCell ref="A1202:E1202"/>
-    <mergeCell ref="A1211:E1211"/>
-    <mergeCell ref="A1220:E1220"/>
-    <mergeCell ref="A1231:E1231"/>
-    <mergeCell ref="A1240:E1240"/>
-    <mergeCell ref="A1249:E1249"/>
-    <mergeCell ref="A1375:F1375"/>
-    <mergeCell ref="A1386:F1386"/>
-    <mergeCell ref="A1399:F1399"/>
-    <mergeCell ref="A1409:F1409"/>
-    <mergeCell ref="A1418:F1418"/>
-    <mergeCell ref="A1427:F1427"/>
-    <mergeCell ref="A1352:F1352"/>
-    <mergeCell ref="A1363:F1363"/>
-    <mergeCell ref="A1262:F1262"/>
-    <mergeCell ref="A1275:F1275"/>
-    <mergeCell ref="A1289:F1289"/>
-    <mergeCell ref="A1301:F1301"/>
-    <mergeCell ref="A1309:F1309"/>
-    <mergeCell ref="A1315:F1315"/>
-    <mergeCell ref="A1329:F1329"/>
-    <mergeCell ref="A1341:F1341"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/SANDEEP STAFF.xlsx
+++ b/SANDEEP STAFF.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2012" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2080" uniqueCount="432">
   <si>
     <t xml:space="preserve">opening balance </t>
   </si>
@@ -1269,6 +1269,48 @@
   </si>
   <si>
     <t>25.07.24</t>
+  </si>
+  <si>
+    <t>26.07.24</t>
+  </si>
+  <si>
+    <t>27.07.24</t>
+  </si>
+  <si>
+    <t>28.07.24</t>
+  </si>
+  <si>
+    <t>CASH FOR SAMPLE BY OPERATOR</t>
+  </si>
+  <si>
+    <t>29.07.24</t>
+  </si>
+  <si>
+    <t>MJFPUR TO GOPAL GANJ</t>
+  </si>
+  <si>
+    <t>GORAKHPUR TO DELHI ANANDBIHAR</t>
+  </si>
+  <si>
+    <t>DELHI ANANDBIHAR TO KASHMIRI GATE</t>
+  </si>
+  <si>
+    <t>30.07.24</t>
+  </si>
+  <si>
+    <t>KASHMIRI GATE TO SIRSA BUS STAND</t>
+  </si>
+  <si>
+    <t>SIRSA BUS STAND TO DABOILY BUS STAND</t>
+  </si>
+  <si>
+    <t>31.07.24</t>
+  </si>
+  <si>
+    <t>ANKIBALI TO E20 GREENFUELS PLANT</t>
+  </si>
+  <si>
+    <t>E20 GREENFUELS TO ANKIBALI</t>
   </si>
 </sst>
 </file>
@@ -2181,10 +2223,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1575"/>
+  <dimension ref="A1:F1631"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1562" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B1575" sqref="B1575"/>
+    <sheetView tabSelected="1" topLeftCell="A1617" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E1634" sqref="E1634"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18593,59 +18635,666 @@
         <v>-15790</v>
       </c>
     </row>
+    <row r="1578" spans="1:6" ht="18.75">
+      <c r="A1578" s="42" t="s">
+        <v>418</v>
+      </c>
+      <c r="B1578" s="43"/>
+      <c r="C1578" s="43"/>
+      <c r="D1578" s="43"/>
+      <c r="E1578" s="43"/>
+      <c r="F1578" s="44"/>
+    </row>
+    <row r="1579" spans="1:6">
+      <c r="A1579" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1579" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1579" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1579" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1579" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1579" s="39"/>
+    </row>
+    <row r="1580" spans="1:6">
+      <c r="A1580" s="7">
+        <f>E1575+D1580</f>
+        <v>-15835</v>
+      </c>
+      <c r="B1580" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="C1580" s="5">
+        <v>70</v>
+      </c>
+      <c r="D1580" s="8"/>
+      <c r="E1580" s="36"/>
+      <c r="F1580" s="40"/>
+    </row>
+    <row r="1581" spans="1:6">
+      <c r="A1581" s="7"/>
+      <c r="B1581" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="C1581" s="5">
+        <v>70</v>
+      </c>
+      <c r="D1581" s="8"/>
+      <c r="E1581" s="36"/>
+      <c r="F1581" s="40"/>
+    </row>
+    <row r="1582" spans="1:6">
+      <c r="A1582" s="7"/>
+      <c r="B1582" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1582" s="5">
+        <v>300</v>
+      </c>
+      <c r="D1582" s="8"/>
+      <c r="E1582" s="36"/>
+      <c r="F1582" s="40"/>
+    </row>
+    <row r="1583" spans="1:6">
+      <c r="A1583" s="7"/>
+      <c r="B1583" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1583" s="5">
+        <v>500</v>
+      </c>
+      <c r="D1583" s="8"/>
+      <c r="E1583" s="36"/>
+      <c r="F1583" s="40"/>
+    </row>
+    <row r="1584" spans="1:6">
+      <c r="A1584" s="34"/>
+      <c r="B1584" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1584" s="7">
+        <f>SUM(C1580:C1583)</f>
+        <v>940</v>
+      </c>
+      <c r="D1584" s="34"/>
+      <c r="E1584" s="35">
+        <f>A1580-C1584</f>
+        <v>-16775</v>
+      </c>
+      <c r="F1584" s="41">
+        <f>E1584+45</f>
+        <v>-16730</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:6" ht="18.75">
+      <c r="A1587" s="42" t="s">
+        <v>419</v>
+      </c>
+      <c r="B1587" s="43"/>
+      <c r="C1587" s="43"/>
+      <c r="D1587" s="43"/>
+      <c r="E1587" s="43"/>
+      <c r="F1587" s="44"/>
+    </row>
+    <row r="1588" spans="1:6">
+      <c r="A1588" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1588" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1588" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1588" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1588" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1588" s="39"/>
+    </row>
+    <row r="1589" spans="1:6">
+      <c r="A1589" s="7">
+        <f>E1584+D1589</f>
+        <v>-13775</v>
+      </c>
+      <c r="B1589" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="C1589" s="5">
+        <v>70</v>
+      </c>
+      <c r="D1589" s="8">
+        <v>3000</v>
+      </c>
+      <c r="E1589" s="36"/>
+      <c r="F1589" s="40"/>
+    </row>
+    <row r="1590" spans="1:6">
+      <c r="A1590" s="7"/>
+      <c r="B1590" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="C1590" s="5">
+        <v>70</v>
+      </c>
+      <c r="D1590" s="8"/>
+      <c r="E1590" s="36"/>
+      <c r="F1590" s="40"/>
+    </row>
+    <row r="1591" spans="1:6">
+      <c r="A1591" s="7"/>
+      <c r="B1591" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1591" s="5">
+        <v>300</v>
+      </c>
+      <c r="D1591" s="8"/>
+      <c r="E1591" s="36"/>
+      <c r="F1591" s="40"/>
+    </row>
+    <row r="1592" spans="1:6">
+      <c r="A1592" s="7"/>
+      <c r="B1592" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1592" s="5">
+        <v>500</v>
+      </c>
+      <c r="D1592" s="8"/>
+      <c r="E1592" s="36"/>
+      <c r="F1592" s="40"/>
+    </row>
+    <row r="1593" spans="1:6">
+      <c r="A1593" s="34"/>
+      <c r="B1593" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1593" s="7">
+        <f>SUM(C1589:C1592)</f>
+        <v>940</v>
+      </c>
+      <c r="D1593" s="34"/>
+      <c r="E1593" s="35">
+        <f>A1589-C1593</f>
+        <v>-14715</v>
+      </c>
+      <c r="F1593" s="41">
+        <f>E1593+45</f>
+        <v>-14670</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:6" ht="18.75">
+      <c r="A1596" s="42" t="s">
+        <v>420</v>
+      </c>
+      <c r="B1596" s="43"/>
+      <c r="C1596" s="43"/>
+      <c r="D1596" s="43"/>
+      <c r="E1596" s="43"/>
+      <c r="F1596" s="44"/>
+    </row>
+    <row r="1597" spans="1:6">
+      <c r="A1597" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1597" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1597" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1597" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1597" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1597" s="39"/>
+    </row>
+    <row r="1598" spans="1:6">
+      <c r="A1598" s="7">
+        <f>E1593+D1598</f>
+        <v>-14715</v>
+      </c>
+      <c r="B1598" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="C1598" s="5">
+        <v>70</v>
+      </c>
+      <c r="D1598" s="8"/>
+      <c r="E1598" s="36"/>
+      <c r="F1598" s="40"/>
+    </row>
+    <row r="1599" spans="1:6">
+      <c r="A1599" s="7"/>
+      <c r="B1599" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="C1599" s="5">
+        <v>70</v>
+      </c>
+      <c r="D1599" s="8"/>
+      <c r="E1599" s="36"/>
+      <c r="F1599" s="40"/>
+    </row>
+    <row r="1600" spans="1:6">
+      <c r="A1600" s="7"/>
+      <c r="B1600" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="C1600" s="5">
+        <v>1000</v>
+      </c>
+      <c r="D1600" s="8"/>
+      <c r="E1600" s="36"/>
+      <c r="F1600" s="40"/>
+    </row>
+    <row r="1601" spans="1:6">
+      <c r="A1601" s="7"/>
+      <c r="B1601" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1601" s="5">
+        <v>300</v>
+      </c>
+      <c r="D1601" s="8"/>
+      <c r="E1601" s="36"/>
+      <c r="F1601" s="40"/>
+    </row>
+    <row r="1602" spans="1:6">
+      <c r="A1602" s="7"/>
+      <c r="B1602" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1602" s="5">
+        <v>500</v>
+      </c>
+      <c r="D1602" s="8"/>
+      <c r="E1602" s="36"/>
+      <c r="F1602" s="40"/>
+    </row>
+    <row r="1603" spans="1:6">
+      <c r="A1603" s="34"/>
+      <c r="B1603" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1603" s="7">
+        <f>SUM(C1598:C1602)</f>
+        <v>1940</v>
+      </c>
+      <c r="D1603" s="34"/>
+      <c r="E1603" s="35">
+        <f>A1598-C1603</f>
+        <v>-16655</v>
+      </c>
+      <c r="F1603" s="41">
+        <f>E1603+45</f>
+        <v>-16610</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:6" ht="18.75">
+      <c r="A1606" s="42" t="s">
+        <v>422</v>
+      </c>
+      <c r="B1606" s="43"/>
+      <c r="C1606" s="43"/>
+      <c r="D1606" s="43"/>
+      <c r="E1606" s="43"/>
+      <c r="F1606" s="44"/>
+    </row>
+    <row r="1607" spans="1:6">
+      <c r="A1607" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1607" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1607" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1607" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1607" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1607" s="39"/>
+    </row>
+    <row r="1608" spans="1:6">
+      <c r="A1608" s="7">
+        <f>E1603+D1608</f>
+        <v>-13655</v>
+      </c>
+      <c r="B1608" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="C1608" s="5">
+        <v>300</v>
+      </c>
+      <c r="D1608" s="8">
+        <v>3000</v>
+      </c>
+      <c r="E1608" s="36"/>
+      <c r="F1608" s="40"/>
+    </row>
+    <row r="1609" spans="1:6">
+      <c r="A1609" s="7"/>
+      <c r="B1609" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="C1609" s="5">
+        <v>250</v>
+      </c>
+      <c r="D1609" s="8"/>
+      <c r="E1609" s="36"/>
+      <c r="F1609" s="40"/>
+    </row>
+    <row r="1610" spans="1:6">
+      <c r="A1610" s="7"/>
+      <c r="B1610" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="C1610" s="5">
+        <v>1300</v>
+      </c>
+      <c r="D1610" s="8"/>
+      <c r="E1610" s="36"/>
+      <c r="F1610" s="40"/>
+    </row>
+    <row r="1611" spans="1:6">
+      <c r="A1611" s="7"/>
+      <c r="B1611" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="C1611" s="5">
+        <v>30</v>
+      </c>
+      <c r="D1611" s="8"/>
+      <c r="E1611" s="36"/>
+      <c r="F1611" s="40"/>
+    </row>
+    <row r="1612" spans="1:6">
+      <c r="A1612" s="7"/>
+      <c r="B1612" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1612" s="5">
+        <v>300</v>
+      </c>
+      <c r="D1612" s="8"/>
+      <c r="E1612" s="36"/>
+      <c r="F1612" s="40"/>
+    </row>
+    <row r="1613" spans="1:6">
+      <c r="A1613" s="34"/>
+      <c r="B1613" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1613" s="7">
+        <f>SUM(C1608:C1612)</f>
+        <v>2180</v>
+      </c>
+      <c r="D1613" s="34"/>
+      <c r="E1613" s="35">
+        <f>A1608-C1613</f>
+        <v>-15835</v>
+      </c>
+      <c r="F1613" s="41">
+        <f>E1613+45</f>
+        <v>-15790</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:6" ht="18.75">
+      <c r="A1616" s="42" t="s">
+        <v>426</v>
+      </c>
+      <c r="B1616" s="43"/>
+      <c r="C1616" s="43"/>
+      <c r="D1616" s="43"/>
+      <c r="E1616" s="43"/>
+      <c r="F1616" s="44"/>
+    </row>
+    <row r="1617" spans="1:6">
+      <c r="A1617" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1617" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1617" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1617" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1617" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1617" s="39"/>
+    </row>
+    <row r="1618" spans="1:6">
+      <c r="A1618" s="7">
+        <f>E1613+D1618</f>
+        <v>-15835</v>
+      </c>
+      <c r="B1618" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="C1618" s="5">
+        <v>350</v>
+      </c>
+      <c r="D1618" s="8"/>
+      <c r="E1618" s="36"/>
+      <c r="F1618" s="40"/>
+    </row>
+    <row r="1619" spans="1:6">
+      <c r="A1619" s="7"/>
+      <c r="B1619" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="C1619" s="5">
+        <v>80</v>
+      </c>
+      <c r="D1619" s="8"/>
+      <c r="E1619" s="36"/>
+      <c r="F1619" s="40"/>
+    </row>
+    <row r="1620" spans="1:6">
+      <c r="A1620" s="7"/>
+      <c r="B1620" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1620" s="5">
+        <v>300</v>
+      </c>
+      <c r="D1620" s="8"/>
+      <c r="E1620" s="36"/>
+      <c r="F1620" s="40"/>
+    </row>
+    <row r="1621" spans="1:6">
+      <c r="A1621" s="7"/>
+      <c r="B1621" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1621" s="5">
+        <v>700</v>
+      </c>
+      <c r="D1621" s="8"/>
+      <c r="E1621" s="36"/>
+      <c r="F1621" s="40"/>
+    </row>
+    <row r="1622" spans="1:6">
+      <c r="A1622" s="34"/>
+      <c r="B1622" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1622" s="7">
+        <f>SUM(C1618:C1621)</f>
+        <v>1430</v>
+      </c>
+      <c r="D1622" s="34"/>
+      <c r="E1622" s="35">
+        <f>A1618-C1622</f>
+        <v>-17265</v>
+      </c>
+      <c r="F1622" s="41">
+        <f>E1622+45</f>
+        <v>-17220</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:6" ht="18.75">
+      <c r="A1625" s="42" t="s">
+        <v>429</v>
+      </c>
+      <c r="B1625" s="43"/>
+      <c r="C1625" s="43"/>
+      <c r="D1625" s="43"/>
+      <c r="E1625" s="43"/>
+      <c r="F1625" s="44"/>
+    </row>
+    <row r="1626" spans="1:6">
+      <c r="A1626" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1626" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1626" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1626" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1626" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1626" s="39"/>
+    </row>
+    <row r="1627" spans="1:6">
+      <c r="A1627" s="7">
+        <f>E1622+D1627</f>
+        <v>-14265</v>
+      </c>
+      <c r="B1627" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="C1627" s="5">
+        <v>20</v>
+      </c>
+      <c r="D1627" s="8">
+        <v>3000</v>
+      </c>
+      <c r="E1627" s="36"/>
+      <c r="F1627" s="40"/>
+    </row>
+    <row r="1628" spans="1:6">
+      <c r="A1628" s="7"/>
+      <c r="B1628" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="C1628" s="5">
+        <v>20</v>
+      </c>
+      <c r="D1628" s="8"/>
+      <c r="E1628" s="36"/>
+      <c r="F1628" s="40"/>
+    </row>
+    <row r="1629" spans="1:6">
+      <c r="A1629" s="7"/>
+      <c r="B1629" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1629" s="5">
+        <v>300</v>
+      </c>
+      <c r="D1629" s="8"/>
+      <c r="E1629" s="36"/>
+      <c r="F1629" s="40"/>
+    </row>
+    <row r="1630" spans="1:6">
+      <c r="A1630" s="7"/>
+      <c r="B1630" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1630" s="5">
+        <v>700</v>
+      </c>
+      <c r="D1630" s="8"/>
+      <c r="E1630" s="36"/>
+      <c r="F1630" s="40"/>
+    </row>
+    <row r="1631" spans="1:6">
+      <c r="A1631" s="34"/>
+      <c r="B1631" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1631" s="7">
+        <f>SUM(C1627:C1630)</f>
+        <v>1040</v>
+      </c>
+      <c r="D1631" s="34"/>
+      <c r="E1631" s="35">
+        <f>A1627-C1631</f>
+        <v>-15305</v>
+      </c>
+      <c r="F1631" s="41">
+        <f>E1631+45</f>
+        <v>-15260</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="144">
-    <mergeCell ref="A1514:F1514"/>
-    <mergeCell ref="A1523:F1523"/>
-    <mergeCell ref="A1532:F1532"/>
-    <mergeCell ref="A1541:F1541"/>
-    <mergeCell ref="A1550:F1550"/>
-    <mergeCell ref="A1559:F1559"/>
-    <mergeCell ref="A1569:F1569"/>
-    <mergeCell ref="A1399:F1399"/>
-    <mergeCell ref="A1409:F1409"/>
-    <mergeCell ref="A1418:F1418"/>
-    <mergeCell ref="A1427:F1427"/>
-    <mergeCell ref="A1352:F1352"/>
-    <mergeCell ref="A1363:F1363"/>
-    <mergeCell ref="A1262:F1262"/>
-    <mergeCell ref="A1275:F1275"/>
-    <mergeCell ref="A1289:F1289"/>
-    <mergeCell ref="A1301:F1301"/>
-    <mergeCell ref="A1309:F1309"/>
-    <mergeCell ref="A1315:F1315"/>
-    <mergeCell ref="A1329:F1329"/>
-    <mergeCell ref="A1341:F1341"/>
-    <mergeCell ref="A1193:E1193"/>
-    <mergeCell ref="A1202:E1202"/>
-    <mergeCell ref="A1211:E1211"/>
-    <mergeCell ref="A1220:E1220"/>
-    <mergeCell ref="A1231:E1231"/>
-    <mergeCell ref="A1240:E1240"/>
-    <mergeCell ref="A1249:E1249"/>
-    <mergeCell ref="A1375:F1375"/>
-    <mergeCell ref="A1386:F1386"/>
-    <mergeCell ref="A887:E887"/>
-    <mergeCell ref="A894:E894"/>
-    <mergeCell ref="A794:E794"/>
-    <mergeCell ref="A803:E803"/>
-    <mergeCell ref="A812:E812"/>
-    <mergeCell ref="A606:E606"/>
-    <mergeCell ref="A624:E624"/>
-    <mergeCell ref="A1168:E1168"/>
-    <mergeCell ref="A1183:E1183"/>
-    <mergeCell ref="A534:E534"/>
-    <mergeCell ref="A549:E549"/>
-    <mergeCell ref="A567:E567"/>
-    <mergeCell ref="A576:E576"/>
-    <mergeCell ref="A591:E591"/>
-    <mergeCell ref="A785:E785"/>
-    <mergeCell ref="A868:E868"/>
-    <mergeCell ref="A821:E821"/>
-    <mergeCell ref="A831:E831"/>
-    <mergeCell ref="A841:E841"/>
-    <mergeCell ref="A850:E850"/>
-    <mergeCell ref="A859:E859"/>
+  <mergeCells count="150">
+    <mergeCell ref="A1578:F1578"/>
+    <mergeCell ref="A1587:F1587"/>
+    <mergeCell ref="A1596:F1596"/>
+    <mergeCell ref="A1606:F1606"/>
+    <mergeCell ref="A1616:F1616"/>
+    <mergeCell ref="A1625:F1625"/>
+    <mergeCell ref="A1158:E1158"/>
+    <mergeCell ref="A1089:E1089"/>
+    <mergeCell ref="A1098:E1098"/>
+    <mergeCell ref="A1108:E1108"/>
+    <mergeCell ref="A1117:E1117"/>
+    <mergeCell ref="A1126:E1126"/>
+    <mergeCell ref="A952:E952"/>
+    <mergeCell ref="A964:E964"/>
+    <mergeCell ref="A992:E992"/>
+    <mergeCell ref="A1080:E1080"/>
+    <mergeCell ref="A1049:E1049"/>
+    <mergeCell ref="A1060:E1060"/>
+    <mergeCell ref="A1070:E1070"/>
+    <mergeCell ref="A401:E401"/>
+    <mergeCell ref="A408:E408"/>
+    <mergeCell ref="A415:E415"/>
+    <mergeCell ref="A473:E473"/>
+    <mergeCell ref="A489:E489"/>
+    <mergeCell ref="A504:E504"/>
+    <mergeCell ref="A519:E519"/>
+    <mergeCell ref="A424:E424"/>
+    <mergeCell ref="A433:E433"/>
+    <mergeCell ref="A441:E441"/>
+    <mergeCell ref="A456:E456"/>
+    <mergeCell ref="A463:E463"/>
+    <mergeCell ref="A366:E366"/>
+    <mergeCell ref="A375:E375"/>
+    <mergeCell ref="A306:E306"/>
+    <mergeCell ref="A318:E318"/>
+    <mergeCell ref="A330:E330"/>
+    <mergeCell ref="A343:E343"/>
+    <mergeCell ref="A353:E353"/>
+    <mergeCell ref="A383:E383"/>
+    <mergeCell ref="A392:E392"/>
     <mergeCell ref="A250:E250"/>
     <mergeCell ref="A260:E260"/>
     <mergeCell ref="A270:E270"/>
@@ -18670,35 +19319,18 @@
     <mergeCell ref="A170:E170"/>
     <mergeCell ref="A185:E185"/>
     <mergeCell ref="A200:E200"/>
-    <mergeCell ref="A366:E366"/>
-    <mergeCell ref="A375:E375"/>
-    <mergeCell ref="A306:E306"/>
-    <mergeCell ref="A318:E318"/>
-    <mergeCell ref="A330:E330"/>
-    <mergeCell ref="A343:E343"/>
-    <mergeCell ref="A353:E353"/>
-    <mergeCell ref="A383:E383"/>
-    <mergeCell ref="A392:E392"/>
-    <mergeCell ref="A401:E401"/>
-    <mergeCell ref="A408:E408"/>
-    <mergeCell ref="A415:E415"/>
-    <mergeCell ref="A473:E473"/>
-    <mergeCell ref="A489:E489"/>
-    <mergeCell ref="A504:E504"/>
-    <mergeCell ref="A519:E519"/>
-    <mergeCell ref="A424:E424"/>
-    <mergeCell ref="A433:E433"/>
-    <mergeCell ref="A441:E441"/>
-    <mergeCell ref="A456:E456"/>
-    <mergeCell ref="A463:E463"/>
-    <mergeCell ref="A1001:E1001"/>
-    <mergeCell ref="A1011:E1011"/>
-    <mergeCell ref="A1020:E1020"/>
-    <mergeCell ref="A1029:E1029"/>
-    <mergeCell ref="A1039:E1039"/>
-    <mergeCell ref="A983:E983"/>
-    <mergeCell ref="A903:E903"/>
-    <mergeCell ref="A912:E912"/>
+    <mergeCell ref="A534:E534"/>
+    <mergeCell ref="A549:E549"/>
+    <mergeCell ref="A567:E567"/>
+    <mergeCell ref="A576:E576"/>
+    <mergeCell ref="A591:E591"/>
+    <mergeCell ref="A785:E785"/>
+    <mergeCell ref="A868:E868"/>
+    <mergeCell ref="A821:E821"/>
+    <mergeCell ref="A831:E831"/>
+    <mergeCell ref="A841:E841"/>
+    <mergeCell ref="A850:E850"/>
+    <mergeCell ref="A859:E859"/>
     <mergeCell ref="A634:E634"/>
     <mergeCell ref="A649:E649"/>
     <mergeCell ref="A664:E664"/>
@@ -18710,11 +19342,61 @@
     <mergeCell ref="A740:E740"/>
     <mergeCell ref="A750:E750"/>
     <mergeCell ref="A758:E758"/>
+    <mergeCell ref="A776:E776"/>
+    <mergeCell ref="A887:E887"/>
+    <mergeCell ref="A894:E894"/>
+    <mergeCell ref="A794:E794"/>
+    <mergeCell ref="A803:E803"/>
+    <mergeCell ref="A812:E812"/>
+    <mergeCell ref="A606:E606"/>
+    <mergeCell ref="A624:E624"/>
+    <mergeCell ref="A1168:E1168"/>
+    <mergeCell ref="A1183:E1183"/>
+    <mergeCell ref="A1001:E1001"/>
+    <mergeCell ref="A1011:E1011"/>
+    <mergeCell ref="A1020:E1020"/>
+    <mergeCell ref="A1029:E1029"/>
+    <mergeCell ref="A1039:E1039"/>
+    <mergeCell ref="A983:E983"/>
+    <mergeCell ref="A903:E903"/>
+    <mergeCell ref="A912:E912"/>
     <mergeCell ref="A974:E974"/>
     <mergeCell ref="A921:E921"/>
     <mergeCell ref="A931:E931"/>
     <mergeCell ref="A942:E942"/>
     <mergeCell ref="A877:E877"/>
+    <mergeCell ref="A1135:E1135"/>
+    <mergeCell ref="A1148:E1148"/>
+    <mergeCell ref="A1193:E1193"/>
+    <mergeCell ref="A1202:E1202"/>
+    <mergeCell ref="A1211:E1211"/>
+    <mergeCell ref="A1220:E1220"/>
+    <mergeCell ref="A1231:E1231"/>
+    <mergeCell ref="A1240:E1240"/>
+    <mergeCell ref="A1249:E1249"/>
+    <mergeCell ref="A1375:F1375"/>
+    <mergeCell ref="A1386:F1386"/>
+    <mergeCell ref="A1352:F1352"/>
+    <mergeCell ref="A1363:F1363"/>
+    <mergeCell ref="A1262:F1262"/>
+    <mergeCell ref="A1275:F1275"/>
+    <mergeCell ref="A1289:F1289"/>
+    <mergeCell ref="A1301:F1301"/>
+    <mergeCell ref="A1309:F1309"/>
+    <mergeCell ref="A1315:F1315"/>
+    <mergeCell ref="A1329:F1329"/>
+    <mergeCell ref="A1341:F1341"/>
+    <mergeCell ref="A1514:F1514"/>
+    <mergeCell ref="A1523:F1523"/>
+    <mergeCell ref="A1532:F1532"/>
+    <mergeCell ref="A1541:F1541"/>
+    <mergeCell ref="A1550:F1550"/>
+    <mergeCell ref="A1559:F1559"/>
+    <mergeCell ref="A1569:F1569"/>
+    <mergeCell ref="A1399:F1399"/>
+    <mergeCell ref="A1409:F1409"/>
+    <mergeCell ref="A1418:F1418"/>
+    <mergeCell ref="A1427:F1427"/>
     <mergeCell ref="A1436:F1436"/>
     <mergeCell ref="A1445:F1445"/>
     <mergeCell ref="A1454:F1454"/>
@@ -18723,22 +19405,6 @@
     <mergeCell ref="A1482:F1482"/>
     <mergeCell ref="A1491:F1491"/>
     <mergeCell ref="A1504:F1504"/>
-    <mergeCell ref="A776:E776"/>
-    <mergeCell ref="A1135:E1135"/>
-    <mergeCell ref="A1148:E1148"/>
-    <mergeCell ref="A1158:E1158"/>
-    <mergeCell ref="A1089:E1089"/>
-    <mergeCell ref="A1098:E1098"/>
-    <mergeCell ref="A1108:E1108"/>
-    <mergeCell ref="A1117:E1117"/>
-    <mergeCell ref="A1126:E1126"/>
-    <mergeCell ref="A952:E952"/>
-    <mergeCell ref="A964:E964"/>
-    <mergeCell ref="A992:E992"/>
-    <mergeCell ref="A1080:E1080"/>
-    <mergeCell ref="A1049:E1049"/>
-    <mergeCell ref="A1060:E1060"/>
-    <mergeCell ref="A1070:E1070"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/SANDEEP STAFF.xlsx
+++ b/SANDEEP STAFF.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2080" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2208" uniqueCount="466">
   <si>
     <t xml:space="preserve">opening balance </t>
   </si>
@@ -1311,6 +1311,108 @@
   </si>
   <si>
     <t>E20 GREENFUELS TO ANKIBALI</t>
+  </si>
+  <si>
+    <t>01.08.24</t>
+  </si>
+  <si>
+    <t>DOBABALI TO E20 GREEN PLANT</t>
+  </si>
+  <si>
+    <t>E20 GREEN PLANT TO DOBABALI</t>
+  </si>
+  <si>
+    <t>DOBABALI TO SIRSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIRSA TO KASHMIRI GATE </t>
+  </si>
+  <si>
+    <t>KASHMIRI GATE TO KALE KHA</t>
+  </si>
+  <si>
+    <t>02.08.24</t>
+  </si>
+  <si>
+    <t>KALE KHA TO AAGRA</t>
+  </si>
+  <si>
+    <t>AAGRA TO GWALIER</t>
+  </si>
+  <si>
+    <t>GWALIER TO CHATARPUR</t>
+  </si>
+  <si>
+    <t>CHATTARPUR TO PANNA</t>
+  </si>
+  <si>
+    <t>PANNA TO AMAN GANJ</t>
+  </si>
+  <si>
+    <t>03.08.24</t>
+  </si>
+  <si>
+    <t>04.08.24</t>
+  </si>
+  <si>
+    <t>05.08.24</t>
+  </si>
+  <si>
+    <t>06.08.24</t>
+  </si>
+  <si>
+    <t>07.08.24</t>
+  </si>
+  <si>
+    <t>08.08.24</t>
+  </si>
+  <si>
+    <t>09.08.24</t>
+  </si>
+  <si>
+    <t>10.08.24</t>
+  </si>
+  <si>
+    <t>11.08.24</t>
+  </si>
+  <si>
+    <t>AMAN GANJ TO PANNA</t>
+  </si>
+  <si>
+    <t>PANNA TO CHATTARPUR</t>
+  </si>
+  <si>
+    <t>CHATTARPUR TO BANDA</t>
+  </si>
+  <si>
+    <t>BANDA TO KANPUR</t>
+  </si>
+  <si>
+    <t>12.08.24</t>
+  </si>
+  <si>
+    <t>OFFIECE TO TATMIL</t>
+  </si>
+  <si>
+    <t>TATMIL TO DELHI</t>
+  </si>
+  <si>
+    <t>DELHI TO MEERUT</t>
+  </si>
+  <si>
+    <t>MEERUT HARIDWAR</t>
+  </si>
+  <si>
+    <t>HARIDWAR LAKSAR</t>
+  </si>
+  <si>
+    <t>13.08.24</t>
+  </si>
+  <si>
+    <t>LAKSAR TO HARIDWAR</t>
+  </si>
+  <si>
+    <t>MORADABAD TO KASHIPUR</t>
   </si>
 </sst>
 </file>
@@ -2223,10 +2325,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1631"/>
+  <dimension ref="A1:F1733"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1617" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E1634" sqref="E1634"/>
+    <sheetView tabSelected="1" topLeftCell="A1712" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C1737" sqref="C1737"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19253,8 +19355,1110 @@
         <v>-15260</v>
       </c>
     </row>
+    <row r="1634" spans="1:6" ht="18.75">
+      <c r="A1634" s="42" t="s">
+        <v>432</v>
+      </c>
+      <c r="B1634" s="43"/>
+      <c r="C1634" s="43"/>
+      <c r="D1634" s="43"/>
+      <c r="E1634" s="43"/>
+      <c r="F1634" s="44"/>
+    </row>
+    <row r="1635" spans="1:6">
+      <c r="A1635" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1635" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1635" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1635" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1635" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1635" s="39"/>
+    </row>
+    <row r="1636" spans="1:6">
+      <c r="A1636" s="7">
+        <f>E1631+D1636</f>
+        <v>-15305</v>
+      </c>
+      <c r="B1636" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="C1636" s="5">
+        <v>20</v>
+      </c>
+      <c r="D1636" s="8"/>
+      <c r="E1636" s="36"/>
+      <c r="F1636" s="40"/>
+    </row>
+    <row r="1637" spans="1:6">
+      <c r="A1637" s="7"/>
+      <c r="B1637" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="C1637" s="5">
+        <v>20</v>
+      </c>
+      <c r="D1637" s="8"/>
+      <c r="E1637" s="36"/>
+      <c r="F1637" s="40"/>
+    </row>
+    <row r="1638" spans="1:6">
+      <c r="A1638" s="7"/>
+      <c r="B1638" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="C1638" s="5">
+        <v>80</v>
+      </c>
+      <c r="D1638" s="8"/>
+      <c r="E1638" s="36"/>
+      <c r="F1638" s="40"/>
+    </row>
+    <row r="1639" spans="1:6">
+      <c r="A1639" s="7"/>
+      <c r="B1639" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="C1639" s="5">
+        <v>350</v>
+      </c>
+      <c r="D1639" s="8"/>
+      <c r="E1639" s="36"/>
+      <c r="F1639" s="40"/>
+    </row>
+    <row r="1640" spans="1:6">
+      <c r="A1640" s="7"/>
+      <c r="B1640" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="C1640" s="5">
+        <v>120</v>
+      </c>
+      <c r="D1640" s="8"/>
+      <c r="E1640" s="36"/>
+      <c r="F1640" s="40"/>
+    </row>
+    <row r="1641" spans="1:6">
+      <c r="A1641" s="7"/>
+      <c r="B1641" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1641" s="5">
+        <v>300</v>
+      </c>
+      <c r="D1641" s="8"/>
+      <c r="E1641" s="36"/>
+      <c r="F1641" s="40"/>
+    </row>
+    <row r="1642" spans="1:6">
+      <c r="A1642" s="34"/>
+      <c r="B1642" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1642" s="7">
+        <f>SUM(C1636:C1641)</f>
+        <v>890</v>
+      </c>
+      <c r="D1642" s="34"/>
+      <c r="E1642" s="35">
+        <f>A1636-C1642</f>
+        <v>-16195</v>
+      </c>
+      <c r="F1642" s="41">
+        <f>E1642+45</f>
+        <v>-16150</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:6" ht="18.75">
+      <c r="A1645" s="42" t="s">
+        <v>438</v>
+      </c>
+      <c r="B1645" s="43"/>
+      <c r="C1645" s="43"/>
+      <c r="D1645" s="43"/>
+      <c r="E1645" s="43"/>
+      <c r="F1645" s="44"/>
+    </row>
+    <row r="1646" spans="1:6">
+      <c r="A1646" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1646" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1646" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1646" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1646" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1646" s="39"/>
+    </row>
+    <row r="1647" spans="1:6">
+      <c r="A1647" s="7">
+        <f>E1642+D1647</f>
+        <v>-16195</v>
+      </c>
+      <c r="B1647" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="C1647" s="5">
+        <v>330</v>
+      </c>
+      <c r="D1647" s="8"/>
+      <c r="E1647" s="36"/>
+      <c r="F1647" s="40"/>
+    </row>
+    <row r="1648" spans="1:6">
+      <c r="A1648" s="7"/>
+      <c r="B1648" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="C1648" s="5">
+        <v>190</v>
+      </c>
+      <c r="D1648" s="8"/>
+      <c r="E1648" s="36"/>
+      <c r="F1648" s="40"/>
+    </row>
+    <row r="1649" spans="1:6">
+      <c r="A1649" s="7"/>
+      <c r="B1649" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="C1649" s="5">
+        <v>350</v>
+      </c>
+      <c r="D1649" s="8"/>
+      <c r="E1649" s="36"/>
+      <c r="F1649" s="40"/>
+    </row>
+    <row r="1650" spans="1:6">
+      <c r="A1650" s="7"/>
+      <c r="B1650" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="C1650" s="5">
+        <v>120</v>
+      </c>
+      <c r="D1650" s="8"/>
+      <c r="E1650" s="36"/>
+      <c r="F1650" s="40"/>
+    </row>
+    <row r="1651" spans="1:6">
+      <c r="A1651" s="7"/>
+      <c r="B1651" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="C1651" s="5">
+        <v>50</v>
+      </c>
+      <c r="D1651" s="8"/>
+      <c r="E1651" s="36"/>
+      <c r="F1651" s="40"/>
+    </row>
+    <row r="1652" spans="1:6">
+      <c r="A1652" s="7"/>
+      <c r="B1652" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1652" s="5">
+        <v>300</v>
+      </c>
+      <c r="D1652" s="8"/>
+      <c r="E1652" s="36"/>
+      <c r="F1652" s="40"/>
+    </row>
+    <row r="1653" spans="1:6">
+      <c r="A1653" s="7"/>
+      <c r="B1653" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1653" s="5">
+        <v>400</v>
+      </c>
+      <c r="D1653" s="8"/>
+      <c r="E1653" s="36"/>
+      <c r="F1653" s="40"/>
+    </row>
+    <row r="1654" spans="1:6">
+      <c r="A1654" s="34"/>
+      <c r="B1654" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1654" s="7">
+        <f>SUM(C1647:C1653)</f>
+        <v>1740</v>
+      </c>
+      <c r="D1654" s="34"/>
+      <c r="E1654" s="35">
+        <f>A1647-C1654</f>
+        <v>-17935</v>
+      </c>
+      <c r="F1654" s="41">
+        <f>E1654+45</f>
+        <v>-17890</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:6" ht="18.75">
+      <c r="A1657" s="42" t="s">
+        <v>444</v>
+      </c>
+      <c r="B1657" s="43"/>
+      <c r="C1657" s="43"/>
+      <c r="D1657" s="43"/>
+      <c r="E1657" s="43"/>
+      <c r="F1657" s="44"/>
+    </row>
+    <row r="1658" spans="1:6">
+      <c r="A1658" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1658" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1658" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1658" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1658" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1658" s="39"/>
+    </row>
+    <row r="1659" spans="1:6">
+      <c r="A1659" s="7">
+        <f>E1654+D1659</f>
+        <v>-15935</v>
+      </c>
+      <c r="B1659" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1659" s="5">
+        <v>300</v>
+      </c>
+      <c r="D1659" s="8">
+        <v>2000</v>
+      </c>
+      <c r="E1659" s="36"/>
+      <c r="F1659" s="40"/>
+    </row>
+    <row r="1660" spans="1:6">
+      <c r="A1660" s="34"/>
+      <c r="B1660" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1660" s="7">
+        <f>SUM(C1659:C1659)</f>
+        <v>300</v>
+      </c>
+      <c r="D1660" s="34"/>
+      <c r="E1660" s="35">
+        <f>A1659-C1660</f>
+        <v>-16235</v>
+      </c>
+      <c r="F1660" s="41">
+        <f>E1660+45</f>
+        <v>-16190</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:6" ht="18.75">
+      <c r="A1663" s="42" t="s">
+        <v>445</v>
+      </c>
+      <c r="B1663" s="43"/>
+      <c r="C1663" s="43"/>
+      <c r="D1663" s="43"/>
+      <c r="E1663" s="43"/>
+      <c r="F1663" s="44"/>
+    </row>
+    <row r="1664" spans="1:6">
+      <c r="A1664" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1664" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1664" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1664" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1664" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1664" s="39"/>
+    </row>
+    <row r="1665" spans="1:6">
+      <c r="A1665" s="7">
+        <f>E1660+D1665</f>
+        <v>-16235</v>
+      </c>
+      <c r="B1665" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1665" s="5">
+        <v>300</v>
+      </c>
+      <c r="D1665" s="8"/>
+      <c r="E1665" s="36"/>
+      <c r="F1665" s="40"/>
+    </row>
+    <row r="1666" spans="1:6">
+      <c r="A1666" s="34"/>
+      <c r="B1666" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1666" s="7">
+        <f>SUM(C1665:C1665)</f>
+        <v>300</v>
+      </c>
+      <c r="D1666" s="34"/>
+      <c r="E1666" s="35">
+        <f>A1665-C1666</f>
+        <v>-16535</v>
+      </c>
+      <c r="F1666" s="41">
+        <f>E1666+45</f>
+        <v>-16490</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:6" ht="18.75">
+      <c r="A1669" s="42" t="s">
+        <v>446</v>
+      </c>
+      <c r="B1669" s="43"/>
+      <c r="C1669" s="43"/>
+      <c r="D1669" s="43"/>
+      <c r="E1669" s="43"/>
+      <c r="F1669" s="44"/>
+    </row>
+    <row r="1670" spans="1:6">
+      <c r="A1670" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1670" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1670" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1670" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1670" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1670" s="39"/>
+    </row>
+    <row r="1671" spans="1:6">
+      <c r="A1671" s="7">
+        <f>E1666+D1671</f>
+        <v>-16535</v>
+      </c>
+      <c r="B1671" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1671" s="5">
+        <v>300</v>
+      </c>
+      <c r="D1671" s="8"/>
+      <c r="E1671" s="36"/>
+      <c r="F1671" s="40"/>
+    </row>
+    <row r="1672" spans="1:6">
+      <c r="A1672" s="34"/>
+      <c r="B1672" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1672" s="7">
+        <f>SUM(C1671:C1671)</f>
+        <v>300</v>
+      </c>
+      <c r="D1672" s="34"/>
+      <c r="E1672" s="35">
+        <f>A1671-C1672</f>
+        <v>-16835</v>
+      </c>
+      <c r="F1672" s="41">
+        <f>E1672+45</f>
+        <v>-16790</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:6" ht="18.75">
+      <c r="A1675" s="42" t="s">
+        <v>447</v>
+      </c>
+      <c r="B1675" s="43"/>
+      <c r="C1675" s="43"/>
+      <c r="D1675" s="43"/>
+      <c r="E1675" s="43"/>
+      <c r="F1675" s="44"/>
+    </row>
+    <row r="1676" spans="1:6">
+      <c r="A1676" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1676" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1676" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1676" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1676" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1676" s="39"/>
+    </row>
+    <row r="1677" spans="1:6">
+      <c r="A1677" s="7">
+        <f>E1672+D1677</f>
+        <v>-16835</v>
+      </c>
+      <c r="B1677" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1677" s="5">
+        <v>300</v>
+      </c>
+      <c r="D1677" s="8"/>
+      <c r="E1677" s="36"/>
+      <c r="F1677" s="40"/>
+    </row>
+    <row r="1678" spans="1:6">
+      <c r="A1678" s="34"/>
+      <c r="B1678" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1678" s="7">
+        <f>SUM(C1677:C1677)</f>
+        <v>300</v>
+      </c>
+      <c r="D1678" s="34"/>
+      <c r="E1678" s="35">
+        <f>A1677-C1678</f>
+        <v>-17135</v>
+      </c>
+      <c r="F1678" s="41">
+        <f>E1678+45</f>
+        <v>-17090</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:6" ht="18.75">
+      <c r="A1681" s="42" t="s">
+        <v>448</v>
+      </c>
+      <c r="B1681" s="43"/>
+      <c r="C1681" s="43"/>
+      <c r="D1681" s="43"/>
+      <c r="E1681" s="43"/>
+      <c r="F1681" s="44"/>
+    </row>
+    <row r="1682" spans="1:6">
+      <c r="A1682" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1682" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1682" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1682" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1682" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1682" s="39"/>
+    </row>
+    <row r="1683" spans="1:6">
+      <c r="A1683" s="7">
+        <f>E1678+D1683</f>
+        <v>-17135</v>
+      </c>
+      <c r="B1683" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1683" s="5">
+        <v>300</v>
+      </c>
+      <c r="D1683" s="8"/>
+      <c r="E1683" s="36"/>
+      <c r="F1683" s="40"/>
+    </row>
+    <row r="1684" spans="1:6">
+      <c r="A1684" s="34"/>
+      <c r="B1684" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1684" s="7">
+        <f>SUM(C1683:C1683)</f>
+        <v>300</v>
+      </c>
+      <c r="D1684" s="34"/>
+      <c r="E1684" s="35">
+        <f>A1683-C1684</f>
+        <v>-17435</v>
+      </c>
+      <c r="F1684" s="41">
+        <f>E1684+45</f>
+        <v>-17390</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:6" ht="18.75">
+      <c r="A1687" s="42" t="s">
+        <v>449</v>
+      </c>
+      <c r="B1687" s="43"/>
+      <c r="C1687" s="43"/>
+      <c r="D1687" s="43"/>
+      <c r="E1687" s="43"/>
+      <c r="F1687" s="44"/>
+    </row>
+    <row r="1688" spans="1:6">
+      <c r="A1688" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1688" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1688" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1688" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1688" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1688" s="39"/>
+    </row>
+    <row r="1689" spans="1:6">
+      <c r="A1689" s="7">
+        <f>E1684+D1689</f>
+        <v>-17435</v>
+      </c>
+      <c r="B1689" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1689" s="5">
+        <v>300</v>
+      </c>
+      <c r="D1689" s="8"/>
+      <c r="E1689" s="36"/>
+      <c r="F1689" s="40"/>
+    </row>
+    <row r="1690" spans="1:6">
+      <c r="A1690" s="34"/>
+      <c r="B1690" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1690" s="7">
+        <f>SUM(C1689:C1689)</f>
+        <v>300</v>
+      </c>
+      <c r="D1690" s="34"/>
+      <c r="E1690" s="35">
+        <f>A1689-C1690</f>
+        <v>-17735</v>
+      </c>
+      <c r="F1690" s="41">
+        <f>E1690+45</f>
+        <v>-17690</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:6" ht="18.75">
+      <c r="A1693" s="42" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1693" s="43"/>
+      <c r="C1693" s="43"/>
+      <c r="D1693" s="43"/>
+      <c r="E1693" s="43"/>
+      <c r="F1693" s="44"/>
+    </row>
+    <row r="1694" spans="1:6">
+      <c r="A1694" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1694" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1694" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1694" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1694" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1694" s="39"/>
+    </row>
+    <row r="1695" spans="1:6">
+      <c r="A1695" s="7">
+        <f>E1690+D1695</f>
+        <v>-17735</v>
+      </c>
+      <c r="B1695" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1695" s="5">
+        <v>300</v>
+      </c>
+      <c r="D1695" s="8"/>
+      <c r="E1695" s="36"/>
+      <c r="F1695" s="40"/>
+    </row>
+    <row r="1696" spans="1:6">
+      <c r="A1696" s="34"/>
+      <c r="B1696" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1696" s="7">
+        <f>SUM(C1695:C1695)</f>
+        <v>300</v>
+      </c>
+      <c r="D1696" s="34"/>
+      <c r="E1696" s="35">
+        <f>A1695-C1696</f>
+        <v>-18035</v>
+      </c>
+      <c r="F1696" s="41">
+        <f>E1696+45</f>
+        <v>-17990</v>
+      </c>
+    </row>
+    <row r="1699" spans="1:6" ht="18.75">
+      <c r="A1699" s="42" t="s">
+        <v>451</v>
+      </c>
+      <c r="B1699" s="43"/>
+      <c r="C1699" s="43"/>
+      <c r="D1699" s="43"/>
+      <c r="E1699" s="43"/>
+      <c r="F1699" s="44"/>
+    </row>
+    <row r="1700" spans="1:6">
+      <c r="A1700" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1700" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1700" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1700" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1700" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1700" s="39"/>
+    </row>
+    <row r="1701" spans="1:6">
+      <c r="A1701" s="7">
+        <f>E1696+D1701</f>
+        <v>-15035</v>
+      </c>
+      <c r="B1701" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1701" s="5">
+        <v>300</v>
+      </c>
+      <c r="D1701" s="8">
+        <v>3000</v>
+      </c>
+      <c r="E1701" s="36"/>
+      <c r="F1701" s="40"/>
+    </row>
+    <row r="1702" spans="1:6">
+      <c r="A1702" s="34"/>
+      <c r="B1702" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1702" s="7">
+        <f>SUM(C1701:C1701)</f>
+        <v>300</v>
+      </c>
+      <c r="D1702" s="34"/>
+      <c r="E1702" s="35">
+        <f>A1701-C1702</f>
+        <v>-15335</v>
+      </c>
+      <c r="F1702" s="41">
+        <f>E1702+45</f>
+        <v>-15290</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:6" ht="18.75">
+      <c r="A1705" s="42" t="s">
+        <v>452</v>
+      </c>
+      <c r="B1705" s="43"/>
+      <c r="C1705" s="43"/>
+      <c r="D1705" s="43"/>
+      <c r="E1705" s="43"/>
+      <c r="F1705" s="44"/>
+    </row>
+    <row r="1706" spans="1:6">
+      <c r="A1706" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1706" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1706" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1706" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1706" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1706" s="39"/>
+    </row>
+    <row r="1707" spans="1:6">
+      <c r="A1707" s="7">
+        <f>E1702+D1707</f>
+        <v>-15335</v>
+      </c>
+      <c r="B1707" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="C1707" s="5">
+        <v>50</v>
+      </c>
+      <c r="D1707" s="8"/>
+      <c r="E1707" s="36"/>
+      <c r="F1707" s="40"/>
+    </row>
+    <row r="1708" spans="1:6">
+      <c r="A1708" s="7"/>
+      <c r="B1708" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="C1708" s="5">
+        <v>120</v>
+      </c>
+      <c r="D1708" s="8"/>
+      <c r="E1708" s="36"/>
+      <c r="F1708" s="40"/>
+    </row>
+    <row r="1709" spans="1:6">
+      <c r="A1709" s="7"/>
+      <c r="B1709" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="C1709" s="5">
+        <v>160</v>
+      </c>
+      <c r="D1709" s="8"/>
+      <c r="E1709" s="36"/>
+      <c r="F1709" s="40"/>
+    </row>
+    <row r="1710" spans="1:6">
+      <c r="A1710" s="7"/>
+      <c r="B1710" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="C1710" s="5">
+        <v>280</v>
+      </c>
+      <c r="D1710" s="8"/>
+      <c r="E1710" s="36"/>
+      <c r="F1710" s="40"/>
+    </row>
+    <row r="1711" spans="1:6">
+      <c r="A1711" s="7"/>
+      <c r="B1711" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1711" s="5">
+        <v>300</v>
+      </c>
+      <c r="D1711" s="8"/>
+      <c r="E1711" s="36"/>
+      <c r="F1711" s="40"/>
+    </row>
+    <row r="1712" spans="1:6">
+      <c r="A1712" s="34"/>
+      <c r="B1712" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1712" s="7">
+        <f>SUM(C1707:C1711)</f>
+        <v>910</v>
+      </c>
+      <c r="D1712" s="34"/>
+      <c r="E1712" s="35">
+        <f>A1707-C1712</f>
+        <v>-16245</v>
+      </c>
+      <c r="F1712" s="41">
+        <f>E1712+45</f>
+        <v>-16200</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:6" ht="18.75">
+      <c r="A1715" s="42" t="s">
+        <v>457</v>
+      </c>
+      <c r="B1715" s="43"/>
+      <c r="C1715" s="43"/>
+      <c r="D1715" s="43"/>
+      <c r="E1715" s="43"/>
+      <c r="F1715" s="44"/>
+    </row>
+    <row r="1716" spans="1:6">
+      <c r="A1716" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1716" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1716" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1716" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1716" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1716" s="39"/>
+    </row>
+    <row r="1717" spans="1:6">
+      <c r="A1717" s="7">
+        <f>E1712+D1717</f>
+        <v>-13245</v>
+      </c>
+      <c r="B1717" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="C1717" s="5">
+        <v>10</v>
+      </c>
+      <c r="D1717" s="8">
+        <v>3000</v>
+      </c>
+      <c r="E1717" s="36"/>
+      <c r="F1717" s="40"/>
+    </row>
+    <row r="1718" spans="1:6">
+      <c r="A1718" s="7"/>
+      <c r="B1718" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="C1718" s="5">
+        <v>790</v>
+      </c>
+      <c r="D1718" s="8"/>
+      <c r="E1718" s="36"/>
+      <c r="F1718" s="40"/>
+    </row>
+    <row r="1719" spans="1:6">
+      <c r="A1719" s="7"/>
+      <c r="B1719" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="C1719" s="5">
+        <v>130</v>
+      </c>
+      <c r="D1719" s="8"/>
+      <c r="E1719" s="36"/>
+      <c r="F1719" s="40"/>
+    </row>
+    <row r="1720" spans="1:6">
+      <c r="A1720" s="7"/>
+      <c r="B1720" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="C1720" s="5">
+        <v>350</v>
+      </c>
+      <c r="D1720" s="8"/>
+      <c r="E1720" s="36"/>
+      <c r="F1720" s="40"/>
+    </row>
+    <row r="1721" spans="1:6">
+      <c r="A1721" s="7"/>
+      <c r="B1721" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="C1721" s="5">
+        <v>70</v>
+      </c>
+      <c r="D1721" s="8"/>
+      <c r="E1721" s="36"/>
+      <c r="F1721" s="40"/>
+    </row>
+    <row r="1722" spans="1:6">
+      <c r="A1722" s="7"/>
+      <c r="B1722" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1722" s="5">
+        <v>300</v>
+      </c>
+      <c r="D1722" s="8"/>
+      <c r="E1722" s="36"/>
+      <c r="F1722" s="40"/>
+    </row>
+    <row r="1723" spans="1:6">
+      <c r="A1723" s="34"/>
+      <c r="B1723" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1723" s="7">
+        <f>SUM(C1717:C1722)</f>
+        <v>1650</v>
+      </c>
+      <c r="D1723" s="34"/>
+      <c r="E1723" s="35">
+        <f>A1717-C1723</f>
+        <v>-14895</v>
+      </c>
+      <c r="F1723" s="41">
+        <f>E1723+45</f>
+        <v>-14850</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:6" ht="18.75">
+      <c r="A1726" s="42" t="s">
+        <v>463</v>
+      </c>
+      <c r="B1726" s="43"/>
+      <c r="C1726" s="43"/>
+      <c r="D1726" s="43"/>
+      <c r="E1726" s="43"/>
+      <c r="F1726" s="44"/>
+    </row>
+    <row r="1727" spans="1:6">
+      <c r="A1727" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1727" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1727" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1727" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1727" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1727" s="39"/>
+    </row>
+    <row r="1728" spans="1:6">
+      <c r="A1728" s="7">
+        <f>E1723+D1728</f>
+        <v>-14895</v>
+      </c>
+      <c r="B1728" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="C1728" s="5">
+        <v>70</v>
+      </c>
+      <c r="D1728" s="8"/>
+      <c r="E1728" s="36"/>
+      <c r="F1728" s="40"/>
+    </row>
+    <row r="1729" spans="1:6">
+      <c r="A1729" s="7"/>
+      <c r="B1729" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="C1729" s="5">
+        <v>320</v>
+      </c>
+      <c r="D1729" s="8"/>
+      <c r="E1729" s="36"/>
+      <c r="F1729" s="40"/>
+    </row>
+    <row r="1730" spans="1:6">
+      <c r="A1730" s="7"/>
+      <c r="B1730" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="C1730" s="5">
+        <v>100</v>
+      </c>
+      <c r="D1730" s="8"/>
+      <c r="E1730" s="36"/>
+      <c r="F1730" s="40"/>
+    </row>
+    <row r="1731" spans="1:6">
+      <c r="A1731" s="7"/>
+      <c r="B1731" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1731" s="5">
+        <v>300</v>
+      </c>
+      <c r="D1731" s="8"/>
+      <c r="E1731" s="36"/>
+      <c r="F1731" s="40"/>
+    </row>
+    <row r="1732" spans="1:6">
+      <c r="A1732" s="7"/>
+      <c r="B1732" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1732" s="5">
+        <v>500</v>
+      </c>
+      <c r="D1732" s="8"/>
+      <c r="E1732" s="36"/>
+      <c r="F1732" s="40"/>
+    </row>
+    <row r="1733" spans="1:6">
+      <c r="A1733" s="34"/>
+      <c r="B1733" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1733" s="7">
+        <f>SUM(C1728:C1732)</f>
+        <v>1290</v>
+      </c>
+      <c r="D1733" s="34"/>
+      <c r="E1733" s="35">
+        <f>A1728-C1733</f>
+        <v>-16185</v>
+      </c>
+      <c r="F1733" s="41">
+        <f>E1733+45</f>
+        <v>-16140</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="150">
+  <mergeCells count="163">
+    <mergeCell ref="A1715:F1715"/>
+    <mergeCell ref="A1726:F1726"/>
     <mergeCell ref="A1578:F1578"/>
     <mergeCell ref="A1587:F1587"/>
     <mergeCell ref="A1596:F1596"/>
@@ -19267,6 +20471,18 @@
     <mergeCell ref="A1108:E1108"/>
     <mergeCell ref="A1117:E1117"/>
     <mergeCell ref="A1126:E1126"/>
+    <mergeCell ref="A1193:E1193"/>
+    <mergeCell ref="A1202:E1202"/>
+    <mergeCell ref="A1211:E1211"/>
+    <mergeCell ref="A1220:E1220"/>
+    <mergeCell ref="A1231:E1231"/>
+    <mergeCell ref="A1240:E1240"/>
+    <mergeCell ref="A1249:E1249"/>
+    <mergeCell ref="A1375:F1375"/>
+    <mergeCell ref="A1386:F1386"/>
+    <mergeCell ref="A1352:F1352"/>
+    <mergeCell ref="A1363:F1363"/>
+    <mergeCell ref="A1262:F1262"/>
     <mergeCell ref="A952:E952"/>
     <mergeCell ref="A964:E964"/>
     <mergeCell ref="A992:E992"/>
@@ -19286,6 +20502,11 @@
     <mergeCell ref="A441:E441"/>
     <mergeCell ref="A456:E456"/>
     <mergeCell ref="A463:E463"/>
+    <mergeCell ref="A534:E534"/>
+    <mergeCell ref="A549:E549"/>
+    <mergeCell ref="A567:E567"/>
+    <mergeCell ref="A576:E576"/>
+    <mergeCell ref="A591:E591"/>
     <mergeCell ref="A366:E366"/>
     <mergeCell ref="A375:E375"/>
     <mergeCell ref="A306:E306"/>
@@ -19319,11 +20540,6 @@
     <mergeCell ref="A170:E170"/>
     <mergeCell ref="A185:E185"/>
     <mergeCell ref="A200:E200"/>
-    <mergeCell ref="A534:E534"/>
-    <mergeCell ref="A549:E549"/>
-    <mergeCell ref="A567:E567"/>
-    <mergeCell ref="A576:E576"/>
-    <mergeCell ref="A591:E591"/>
     <mergeCell ref="A785:E785"/>
     <mergeCell ref="A868:E868"/>
     <mergeCell ref="A821:E821"/>
@@ -19367,18 +20583,6 @@
     <mergeCell ref="A877:E877"/>
     <mergeCell ref="A1135:E1135"/>
     <mergeCell ref="A1148:E1148"/>
-    <mergeCell ref="A1193:E1193"/>
-    <mergeCell ref="A1202:E1202"/>
-    <mergeCell ref="A1211:E1211"/>
-    <mergeCell ref="A1220:E1220"/>
-    <mergeCell ref="A1231:E1231"/>
-    <mergeCell ref="A1240:E1240"/>
-    <mergeCell ref="A1249:E1249"/>
-    <mergeCell ref="A1375:F1375"/>
-    <mergeCell ref="A1386:F1386"/>
-    <mergeCell ref="A1352:F1352"/>
-    <mergeCell ref="A1363:F1363"/>
-    <mergeCell ref="A1262:F1262"/>
     <mergeCell ref="A1275:F1275"/>
     <mergeCell ref="A1289:F1289"/>
     <mergeCell ref="A1301:F1301"/>
@@ -19405,6 +20609,17 @@
     <mergeCell ref="A1482:F1482"/>
     <mergeCell ref="A1491:F1491"/>
     <mergeCell ref="A1504:F1504"/>
+    <mergeCell ref="A1699:F1699"/>
+    <mergeCell ref="A1705:F1705"/>
+    <mergeCell ref="A1634:F1634"/>
+    <mergeCell ref="A1645:F1645"/>
+    <mergeCell ref="A1657:F1657"/>
+    <mergeCell ref="A1663:F1663"/>
+    <mergeCell ref="A1669:F1669"/>
+    <mergeCell ref="A1675:F1675"/>
+    <mergeCell ref="A1681:F1681"/>
+    <mergeCell ref="A1687:F1687"/>
+    <mergeCell ref="A1693:F1693"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/SANDEEP STAFF.xlsx
+++ b/SANDEEP STAFF.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2208" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2340" uniqueCount="491">
   <si>
     <t xml:space="preserve">opening balance </t>
   </si>
@@ -1413,6 +1413,81 @@
   </si>
   <si>
     <t>MORADABAD TO KASHIPUR</t>
+  </si>
+  <si>
+    <t>14.08.24</t>
+  </si>
+  <si>
+    <t>KASHIPUR TO NAINI PAPER MIL</t>
+  </si>
+  <si>
+    <t>NAINI PAPER TO KASHIPUR</t>
+  </si>
+  <si>
+    <t>BALVEER FOOD EXP.</t>
+  </si>
+  <si>
+    <t>15.08.24</t>
+  </si>
+  <si>
+    <t>16.08.24</t>
+  </si>
+  <si>
+    <t>21.08.24</t>
+  </si>
+  <si>
+    <t>OFFICE TO TATMIL BUS STAND</t>
+  </si>
+  <si>
+    <t>BUS STAND TO DELHI</t>
+  </si>
+  <si>
+    <t>DELHI TO MORADABAD</t>
+  </si>
+  <si>
+    <t>MORADANAD TO KASHIPUR</t>
+  </si>
+  <si>
+    <t>22.08.24</t>
+  </si>
+  <si>
+    <t>23.08.24</t>
+  </si>
+  <si>
+    <t>24.08.24</t>
+  </si>
+  <si>
+    <t>MORADABAD TO MEERUT</t>
+  </si>
+  <si>
+    <t>25.08.24</t>
+  </si>
+  <si>
+    <t>MEERUT BUS STAND TO BEGAM PUL</t>
+  </si>
+  <si>
+    <t>BEGAM PUL TO SAKET</t>
+  </si>
+  <si>
+    <t>SAKET TO BAGEM PUL</t>
+  </si>
+  <si>
+    <t>BEGAM PUL TO MEERUT BUS STAND</t>
+  </si>
+  <si>
+    <t>26.08.24</t>
+  </si>
+  <si>
+    <t>MEERUT BUS STAND TO MORADABAD</t>
+  </si>
+  <si>
+    <t>27.08.24</t>
+  </si>
+  <si>
+    <t>NAINI PAPER MILL TO KASHIPUR</t>
+  </si>
+  <si>
+    <t>IPL LAB ME SUNIL KO CASH DIYA</t>
   </si>
 </sst>
 </file>
@@ -2325,10 +2400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1733"/>
+  <dimension ref="A1:F1845"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1712" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C1737" sqref="C1737"/>
+    <sheetView tabSelected="1" topLeftCell="A1825" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D1845" sqref="D1845"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20455,10 +20530,1269 @@
         <v>-16140</v>
       </c>
     </row>
+    <row r="1736" spans="1:6" ht="18.75">
+      <c r="A1736" s="42" t="s">
+        <v>466</v>
+      </c>
+      <c r="B1736" s="43"/>
+      <c r="C1736" s="43"/>
+      <c r="D1736" s="43"/>
+      <c r="E1736" s="43"/>
+      <c r="F1736" s="44"/>
+    </row>
+    <row r="1737" spans="1:6">
+      <c r="A1737" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1737" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1737" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1737" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1737" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1737" s="39"/>
+    </row>
+    <row r="1738" spans="1:6">
+      <c r="A1738" s="7">
+        <f>E1733+D1738</f>
+        <v>-13185</v>
+      </c>
+      <c r="B1738" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="C1738" s="5">
+        <v>20</v>
+      </c>
+      <c r="D1738" s="8">
+        <v>3000</v>
+      </c>
+      <c r="E1738" s="36"/>
+      <c r="F1738" s="40"/>
+    </row>
+    <row r="1739" spans="1:6">
+      <c r="A1739" s="7"/>
+      <c r="B1739" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="C1739" s="5">
+        <v>20</v>
+      </c>
+      <c r="D1739" s="8"/>
+      <c r="E1739" s="36"/>
+      <c r="F1739" s="40"/>
+    </row>
+    <row r="1740" spans="1:6">
+      <c r="A1740" s="7"/>
+      <c r="B1740" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1740" s="5">
+        <v>300</v>
+      </c>
+      <c r="D1740" s="8"/>
+      <c r="E1740" s="36"/>
+      <c r="F1740" s="40"/>
+    </row>
+    <row r="1741" spans="1:6">
+      <c r="A1741" s="7"/>
+      <c r="B1741" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="C1741" s="5">
+        <v>200</v>
+      </c>
+      <c r="D1741" s="8"/>
+      <c r="E1741" s="36"/>
+      <c r="F1741" s="40"/>
+    </row>
+    <row r="1742" spans="1:6">
+      <c r="A1742" s="7"/>
+      <c r="B1742" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1742" s="5">
+        <v>500</v>
+      </c>
+      <c r="D1742" s="8"/>
+      <c r="E1742" s="36"/>
+      <c r="F1742" s="40"/>
+    </row>
+    <row r="1743" spans="1:6">
+      <c r="A1743" s="34"/>
+      <c r="B1743" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1743" s="7">
+        <f>SUM(C1738:C1742)</f>
+        <v>1040</v>
+      </c>
+      <c r="D1743" s="34"/>
+      <c r="E1743" s="35">
+        <f>A1738-C1743</f>
+        <v>-14225</v>
+      </c>
+      <c r="F1743" s="41">
+        <f>E1743+45</f>
+        <v>-14180</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:6" ht="18.75">
+      <c r="A1746" s="42" t="s">
+        <v>470</v>
+      </c>
+      <c r="B1746" s="43"/>
+      <c r="C1746" s="43"/>
+      <c r="D1746" s="43"/>
+      <c r="E1746" s="43"/>
+      <c r="F1746" s="44"/>
+    </row>
+    <row r="1747" spans="1:6">
+      <c r="A1747" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1747" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1747" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1747" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1747" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1747" s="39"/>
+    </row>
+    <row r="1748" spans="1:6">
+      <c r="A1748" s="7">
+        <f>E1743+D1748</f>
+        <v>-14225</v>
+      </c>
+      <c r="B1748" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="C1748" s="5">
+        <v>20</v>
+      </c>
+      <c r="D1748" s="8"/>
+      <c r="E1748" s="36"/>
+      <c r="F1748" s="40"/>
+    </row>
+    <row r="1749" spans="1:6">
+      <c r="A1749" s="7"/>
+      <c r="B1749" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="C1749" s="5">
+        <v>20</v>
+      </c>
+      <c r="D1749" s="8"/>
+      <c r="E1749" s="36"/>
+      <c r="F1749" s="40"/>
+    </row>
+    <row r="1750" spans="1:6">
+      <c r="A1750" s="7"/>
+      <c r="B1750" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1750" s="5">
+        <v>300</v>
+      </c>
+      <c r="D1750" s="8"/>
+      <c r="E1750" s="36"/>
+      <c r="F1750" s="40"/>
+    </row>
+    <row r="1751" spans="1:6">
+      <c r="A1751" s="7"/>
+      <c r="B1751" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1751" s="5">
+        <v>500</v>
+      </c>
+      <c r="D1751" s="8"/>
+      <c r="E1751" s="36"/>
+      <c r="F1751" s="40"/>
+    </row>
+    <row r="1752" spans="1:6">
+      <c r="A1752" s="34"/>
+      <c r="B1752" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1752" s="7">
+        <f>SUM(C1748:C1751)</f>
+        <v>840</v>
+      </c>
+      <c r="D1752" s="34"/>
+      <c r="E1752" s="35">
+        <f>A1748-C1752</f>
+        <v>-15065</v>
+      </c>
+      <c r="F1752" s="41">
+        <f>E1752+45</f>
+        <v>-15020</v>
+      </c>
+    </row>
+    <row r="1755" spans="1:6" ht="18.75">
+      <c r="A1755" s="42" t="s">
+        <v>471</v>
+      </c>
+      <c r="B1755" s="43"/>
+      <c r="C1755" s="43"/>
+      <c r="D1755" s="43"/>
+      <c r="E1755" s="43"/>
+      <c r="F1755" s="44"/>
+    </row>
+    <row r="1756" spans="1:6">
+      <c r="A1756" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1756" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1756" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1756" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1756" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1756" s="39"/>
+    </row>
+    <row r="1757" spans="1:6">
+      <c r="A1757" s="7">
+        <f>E1752+D1757</f>
+        <v>-15065</v>
+      </c>
+      <c r="B1757" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="C1757" s="5">
+        <v>20</v>
+      </c>
+      <c r="D1757" s="8"/>
+      <c r="E1757" s="36"/>
+      <c r="F1757" s="40"/>
+    </row>
+    <row r="1758" spans="1:6">
+      <c r="A1758" s="7"/>
+      <c r="B1758" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="C1758" s="5">
+        <v>20</v>
+      </c>
+      <c r="D1758" s="8"/>
+      <c r="E1758" s="36"/>
+      <c r="F1758" s="40"/>
+    </row>
+    <row r="1759" spans="1:6">
+      <c r="A1759" s="7"/>
+      <c r="B1759" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C1759" s="5">
+        <v>100</v>
+      </c>
+      <c r="D1759" s="8"/>
+      <c r="E1759" s="36"/>
+      <c r="F1759" s="40"/>
+    </row>
+    <row r="1760" spans="1:6">
+      <c r="A1760" s="7"/>
+      <c r="B1760" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="C1760" s="5">
+        <v>600</v>
+      </c>
+      <c r="D1760" s="8"/>
+      <c r="E1760" s="36"/>
+      <c r="F1760" s="40"/>
+    </row>
+    <row r="1761" spans="1:6">
+      <c r="A1761" s="7"/>
+      <c r="B1761" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1761" s="5">
+        <v>300</v>
+      </c>
+      <c r="D1761" s="8"/>
+      <c r="E1761" s="36"/>
+      <c r="F1761" s="40"/>
+    </row>
+    <row r="1762" spans="1:6">
+      <c r="A1762" s="34"/>
+      <c r="B1762" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1762" s="7">
+        <f>SUM(C1757:C1761)</f>
+        <v>1040</v>
+      </c>
+      <c r="D1762" s="34"/>
+      <c r="E1762" s="35">
+        <f>A1757-C1762</f>
+        <v>-16105</v>
+      </c>
+      <c r="F1762" s="41">
+        <f>E1762+45</f>
+        <v>-16060</v>
+      </c>
+    </row>
+    <row r="1765" spans="1:6" ht="18.75">
+      <c r="A1765" s="42" t="s">
+        <v>472</v>
+      </c>
+      <c r="B1765" s="43"/>
+      <c r="C1765" s="43"/>
+      <c r="D1765" s="43"/>
+      <c r="E1765" s="43"/>
+      <c r="F1765" s="44"/>
+    </row>
+    <row r="1766" spans="1:6">
+      <c r="A1766" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1766" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1766" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1766" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1766" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1766" s="39"/>
+    </row>
+    <row r="1767" spans="1:6">
+      <c r="A1767" s="7">
+        <f>E1762+D1767</f>
+        <v>-13105</v>
+      </c>
+      <c r="B1767" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="C1767" s="5">
+        <v>10</v>
+      </c>
+      <c r="D1767" s="8">
+        <v>3000</v>
+      </c>
+      <c r="E1767" s="36"/>
+      <c r="F1767" s="40"/>
+    </row>
+    <row r="1768" spans="1:6">
+      <c r="A1768" s="7"/>
+      <c r="B1768" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="C1768" s="5">
+        <v>790</v>
+      </c>
+      <c r="D1768" s="8"/>
+      <c r="E1768" s="36"/>
+      <c r="F1768" s="40"/>
+    </row>
+    <row r="1769" spans="1:6">
+      <c r="A1769" s="7"/>
+      <c r="B1769" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="C1769" s="5">
+        <v>400</v>
+      </c>
+      <c r="D1769" s="8"/>
+      <c r="E1769" s="36"/>
+      <c r="F1769" s="40"/>
+    </row>
+    <row r="1770" spans="1:6">
+      <c r="A1770" s="7"/>
+      <c r="B1770" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="C1770" s="5">
+        <v>100</v>
+      </c>
+      <c r="D1770" s="8"/>
+      <c r="E1770" s="36"/>
+      <c r="F1770" s="40"/>
+    </row>
+    <row r="1771" spans="1:6">
+      <c r="A1771" s="7"/>
+      <c r="B1771" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1771" s="5">
+        <v>300</v>
+      </c>
+      <c r="D1771" s="8"/>
+      <c r="E1771" s="36"/>
+      <c r="F1771" s="40"/>
+    </row>
+    <row r="1772" spans="1:6">
+      <c r="A1772" s="34"/>
+      <c r="B1772" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1772" s="7">
+        <f>SUM(C1767:C1771)</f>
+        <v>1600</v>
+      </c>
+      <c r="D1772" s="34"/>
+      <c r="E1772" s="35">
+        <f>A1767-C1772</f>
+        <v>-14705</v>
+      </c>
+      <c r="F1772" s="41">
+        <f>E1772+45</f>
+        <v>-14660</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:6" ht="18.75">
+      <c r="A1775" s="42" t="s">
+        <v>477</v>
+      </c>
+      <c r="B1775" s="43"/>
+      <c r="C1775" s="43"/>
+      <c r="D1775" s="43"/>
+      <c r="E1775" s="43"/>
+      <c r="F1775" s="44"/>
+    </row>
+    <row r="1776" spans="1:6">
+      <c r="A1776" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1776" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1776" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1776" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1776" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1776" s="39"/>
+    </row>
+    <row r="1777" spans="1:6">
+      <c r="A1777" s="7">
+        <f>E1772+D1777</f>
+        <v>-14705</v>
+      </c>
+      <c r="B1777" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="C1777" s="5">
+        <v>20</v>
+      </c>
+      <c r="D1777" s="8"/>
+      <c r="E1777" s="36"/>
+      <c r="F1777" s="40"/>
+    </row>
+    <row r="1778" spans="1:6">
+      <c r="A1778" s="7"/>
+      <c r="B1778" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="C1778" s="5">
+        <v>20</v>
+      </c>
+      <c r="D1778" s="8"/>
+      <c r="E1778" s="36"/>
+      <c r="F1778" s="40"/>
+    </row>
+    <row r="1779" spans="1:6">
+      <c r="A1779" s="7"/>
+      <c r="B1779" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1779" s="5">
+        <v>300</v>
+      </c>
+      <c r="D1779" s="8"/>
+      <c r="E1779" s="36"/>
+      <c r="F1779" s="40"/>
+    </row>
+    <row r="1780" spans="1:6">
+      <c r="A1780" s="7"/>
+      <c r="B1780" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1780" s="5">
+        <v>500</v>
+      </c>
+      <c r="D1780" s="8"/>
+      <c r="E1780" s="36"/>
+      <c r="F1780" s="40"/>
+    </row>
+    <row r="1781" spans="1:6">
+      <c r="A1781" s="34"/>
+      <c r="B1781" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1781" s="7">
+        <f>SUM(C1777:C1780)</f>
+        <v>840</v>
+      </c>
+      <c r="D1781" s="34"/>
+      <c r="E1781" s="35">
+        <f>A1777-C1781</f>
+        <v>-15545</v>
+      </c>
+      <c r="F1781" s="41">
+        <f>E1781+45</f>
+        <v>-15500</v>
+      </c>
+    </row>
+    <row r="1784" spans="1:6" ht="18.75">
+      <c r="A1784" s="42" t="s">
+        <v>478</v>
+      </c>
+      <c r="B1784" s="43"/>
+      <c r="C1784" s="43"/>
+      <c r="D1784" s="43"/>
+      <c r="E1784" s="43"/>
+      <c r="F1784" s="44"/>
+    </row>
+    <row r="1785" spans="1:6">
+      <c r="A1785" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1785" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1785" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1785" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1785" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1785" s="39"/>
+    </row>
+    <row r="1786" spans="1:6">
+      <c r="A1786" s="7">
+        <f>E1781+D1786</f>
+        <v>-15545</v>
+      </c>
+      <c r="B1786" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="C1786" s="5">
+        <v>20</v>
+      </c>
+      <c r="D1786" s="8"/>
+      <c r="E1786" s="36"/>
+      <c r="F1786" s="40"/>
+    </row>
+    <row r="1787" spans="1:6">
+      <c r="A1787" s="7"/>
+      <c r="B1787" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="C1787" s="5">
+        <v>20</v>
+      </c>
+      <c r="D1787" s="8"/>
+      <c r="E1787" s="36"/>
+      <c r="F1787" s="40"/>
+    </row>
+    <row r="1788" spans="1:6">
+      <c r="A1788" s="7"/>
+      <c r="B1788" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1788" s="5">
+        <v>300</v>
+      </c>
+      <c r="D1788" s="8"/>
+      <c r="E1788" s="36"/>
+      <c r="F1788" s="40"/>
+    </row>
+    <row r="1789" spans="1:6">
+      <c r="A1789" s="7"/>
+      <c r="B1789" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1789" s="5">
+        <v>500</v>
+      </c>
+      <c r="D1789" s="8"/>
+      <c r="E1789" s="36"/>
+      <c r="F1789" s="40"/>
+    </row>
+    <row r="1790" spans="1:6">
+      <c r="A1790" s="34"/>
+      <c r="B1790" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1790" s="7">
+        <f>SUM(C1786:C1789)</f>
+        <v>840</v>
+      </c>
+      <c r="D1790" s="34"/>
+      <c r="E1790" s="35">
+        <f>A1786-C1790</f>
+        <v>-16385</v>
+      </c>
+      <c r="F1790" s="41">
+        <f>E1790+45</f>
+        <v>-16340</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:6" ht="18.75">
+      <c r="A1793" s="42" t="s">
+        <v>479</v>
+      </c>
+      <c r="B1793" s="43"/>
+      <c r="C1793" s="43"/>
+      <c r="D1793" s="43"/>
+      <c r="E1793" s="43"/>
+      <c r="F1793" s="44"/>
+    </row>
+    <row r="1794" spans="1:6">
+      <c r="A1794" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1794" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1794" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1794" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1794" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1794" s="39"/>
+    </row>
+    <row r="1795" spans="1:6">
+      <c r="A1795" s="7">
+        <f>E1790+D1795</f>
+        <v>-13385</v>
+      </c>
+      <c r="B1795" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="C1795" s="5">
+        <v>20</v>
+      </c>
+      <c r="D1795" s="8">
+        <v>3000</v>
+      </c>
+      <c r="E1795" s="36"/>
+      <c r="F1795" s="40"/>
+    </row>
+    <row r="1796" spans="1:6">
+      <c r="A1796" s="7"/>
+      <c r="B1796" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="C1796" s="5">
+        <v>20</v>
+      </c>
+      <c r="D1796" s="8"/>
+      <c r="E1796" s="36"/>
+      <c r="F1796" s="40"/>
+    </row>
+    <row r="1797" spans="1:6">
+      <c r="A1797" s="7"/>
+      <c r="B1797" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C1797" s="5">
+        <v>100</v>
+      </c>
+      <c r="D1797" s="8"/>
+      <c r="E1797" s="36"/>
+      <c r="F1797" s="40"/>
+    </row>
+    <row r="1798" spans="1:6">
+      <c r="A1798" s="7"/>
+      <c r="B1798" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="C1798" s="5">
+        <v>350</v>
+      </c>
+      <c r="D1798" s="8"/>
+      <c r="E1798" s="36"/>
+      <c r="F1798" s="40"/>
+    </row>
+    <row r="1799" spans="1:6">
+      <c r="A1799" s="7"/>
+      <c r="B1799" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1799" s="5">
+        <v>300</v>
+      </c>
+      <c r="D1799" s="8"/>
+      <c r="E1799" s="36"/>
+      <c r="F1799" s="40"/>
+    </row>
+    <row r="1800" spans="1:6">
+      <c r="A1800" s="7"/>
+      <c r="B1800" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1800" s="5">
+        <v>550</v>
+      </c>
+      <c r="D1800" s="8"/>
+      <c r="E1800" s="36"/>
+      <c r="F1800" s="40"/>
+    </row>
+    <row r="1801" spans="1:6">
+      <c r="A1801" s="34"/>
+      <c r="B1801" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1801" s="7">
+        <f>SUM(C1795:C1800)</f>
+        <v>1340</v>
+      </c>
+      <c r="D1801" s="34"/>
+      <c r="E1801" s="35">
+        <f>A1795-C1801</f>
+        <v>-14725</v>
+      </c>
+      <c r="F1801" s="41">
+        <f>E1801+45</f>
+        <v>-14680</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:6" ht="18.75">
+      <c r="A1804" s="42" t="s">
+        <v>481</v>
+      </c>
+      <c r="B1804" s="43"/>
+      <c r="C1804" s="43"/>
+      <c r="D1804" s="43"/>
+      <c r="E1804" s="43"/>
+      <c r="F1804" s="44"/>
+    </row>
+    <row r="1805" spans="1:6">
+      <c r="A1805" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1805" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1805" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1805" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1805" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1805" s="39"/>
+    </row>
+    <row r="1806" spans="1:6">
+      <c r="A1806" s="7">
+        <f>E1801+D1806</f>
+        <v>-14725</v>
+      </c>
+      <c r="B1806" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="C1806" s="5">
+        <v>10</v>
+      </c>
+      <c r="D1806" s="8"/>
+      <c r="E1806" s="36"/>
+      <c r="F1806" s="40"/>
+    </row>
+    <row r="1807" spans="1:6">
+      <c r="A1807" s="7"/>
+      <c r="B1807" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="C1807" s="5">
+        <v>20</v>
+      </c>
+      <c r="D1807" s="8"/>
+      <c r="E1807" s="36"/>
+      <c r="F1807" s="40"/>
+    </row>
+    <row r="1808" spans="1:6">
+      <c r="A1808" s="7"/>
+      <c r="B1808" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1808" s="5">
+        <v>20</v>
+      </c>
+      <c r="D1808" s="8"/>
+      <c r="E1808" s="36"/>
+      <c r="F1808" s="40"/>
+    </row>
+    <row r="1809" spans="1:6">
+      <c r="A1809" s="7"/>
+      <c r="B1809" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1809" s="5">
+        <v>10</v>
+      </c>
+      <c r="D1809" s="8"/>
+      <c r="E1809" s="36"/>
+      <c r="F1809" s="40"/>
+    </row>
+    <row r="1810" spans="1:6">
+      <c r="A1810" s="7"/>
+      <c r="B1810" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1810" s="5">
+        <v>10</v>
+      </c>
+      <c r="D1810" s="8"/>
+      <c r="E1810" s="36"/>
+      <c r="F1810" s="40"/>
+    </row>
+    <row r="1811" spans="1:6">
+      <c r="A1811" s="7"/>
+      <c r="B1811" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1811" s="5">
+        <v>20</v>
+      </c>
+      <c r="D1811" s="8"/>
+      <c r="E1811" s="36"/>
+      <c r="F1811" s="40"/>
+    </row>
+    <row r="1812" spans="1:6">
+      <c r="A1812" s="7"/>
+      <c r="B1812" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="C1812" s="5">
+        <v>20</v>
+      </c>
+      <c r="D1812" s="8"/>
+      <c r="E1812" s="36"/>
+      <c r="F1812" s="40"/>
+    </row>
+    <row r="1813" spans="1:6">
+      <c r="A1813" s="7"/>
+      <c r="B1813" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="C1813" s="5">
+        <v>10</v>
+      </c>
+      <c r="D1813" s="8"/>
+      <c r="E1813" s="36"/>
+      <c r="F1813" s="40"/>
+    </row>
+    <row r="1814" spans="1:6">
+      <c r="A1814" s="7"/>
+      <c r="B1814" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1814" s="5">
+        <v>300</v>
+      </c>
+      <c r="D1814" s="8"/>
+      <c r="E1814" s="36"/>
+      <c r="F1814" s="40"/>
+    </row>
+    <row r="1815" spans="1:6">
+      <c r="A1815" s="7"/>
+      <c r="B1815" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1815" s="5">
+        <v>550</v>
+      </c>
+      <c r="D1815" s="8"/>
+      <c r="E1815" s="36"/>
+      <c r="F1815" s="40"/>
+    </row>
+    <row r="1816" spans="1:6">
+      <c r="A1816" s="34"/>
+      <c r="B1816" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1816" s="7">
+        <f>SUM(C1806:C1815)</f>
+        <v>970</v>
+      </c>
+      <c r="D1816" s="34"/>
+      <c r="E1816" s="35">
+        <f>A1806-C1816</f>
+        <v>-15695</v>
+      </c>
+      <c r="F1816" s="41">
+        <f>E1816+45</f>
+        <v>-15650</v>
+      </c>
+    </row>
+    <row r="1819" spans="1:6" ht="18.75">
+      <c r="A1819" s="42" t="s">
+        <v>486</v>
+      </c>
+      <c r="B1819" s="43"/>
+      <c r="C1819" s="43"/>
+      <c r="D1819" s="43"/>
+      <c r="E1819" s="43"/>
+      <c r="F1819" s="44"/>
+    </row>
+    <row r="1820" spans="1:6">
+      <c r="A1820" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1820" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1820" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1820" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1820" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1820" s="39"/>
+    </row>
+    <row r="1821" spans="1:6">
+      <c r="A1821" s="7">
+        <f>E1816+D1821</f>
+        <v>-15695</v>
+      </c>
+      <c r="B1821" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="C1821" s="5">
+        <v>10</v>
+      </c>
+      <c r="D1821" s="8"/>
+      <c r="E1821" s="36"/>
+      <c r="F1821" s="40"/>
+    </row>
+    <row r="1822" spans="1:6">
+      <c r="A1822" s="7"/>
+      <c r="B1822" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="C1822" s="5">
+        <v>20</v>
+      </c>
+      <c r="D1822" s="8"/>
+      <c r="E1822" s="36"/>
+      <c r="F1822" s="40"/>
+    </row>
+    <row r="1823" spans="1:6">
+      <c r="A1823" s="7"/>
+      <c r="B1823" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1823" s="5">
+        <v>20</v>
+      </c>
+      <c r="D1823" s="8"/>
+      <c r="E1823" s="36"/>
+      <c r="F1823" s="40"/>
+    </row>
+    <row r="1824" spans="1:6">
+      <c r="A1824" s="7"/>
+      <c r="B1824" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1824" s="5">
+        <v>10</v>
+      </c>
+      <c r="D1824" s="8"/>
+      <c r="E1824" s="36"/>
+      <c r="F1824" s="40"/>
+    </row>
+    <row r="1825" spans="1:6">
+      <c r="A1825" s="7"/>
+      <c r="B1825" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1825" s="5">
+        <v>10</v>
+      </c>
+      <c r="D1825" s="8"/>
+      <c r="E1825" s="36"/>
+      <c r="F1825" s="40"/>
+    </row>
+    <row r="1826" spans="1:6">
+      <c r="A1826" s="7"/>
+      <c r="B1826" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1826" s="5">
+        <v>20</v>
+      </c>
+      <c r="D1826" s="8"/>
+      <c r="E1826" s="36"/>
+      <c r="F1826" s="40"/>
+    </row>
+    <row r="1827" spans="1:6">
+      <c r="A1827" s="7"/>
+      <c r="B1827" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="C1827" s="5">
+        <v>20</v>
+      </c>
+      <c r="D1827" s="8"/>
+      <c r="E1827" s="36"/>
+      <c r="F1827" s="40"/>
+    </row>
+    <row r="1828" spans="1:6">
+      <c r="A1828" s="7"/>
+      <c r="B1828" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="C1828" s="5">
+        <v>10</v>
+      </c>
+      <c r="D1828" s="8"/>
+      <c r="E1828" s="36"/>
+      <c r="F1828" s="40"/>
+    </row>
+    <row r="1829" spans="1:6">
+      <c r="A1829" s="7"/>
+      <c r="B1829" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="C1829" s="5">
+        <v>350</v>
+      </c>
+      <c r="D1829" s="8"/>
+      <c r="E1829" s="36"/>
+      <c r="F1829" s="40"/>
+    </row>
+    <row r="1830" spans="1:6">
+      <c r="A1830" s="7"/>
+      <c r="B1830" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1830" s="5">
+        <v>300</v>
+      </c>
+      <c r="D1830" s="8"/>
+      <c r="E1830" s="36"/>
+      <c r="F1830" s="40"/>
+    </row>
+    <row r="1831" spans="1:6">
+      <c r="A1831" s="7"/>
+      <c r="B1831" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1831" s="5">
+        <v>600</v>
+      </c>
+      <c r="D1831" s="8"/>
+      <c r="E1831" s="36"/>
+      <c r="F1831" s="40"/>
+    </row>
+    <row r="1832" spans="1:6">
+      <c r="A1832" s="34"/>
+      <c r="B1832" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1832" s="7">
+        <f>SUM(C1821:C1831)</f>
+        <v>1370</v>
+      </c>
+      <c r="D1832" s="34"/>
+      <c r="E1832" s="35">
+        <f>A1821-C1832</f>
+        <v>-17065</v>
+      </c>
+      <c r="F1832" s="41">
+        <f>E1832+45</f>
+        <v>-17020</v>
+      </c>
+    </row>
+    <row r="1835" spans="1:6" ht="18.75">
+      <c r="A1835" s="42" t="s">
+        <v>488</v>
+      </c>
+      <c r="B1835" s="43"/>
+      <c r="C1835" s="43"/>
+      <c r="D1835" s="43"/>
+      <c r="E1835" s="43"/>
+      <c r="F1835" s="44"/>
+    </row>
+    <row r="1836" spans="1:6">
+      <c r="A1836" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1836" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1836" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1836" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1836" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1836" s="39"/>
+    </row>
+    <row r="1837" spans="1:6">
+      <c r="A1837" s="7">
+        <f>E1832+D1837</f>
+        <v>-12065</v>
+      </c>
+      <c r="B1837" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="C1837" s="5">
+        <v>100</v>
+      </c>
+      <c r="D1837" s="8">
+        <v>5000</v>
+      </c>
+      <c r="E1837" s="36"/>
+      <c r="F1837" s="40"/>
+    </row>
+    <row r="1838" spans="1:6">
+      <c r="A1838" s="7"/>
+      <c r="B1838" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1838" s="5">
+        <v>20</v>
+      </c>
+      <c r="D1838" s="8"/>
+      <c r="E1838" s="36"/>
+      <c r="F1838" s="40"/>
+    </row>
+    <row r="1839" spans="1:6">
+      <c r="A1839" s="7"/>
+      <c r="B1839" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="C1839" s="5">
+        <v>20</v>
+      </c>
+      <c r="D1839" s="8"/>
+      <c r="E1839" s="36"/>
+      <c r="F1839" s="40"/>
+    </row>
+    <row r="1840" spans="1:6">
+      <c r="A1840" s="7"/>
+      <c r="B1840" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C1840" s="5">
+        <v>100</v>
+      </c>
+      <c r="D1840" s="8"/>
+      <c r="E1840" s="36"/>
+      <c r="F1840" s="40"/>
+    </row>
+    <row r="1841" spans="1:6">
+      <c r="A1841" s="7"/>
+      <c r="B1841" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="C1841" s="5">
+        <v>350</v>
+      </c>
+      <c r="D1841" s="8"/>
+      <c r="E1841" s="36"/>
+      <c r="F1841" s="40"/>
+    </row>
+    <row r="1842" spans="1:6">
+      <c r="A1842" s="7"/>
+      <c r="B1842" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="C1842" s="5">
+        <v>2000</v>
+      </c>
+      <c r="D1842" s="8"/>
+      <c r="E1842" s="36"/>
+      <c r="F1842" s="40"/>
+    </row>
+    <row r="1843" spans="1:6">
+      <c r="A1843" s="7"/>
+      <c r="B1843" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1843" s="5">
+        <v>300</v>
+      </c>
+      <c r="D1843" s="8"/>
+      <c r="E1843" s="36"/>
+      <c r="F1843" s="40"/>
+    </row>
+    <row r="1844" spans="1:6">
+      <c r="A1844" s="7"/>
+      <c r="B1844" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1844" s="5">
+        <v>550</v>
+      </c>
+      <c r="D1844" s="8"/>
+      <c r="E1844" s="36"/>
+      <c r="F1844" s="40"/>
+    </row>
+    <row r="1845" spans="1:6">
+      <c r="A1845" s="34"/>
+      <c r="B1845" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1845" s="7">
+        <f>SUM(C1837:C1844)</f>
+        <v>3440</v>
+      </c>
+      <c r="D1845" s="34"/>
+      <c r="E1845" s="35">
+        <f>A1837-C1845</f>
+        <v>-15505</v>
+      </c>
+      <c r="F1845" s="41">
+        <f>E1845+45</f>
+        <v>-15460</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="163">
-    <mergeCell ref="A1715:F1715"/>
-    <mergeCell ref="A1726:F1726"/>
+  <mergeCells count="173">
+    <mergeCell ref="A1746:F1746"/>
+    <mergeCell ref="A1755:F1755"/>
+    <mergeCell ref="A1765:F1765"/>
+    <mergeCell ref="A1775:F1775"/>
+    <mergeCell ref="A1784:F1784"/>
+    <mergeCell ref="A1793:F1793"/>
+    <mergeCell ref="A1804:F1804"/>
+    <mergeCell ref="A1819:F1819"/>
+    <mergeCell ref="A1835:F1835"/>
     <mergeCell ref="A1578:F1578"/>
     <mergeCell ref="A1587:F1587"/>
     <mergeCell ref="A1596:F1596"/>
@@ -20466,6 +21800,21 @@
     <mergeCell ref="A1616:F1616"/>
     <mergeCell ref="A1625:F1625"/>
     <mergeCell ref="A1158:E1158"/>
+    <mergeCell ref="A1231:E1231"/>
+    <mergeCell ref="A1240:E1240"/>
+    <mergeCell ref="A1249:E1249"/>
+    <mergeCell ref="A1375:F1375"/>
+    <mergeCell ref="A1386:F1386"/>
+    <mergeCell ref="A1352:F1352"/>
+    <mergeCell ref="A1363:F1363"/>
+    <mergeCell ref="A1262:F1262"/>
+    <mergeCell ref="A1275:F1275"/>
+    <mergeCell ref="A1289:F1289"/>
+    <mergeCell ref="A1301:F1301"/>
+    <mergeCell ref="A1309:F1309"/>
+    <mergeCell ref="A1315:F1315"/>
+    <mergeCell ref="A1329:F1329"/>
+    <mergeCell ref="A1341:F1341"/>
     <mergeCell ref="A1089:E1089"/>
     <mergeCell ref="A1098:E1098"/>
     <mergeCell ref="A1108:E1108"/>
@@ -20475,14 +21824,6 @@
     <mergeCell ref="A1202:E1202"/>
     <mergeCell ref="A1211:E1211"/>
     <mergeCell ref="A1220:E1220"/>
-    <mergeCell ref="A1231:E1231"/>
-    <mergeCell ref="A1240:E1240"/>
-    <mergeCell ref="A1249:E1249"/>
-    <mergeCell ref="A1375:F1375"/>
-    <mergeCell ref="A1386:F1386"/>
-    <mergeCell ref="A1352:F1352"/>
-    <mergeCell ref="A1363:F1363"/>
-    <mergeCell ref="A1262:F1262"/>
     <mergeCell ref="A952:E952"/>
     <mergeCell ref="A964:E964"/>
     <mergeCell ref="A992:E992"/>
@@ -20583,13 +21924,6 @@
     <mergeCell ref="A877:E877"/>
     <mergeCell ref="A1135:E1135"/>
     <mergeCell ref="A1148:E1148"/>
-    <mergeCell ref="A1275:F1275"/>
-    <mergeCell ref="A1289:F1289"/>
-    <mergeCell ref="A1301:F1301"/>
-    <mergeCell ref="A1309:F1309"/>
-    <mergeCell ref="A1315:F1315"/>
-    <mergeCell ref="A1329:F1329"/>
-    <mergeCell ref="A1341:F1341"/>
     <mergeCell ref="A1514:F1514"/>
     <mergeCell ref="A1523:F1523"/>
     <mergeCell ref="A1532:F1532"/>
@@ -20609,6 +21943,7 @@
     <mergeCell ref="A1482:F1482"/>
     <mergeCell ref="A1491:F1491"/>
     <mergeCell ref="A1504:F1504"/>
+    <mergeCell ref="A1736:F1736"/>
     <mergeCell ref="A1699:F1699"/>
     <mergeCell ref="A1705:F1705"/>
     <mergeCell ref="A1634:F1634"/>
@@ -20620,6 +21955,8 @@
     <mergeCell ref="A1681:F1681"/>
     <mergeCell ref="A1687:F1687"/>
     <mergeCell ref="A1693:F1693"/>
+    <mergeCell ref="A1715:F1715"/>
+    <mergeCell ref="A1726:F1726"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/SANDEEP STAFF.xlsx
+++ b/SANDEEP STAFF.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2340" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2948" uniqueCount="580">
   <si>
     <t xml:space="preserve">opening balance </t>
   </si>
@@ -1488,6 +1488,273 @@
   </si>
   <si>
     <t>IPL LAB ME SUNIL KO CASH DIYA</t>
+  </si>
+  <si>
+    <t>28.08.24</t>
+  </si>
+  <si>
+    <t>MEERUT TO BEGAMPUL</t>
+  </si>
+  <si>
+    <t>BEGAMPUL TO SAAKET</t>
+  </si>
+  <si>
+    <t>SAAKET TO SAINI</t>
+  </si>
+  <si>
+    <t>SAINI TO SAAKET</t>
+  </si>
+  <si>
+    <t>SAAKET TO BEGAMPUL</t>
+  </si>
+  <si>
+    <t>BEGAMPUL TO MEERUT BUS STAND</t>
+  </si>
+  <si>
+    <t>29.08.24</t>
+  </si>
+  <si>
+    <t>30.08.24</t>
+  </si>
+  <si>
+    <t>31.08.24</t>
+  </si>
+  <si>
+    <t>01.09.24</t>
+  </si>
+  <si>
+    <t>02.09.24</t>
+  </si>
+  <si>
+    <t>03.09.24</t>
+  </si>
+  <si>
+    <t>04.09.24</t>
+  </si>
+  <si>
+    <t>05.09.24</t>
+  </si>
+  <si>
+    <t>06.09.24</t>
+  </si>
+  <si>
+    <t>BEGAMPUL TO SOHRAB GATE BUS STAND</t>
+  </si>
+  <si>
+    <t>SOHRAB GATE BUS STAND TO DELHI</t>
+  </si>
+  <si>
+    <t>07.09.24</t>
+  </si>
+  <si>
+    <t>TATMIL TO ARIF CHOKI</t>
+  </si>
+  <si>
+    <t>ZARIF CHOKI TO FAJAL GANJ</t>
+  </si>
+  <si>
+    <t>FAZAL GANJ TO RUDRAPUR</t>
+  </si>
+  <si>
+    <t>08.09.24</t>
+  </si>
+  <si>
+    <t>KASHIPUR BUS STAND TO TANDA CHORAHA</t>
+  </si>
+  <si>
+    <t>TANDA CHORAHA TO CHATRIYA CHORAHA</t>
+  </si>
+  <si>
+    <t>CHATRIYA CHORAHA TO GANPATI APARTMENT</t>
+  </si>
+  <si>
+    <t>GANPATI APARTMENT TO CHATRIYA CHORAHA</t>
+  </si>
+  <si>
+    <t>CHATRIYA CHORAHA TO NAINI PAPER MILL</t>
+  </si>
+  <si>
+    <t>NAINI PAPER MIL TO KASHIPUR</t>
+  </si>
+  <si>
+    <t>09.09.24</t>
+  </si>
+  <si>
+    <t>OFFICE TO TATMILL</t>
+  </si>
+  <si>
+    <t>TATMILL TO DELHI</t>
+  </si>
+  <si>
+    <t>10.09.24</t>
+  </si>
+  <si>
+    <t>11.09.24</t>
+  </si>
+  <si>
+    <t>IPL LAB ME GADIYO KE SAMPLE KE LIYE CASH DIYA</t>
+  </si>
+  <si>
+    <t>12.09.24</t>
+  </si>
+  <si>
+    <t>13.09.24</t>
+  </si>
+  <si>
+    <t>14.09.24</t>
+  </si>
+  <si>
+    <t>15.09.24</t>
+  </si>
+  <si>
+    <t>16.09.24</t>
+  </si>
+  <si>
+    <t>17.09.24</t>
+  </si>
+  <si>
+    <t>18.09.24</t>
+  </si>
+  <si>
+    <t>MEERUT TO BIJNOR</t>
+  </si>
+  <si>
+    <t>BIJNOR TO DHAMPUR BUS STAND</t>
+  </si>
+  <si>
+    <t>DHAMPUR BUS STAND TO SUGAR MILL</t>
+  </si>
+  <si>
+    <t>SUGAR MILL TO DHAMPUR BUS STAND</t>
+  </si>
+  <si>
+    <t>DHAMPUR BUS STAND TO BIJNOR</t>
+  </si>
+  <si>
+    <t>BIJNOR TO MEERUT BUS STAND</t>
+  </si>
+  <si>
+    <t>19.09.24</t>
+  </si>
+  <si>
+    <t>20.09.24</t>
+  </si>
+  <si>
+    <t>MEERUT TO MORADABAD</t>
+  </si>
+  <si>
+    <t>BUS STANT TO CHATRIYA CHORAHA</t>
+  </si>
+  <si>
+    <t>21.09.24</t>
+  </si>
+  <si>
+    <t>ROOM TO CHATRIYA CHOKE</t>
+  </si>
+  <si>
+    <t>CHATRIYA CHOKE TO KASHIPUR BUS STAND</t>
+  </si>
+  <si>
+    <t>KASHIPUR BUS STAND TO DHAMPUR</t>
+  </si>
+  <si>
+    <t>DHAMPUR TO SUGAR MILL</t>
+  </si>
+  <si>
+    <t>SUGAR MILL TO DHAMPUR</t>
+  </si>
+  <si>
+    <t>DHAMPUR TO KASHIPUR</t>
+  </si>
+  <si>
+    <t>KASHIPUR TO CHATRIYA CHOKE</t>
+  </si>
+  <si>
+    <t>CHATRIYA CHOKE TO ROOM</t>
+  </si>
+  <si>
+    <t>22.09.24</t>
+  </si>
+  <si>
+    <t>LEBAR SAMPLR EXP.</t>
+  </si>
+  <si>
+    <t>23.09.24</t>
+  </si>
+  <si>
+    <t>ROOM TO SIDDHARTH PAPER MILL</t>
+  </si>
+  <si>
+    <t>SIDDHARTH PAPER MILL TO ROOM</t>
+  </si>
+  <si>
+    <t>CHARPAI</t>
+  </si>
+  <si>
+    <t>GADDA</t>
+  </si>
+  <si>
+    <t>CHADAR TAKIYA</t>
+  </si>
+  <si>
+    <t>24.09.24</t>
+  </si>
+  <si>
+    <t>25.09.24</t>
+  </si>
+  <si>
+    <t>26.09.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASH FOR SAMPLE ( IPL LAB ) </t>
+  </si>
+  <si>
+    <t>27.09.24</t>
+  </si>
+  <si>
+    <t>28.09.24</t>
+  </si>
+  <si>
+    <t>29.09.24</t>
+  </si>
+  <si>
+    <t>BAALVER PARTY EXP. NAINI PAPER MILL</t>
+  </si>
+  <si>
+    <t>30.09.24</t>
+  </si>
+  <si>
+    <t>01.10.24</t>
+  </si>
+  <si>
+    <t>02.10.24</t>
+  </si>
+  <si>
+    <t>03.10.24</t>
+  </si>
+  <si>
+    <t>BY ANKIT</t>
+  </si>
+  <si>
+    <t>04.10.24</t>
+  </si>
+  <si>
+    <t>05.10.24</t>
+  </si>
+  <si>
+    <t>06.10.24</t>
+  </si>
+  <si>
+    <t>07.10.24</t>
+  </si>
+  <si>
+    <t>08.10.24</t>
+  </si>
+  <si>
+    <t>09.10.24</t>
+  </si>
+  <si>
+    <t>10.10.24</t>
   </si>
 </sst>
 </file>
@@ -2400,10 +2667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1845"/>
+  <dimension ref="A1:F2367"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1825" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D1845" sqref="D1845"/>
+    <sheetView tabSelected="1" topLeftCell="A2348" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B2371" sqref="B2371"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21782,24 +22049,5970 @@
         <v>-15460</v>
       </c>
     </row>
+    <row r="1848" spans="1:6" ht="18.75">
+      <c r="A1848" s="42" t="s">
+        <v>491</v>
+      </c>
+      <c r="B1848" s="43"/>
+      <c r="C1848" s="43"/>
+      <c r="D1848" s="43"/>
+      <c r="E1848" s="43"/>
+      <c r="F1848" s="44"/>
+    </row>
+    <row r="1849" spans="1:6">
+      <c r="A1849" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1849" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1849" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1849" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1849" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1849" s="39"/>
+    </row>
+    <row r="1850" spans="1:6">
+      <c r="A1850" s="7">
+        <f>E1845+D1850</f>
+        <v>-15505</v>
+      </c>
+      <c r="B1850" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="C1850" s="5">
+        <v>10</v>
+      </c>
+      <c r="D1850" s="8"/>
+      <c r="E1850" s="36"/>
+      <c r="F1850" s="40"/>
+    </row>
+    <row r="1851" spans="1:6">
+      <c r="A1851" s="7"/>
+      <c r="B1851" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="C1851" s="5">
+        <v>20</v>
+      </c>
+      <c r="D1851" s="8"/>
+      <c r="E1851" s="36"/>
+      <c r="F1851" s="40"/>
+    </row>
+    <row r="1852" spans="1:6">
+      <c r="A1852" s="7"/>
+      <c r="B1852" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="C1852" s="5">
+        <v>20</v>
+      </c>
+      <c r="D1852" s="8"/>
+      <c r="E1852" s="36"/>
+      <c r="F1852" s="40"/>
+    </row>
+    <row r="1853" spans="1:6">
+      <c r="A1853" s="7"/>
+      <c r="B1853" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1853" s="5">
+        <v>10</v>
+      </c>
+      <c r="D1853" s="8"/>
+      <c r="E1853" s="36"/>
+      <c r="F1853" s="40"/>
+    </row>
+    <row r="1854" spans="1:6">
+      <c r="A1854" s="7"/>
+      <c r="B1854" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1854" s="5">
+        <v>10</v>
+      </c>
+      <c r="D1854" s="8"/>
+      <c r="E1854" s="36"/>
+      <c r="F1854" s="40"/>
+    </row>
+    <row r="1855" spans="1:6">
+      <c r="A1855" s="7"/>
+      <c r="B1855" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="C1855" s="5">
+        <v>20</v>
+      </c>
+      <c r="D1855" s="8"/>
+      <c r="E1855" s="36"/>
+      <c r="F1855" s="40"/>
+    </row>
+    <row r="1856" spans="1:6">
+      <c r="A1856" s="7"/>
+      <c r="B1856" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="C1856" s="5">
+        <v>20</v>
+      </c>
+      <c r="D1856" s="8"/>
+      <c r="E1856" s="36"/>
+      <c r="F1856" s="40"/>
+    </row>
+    <row r="1857" spans="1:6">
+      <c r="A1857" s="7"/>
+      <c r="B1857" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="C1857" s="5">
+        <v>10</v>
+      </c>
+      <c r="D1857" s="8"/>
+      <c r="E1857" s="36"/>
+      <c r="F1857" s="40"/>
+    </row>
+    <row r="1858" spans="1:6">
+      <c r="A1858" s="7"/>
+      <c r="B1858" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1858" s="5">
+        <v>300</v>
+      </c>
+      <c r="D1858" s="8"/>
+      <c r="E1858" s="36"/>
+      <c r="F1858" s="40"/>
+    </row>
+    <row r="1859" spans="1:6">
+      <c r="A1859" s="7"/>
+      <c r="B1859" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1859" s="5">
+        <v>550</v>
+      </c>
+      <c r="D1859" s="8"/>
+      <c r="E1859" s="36"/>
+      <c r="F1859" s="40"/>
+    </row>
+    <row r="1860" spans="1:6">
+      <c r="A1860" s="34"/>
+      <c r="B1860" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1860" s="7">
+        <f>SUM(C1850:C1859)</f>
+        <v>970</v>
+      </c>
+      <c r="D1860" s="34"/>
+      <c r="E1860" s="35">
+        <f>A1850-C1860</f>
+        <v>-16475</v>
+      </c>
+      <c r="F1860" s="41">
+        <f>E1860+45</f>
+        <v>-16430</v>
+      </c>
+    </row>
+    <row r="1863" spans="1:6" ht="18.75">
+      <c r="A1863" s="42" t="s">
+        <v>498</v>
+      </c>
+      <c r="B1863" s="43"/>
+      <c r="C1863" s="43"/>
+      <c r="D1863" s="43"/>
+      <c r="E1863" s="43"/>
+      <c r="F1863" s="44"/>
+    </row>
+    <row r="1864" spans="1:6">
+      <c r="A1864" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1864" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1864" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1864" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1864" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1864" s="39"/>
+    </row>
+    <row r="1865" spans="1:6">
+      <c r="A1865" s="7">
+        <f>E1860+D1865</f>
+        <v>-16475</v>
+      </c>
+      <c r="B1865" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="C1865" s="5">
+        <v>10</v>
+      </c>
+      <c r="D1865" s="8"/>
+      <c r="E1865" s="36"/>
+      <c r="F1865" s="40"/>
+    </row>
+    <row r="1866" spans="1:6">
+      <c r="A1866" s="7"/>
+      <c r="B1866" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="C1866" s="5">
+        <v>20</v>
+      </c>
+      <c r="D1866" s="8"/>
+      <c r="E1866" s="36"/>
+      <c r="F1866" s="40"/>
+    </row>
+    <row r="1867" spans="1:6">
+      <c r="A1867" s="7"/>
+      <c r="B1867" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="C1867" s="5">
+        <v>20</v>
+      </c>
+      <c r="D1867" s="8"/>
+      <c r="E1867" s="36"/>
+      <c r="F1867" s="40"/>
+    </row>
+    <row r="1868" spans="1:6">
+      <c r="A1868" s="7"/>
+      <c r="B1868" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1868" s="5">
+        <v>10</v>
+      </c>
+      <c r="D1868" s="8"/>
+      <c r="E1868" s="36"/>
+      <c r="F1868" s="40"/>
+    </row>
+    <row r="1869" spans="1:6">
+      <c r="A1869" s="7"/>
+      <c r="B1869" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1869" s="5">
+        <v>10</v>
+      </c>
+      <c r="D1869" s="8"/>
+      <c r="E1869" s="36"/>
+      <c r="F1869" s="40"/>
+    </row>
+    <row r="1870" spans="1:6">
+      <c r="A1870" s="7"/>
+      <c r="B1870" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="C1870" s="5">
+        <v>20</v>
+      </c>
+      <c r="D1870" s="8"/>
+      <c r="E1870" s="36"/>
+      <c r="F1870" s="40"/>
+    </row>
+    <row r="1871" spans="1:6">
+      <c r="A1871" s="7"/>
+      <c r="B1871" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="C1871" s="5">
+        <v>20</v>
+      </c>
+      <c r="D1871" s="8"/>
+      <c r="E1871" s="36"/>
+      <c r="F1871" s="40"/>
+    </row>
+    <row r="1872" spans="1:6">
+      <c r="A1872" s="7"/>
+      <c r="B1872" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="C1872" s="5">
+        <v>10</v>
+      </c>
+      <c r="D1872" s="8"/>
+      <c r="E1872" s="36"/>
+      <c r="F1872" s="40"/>
+    </row>
+    <row r="1873" spans="1:6">
+      <c r="A1873" s="7"/>
+      <c r="B1873" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1873" s="5">
+        <v>300</v>
+      </c>
+      <c r="D1873" s="8"/>
+      <c r="E1873" s="36"/>
+      <c r="F1873" s="40"/>
+    </row>
+    <row r="1874" spans="1:6">
+      <c r="A1874" s="7"/>
+      <c r="B1874" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1874" s="5">
+        <v>550</v>
+      </c>
+      <c r="D1874" s="8"/>
+      <c r="E1874" s="36"/>
+      <c r="F1874" s="40"/>
+    </row>
+    <row r="1875" spans="1:6">
+      <c r="A1875" s="34"/>
+      <c r="B1875" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1875" s="7">
+        <f>SUM(C1865:C1874)</f>
+        <v>970</v>
+      </c>
+      <c r="D1875" s="34"/>
+      <c r="E1875" s="35">
+        <f>A1865-C1875</f>
+        <v>-17445</v>
+      </c>
+      <c r="F1875" s="41">
+        <f>E1875+45</f>
+        <v>-17400</v>
+      </c>
+    </row>
+    <row r="1878" spans="1:6" ht="18.75">
+      <c r="A1878" s="42" t="s">
+        <v>499</v>
+      </c>
+      <c r="B1878" s="43"/>
+      <c r="C1878" s="43"/>
+      <c r="D1878" s="43"/>
+      <c r="E1878" s="43"/>
+      <c r="F1878" s="44"/>
+    </row>
+    <row r="1879" spans="1:6">
+      <c r="A1879" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1879" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1879" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1879" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1879" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1879" s="39"/>
+    </row>
+    <row r="1880" spans="1:6">
+      <c r="A1880" s="7">
+        <f>E1875+D1880</f>
+        <v>-14445</v>
+      </c>
+      <c r="B1880" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="C1880" s="5">
+        <v>10</v>
+      </c>
+      <c r="D1880" s="8">
+        <v>3000</v>
+      </c>
+      <c r="E1880" s="36"/>
+      <c r="F1880" s="40"/>
+    </row>
+    <row r="1881" spans="1:6">
+      <c r="A1881" s="7"/>
+      <c r="B1881" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="C1881" s="5">
+        <v>20</v>
+      </c>
+      <c r="D1881" s="8"/>
+      <c r="E1881" s="36"/>
+      <c r="F1881" s="40"/>
+    </row>
+    <row r="1882" spans="1:6">
+      <c r="A1882" s="7"/>
+      <c r="B1882" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="C1882" s="5">
+        <v>20</v>
+      </c>
+      <c r="D1882" s="8"/>
+      <c r="E1882" s="36"/>
+      <c r="F1882" s="40"/>
+    </row>
+    <row r="1883" spans="1:6">
+      <c r="A1883" s="7"/>
+      <c r="B1883" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1883" s="5">
+        <v>10</v>
+      </c>
+      <c r="D1883" s="8"/>
+      <c r="E1883" s="36"/>
+      <c r="F1883" s="40"/>
+    </row>
+    <row r="1884" spans="1:6">
+      <c r="A1884" s="7"/>
+      <c r="B1884" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1884" s="5">
+        <v>10</v>
+      </c>
+      <c r="D1884" s="8"/>
+      <c r="E1884" s="36"/>
+      <c r="F1884" s="40"/>
+    </row>
+    <row r="1885" spans="1:6">
+      <c r="A1885" s="7"/>
+      <c r="B1885" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="C1885" s="5">
+        <v>20</v>
+      </c>
+      <c r="D1885" s="8"/>
+      <c r="E1885" s="36"/>
+      <c r="F1885" s="40"/>
+    </row>
+    <row r="1886" spans="1:6">
+      <c r="A1886" s="7"/>
+      <c r="B1886" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="C1886" s="5">
+        <v>20</v>
+      </c>
+      <c r="D1886" s="8"/>
+      <c r="E1886" s="36"/>
+      <c r="F1886" s="40"/>
+    </row>
+    <row r="1887" spans="1:6">
+      <c r="A1887" s="7"/>
+      <c r="B1887" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="C1887" s="5">
+        <v>10</v>
+      </c>
+      <c r="D1887" s="8"/>
+      <c r="E1887" s="36"/>
+      <c r="F1887" s="40"/>
+    </row>
+    <row r="1888" spans="1:6">
+      <c r="A1888" s="7"/>
+      <c r="B1888" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1888" s="5">
+        <v>300</v>
+      </c>
+      <c r="D1888" s="8"/>
+      <c r="E1888" s="36"/>
+      <c r="F1888" s="40"/>
+    </row>
+    <row r="1889" spans="1:6">
+      <c r="A1889" s="7"/>
+      <c r="B1889" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1889" s="5">
+        <v>550</v>
+      </c>
+      <c r="D1889" s="8"/>
+      <c r="E1889" s="36"/>
+      <c r="F1889" s="40"/>
+    </row>
+    <row r="1890" spans="1:6">
+      <c r="A1890" s="34"/>
+      <c r="B1890" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1890" s="7">
+        <f>SUM(C1880:C1889)</f>
+        <v>970</v>
+      </c>
+      <c r="D1890" s="34"/>
+      <c r="E1890" s="35">
+        <f>A1880-C1890</f>
+        <v>-15415</v>
+      </c>
+      <c r="F1890" s="41">
+        <f>E1890+45</f>
+        <v>-15370</v>
+      </c>
+    </row>
+    <row r="1893" spans="1:6" ht="18.75">
+      <c r="A1893" s="42" t="s">
+        <v>500</v>
+      </c>
+      <c r="B1893" s="43"/>
+      <c r="C1893" s="43"/>
+      <c r="D1893" s="43"/>
+      <c r="E1893" s="43"/>
+      <c r="F1893" s="44"/>
+    </row>
+    <row r="1894" spans="1:6">
+      <c r="A1894" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1894" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1894" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1894" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1894" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1894" s="39"/>
+    </row>
+    <row r="1895" spans="1:6">
+      <c r="A1895" s="7">
+        <f>E1890+D1895</f>
+        <v>-15415</v>
+      </c>
+      <c r="B1895" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="C1895" s="5">
+        <v>10</v>
+      </c>
+      <c r="D1895" s="8"/>
+      <c r="E1895" s="36"/>
+      <c r="F1895" s="40"/>
+    </row>
+    <row r="1896" spans="1:6">
+      <c r="A1896" s="7"/>
+      <c r="B1896" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="C1896" s="5">
+        <v>20</v>
+      </c>
+      <c r="D1896" s="8"/>
+      <c r="E1896" s="36"/>
+      <c r="F1896" s="40"/>
+    </row>
+    <row r="1897" spans="1:6">
+      <c r="A1897" s="7"/>
+      <c r="B1897" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="C1897" s="5">
+        <v>20</v>
+      </c>
+      <c r="D1897" s="8"/>
+      <c r="E1897" s="36"/>
+      <c r="F1897" s="40"/>
+    </row>
+    <row r="1898" spans="1:6">
+      <c r="A1898" s="7"/>
+      <c r="B1898" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1898" s="5">
+        <v>10</v>
+      </c>
+      <c r="D1898" s="8"/>
+      <c r="E1898" s="36"/>
+      <c r="F1898" s="40"/>
+    </row>
+    <row r="1899" spans="1:6">
+      <c r="A1899" s="7"/>
+      <c r="B1899" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1899" s="5">
+        <v>10</v>
+      </c>
+      <c r="D1899" s="8"/>
+      <c r="E1899" s="36"/>
+      <c r="F1899" s="40"/>
+    </row>
+    <row r="1900" spans="1:6">
+      <c r="A1900" s="7"/>
+      <c r="B1900" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="C1900" s="5">
+        <v>20</v>
+      </c>
+      <c r="D1900" s="8"/>
+      <c r="E1900" s="36"/>
+      <c r="F1900" s="40"/>
+    </row>
+    <row r="1901" spans="1:6">
+      <c r="A1901" s="7"/>
+      <c r="B1901" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="C1901" s="5">
+        <v>20</v>
+      </c>
+      <c r="D1901" s="8"/>
+      <c r="E1901" s="36"/>
+      <c r="F1901" s="40"/>
+    </row>
+    <row r="1902" spans="1:6">
+      <c r="A1902" s="7"/>
+      <c r="B1902" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="C1902" s="5">
+        <v>10</v>
+      </c>
+      <c r="D1902" s="8"/>
+      <c r="E1902" s="36"/>
+      <c r="F1902" s="40"/>
+    </row>
+    <row r="1903" spans="1:6">
+      <c r="A1903" s="7"/>
+      <c r="B1903" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1903" s="5">
+        <v>300</v>
+      </c>
+      <c r="D1903" s="8"/>
+      <c r="E1903" s="36"/>
+      <c r="F1903" s="40"/>
+    </row>
+    <row r="1904" spans="1:6">
+      <c r="A1904" s="7"/>
+      <c r="B1904" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1904" s="5">
+        <v>550</v>
+      </c>
+      <c r="D1904" s="8"/>
+      <c r="E1904" s="36"/>
+      <c r="F1904" s="40"/>
+    </row>
+    <row r="1905" spans="1:6">
+      <c r="A1905" s="34"/>
+      <c r="B1905" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1905" s="7">
+        <f>SUM(C1895:C1904)</f>
+        <v>970</v>
+      </c>
+      <c r="D1905" s="34"/>
+      <c r="E1905" s="35">
+        <f>A1895-C1905</f>
+        <v>-16385</v>
+      </c>
+      <c r="F1905" s="41">
+        <f>E1905+45</f>
+        <v>-16340</v>
+      </c>
+    </row>
+    <row r="1908" spans="1:6" ht="18.75">
+      <c r="A1908" s="42" t="s">
+        <v>501</v>
+      </c>
+      <c r="B1908" s="43"/>
+      <c r="C1908" s="43"/>
+      <c r="D1908" s="43"/>
+      <c r="E1908" s="43"/>
+      <c r="F1908" s="44"/>
+    </row>
+    <row r="1909" spans="1:6">
+      <c r="A1909" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1909" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1909" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1909" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1909" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1909" s="39"/>
+    </row>
+    <row r="1910" spans="1:6">
+      <c r="A1910" s="7">
+        <f>E1905+D1910</f>
+        <v>-16385</v>
+      </c>
+      <c r="B1910" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="C1910" s="5">
+        <v>10</v>
+      </c>
+      <c r="D1910" s="8"/>
+      <c r="E1910" s="36"/>
+      <c r="F1910" s="40"/>
+    </row>
+    <row r="1911" spans="1:6">
+      <c r="A1911" s="7"/>
+      <c r="B1911" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="C1911" s="5">
+        <v>20</v>
+      </c>
+      <c r="D1911" s="8"/>
+      <c r="E1911" s="36"/>
+      <c r="F1911" s="40"/>
+    </row>
+    <row r="1912" spans="1:6">
+      <c r="A1912" s="7"/>
+      <c r="B1912" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="C1912" s="5">
+        <v>20</v>
+      </c>
+      <c r="D1912" s="8"/>
+      <c r="E1912" s="36"/>
+      <c r="F1912" s="40"/>
+    </row>
+    <row r="1913" spans="1:6">
+      <c r="A1913" s="7"/>
+      <c r="B1913" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1913" s="5">
+        <v>10</v>
+      </c>
+      <c r="D1913" s="8"/>
+      <c r="E1913" s="36"/>
+      <c r="F1913" s="40"/>
+    </row>
+    <row r="1914" spans="1:6">
+      <c r="A1914" s="7"/>
+      <c r="B1914" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1914" s="5">
+        <v>10</v>
+      </c>
+      <c r="D1914" s="8"/>
+      <c r="E1914" s="36"/>
+      <c r="F1914" s="40"/>
+    </row>
+    <row r="1915" spans="1:6">
+      <c r="A1915" s="7"/>
+      <c r="B1915" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="C1915" s="5">
+        <v>20</v>
+      </c>
+      <c r="D1915" s="8"/>
+      <c r="E1915" s="36"/>
+      <c r="F1915" s="40"/>
+    </row>
+    <row r="1916" spans="1:6">
+      <c r="A1916" s="7"/>
+      <c r="B1916" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="C1916" s="5">
+        <v>20</v>
+      </c>
+      <c r="D1916" s="8"/>
+      <c r="E1916" s="36"/>
+      <c r="F1916" s="40"/>
+    </row>
+    <row r="1917" spans="1:6">
+      <c r="A1917" s="7"/>
+      <c r="B1917" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="C1917" s="5">
+        <v>10</v>
+      </c>
+      <c r="D1917" s="8"/>
+      <c r="E1917" s="36"/>
+      <c r="F1917" s="40"/>
+    </row>
+    <row r="1918" spans="1:6">
+      <c r="A1918" s="7"/>
+      <c r="B1918" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1918" s="5">
+        <v>300</v>
+      </c>
+      <c r="D1918" s="8"/>
+      <c r="E1918" s="36"/>
+      <c r="F1918" s="40"/>
+    </row>
+    <row r="1919" spans="1:6">
+      <c r="A1919" s="7"/>
+      <c r="B1919" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1919" s="5">
+        <v>550</v>
+      </c>
+      <c r="D1919" s="8"/>
+      <c r="E1919" s="36"/>
+      <c r="F1919" s="40"/>
+    </row>
+    <row r="1920" spans="1:6">
+      <c r="A1920" s="34"/>
+      <c r="B1920" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1920" s="7">
+        <f>SUM(C1910:C1919)</f>
+        <v>970</v>
+      </c>
+      <c r="D1920" s="34"/>
+      <c r="E1920" s="35">
+        <f>A1910-C1920</f>
+        <v>-17355</v>
+      </c>
+      <c r="F1920" s="41">
+        <f>E1920+45</f>
+        <v>-17310</v>
+      </c>
+    </row>
+    <row r="1923" spans="1:6" ht="18.75">
+      <c r="A1923" s="42" t="s">
+        <v>502</v>
+      </c>
+      <c r="B1923" s="43"/>
+      <c r="C1923" s="43"/>
+      <c r="D1923" s="43"/>
+      <c r="E1923" s="43"/>
+      <c r="F1923" s="44"/>
+    </row>
+    <row r="1924" spans="1:6">
+      <c r="A1924" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1924" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1924" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1924" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1924" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1924" s="39"/>
+    </row>
+    <row r="1925" spans="1:6">
+      <c r="A1925" s="7">
+        <f>E1920+D1925</f>
+        <v>-17355</v>
+      </c>
+      <c r="B1925" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="C1925" s="5">
+        <v>10</v>
+      </c>
+      <c r="D1925" s="8"/>
+      <c r="E1925" s="36"/>
+      <c r="F1925" s="40"/>
+    </row>
+    <row r="1926" spans="1:6">
+      <c r="A1926" s="7"/>
+      <c r="B1926" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="C1926" s="5">
+        <v>20</v>
+      </c>
+      <c r="D1926" s="8"/>
+      <c r="E1926" s="36"/>
+      <c r="F1926" s="40"/>
+    </row>
+    <row r="1927" spans="1:6">
+      <c r="A1927" s="7"/>
+      <c r="B1927" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="C1927" s="5">
+        <v>20</v>
+      </c>
+      <c r="D1927" s="8"/>
+      <c r="E1927" s="36"/>
+      <c r="F1927" s="40"/>
+    </row>
+    <row r="1928" spans="1:6">
+      <c r="A1928" s="7"/>
+      <c r="B1928" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1928" s="5">
+        <v>10</v>
+      </c>
+      <c r="D1928" s="8"/>
+      <c r="E1928" s="36"/>
+      <c r="F1928" s="40"/>
+    </row>
+    <row r="1929" spans="1:6">
+      <c r="A1929" s="7"/>
+      <c r="B1929" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1929" s="5">
+        <v>10</v>
+      </c>
+      <c r="D1929" s="8"/>
+      <c r="E1929" s="36"/>
+      <c r="F1929" s="40"/>
+    </row>
+    <row r="1930" spans="1:6">
+      <c r="A1930" s="7"/>
+      <c r="B1930" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="C1930" s="5">
+        <v>20</v>
+      </c>
+      <c r="D1930" s="8"/>
+      <c r="E1930" s="36"/>
+      <c r="F1930" s="40"/>
+    </row>
+    <row r="1931" spans="1:6">
+      <c r="A1931" s="7"/>
+      <c r="B1931" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="C1931" s="5">
+        <v>20</v>
+      </c>
+      <c r="D1931" s="8"/>
+      <c r="E1931" s="36"/>
+      <c r="F1931" s="40"/>
+    </row>
+    <row r="1932" spans="1:6">
+      <c r="A1932" s="7"/>
+      <c r="B1932" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="C1932" s="5">
+        <v>10</v>
+      </c>
+      <c r="D1932" s="8"/>
+      <c r="E1932" s="36"/>
+      <c r="F1932" s="40"/>
+    </row>
+    <row r="1933" spans="1:6">
+      <c r="A1933" s="7"/>
+      <c r="B1933" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1933" s="5">
+        <v>300</v>
+      </c>
+      <c r="D1933" s="8"/>
+      <c r="E1933" s="36"/>
+      <c r="F1933" s="40"/>
+    </row>
+    <row r="1934" spans="1:6">
+      <c r="A1934" s="7"/>
+      <c r="B1934" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1934" s="5">
+        <v>550</v>
+      </c>
+      <c r="D1934" s="8"/>
+      <c r="E1934" s="36"/>
+      <c r="F1934" s="40"/>
+    </row>
+    <row r="1935" spans="1:6">
+      <c r="A1935" s="34"/>
+      <c r="B1935" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1935" s="7">
+        <f>SUM(C1925:C1934)</f>
+        <v>970</v>
+      </c>
+      <c r="D1935" s="34"/>
+      <c r="E1935" s="35">
+        <f>A1925-C1935</f>
+        <v>-18325</v>
+      </c>
+      <c r="F1935" s="41">
+        <f>E1935+45</f>
+        <v>-18280</v>
+      </c>
+    </row>
+    <row r="1938" spans="1:6" ht="18.75">
+      <c r="A1938" s="42" t="s">
+        <v>503</v>
+      </c>
+      <c r="B1938" s="43"/>
+      <c r="C1938" s="43"/>
+      <c r="D1938" s="43"/>
+      <c r="E1938" s="43"/>
+      <c r="F1938" s="44"/>
+    </row>
+    <row r="1939" spans="1:6">
+      <c r="A1939" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1939" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1939" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1939" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1939" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1939" s="39">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1940" spans="1:6">
+      <c r="A1940" s="7">
+        <f>E1935+D1940</f>
+        <v>-15325</v>
+      </c>
+      <c r="B1940" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="C1940" s="5">
+        <v>10</v>
+      </c>
+      <c r="D1940" s="8">
+        <v>3000</v>
+      </c>
+      <c r="E1940" s="36"/>
+      <c r="F1940" s="40"/>
+    </row>
+    <row r="1941" spans="1:6">
+      <c r="A1941" s="7"/>
+      <c r="B1941" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="C1941" s="5">
+        <v>20</v>
+      </c>
+      <c r="D1941" s="8"/>
+      <c r="E1941" s="36"/>
+      <c r="F1941" s="40"/>
+    </row>
+    <row r="1942" spans="1:6">
+      <c r="A1942" s="7"/>
+      <c r="B1942" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="C1942" s="5">
+        <v>20</v>
+      </c>
+      <c r="D1942" s="8"/>
+      <c r="E1942" s="36"/>
+      <c r="F1942" s="40"/>
+    </row>
+    <row r="1943" spans="1:6">
+      <c r="A1943" s="7"/>
+      <c r="B1943" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1943" s="5">
+        <v>10</v>
+      </c>
+      <c r="D1943" s="8"/>
+      <c r="E1943" s="36"/>
+      <c r="F1943" s="40"/>
+    </row>
+    <row r="1944" spans="1:6">
+      <c r="A1944" s="7"/>
+      <c r="B1944" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1944" s="5">
+        <v>10</v>
+      </c>
+      <c r="D1944" s="8"/>
+      <c r="E1944" s="36"/>
+      <c r="F1944" s="40"/>
+    </row>
+    <row r="1945" spans="1:6">
+      <c r="A1945" s="7"/>
+      <c r="B1945" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="C1945" s="5">
+        <v>20</v>
+      </c>
+      <c r="D1945" s="8"/>
+      <c r="E1945" s="36"/>
+      <c r="F1945" s="40"/>
+    </row>
+    <row r="1946" spans="1:6">
+      <c r="A1946" s="7"/>
+      <c r="B1946" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="C1946" s="5">
+        <v>20</v>
+      </c>
+      <c r="D1946" s="8"/>
+      <c r="E1946" s="36"/>
+      <c r="F1946" s="40"/>
+    </row>
+    <row r="1947" spans="1:6">
+      <c r="A1947" s="7"/>
+      <c r="B1947" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="C1947" s="5">
+        <v>10</v>
+      </c>
+      <c r="D1947" s="8"/>
+      <c r="E1947" s="36"/>
+      <c r="F1947" s="40"/>
+    </row>
+    <row r="1948" spans="1:6">
+      <c r="A1948" s="7"/>
+      <c r="B1948" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1948" s="5">
+        <v>300</v>
+      </c>
+      <c r="D1948" s="8"/>
+      <c r="E1948" s="36"/>
+      <c r="F1948" s="40"/>
+    </row>
+    <row r="1949" spans="1:6">
+      <c r="A1949" s="7"/>
+      <c r="B1949" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1949" s="5">
+        <v>550</v>
+      </c>
+      <c r="D1949" s="8"/>
+      <c r="E1949" s="36"/>
+      <c r="F1949" s="40"/>
+    </row>
+    <row r="1950" spans="1:6">
+      <c r="A1950" s="34"/>
+      <c r="B1950" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1950" s="7">
+        <f>SUM(C1940:C1949)</f>
+        <v>970</v>
+      </c>
+      <c r="D1950" s="34"/>
+      <c r="E1950" s="35">
+        <f>A1940-C1950</f>
+        <v>-16295</v>
+      </c>
+      <c r="F1950" s="41">
+        <f>E1950+F1939</f>
+        <v>-16260</v>
+      </c>
+    </row>
+    <row r="1953" spans="1:6" ht="18.75">
+      <c r="A1953" s="42" t="s">
+        <v>504</v>
+      </c>
+      <c r="B1953" s="43"/>
+      <c r="C1953" s="43"/>
+      <c r="D1953" s="43"/>
+      <c r="E1953" s="43"/>
+      <c r="F1953" s="44"/>
+    </row>
+    <row r="1954" spans="1:6">
+      <c r="A1954" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1954" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1954" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1954" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1954" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1954" s="39">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1955" spans="1:6">
+      <c r="A1955" s="7">
+        <f>E1950+D1955</f>
+        <v>-16295</v>
+      </c>
+      <c r="B1955" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="C1955" s="5">
+        <v>10</v>
+      </c>
+      <c r="D1955" s="8"/>
+      <c r="E1955" s="36"/>
+      <c r="F1955" s="40"/>
+    </row>
+    <row r="1956" spans="1:6">
+      <c r="A1956" s="7"/>
+      <c r="B1956" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="C1956" s="5">
+        <v>20</v>
+      </c>
+      <c r="D1956" s="8"/>
+      <c r="E1956" s="36"/>
+      <c r="F1956" s="40"/>
+    </row>
+    <row r="1957" spans="1:6">
+      <c r="A1957" s="7"/>
+      <c r="B1957" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="C1957" s="5">
+        <v>20</v>
+      </c>
+      <c r="D1957" s="8"/>
+      <c r="E1957" s="36"/>
+      <c r="F1957" s="40"/>
+    </row>
+    <row r="1958" spans="1:6">
+      <c r="A1958" s="7"/>
+      <c r="B1958" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1958" s="5">
+        <v>10</v>
+      </c>
+      <c r="D1958" s="8"/>
+      <c r="E1958" s="36"/>
+      <c r="F1958" s="40"/>
+    </row>
+    <row r="1959" spans="1:6">
+      <c r="A1959" s="7"/>
+      <c r="B1959" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1959" s="5">
+        <v>10</v>
+      </c>
+      <c r="D1959" s="8"/>
+      <c r="E1959" s="36"/>
+      <c r="F1959" s="40"/>
+    </row>
+    <row r="1960" spans="1:6">
+      <c r="A1960" s="7"/>
+      <c r="B1960" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="C1960" s="5">
+        <v>20</v>
+      </c>
+      <c r="D1960" s="8"/>
+      <c r="E1960" s="36"/>
+      <c r="F1960" s="40"/>
+    </row>
+    <row r="1961" spans="1:6">
+      <c r="A1961" s="7"/>
+      <c r="B1961" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="C1961" s="5">
+        <v>20</v>
+      </c>
+      <c r="D1961" s="8"/>
+      <c r="E1961" s="36"/>
+      <c r="F1961" s="40"/>
+    </row>
+    <row r="1962" spans="1:6">
+      <c r="A1962" s="7"/>
+      <c r="B1962" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="C1962" s="5">
+        <v>10</v>
+      </c>
+      <c r="D1962" s="8"/>
+      <c r="E1962" s="36"/>
+      <c r="F1962" s="40"/>
+    </row>
+    <row r="1963" spans="1:6">
+      <c r="A1963" s="7"/>
+      <c r="B1963" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1963" s="5">
+        <v>300</v>
+      </c>
+      <c r="D1963" s="8"/>
+      <c r="E1963" s="36"/>
+      <c r="F1963" s="40"/>
+    </row>
+    <row r="1964" spans="1:6">
+      <c r="A1964" s="7"/>
+      <c r="B1964" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1964" s="5">
+        <v>550</v>
+      </c>
+      <c r="D1964" s="8"/>
+      <c r="E1964" s="36"/>
+      <c r="F1964" s="40"/>
+    </row>
+    <row r="1965" spans="1:6">
+      <c r="A1965" s="34"/>
+      <c r="B1965" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1965" s="7">
+        <f>SUM(C1955:C1964)</f>
+        <v>970</v>
+      </c>
+      <c r="D1965" s="34"/>
+      <c r="E1965" s="35">
+        <f>A1955-C1965</f>
+        <v>-17265</v>
+      </c>
+      <c r="F1965" s="41">
+        <f>E1965+F1954</f>
+        <v>-17230</v>
+      </c>
+    </row>
+    <row r="1968" spans="1:6" ht="18.75">
+      <c r="A1968" s="42" t="s">
+        <v>505</v>
+      </c>
+      <c r="B1968" s="43"/>
+      <c r="C1968" s="43"/>
+      <c r="D1968" s="43"/>
+      <c r="E1968" s="43"/>
+      <c r="F1968" s="44"/>
+    </row>
+    <row r="1969" spans="1:6">
+      <c r="A1969" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1969" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1969" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1969" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1969" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1969" s="39">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1970" spans="1:6">
+      <c r="A1970" s="7">
+        <f>E1965+D1970</f>
+        <v>-17265</v>
+      </c>
+      <c r="B1970" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="C1970" s="5">
+        <v>10</v>
+      </c>
+      <c r="D1970" s="8"/>
+      <c r="E1970" s="36"/>
+      <c r="F1970" s="40"/>
+    </row>
+    <row r="1971" spans="1:6">
+      <c r="A1971" s="7"/>
+      <c r="B1971" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="C1971" s="5">
+        <v>20</v>
+      </c>
+      <c r="D1971" s="8"/>
+      <c r="E1971" s="36"/>
+      <c r="F1971" s="40"/>
+    </row>
+    <row r="1972" spans="1:6">
+      <c r="A1972" s="7"/>
+      <c r="B1972" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="C1972" s="5">
+        <v>20</v>
+      </c>
+      <c r="D1972" s="8"/>
+      <c r="E1972" s="36"/>
+      <c r="F1972" s="40"/>
+    </row>
+    <row r="1973" spans="1:6">
+      <c r="A1973" s="7"/>
+      <c r="B1973" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1973" s="5">
+        <v>10</v>
+      </c>
+      <c r="D1973" s="8"/>
+      <c r="E1973" s="36"/>
+      <c r="F1973" s="40"/>
+    </row>
+    <row r="1974" spans="1:6">
+      <c r="A1974" s="7"/>
+      <c r="B1974" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1974" s="5">
+        <v>10</v>
+      </c>
+      <c r="D1974" s="8"/>
+      <c r="E1974" s="36"/>
+      <c r="F1974" s="40"/>
+    </row>
+    <row r="1975" spans="1:6">
+      <c r="A1975" s="7"/>
+      <c r="B1975" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="C1975" s="5">
+        <v>20</v>
+      </c>
+      <c r="D1975" s="8"/>
+      <c r="E1975" s="36"/>
+      <c r="F1975" s="40"/>
+    </row>
+    <row r="1976" spans="1:6">
+      <c r="A1976" s="7"/>
+      <c r="B1976" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="C1976" s="5">
+        <v>20</v>
+      </c>
+      <c r="D1976" s="8"/>
+      <c r="E1976" s="36"/>
+      <c r="F1976" s="40"/>
+    </row>
+    <row r="1977" spans="1:6">
+      <c r="A1977" s="7"/>
+      <c r="B1977" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="C1977" s="5">
+        <v>10</v>
+      </c>
+      <c r="D1977" s="8"/>
+      <c r="E1977" s="36"/>
+      <c r="F1977" s="40"/>
+    </row>
+    <row r="1978" spans="1:6">
+      <c r="A1978" s="7"/>
+      <c r="B1978" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1978" s="5">
+        <v>300</v>
+      </c>
+      <c r="D1978" s="8"/>
+      <c r="E1978" s="36"/>
+      <c r="F1978" s="40"/>
+    </row>
+    <row r="1979" spans="1:6">
+      <c r="A1979" s="7"/>
+      <c r="B1979" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1979" s="5">
+        <v>550</v>
+      </c>
+      <c r="D1979" s="8"/>
+      <c r="E1979" s="36"/>
+      <c r="F1979" s="40"/>
+    </row>
+    <row r="1980" spans="1:6">
+      <c r="A1980" s="34"/>
+      <c r="B1980" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1980" s="7">
+        <f>SUM(C1970:C1979)</f>
+        <v>970</v>
+      </c>
+      <c r="D1980" s="34"/>
+      <c r="E1980" s="35">
+        <f>A1970-C1980</f>
+        <v>-18235</v>
+      </c>
+      <c r="F1980" s="41">
+        <f>E1980+F1969</f>
+        <v>-18200</v>
+      </c>
+    </row>
+    <row r="1983" spans="1:6" ht="18.75">
+      <c r="A1983" s="42" t="s">
+        <v>506</v>
+      </c>
+      <c r="B1983" s="43"/>
+      <c r="C1983" s="43"/>
+      <c r="D1983" s="43"/>
+      <c r="E1983" s="43"/>
+      <c r="F1983" s="44"/>
+    </row>
+    <row r="1984" spans="1:6">
+      <c r="A1984" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1984" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1984" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1984" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1984" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1984" s="39">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1985" spans="1:6">
+      <c r="A1985" s="7">
+        <f>E1980+D1985</f>
+        <v>-16735</v>
+      </c>
+      <c r="B1985" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="C1985" s="5">
+        <v>10</v>
+      </c>
+      <c r="D1985" s="8">
+        <v>1500</v>
+      </c>
+      <c r="E1985" s="36"/>
+      <c r="F1985" s="40"/>
+    </row>
+    <row r="1986" spans="1:6">
+      <c r="A1986" s="7"/>
+      <c r="B1986" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="C1986" s="5">
+        <v>20</v>
+      </c>
+      <c r="D1986" s="8"/>
+      <c r="E1986" s="36"/>
+      <c r="F1986" s="40"/>
+    </row>
+    <row r="1987" spans="1:6">
+      <c r="A1987" s="7"/>
+      <c r="B1987" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="C1987" s="5">
+        <v>20</v>
+      </c>
+      <c r="D1987" s="8"/>
+      <c r="E1987" s="36"/>
+      <c r="F1987" s="40"/>
+    </row>
+    <row r="1988" spans="1:6">
+      <c r="A1988" s="7"/>
+      <c r="B1988" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1988" s="5">
+        <v>10</v>
+      </c>
+      <c r="D1988" s="8"/>
+      <c r="E1988" s="36"/>
+      <c r="F1988" s="40"/>
+    </row>
+    <row r="1989" spans="1:6">
+      <c r="A1989" s="7"/>
+      <c r="B1989" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1989" s="5">
+        <v>10</v>
+      </c>
+      <c r="D1989" s="8"/>
+      <c r="E1989" s="36"/>
+      <c r="F1989" s="40"/>
+    </row>
+    <row r="1990" spans="1:6">
+      <c r="A1990" s="7"/>
+      <c r="B1990" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="C1990" s="5">
+        <v>20</v>
+      </c>
+      <c r="D1990" s="8"/>
+      <c r="E1990" s="36"/>
+      <c r="F1990" s="40"/>
+    </row>
+    <row r="1991" spans="1:6">
+      <c r="A1991" s="7"/>
+      <c r="B1991" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="C1991" s="5">
+        <v>20</v>
+      </c>
+      <c r="D1991" s="8"/>
+      <c r="E1991" s="36"/>
+      <c r="F1991" s="40"/>
+    </row>
+    <row r="1992" spans="1:6">
+      <c r="A1992" s="7"/>
+      <c r="B1992" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="C1992" s="5">
+        <v>20</v>
+      </c>
+      <c r="D1992" s="8"/>
+      <c r="E1992" s="36"/>
+      <c r="F1992" s="40"/>
+    </row>
+    <row r="1993" spans="1:6">
+      <c r="A1993" s="7"/>
+      <c r="B1993" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="C1993" s="5">
+        <v>130</v>
+      </c>
+      <c r="D1993" s="8"/>
+      <c r="E1993" s="36"/>
+      <c r="F1993" s="40"/>
+    </row>
+    <row r="1994" spans="1:6">
+      <c r="A1994" s="7"/>
+      <c r="B1994" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="C1994" s="5">
+        <v>790</v>
+      </c>
+      <c r="D1994" s="8"/>
+      <c r="E1994" s="36"/>
+      <c r="F1994" s="40"/>
+    </row>
+    <row r="1995" spans="1:6">
+      <c r="A1995" s="7"/>
+      <c r="B1995" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1995" s="5">
+        <v>300</v>
+      </c>
+      <c r="D1995" s="8"/>
+      <c r="E1995" s="36"/>
+      <c r="F1995" s="40"/>
+    </row>
+    <row r="1996" spans="1:6">
+      <c r="A1996" s="34"/>
+      <c r="B1996" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1996" s="7">
+        <f>SUM(C1985:C1995)</f>
+        <v>1350</v>
+      </c>
+      <c r="D1996" s="34"/>
+      <c r="E1996" s="35">
+        <f>A1985-C1996</f>
+        <v>-18085</v>
+      </c>
+      <c r="F1996" s="41">
+        <f>E1996+F1984</f>
+        <v>-18050</v>
+      </c>
+    </row>
+    <row r="1999" spans="1:6" ht="18.75">
+      <c r="A1999" s="42" t="s">
+        <v>509</v>
+      </c>
+      <c r="B1999" s="43"/>
+      <c r="C1999" s="43"/>
+      <c r="D1999" s="43"/>
+      <c r="E1999" s="43"/>
+      <c r="F1999" s="44"/>
+    </row>
+    <row r="2000" spans="1:6">
+      <c r="A2000" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2000" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2000" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2000" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2000" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2000" s="39">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2001" spans="1:6">
+      <c r="A2001" s="7">
+        <f>E1996+D2001</f>
+        <v>-15085</v>
+      </c>
+      <c r="B2001" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C2001" s="5">
+        <v>10</v>
+      </c>
+      <c r="D2001" s="8">
+        <v>3000</v>
+      </c>
+      <c r="E2001" s="36"/>
+      <c r="F2001" s="40"/>
+    </row>
+    <row r="2002" spans="1:6">
+      <c r="A2002" s="7"/>
+      <c r="B2002" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="C2002" s="5">
+        <v>10</v>
+      </c>
+      <c r="D2002" s="8"/>
+      <c r="E2002" s="36"/>
+      <c r="F2002" s="40"/>
+    </row>
+    <row r="2003" spans="1:6">
+      <c r="A2003" s="7"/>
+      <c r="B2003" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="C2003" s="5">
+        <v>20</v>
+      </c>
+      <c r="D2003" s="8"/>
+      <c r="E2003" s="36"/>
+      <c r="F2003" s="40"/>
+    </row>
+    <row r="2004" spans="1:6">
+      <c r="A2004" s="7"/>
+      <c r="B2004" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="C2004" s="5">
+        <v>1300</v>
+      </c>
+      <c r="D2004" s="8"/>
+      <c r="E2004" s="36"/>
+      <c r="F2004" s="40"/>
+    </row>
+    <row r="2005" spans="1:6">
+      <c r="A2005" s="7"/>
+      <c r="B2005" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2005" s="5">
+        <v>300</v>
+      </c>
+      <c r="D2005" s="8"/>
+      <c r="E2005" s="36"/>
+      <c r="F2005" s="40"/>
+    </row>
+    <row r="2006" spans="1:6">
+      <c r="A2006" s="34"/>
+      <c r="B2006" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2006" s="7">
+        <f>SUM(C2001:C2005)</f>
+        <v>1640</v>
+      </c>
+      <c r="D2006" s="34"/>
+      <c r="E2006" s="35">
+        <f>A2001-C2006</f>
+        <v>-16725</v>
+      </c>
+      <c r="F2006" s="41">
+        <f>E2006+F2000</f>
+        <v>-16690</v>
+      </c>
+    </row>
+    <row r="2009" spans="1:6" ht="18.75">
+      <c r="A2009" s="42" t="s">
+        <v>513</v>
+      </c>
+      <c r="B2009" s="43"/>
+      <c r="C2009" s="43"/>
+      <c r="D2009" s="43"/>
+      <c r="E2009" s="43"/>
+      <c r="F2009" s="44"/>
+    </row>
+    <row r="2010" spans="1:6">
+      <c r="A2010" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2010" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2010" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2010" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2010" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2010" s="39">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2011" spans="1:6">
+      <c r="A2011" s="7">
+        <f>E2006+D2011</f>
+        <v>-16725</v>
+      </c>
+      <c r="B2011" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C2011" s="5">
+        <v>130</v>
+      </c>
+      <c r="D2011" s="8"/>
+      <c r="E2011" s="36"/>
+      <c r="F2011" s="40"/>
+    </row>
+    <row r="2012" spans="1:6">
+      <c r="A2012" s="7"/>
+      <c r="B2012" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="C2012" s="5">
+        <v>20</v>
+      </c>
+      <c r="D2012" s="8"/>
+      <c r="E2012" s="36"/>
+      <c r="F2012" s="40"/>
+    </row>
+    <row r="2013" spans="1:6">
+      <c r="A2013" s="7"/>
+      <c r="B2013" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="C2013" s="5">
+        <v>20</v>
+      </c>
+      <c r="D2013" s="8"/>
+      <c r="E2013" s="36"/>
+      <c r="F2013" s="40"/>
+    </row>
+    <row r="2014" spans="1:6">
+      <c r="A2014" s="7"/>
+      <c r="B2014" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="C2014" s="5">
+        <v>60</v>
+      </c>
+      <c r="D2014" s="8"/>
+      <c r="E2014" s="36"/>
+      <c r="F2014" s="40"/>
+    </row>
+    <row r="2015" spans="1:6">
+      <c r="A2015" s="7"/>
+      <c r="B2015" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="C2015" s="5">
+        <v>60</v>
+      </c>
+      <c r="D2015" s="8"/>
+      <c r="E2015" s="36"/>
+      <c r="F2015" s="40"/>
+    </row>
+    <row r="2016" spans="1:6">
+      <c r="A2016" s="7"/>
+      <c r="B2016" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="C2016" s="5">
+        <v>30</v>
+      </c>
+      <c r="D2016" s="8"/>
+      <c r="E2016" s="36"/>
+      <c r="F2016" s="40"/>
+    </row>
+    <row r="2017" spans="1:6">
+      <c r="A2017" s="7"/>
+      <c r="B2017" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="C2017" s="5">
+        <v>20</v>
+      </c>
+      <c r="D2017" s="8"/>
+      <c r="E2017" s="36"/>
+      <c r="F2017" s="40"/>
+    </row>
+    <row r="2018" spans="1:6">
+      <c r="A2018" s="7"/>
+      <c r="B2018" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C2018" s="5">
+        <v>110</v>
+      </c>
+      <c r="D2018" s="8"/>
+      <c r="E2018" s="36"/>
+      <c r="F2018" s="40"/>
+    </row>
+    <row r="2019" spans="1:6">
+      <c r="A2019" s="7"/>
+      <c r="B2019" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="C2019" s="5">
+        <v>790</v>
+      </c>
+      <c r="D2019" s="8"/>
+      <c r="E2019" s="36"/>
+      <c r="F2019" s="40"/>
+    </row>
+    <row r="2020" spans="1:6">
+      <c r="A2020" s="7"/>
+      <c r="B2020" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2020" s="5">
+        <v>300</v>
+      </c>
+      <c r="D2020" s="8"/>
+      <c r="E2020" s="36"/>
+      <c r="F2020" s="40"/>
+    </row>
+    <row r="2021" spans="1:6">
+      <c r="A2021" s="34"/>
+      <c r="B2021" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2021" s="7">
+        <f>SUM(C2011:C2020)</f>
+        <v>1540</v>
+      </c>
+      <c r="D2021" s="34"/>
+      <c r="E2021" s="35">
+        <f>A2011-C2021</f>
+        <v>-18265</v>
+      </c>
+      <c r="F2021" s="41">
+        <f>E2021+F2010</f>
+        <v>-18210</v>
+      </c>
+    </row>
+    <row r="2024" spans="1:6" ht="18.75">
+      <c r="A2024" s="42" t="s">
+        <v>520</v>
+      </c>
+      <c r="B2024" s="43"/>
+      <c r="C2024" s="43"/>
+      <c r="D2024" s="43"/>
+      <c r="E2024" s="43"/>
+      <c r="F2024" s="44"/>
+    </row>
+    <row r="2025" spans="1:6">
+      <c r="A2025" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2025" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2025" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2025" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2025" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2025" s="39">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2026" spans="1:6">
+      <c r="A2026" s="7">
+        <f>E2021+D2026</f>
+        <v>-14265</v>
+      </c>
+      <c r="B2026" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="C2026" s="5">
+        <v>10</v>
+      </c>
+      <c r="D2026" s="8">
+        <v>4000</v>
+      </c>
+      <c r="E2026" s="36"/>
+      <c r="F2026" s="40"/>
+    </row>
+    <row r="2027" spans="1:6">
+      <c r="A2027" s="7"/>
+      <c r="B2027" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="C2027" s="5">
+        <v>790</v>
+      </c>
+      <c r="D2027" s="8"/>
+      <c r="E2027" s="36"/>
+      <c r="F2027" s="40"/>
+    </row>
+    <row r="2028" spans="1:6">
+      <c r="A2028" s="7"/>
+      <c r="B2028" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="C2028" s="5">
+        <v>130</v>
+      </c>
+      <c r="D2028" s="8"/>
+      <c r="E2028" s="36"/>
+      <c r="F2028" s="40"/>
+    </row>
+    <row r="2029" spans="1:6">
+      <c r="A2029" s="7"/>
+      <c r="B2029" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="C2029" s="5">
+        <v>20</v>
+      </c>
+      <c r="D2029" s="8"/>
+      <c r="E2029" s="36"/>
+      <c r="F2029" s="40"/>
+    </row>
+    <row r="2030" spans="1:6">
+      <c r="A2030" s="7"/>
+      <c r="B2030" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2030" s="5">
+        <v>300</v>
+      </c>
+      <c r="D2030" s="8"/>
+      <c r="E2030" s="36"/>
+      <c r="F2030" s="40"/>
+    </row>
+    <row r="2031" spans="1:6">
+      <c r="A2031" s="34"/>
+      <c r="B2031" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2031" s="7">
+        <f>SUM(C2026:C2030)</f>
+        <v>1250</v>
+      </c>
+      <c r="D2031" s="34"/>
+      <c r="E2031" s="35">
+        <f>A2026-C2031</f>
+        <v>-15515</v>
+      </c>
+      <c r="F2031" s="41">
+        <f>E2031+F2025</f>
+        <v>-15460</v>
+      </c>
+    </row>
+    <row r="2034" spans="1:6" ht="18.75">
+      <c r="A2034" s="42" t="s">
+        <v>523</v>
+      </c>
+      <c r="B2034" s="43"/>
+      <c r="C2034" s="43"/>
+      <c r="D2034" s="43"/>
+      <c r="E2034" s="43"/>
+      <c r="F2034" s="44"/>
+    </row>
+    <row r="2035" spans="1:6">
+      <c r="A2035" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2035" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2035" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2035" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2035" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2035" s="39">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2036" spans="1:6">
+      <c r="A2036" s="7">
+        <f>E2031+D2036</f>
+        <v>-15515</v>
+      </c>
+      <c r="B2036" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="C2036" s="5">
+        <v>20</v>
+      </c>
+      <c r="D2036" s="8"/>
+      <c r="E2036" s="36"/>
+      <c r="F2036" s="40"/>
+    </row>
+    <row r="2037" spans="1:6">
+      <c r="A2037" s="7"/>
+      <c r="B2037" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="C2037" s="5">
+        <v>20</v>
+      </c>
+      <c r="D2037" s="8"/>
+      <c r="E2037" s="36"/>
+      <c r="F2037" s="40"/>
+    </row>
+    <row r="2038" spans="1:6">
+      <c r="A2038" s="7"/>
+      <c r="B2038" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2038" s="5">
+        <v>10</v>
+      </c>
+      <c r="D2038" s="8"/>
+      <c r="E2038" s="36"/>
+      <c r="F2038" s="40"/>
+    </row>
+    <row r="2039" spans="1:6">
+      <c r="A2039" s="7"/>
+      <c r="B2039" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2039" s="5">
+        <v>10</v>
+      </c>
+      <c r="D2039" s="8"/>
+      <c r="E2039" s="36"/>
+      <c r="F2039" s="40"/>
+    </row>
+    <row r="2040" spans="1:6">
+      <c r="A2040" s="7"/>
+      <c r="B2040" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="C2040" s="5">
+        <v>20</v>
+      </c>
+      <c r="D2040" s="8"/>
+      <c r="E2040" s="36"/>
+      <c r="F2040" s="40"/>
+    </row>
+    <row r="2041" spans="1:6">
+      <c r="A2041" s="7"/>
+      <c r="B2041" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="C2041" s="5">
+        <v>20</v>
+      </c>
+      <c r="D2041" s="8"/>
+      <c r="E2041" s="36"/>
+      <c r="F2041" s="40"/>
+    </row>
+    <row r="2042" spans="1:6">
+      <c r="A2042" s="7"/>
+      <c r="B2042" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="C2042" s="5">
+        <v>20</v>
+      </c>
+      <c r="D2042" s="8"/>
+      <c r="E2042" s="36"/>
+      <c r="F2042" s="40"/>
+    </row>
+    <row r="2043" spans="1:6">
+      <c r="A2043" s="7"/>
+      <c r="B2043" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2043" s="5">
+        <v>300</v>
+      </c>
+      <c r="D2043" s="8"/>
+      <c r="E2043" s="36"/>
+      <c r="F2043" s="40"/>
+    </row>
+    <row r="2044" spans="1:6">
+      <c r="A2044" s="7"/>
+      <c r="B2044" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2044" s="5">
+        <v>550</v>
+      </c>
+      <c r="D2044" s="8"/>
+      <c r="E2044" s="36"/>
+      <c r="F2044" s="40"/>
+    </row>
+    <row r="2045" spans="1:6">
+      <c r="A2045" s="34"/>
+      <c r="B2045" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2045" s="7">
+        <f>SUM(C2036:C2044)</f>
+        <v>970</v>
+      </c>
+      <c r="D2045" s="34"/>
+      <c r="E2045" s="35">
+        <f>A2036-C2045</f>
+        <v>-16485</v>
+      </c>
+      <c r="F2045" s="41">
+        <f>E2045+F2035</f>
+        <v>-16430</v>
+      </c>
+    </row>
+    <row r="2048" spans="1:6" ht="18.75">
+      <c r="A2048" s="42" t="s">
+        <v>524</v>
+      </c>
+      <c r="B2048" s="43"/>
+      <c r="C2048" s="43"/>
+      <c r="D2048" s="43"/>
+      <c r="E2048" s="43"/>
+      <c r="F2048" s="44"/>
+    </row>
+    <row r="2049" spans="1:6">
+      <c r="A2049" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2049" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2049" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2049" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2049" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2049" s="34">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2050" spans="1:6">
+      <c r="A2050" s="7">
+        <f>E2045+D2050</f>
+        <v>-12485</v>
+      </c>
+      <c r="B2050" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2050" s="5">
+        <v>10</v>
+      </c>
+      <c r="D2050" s="8">
+        <v>4000</v>
+      </c>
+      <c r="E2050" s="36"/>
+      <c r="F2050" s="34"/>
+    </row>
+    <row r="2051" spans="1:6">
+      <c r="A2051" s="7"/>
+      <c r="B2051" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="C2051" s="5">
+        <v>20</v>
+      </c>
+      <c r="D2051" s="8"/>
+      <c r="E2051" s="36"/>
+      <c r="F2051" s="34"/>
+    </row>
+    <row r="2052" spans="1:6">
+      <c r="A2052" s="7"/>
+      <c r="B2052" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="C2052" s="5">
+        <v>20</v>
+      </c>
+      <c r="D2052" s="8"/>
+      <c r="E2052" s="36"/>
+      <c r="F2052" s="34"/>
+    </row>
+    <row r="2053" spans="1:6">
+      <c r="A2053" s="7"/>
+      <c r="B2053" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2053" s="5">
+        <v>10</v>
+      </c>
+      <c r="D2053" s="8"/>
+      <c r="E2053" s="36"/>
+      <c r="F2053" s="34"/>
+    </row>
+    <row r="2054" spans="1:6">
+      <c r="A2054" s="7"/>
+      <c r="B2054" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2054" s="5">
+        <v>10</v>
+      </c>
+      <c r="D2054" s="8"/>
+      <c r="E2054" s="36"/>
+      <c r="F2054" s="34"/>
+    </row>
+    <row r="2055" spans="1:6">
+      <c r="A2055" s="7"/>
+      <c r="B2055" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="C2055" s="5">
+        <v>20</v>
+      </c>
+      <c r="D2055" s="8"/>
+      <c r="E2055" s="36"/>
+      <c r="F2055" s="34"/>
+    </row>
+    <row r="2056" spans="1:6">
+      <c r="A2056" s="7"/>
+      <c r="B2056" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="C2056" s="5">
+        <v>20</v>
+      </c>
+      <c r="D2056" s="8"/>
+      <c r="E2056" s="36"/>
+      <c r="F2056" s="34"/>
+    </row>
+    <row r="2057" spans="1:6">
+      <c r="A2057" s="7"/>
+      <c r="B2057" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="C2057" s="5">
+        <v>10</v>
+      </c>
+      <c r="D2057" s="8"/>
+      <c r="E2057" s="36"/>
+      <c r="F2057" s="34"/>
+    </row>
+    <row r="2058" spans="1:6">
+      <c r="A2058" s="7"/>
+      <c r="B2058" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2058" s="5">
+        <v>300</v>
+      </c>
+      <c r="D2058" s="8"/>
+      <c r="E2058" s="36"/>
+      <c r="F2058" s="34"/>
+    </row>
+    <row r="2059" spans="1:6">
+      <c r="A2059" s="7"/>
+      <c r="B2059" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2059" s="5">
+        <v>550</v>
+      </c>
+      <c r="D2059" s="8"/>
+      <c r="E2059" s="36"/>
+      <c r="F2059" s="34"/>
+    </row>
+    <row r="2060" spans="1:6">
+      <c r="A2060" s="7"/>
+      <c r="B2060" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="C2060" s="5">
+        <v>4000</v>
+      </c>
+      <c r="D2060" s="8"/>
+      <c r="E2060" s="36"/>
+      <c r="F2060" s="34"/>
+    </row>
+    <row r="2061" spans="1:6">
+      <c r="A2061" s="34"/>
+      <c r="B2061" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2061" s="7">
+        <f>SUM(C2050:C2060)</f>
+        <v>4970</v>
+      </c>
+      <c r="D2061" s="34"/>
+      <c r="E2061" s="35">
+        <f>A2050-C2061</f>
+        <v>-17455</v>
+      </c>
+      <c r="F2061" s="34">
+        <f>E2061+F2049</f>
+        <v>-17400</v>
+      </c>
+    </row>
+    <row r="2064" spans="1:6" ht="18.75">
+      <c r="A2064" s="42" t="s">
+        <v>526</v>
+      </c>
+      <c r="B2064" s="43"/>
+      <c r="C2064" s="43"/>
+      <c r="D2064" s="43"/>
+      <c r="E2064" s="43"/>
+      <c r="F2064" s="44"/>
+    </row>
+    <row r="2065" spans="1:6">
+      <c r="A2065" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2065" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2065" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2065" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2065" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2065" s="34">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2066" spans="1:6">
+      <c r="A2066" s="7">
+        <f>E2061+D2066</f>
+        <v>-17455</v>
+      </c>
+      <c r="B2066" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2066" s="5">
+        <v>10</v>
+      </c>
+      <c r="D2066" s="8"/>
+      <c r="E2066" s="36"/>
+      <c r="F2066" s="34"/>
+    </row>
+    <row r="2067" spans="1:6">
+      <c r="A2067" s="7"/>
+      <c r="B2067" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="C2067" s="5">
+        <v>20</v>
+      </c>
+      <c r="D2067" s="8"/>
+      <c r="E2067" s="36"/>
+      <c r="F2067" s="34"/>
+    </row>
+    <row r="2068" spans="1:6">
+      <c r="A2068" s="7"/>
+      <c r="B2068" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="C2068" s="5">
+        <v>20</v>
+      </c>
+      <c r="D2068" s="8"/>
+      <c r="E2068" s="36"/>
+      <c r="F2068" s="34"/>
+    </row>
+    <row r="2069" spans="1:6">
+      <c r="A2069" s="7"/>
+      <c r="B2069" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2069" s="5">
+        <v>10</v>
+      </c>
+      <c r="D2069" s="8"/>
+      <c r="E2069" s="36"/>
+      <c r="F2069" s="34"/>
+    </row>
+    <row r="2070" spans="1:6">
+      <c r="A2070" s="7"/>
+      <c r="B2070" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2070" s="5">
+        <v>10</v>
+      </c>
+      <c r="D2070" s="8"/>
+      <c r="E2070" s="36"/>
+      <c r="F2070" s="34"/>
+    </row>
+    <row r="2071" spans="1:6">
+      <c r="A2071" s="7"/>
+      <c r="B2071" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="C2071" s="5">
+        <v>20</v>
+      </c>
+      <c r="D2071" s="8"/>
+      <c r="E2071" s="36"/>
+      <c r="F2071" s="34"/>
+    </row>
+    <row r="2072" spans="1:6">
+      <c r="A2072" s="7"/>
+      <c r="B2072" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="C2072" s="5">
+        <v>20</v>
+      </c>
+      <c r="D2072" s="8"/>
+      <c r="E2072" s="36"/>
+      <c r="F2072" s="34"/>
+    </row>
+    <row r="2073" spans="1:6">
+      <c r="A2073" s="7"/>
+      <c r="B2073" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="C2073" s="5">
+        <v>10</v>
+      </c>
+      <c r="D2073" s="8"/>
+      <c r="E2073" s="36"/>
+      <c r="F2073" s="34"/>
+    </row>
+    <row r="2074" spans="1:6">
+      <c r="A2074" s="7"/>
+      <c r="B2074" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2074" s="5">
+        <v>300</v>
+      </c>
+      <c r="D2074" s="8"/>
+      <c r="E2074" s="36"/>
+      <c r="F2074" s="34"/>
+    </row>
+    <row r="2075" spans="1:6">
+      <c r="A2075" s="7"/>
+      <c r="B2075" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2075" s="5">
+        <v>550</v>
+      </c>
+      <c r="D2075" s="8"/>
+      <c r="E2075" s="36"/>
+      <c r="F2075" s="34"/>
+    </row>
+    <row r="2076" spans="1:6">
+      <c r="A2076" s="34"/>
+      <c r="B2076" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2076" s="7">
+        <f>SUM(C2066:C2075)</f>
+        <v>970</v>
+      </c>
+      <c r="D2076" s="34"/>
+      <c r="E2076" s="35">
+        <f>A2066-C2076</f>
+        <v>-18425</v>
+      </c>
+      <c r="F2076" s="34">
+        <f>E2076+F2065</f>
+        <v>-18370</v>
+      </c>
+    </row>
+    <row r="2079" spans="1:6" ht="18.75">
+      <c r="A2079" s="42" t="s">
+        <v>527</v>
+      </c>
+      <c r="B2079" s="43"/>
+      <c r="C2079" s="43"/>
+      <c r="D2079" s="43"/>
+      <c r="E2079" s="43"/>
+      <c r="F2079" s="44"/>
+    </row>
+    <row r="2080" spans="1:6">
+      <c r="A2080" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2080" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2080" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2080" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2080" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2080" s="34">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2081" spans="1:6">
+      <c r="A2081" s="7">
+        <f>E2076+D2081</f>
+        <v>-16425</v>
+      </c>
+      <c r="B2081" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2081" s="5">
+        <v>10</v>
+      </c>
+      <c r="D2081" s="8">
+        <v>2000</v>
+      </c>
+      <c r="E2081" s="36"/>
+      <c r="F2081" s="34"/>
+    </row>
+    <row r="2082" spans="1:6">
+      <c r="A2082" s="7"/>
+      <c r="B2082" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="C2082" s="5">
+        <v>20</v>
+      </c>
+      <c r="D2082" s="8"/>
+      <c r="E2082" s="36"/>
+      <c r="F2082" s="34"/>
+    </row>
+    <row r="2083" spans="1:6">
+      <c r="A2083" s="7"/>
+      <c r="B2083" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="C2083" s="5">
+        <v>20</v>
+      </c>
+      <c r="D2083" s="8"/>
+      <c r="E2083" s="36"/>
+      <c r="F2083" s="34"/>
+    </row>
+    <row r="2084" spans="1:6">
+      <c r="A2084" s="7"/>
+      <c r="B2084" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2084" s="5">
+        <v>10</v>
+      </c>
+      <c r="D2084" s="8"/>
+      <c r="E2084" s="36"/>
+      <c r="F2084" s="34"/>
+    </row>
+    <row r="2085" spans="1:6">
+      <c r="A2085" s="7"/>
+      <c r="B2085" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2085" s="5">
+        <v>10</v>
+      </c>
+      <c r="D2085" s="8"/>
+      <c r="E2085" s="36"/>
+      <c r="F2085" s="34"/>
+    </row>
+    <row r="2086" spans="1:6">
+      <c r="A2086" s="7"/>
+      <c r="B2086" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="C2086" s="5">
+        <v>20</v>
+      </c>
+      <c r="D2086" s="8"/>
+      <c r="E2086" s="36"/>
+      <c r="F2086" s="34"/>
+    </row>
+    <row r="2087" spans="1:6">
+      <c r="A2087" s="7"/>
+      <c r="B2087" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="C2087" s="5">
+        <v>20</v>
+      </c>
+      <c r="D2087" s="8"/>
+      <c r="E2087" s="36"/>
+      <c r="F2087" s="34"/>
+    </row>
+    <row r="2088" spans="1:6">
+      <c r="A2088" s="7"/>
+      <c r="B2088" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="C2088" s="5">
+        <v>10</v>
+      </c>
+      <c r="D2088" s="8"/>
+      <c r="E2088" s="36"/>
+      <c r="F2088" s="34"/>
+    </row>
+    <row r="2089" spans="1:6">
+      <c r="A2089" s="7"/>
+      <c r="B2089" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2089" s="5">
+        <v>300</v>
+      </c>
+      <c r="D2089" s="8"/>
+      <c r="E2089" s="36"/>
+      <c r="F2089" s="34"/>
+    </row>
+    <row r="2090" spans="1:6">
+      <c r="A2090" s="7"/>
+      <c r="B2090" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2090" s="5">
+        <v>550</v>
+      </c>
+      <c r="D2090" s="8"/>
+      <c r="E2090" s="36"/>
+      <c r="F2090" s="34"/>
+    </row>
+    <row r="2091" spans="1:6">
+      <c r="A2091" s="34"/>
+      <c r="B2091" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2091" s="7">
+        <f>SUM(C2081:C2090)</f>
+        <v>970</v>
+      </c>
+      <c r="D2091" s="34"/>
+      <c r="E2091" s="35">
+        <f>A2081-C2091</f>
+        <v>-17395</v>
+      </c>
+      <c r="F2091" s="34">
+        <f>E2091+F2080</f>
+        <v>-17340</v>
+      </c>
+    </row>
+    <row r="2094" spans="1:6" ht="18.75">
+      <c r="A2094" s="42" t="s">
+        <v>528</v>
+      </c>
+      <c r="B2094" s="43"/>
+      <c r="C2094" s="43"/>
+      <c r="D2094" s="43"/>
+      <c r="E2094" s="43"/>
+      <c r="F2094" s="44"/>
+    </row>
+    <row r="2095" spans="1:6">
+      <c r="A2095" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2095" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2095" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2095" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2095" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2095" s="34">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2096" spans="1:6">
+      <c r="A2096" s="7">
+        <f>E2091+D2096</f>
+        <v>-17395</v>
+      </c>
+      <c r="B2096" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2096" s="5">
+        <v>10</v>
+      </c>
+      <c r="D2096" s="8"/>
+      <c r="E2096" s="36"/>
+      <c r="F2096" s="34"/>
+    </row>
+    <row r="2097" spans="1:6">
+      <c r="A2097" s="7"/>
+      <c r="B2097" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="C2097" s="5">
+        <v>20</v>
+      </c>
+      <c r="D2097" s="8"/>
+      <c r="E2097" s="36"/>
+      <c r="F2097" s="34"/>
+    </row>
+    <row r="2098" spans="1:6">
+      <c r="A2098" s="7"/>
+      <c r="B2098" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="C2098" s="5">
+        <v>20</v>
+      </c>
+      <c r="D2098" s="8"/>
+      <c r="E2098" s="36"/>
+      <c r="F2098" s="34"/>
+    </row>
+    <row r="2099" spans="1:6">
+      <c r="A2099" s="7"/>
+      <c r="B2099" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2099" s="5">
+        <v>10</v>
+      </c>
+      <c r="D2099" s="8"/>
+      <c r="E2099" s="36"/>
+      <c r="F2099" s="34"/>
+    </row>
+    <row r="2100" spans="1:6">
+      <c r="A2100" s="7"/>
+      <c r="B2100" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2100" s="5">
+        <v>10</v>
+      </c>
+      <c r="D2100" s="8"/>
+      <c r="E2100" s="36"/>
+      <c r="F2100" s="34"/>
+    </row>
+    <row r="2101" spans="1:6">
+      <c r="A2101" s="7"/>
+      <c r="B2101" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="C2101" s="5">
+        <v>20</v>
+      </c>
+      <c r="D2101" s="8"/>
+      <c r="E2101" s="36"/>
+      <c r="F2101" s="34"/>
+    </row>
+    <row r="2102" spans="1:6">
+      <c r="A2102" s="7"/>
+      <c r="B2102" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="C2102" s="5">
+        <v>20</v>
+      </c>
+      <c r="D2102" s="8"/>
+      <c r="E2102" s="36"/>
+      <c r="F2102" s="34"/>
+    </row>
+    <row r="2103" spans="1:6">
+      <c r="A2103" s="7"/>
+      <c r="B2103" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="C2103" s="5">
+        <v>10</v>
+      </c>
+      <c r="D2103" s="8"/>
+      <c r="E2103" s="36"/>
+      <c r="F2103" s="34"/>
+    </row>
+    <row r="2104" spans="1:6">
+      <c r="A2104" s="7"/>
+      <c r="B2104" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2104" s="5">
+        <v>300</v>
+      </c>
+      <c r="D2104" s="8"/>
+      <c r="E2104" s="36"/>
+      <c r="F2104" s="34"/>
+    </row>
+    <row r="2105" spans="1:6">
+      <c r="A2105" s="7"/>
+      <c r="B2105" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2105" s="5">
+        <v>550</v>
+      </c>
+      <c r="D2105" s="8"/>
+      <c r="E2105" s="36"/>
+      <c r="F2105" s="34"/>
+    </row>
+    <row r="2106" spans="1:6">
+      <c r="A2106" s="34"/>
+      <c r="B2106" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2106" s="7">
+        <f>SUM(C2096:C2105)</f>
+        <v>970</v>
+      </c>
+      <c r="D2106" s="34"/>
+      <c r="E2106" s="35">
+        <f>A2096-C2106</f>
+        <v>-18365</v>
+      </c>
+      <c r="F2106" s="34">
+        <f>E2106+F2095</f>
+        <v>-18310</v>
+      </c>
+    </row>
+    <row r="2109" spans="1:6" ht="18.75">
+      <c r="A2109" s="42" t="s">
+        <v>529</v>
+      </c>
+      <c r="B2109" s="43"/>
+      <c r="C2109" s="43"/>
+      <c r="D2109" s="43"/>
+      <c r="E2109" s="43"/>
+      <c r="F2109" s="44"/>
+    </row>
+    <row r="2110" spans="1:6">
+      <c r="A2110" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2110" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2110" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2110" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2110" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2110" s="34">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2111" spans="1:6">
+      <c r="A2111" s="7">
+        <f>E2106+D2111</f>
+        <v>-18365</v>
+      </c>
+      <c r="B2111" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2111" s="5">
+        <v>10</v>
+      </c>
+      <c r="D2111" s="8"/>
+      <c r="E2111" s="36"/>
+      <c r="F2111" s="34"/>
+    </row>
+    <row r="2112" spans="1:6">
+      <c r="A2112" s="7"/>
+      <c r="B2112" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="C2112" s="5">
+        <v>20</v>
+      </c>
+      <c r="D2112" s="8"/>
+      <c r="E2112" s="36"/>
+      <c r="F2112" s="34"/>
+    </row>
+    <row r="2113" spans="1:6">
+      <c r="A2113" s="7"/>
+      <c r="B2113" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="C2113" s="5">
+        <v>20</v>
+      </c>
+      <c r="D2113" s="8"/>
+      <c r="E2113" s="36"/>
+      <c r="F2113" s="34"/>
+    </row>
+    <row r="2114" spans="1:6">
+      <c r="A2114" s="7"/>
+      <c r="B2114" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2114" s="5">
+        <v>10</v>
+      </c>
+      <c r="D2114" s="8"/>
+      <c r="E2114" s="36"/>
+      <c r="F2114" s="34"/>
+    </row>
+    <row r="2115" spans="1:6">
+      <c r="A2115" s="7"/>
+      <c r="B2115" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2115" s="5">
+        <v>10</v>
+      </c>
+      <c r="D2115" s="8"/>
+      <c r="E2115" s="36"/>
+      <c r="F2115" s="34"/>
+    </row>
+    <row r="2116" spans="1:6">
+      <c r="A2116" s="7"/>
+      <c r="B2116" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="C2116" s="5">
+        <v>20</v>
+      </c>
+      <c r="D2116" s="8"/>
+      <c r="E2116" s="36"/>
+      <c r="F2116" s="34"/>
+    </row>
+    <row r="2117" spans="1:6">
+      <c r="A2117" s="7"/>
+      <c r="B2117" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="C2117" s="5">
+        <v>20</v>
+      </c>
+      <c r="D2117" s="8"/>
+      <c r="E2117" s="36"/>
+      <c r="F2117" s="34"/>
+    </row>
+    <row r="2118" spans="1:6">
+      <c r="A2118" s="7"/>
+      <c r="B2118" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="C2118" s="5">
+        <v>10</v>
+      </c>
+      <c r="D2118" s="8"/>
+      <c r="E2118" s="36"/>
+      <c r="F2118" s="34"/>
+    </row>
+    <row r="2119" spans="1:6">
+      <c r="A2119" s="7"/>
+      <c r="B2119" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2119" s="5">
+        <v>300</v>
+      </c>
+      <c r="D2119" s="8"/>
+      <c r="E2119" s="36"/>
+      <c r="F2119" s="34"/>
+    </row>
+    <row r="2120" spans="1:6">
+      <c r="A2120" s="7"/>
+      <c r="B2120" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2120" s="5">
+        <v>550</v>
+      </c>
+      <c r="D2120" s="8"/>
+      <c r="E2120" s="36"/>
+      <c r="F2120" s="34"/>
+    </row>
+    <row r="2121" spans="1:6">
+      <c r="A2121" s="34"/>
+      <c r="B2121" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2121" s="7">
+        <f>SUM(C2111:C2120)</f>
+        <v>970</v>
+      </c>
+      <c r="D2121" s="34"/>
+      <c r="E2121" s="35">
+        <f>A2111-C2121</f>
+        <v>-19335</v>
+      </c>
+      <c r="F2121" s="34">
+        <f>E2121+F2110</f>
+        <v>-19280</v>
+      </c>
+    </row>
+    <row r="2124" spans="1:6" ht="18.75">
+      <c r="A2124" s="42" t="s">
+        <v>530</v>
+      </c>
+      <c r="B2124" s="43"/>
+      <c r="C2124" s="43"/>
+      <c r="D2124" s="43"/>
+      <c r="E2124" s="43"/>
+      <c r="F2124" s="44"/>
+    </row>
+    <row r="2125" spans="1:6">
+      <c r="A2125" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2125" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2125" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2125" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2125" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2125" s="34">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2126" spans="1:6">
+      <c r="A2126" s="7">
+        <f>E2121+D2126</f>
+        <v>-17335</v>
+      </c>
+      <c r="B2126" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2126" s="5">
+        <v>10</v>
+      </c>
+      <c r="D2126" s="8">
+        <v>2000</v>
+      </c>
+      <c r="E2126" s="36"/>
+      <c r="F2126" s="34"/>
+    </row>
+    <row r="2127" spans="1:6">
+      <c r="A2127" s="7"/>
+      <c r="B2127" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="C2127" s="5">
+        <v>20</v>
+      </c>
+      <c r="D2127" s="8"/>
+      <c r="E2127" s="36"/>
+      <c r="F2127" s="34"/>
+    </row>
+    <row r="2128" spans="1:6">
+      <c r="A2128" s="7"/>
+      <c r="B2128" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="C2128" s="5">
+        <v>20</v>
+      </c>
+      <c r="D2128" s="8"/>
+      <c r="E2128" s="36"/>
+      <c r="F2128" s="34"/>
+    </row>
+    <row r="2129" spans="1:6">
+      <c r="A2129" s="7"/>
+      <c r="B2129" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2129" s="5">
+        <v>10</v>
+      </c>
+      <c r="D2129" s="8"/>
+      <c r="E2129" s="36"/>
+      <c r="F2129" s="34"/>
+    </row>
+    <row r="2130" spans="1:6">
+      <c r="A2130" s="7"/>
+      <c r="B2130" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2130" s="5">
+        <v>10</v>
+      </c>
+      <c r="D2130" s="8"/>
+      <c r="E2130" s="36"/>
+      <c r="F2130" s="34"/>
+    </row>
+    <row r="2131" spans="1:6">
+      <c r="A2131" s="7"/>
+      <c r="B2131" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="C2131" s="5">
+        <v>20</v>
+      </c>
+      <c r="D2131" s="8"/>
+      <c r="E2131" s="36"/>
+      <c r="F2131" s="34"/>
+    </row>
+    <row r="2132" spans="1:6">
+      <c r="A2132" s="7"/>
+      <c r="B2132" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="C2132" s="5">
+        <v>20</v>
+      </c>
+      <c r="D2132" s="8"/>
+      <c r="E2132" s="36"/>
+      <c r="F2132" s="34"/>
+    </row>
+    <row r="2133" spans="1:6">
+      <c r="A2133" s="7"/>
+      <c r="B2133" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="C2133" s="5">
+        <v>10</v>
+      </c>
+      <c r="D2133" s="8"/>
+      <c r="E2133" s="36"/>
+      <c r="F2133" s="34"/>
+    </row>
+    <row r="2134" spans="1:6">
+      <c r="A2134" s="7"/>
+      <c r="B2134" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2134" s="5">
+        <v>300</v>
+      </c>
+      <c r="D2134" s="8"/>
+      <c r="E2134" s="36"/>
+      <c r="F2134" s="34"/>
+    </row>
+    <row r="2135" spans="1:6">
+      <c r="A2135" s="7"/>
+      <c r="B2135" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2135" s="5">
+        <v>550</v>
+      </c>
+      <c r="D2135" s="8"/>
+      <c r="E2135" s="36"/>
+      <c r="F2135" s="34"/>
+    </row>
+    <row r="2136" spans="1:6">
+      <c r="A2136" s="34"/>
+      <c r="B2136" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2136" s="7">
+        <f>SUM(C2126:C2135)</f>
+        <v>970</v>
+      </c>
+      <c r="D2136" s="34"/>
+      <c r="E2136" s="35">
+        <f>A2126-C2136</f>
+        <v>-18305</v>
+      </c>
+      <c r="F2136" s="34">
+        <f>E2136+F2125</f>
+        <v>-18250</v>
+      </c>
+    </row>
+    <row r="2139" spans="1:6" ht="18.75">
+      <c r="A2139" s="42" t="s">
+        <v>531</v>
+      </c>
+      <c r="B2139" s="43"/>
+      <c r="C2139" s="43"/>
+      <c r="D2139" s="43"/>
+      <c r="E2139" s="43"/>
+      <c r="F2139" s="44"/>
+    </row>
+    <row r="2140" spans="1:6">
+      <c r="A2140" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2140" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2140" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2140" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2140" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2140" s="34">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2141" spans="1:6">
+      <c r="A2141" s="7">
+        <f>E2136+D2141</f>
+        <v>-18305</v>
+      </c>
+      <c r="B2141" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2141" s="5">
+        <v>10</v>
+      </c>
+      <c r="D2141" s="8"/>
+      <c r="E2141" s="36"/>
+      <c r="F2141" s="34"/>
+    </row>
+    <row r="2142" spans="1:6">
+      <c r="A2142" s="7"/>
+      <c r="B2142" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="C2142" s="5">
+        <v>20</v>
+      </c>
+      <c r="D2142" s="8"/>
+      <c r="E2142" s="36"/>
+      <c r="F2142" s="34"/>
+    </row>
+    <row r="2143" spans="1:6">
+      <c r="A2143" s="7"/>
+      <c r="B2143" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="C2143" s="5">
+        <v>20</v>
+      </c>
+      <c r="D2143" s="8"/>
+      <c r="E2143" s="36"/>
+      <c r="F2143" s="34"/>
+    </row>
+    <row r="2144" spans="1:6">
+      <c r="A2144" s="7"/>
+      <c r="B2144" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2144" s="5">
+        <v>10</v>
+      </c>
+      <c r="D2144" s="8"/>
+      <c r="E2144" s="36"/>
+      <c r="F2144" s="34"/>
+    </row>
+    <row r="2145" spans="1:6">
+      <c r="A2145" s="7"/>
+      <c r="B2145" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2145" s="5">
+        <v>10</v>
+      </c>
+      <c r="D2145" s="8"/>
+      <c r="E2145" s="36"/>
+      <c r="F2145" s="34"/>
+    </row>
+    <row r="2146" spans="1:6">
+      <c r="A2146" s="7"/>
+      <c r="B2146" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="C2146" s="5">
+        <v>20</v>
+      </c>
+      <c r="D2146" s="8"/>
+      <c r="E2146" s="36"/>
+      <c r="F2146" s="34"/>
+    </row>
+    <row r="2147" spans="1:6">
+      <c r="A2147" s="7"/>
+      <c r="B2147" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="C2147" s="5">
+        <v>20</v>
+      </c>
+      <c r="D2147" s="8"/>
+      <c r="E2147" s="36"/>
+      <c r="F2147" s="34"/>
+    </row>
+    <row r="2148" spans="1:6">
+      <c r="A2148" s="7"/>
+      <c r="B2148" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="C2148" s="5">
+        <v>10</v>
+      </c>
+      <c r="D2148" s="8"/>
+      <c r="E2148" s="36"/>
+      <c r="F2148" s="34"/>
+    </row>
+    <row r="2149" spans="1:6">
+      <c r="A2149" s="7"/>
+      <c r="B2149" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2149" s="5">
+        <v>300</v>
+      </c>
+      <c r="D2149" s="8"/>
+      <c r="E2149" s="36"/>
+      <c r="F2149" s="34"/>
+    </row>
+    <row r="2150" spans="1:6">
+      <c r="A2150" s="7"/>
+      <c r="B2150" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2150" s="5">
+        <v>550</v>
+      </c>
+      <c r="D2150" s="8"/>
+      <c r="E2150" s="36"/>
+      <c r="F2150" s="34"/>
+    </row>
+    <row r="2151" spans="1:6">
+      <c r="A2151" s="34"/>
+      <c r="B2151" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2151" s="7">
+        <f>SUM(C2141:C2150)</f>
+        <v>970</v>
+      </c>
+      <c r="D2151" s="34"/>
+      <c r="E2151" s="35">
+        <f>A2141-C2151</f>
+        <v>-19275</v>
+      </c>
+      <c r="F2151" s="34">
+        <f>E2151+F2140</f>
+        <v>-19220</v>
+      </c>
+    </row>
+    <row r="2154" spans="1:6" ht="18.75">
+      <c r="A2154" s="42" t="s">
+        <v>532</v>
+      </c>
+      <c r="B2154" s="43"/>
+      <c r="C2154" s="43"/>
+      <c r="D2154" s="43"/>
+      <c r="E2154" s="43"/>
+      <c r="F2154" s="44"/>
+    </row>
+    <row r="2155" spans="1:6">
+      <c r="A2155" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2155" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2155" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2155" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2155" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2155" s="34">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2156" spans="1:6">
+      <c r="A2156" s="7">
+        <f>E2151+D2156</f>
+        <v>-17275</v>
+      </c>
+      <c r="B2156" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="C2156" s="5">
+        <v>150</v>
+      </c>
+      <c r="D2156" s="8">
+        <v>2000</v>
+      </c>
+      <c r="E2156" s="36"/>
+      <c r="F2156" s="34"/>
+    </row>
+    <row r="2157" spans="1:6">
+      <c r="A2157" s="7"/>
+      <c r="B2157" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="C2157" s="5">
+        <v>80</v>
+      </c>
+      <c r="D2157" s="8"/>
+      <c r="E2157" s="36"/>
+      <c r="F2157" s="34"/>
+    </row>
+    <row r="2158" spans="1:6">
+      <c r="A2158" s="7"/>
+      <c r="B2158" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="C2158" s="5">
+        <v>50</v>
+      </c>
+      <c r="D2158" s="8"/>
+      <c r="E2158" s="36"/>
+      <c r="F2158" s="34"/>
+    </row>
+    <row r="2159" spans="1:6">
+      <c r="A2159" s="7"/>
+      <c r="B2159" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="C2159" s="5">
+        <v>50</v>
+      </c>
+      <c r="D2159" s="8"/>
+      <c r="E2159" s="36"/>
+      <c r="F2159" s="34"/>
+    </row>
+    <row r="2160" spans="1:6">
+      <c r="A2160" s="7"/>
+      <c r="B2160" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="C2160" s="5">
+        <v>80</v>
+      </c>
+      <c r="D2160" s="8"/>
+      <c r="E2160" s="36"/>
+      <c r="F2160" s="34"/>
+    </row>
+    <row r="2161" spans="1:6">
+      <c r="A2161" s="7"/>
+      <c r="B2161" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="C2161" s="5">
+        <v>150</v>
+      </c>
+      <c r="D2161" s="8"/>
+      <c r="E2161" s="36"/>
+      <c r="F2161" s="34"/>
+    </row>
+    <row r="2162" spans="1:6">
+      <c r="A2162" s="7"/>
+      <c r="B2162" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2162" s="5">
+        <v>300</v>
+      </c>
+      <c r="D2162" s="8"/>
+      <c r="E2162" s="36"/>
+      <c r="F2162" s="34"/>
+    </row>
+    <row r="2163" spans="1:6">
+      <c r="A2163" s="7"/>
+      <c r="B2163" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2163" s="5">
+        <v>550</v>
+      </c>
+      <c r="D2163" s="8"/>
+      <c r="E2163" s="36"/>
+      <c r="F2163" s="34"/>
+    </row>
+    <row r="2164" spans="1:6">
+      <c r="A2164" s="34"/>
+      <c r="B2164" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2164" s="7">
+        <f>SUM(C2156:C2163)</f>
+        <v>1410</v>
+      </c>
+      <c r="D2164" s="34"/>
+      <c r="E2164" s="35">
+        <f>A2156-C2164</f>
+        <v>-18685</v>
+      </c>
+      <c r="F2164" s="34">
+        <f>E2164+F2155</f>
+        <v>-18630</v>
+      </c>
+    </row>
+    <row r="2167" spans="1:6" ht="18.75">
+      <c r="A2167" s="42" t="s">
+        <v>539</v>
+      </c>
+      <c r="B2167" s="43"/>
+      <c r="C2167" s="43"/>
+      <c r="D2167" s="43"/>
+      <c r="E2167" s="43"/>
+      <c r="F2167" s="44"/>
+    </row>
+    <row r="2168" spans="1:6">
+      <c r="A2168" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2168" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2168" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2168" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2168" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2168" s="34">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2169" spans="1:6">
+      <c r="A2169" s="7">
+        <f>E2164+D2169</f>
+        <v>-18685</v>
+      </c>
+      <c r="B2169" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2169" s="5">
+        <v>10</v>
+      </c>
+      <c r="D2169" s="8"/>
+      <c r="E2169" s="36"/>
+      <c r="F2169" s="34"/>
+    </row>
+    <row r="2170" spans="1:6">
+      <c r="A2170" s="7"/>
+      <c r="B2170" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="C2170" s="5">
+        <v>20</v>
+      </c>
+      <c r="D2170" s="8"/>
+      <c r="E2170" s="36"/>
+      <c r="F2170" s="34"/>
+    </row>
+    <row r="2171" spans="1:6">
+      <c r="A2171" s="7"/>
+      <c r="B2171" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="C2171" s="5">
+        <v>20</v>
+      </c>
+      <c r="D2171" s="8"/>
+      <c r="E2171" s="36"/>
+      <c r="F2171" s="34"/>
+    </row>
+    <row r="2172" spans="1:6">
+      <c r="A2172" s="7"/>
+      <c r="B2172" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2172" s="5">
+        <v>10</v>
+      </c>
+      <c r="D2172" s="8"/>
+      <c r="E2172" s="36"/>
+      <c r="F2172" s="34"/>
+    </row>
+    <row r="2173" spans="1:6">
+      <c r="A2173" s="7"/>
+      <c r="B2173" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2173" s="5">
+        <v>10</v>
+      </c>
+      <c r="D2173" s="8"/>
+      <c r="E2173" s="36"/>
+      <c r="F2173" s="34"/>
+    </row>
+    <row r="2174" spans="1:6">
+      <c r="A2174" s="7"/>
+      <c r="B2174" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="C2174" s="5">
+        <v>20</v>
+      </c>
+      <c r="D2174" s="8"/>
+      <c r="E2174" s="36"/>
+      <c r="F2174" s="34"/>
+    </row>
+    <row r="2175" spans="1:6">
+      <c r="A2175" s="7"/>
+      <c r="B2175" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="C2175" s="5">
+        <v>20</v>
+      </c>
+      <c r="D2175" s="8"/>
+      <c r="E2175" s="36"/>
+      <c r="F2175" s="34"/>
+    </row>
+    <row r="2176" spans="1:6">
+      <c r="A2176" s="7"/>
+      <c r="B2176" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="C2176" s="5">
+        <v>10</v>
+      </c>
+      <c r="D2176" s="8"/>
+      <c r="E2176" s="36"/>
+      <c r="F2176" s="34"/>
+    </row>
+    <row r="2177" spans="1:6">
+      <c r="A2177" s="7"/>
+      <c r="B2177" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2177" s="5">
+        <v>300</v>
+      </c>
+      <c r="D2177" s="8"/>
+      <c r="E2177" s="36"/>
+      <c r="F2177" s="34"/>
+    </row>
+    <row r="2178" spans="1:6">
+      <c r="A2178" s="7"/>
+      <c r="B2178" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2178" s="5">
+        <v>550</v>
+      </c>
+      <c r="D2178" s="8"/>
+      <c r="E2178" s="36"/>
+      <c r="F2178" s="34"/>
+    </row>
+    <row r="2179" spans="1:6">
+      <c r="A2179" s="34"/>
+      <c r="B2179" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2179" s="7">
+        <f>SUM(C2169:C2178)</f>
+        <v>970</v>
+      </c>
+      <c r="D2179" s="34"/>
+      <c r="E2179" s="35">
+        <f>A2169-C2179</f>
+        <v>-19655</v>
+      </c>
+      <c r="F2179" s="34">
+        <f>E2179+F2168</f>
+        <v>-19600</v>
+      </c>
+    </row>
+    <row r="2182" spans="1:6" ht="18.75">
+      <c r="A2182" s="42" t="s">
+        <v>540</v>
+      </c>
+      <c r="B2182" s="43"/>
+      <c r="C2182" s="43"/>
+      <c r="D2182" s="43"/>
+      <c r="E2182" s="43"/>
+      <c r="F2182" s="44"/>
+    </row>
+    <row r="2183" spans="1:6">
+      <c r="A2183" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2183" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2183" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2183" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2183" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2183" s="34">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2184" spans="1:6">
+      <c r="A2184" s="7">
+        <f>E2179+D2184</f>
+        <v>-19655</v>
+      </c>
+      <c r="B2184" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="C2184" s="5">
+        <v>350</v>
+      </c>
+      <c r="D2184" s="8"/>
+      <c r="E2184" s="36"/>
+      <c r="F2184" s="34"/>
+    </row>
+    <row r="2185" spans="1:6">
+      <c r="A2185" s="7"/>
+      <c r="B2185" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="C2185" s="5">
+        <v>100</v>
+      </c>
+      <c r="D2185" s="8"/>
+      <c r="E2185" s="36"/>
+      <c r="F2185" s="34"/>
+    </row>
+    <row r="2186" spans="1:6">
+      <c r="A2186" s="7"/>
+      <c r="B2186" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="C2186" s="5">
+        <v>20</v>
+      </c>
+      <c r="D2186" s="8"/>
+      <c r="E2186" s="36"/>
+      <c r="F2186" s="34"/>
+    </row>
+    <row r="2187" spans="1:6">
+      <c r="A2187" s="7"/>
+      <c r="B2187" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2187" s="5">
+        <v>300</v>
+      </c>
+      <c r="D2187" s="8"/>
+      <c r="E2187" s="36"/>
+      <c r="F2187" s="34"/>
+    </row>
+    <row r="2188" spans="1:6">
+      <c r="A2188" s="34"/>
+      <c r="B2188" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2188" s="7">
+        <f>SUM(C2184:C2187)</f>
+        <v>770</v>
+      </c>
+      <c r="D2188" s="34"/>
+      <c r="E2188" s="35">
+        <f>A2184-C2188</f>
+        <v>-20425</v>
+      </c>
+      <c r="F2188" s="34">
+        <f>E2188+F2183</f>
+        <v>-20370</v>
+      </c>
+    </row>
+    <row r="2191" spans="1:6" ht="18.75">
+      <c r="A2191" s="42" t="s">
+        <v>543</v>
+      </c>
+      <c r="B2191" s="43"/>
+      <c r="C2191" s="43"/>
+      <c r="D2191" s="43"/>
+      <c r="E2191" s="43"/>
+      <c r="F2191" s="44"/>
+    </row>
+    <row r="2192" spans="1:6">
+      <c r="A2192" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2192" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2192" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2192" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2192" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2192" s="34">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2193" spans="1:6">
+      <c r="A2193" s="7">
+        <f>E2188+D2193</f>
+        <v>-18425</v>
+      </c>
+      <c r="B2193" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="C2193" s="5">
+        <v>20</v>
+      </c>
+      <c r="D2193" s="8">
+        <v>2000</v>
+      </c>
+      <c r="E2193" s="36"/>
+      <c r="F2193" s="34"/>
+    </row>
+    <row r="2194" spans="1:6">
+      <c r="A2194" s="7"/>
+      <c r="B2194" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="C2194" s="5">
+        <v>30</v>
+      </c>
+      <c r="D2194" s="8"/>
+      <c r="E2194" s="36"/>
+      <c r="F2194" s="34"/>
+    </row>
+    <row r="2195" spans="1:6">
+      <c r="A2195" s="7"/>
+      <c r="B2195" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="C2195" s="5">
+        <v>150</v>
+      </c>
+      <c r="D2195" s="8"/>
+      <c r="E2195" s="36"/>
+      <c r="F2195" s="34"/>
+    </row>
+    <row r="2196" spans="1:6">
+      <c r="A2196" s="7"/>
+      <c r="B2196" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="C2196" s="5">
+        <v>50</v>
+      </c>
+      <c r="D2196" s="8"/>
+      <c r="E2196" s="36"/>
+      <c r="F2196" s="34"/>
+    </row>
+    <row r="2197" spans="1:6">
+      <c r="A2197" s="7"/>
+      <c r="B2197" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="C2197" s="5">
+        <v>50</v>
+      </c>
+      <c r="D2197" s="8"/>
+      <c r="E2197" s="36"/>
+      <c r="F2197" s="34"/>
+    </row>
+    <row r="2198" spans="1:6">
+      <c r="A2198" s="7"/>
+      <c r="B2198" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="C2198" s="5">
+        <v>150</v>
+      </c>
+      <c r="D2198" s="8"/>
+      <c r="E2198" s="36"/>
+      <c r="F2198" s="34"/>
+    </row>
+    <row r="2199" spans="1:6">
+      <c r="A2199" s="7"/>
+      <c r="B2199" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="C2199" s="5">
+        <v>30</v>
+      </c>
+      <c r="D2199" s="8"/>
+      <c r="E2199" s="36"/>
+      <c r="F2199" s="34"/>
+    </row>
+    <row r="2200" spans="1:6">
+      <c r="A2200" s="7"/>
+      <c r="B2200" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="C2200" s="5">
+        <v>20</v>
+      </c>
+      <c r="D2200" s="8"/>
+      <c r="E2200" s="36"/>
+      <c r="F2200" s="34"/>
+    </row>
+    <row r="2201" spans="1:6">
+      <c r="A2201" s="7"/>
+      <c r="B2201" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2201" s="5">
+        <v>300</v>
+      </c>
+      <c r="D2201" s="8"/>
+      <c r="E2201" s="36"/>
+      <c r="F2201" s="34"/>
+    </row>
+    <row r="2202" spans="1:6">
+      <c r="A2202" s="34"/>
+      <c r="B2202" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2202" s="7">
+        <f>SUM(C2193:C2201)</f>
+        <v>800</v>
+      </c>
+      <c r="D2202" s="34"/>
+      <c r="E2202" s="35">
+        <f>A2193-C2202</f>
+        <v>-19225</v>
+      </c>
+      <c r="F2202" s="34">
+        <f>E2202+F2192</f>
+        <v>-19170</v>
+      </c>
+    </row>
+    <row r="2205" spans="1:6" ht="18.75">
+      <c r="A2205" s="42" t="s">
+        <v>552</v>
+      </c>
+      <c r="B2205" s="43"/>
+      <c r="C2205" s="43"/>
+      <c r="D2205" s="43"/>
+      <c r="E2205" s="43"/>
+      <c r="F2205" s="44"/>
+    </row>
+    <row r="2206" spans="1:6">
+      <c r="A2206" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2206" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2206" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2206" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2206" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2206" s="34">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2207" spans="1:6">
+      <c r="A2207" s="7">
+        <f>E2202+D2207</f>
+        <v>-19225</v>
+      </c>
+      <c r="B2207" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="C2207" s="5">
+        <v>20</v>
+      </c>
+      <c r="D2207" s="8"/>
+      <c r="E2207" s="36"/>
+      <c r="F2207" s="34"/>
+    </row>
+    <row r="2208" spans="1:6">
+      <c r="A2208" s="7"/>
+      <c r="B2208" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="C2208" s="5">
+        <v>30</v>
+      </c>
+      <c r="D2208" s="8"/>
+      <c r="E2208" s="36"/>
+      <c r="F2208" s="34"/>
+    </row>
+    <row r="2209" spans="1:6">
+      <c r="A2209" s="7"/>
+      <c r="B2209" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="C2209" s="5">
+        <v>150</v>
+      </c>
+      <c r="D2209" s="8"/>
+      <c r="E2209" s="36"/>
+      <c r="F2209" s="34"/>
+    </row>
+    <row r="2210" spans="1:6">
+      <c r="A2210" s="7"/>
+      <c r="B2210" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="C2210" s="5">
+        <v>50</v>
+      </c>
+      <c r="D2210" s="8"/>
+      <c r="E2210" s="36"/>
+      <c r="F2210" s="34"/>
+    </row>
+    <row r="2211" spans="1:6">
+      <c r="A2211" s="7"/>
+      <c r="B2211" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="C2211" s="5">
+        <v>50</v>
+      </c>
+      <c r="D2211" s="8"/>
+      <c r="E2211" s="36"/>
+      <c r="F2211" s="34"/>
+    </row>
+    <row r="2212" spans="1:6">
+      <c r="A2212" s="7"/>
+      <c r="B2212" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="C2212" s="5">
+        <v>150</v>
+      </c>
+      <c r="D2212" s="8"/>
+      <c r="E2212" s="36"/>
+      <c r="F2212" s="34"/>
+    </row>
+    <row r="2213" spans="1:6">
+      <c r="A2213" s="7"/>
+      <c r="B2213" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="C2213" s="5">
+        <v>30</v>
+      </c>
+      <c r="D2213" s="8"/>
+      <c r="E2213" s="36"/>
+      <c r="F2213" s="34"/>
+    </row>
+    <row r="2214" spans="1:6">
+      <c r="A2214" s="7"/>
+      <c r="B2214" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="C2214" s="5">
+        <v>20</v>
+      </c>
+      <c r="D2214" s="8"/>
+      <c r="E2214" s="36"/>
+      <c r="F2214" s="34"/>
+    </row>
+    <row r="2215" spans="1:6">
+      <c r="A2215" s="7"/>
+      <c r="B2215" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2215" s="5">
+        <v>300</v>
+      </c>
+      <c r="D2215" s="8"/>
+      <c r="E2215" s="36"/>
+      <c r="F2215" s="34"/>
+    </row>
+    <row r="2216" spans="1:6">
+      <c r="A2216" s="7"/>
+      <c r="B2216" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="C2216" s="5">
+        <v>200</v>
+      </c>
+      <c r="D2216" s="8"/>
+      <c r="E2216" s="36"/>
+      <c r="F2216" s="34"/>
+    </row>
+    <row r="2217" spans="1:6">
+      <c r="A2217" s="34"/>
+      <c r="B2217" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2217" s="7">
+        <f>SUM(C2207:C2216)</f>
+        <v>1000</v>
+      </c>
+      <c r="D2217" s="34"/>
+      <c r="E2217" s="35">
+        <f>A2207-C2217</f>
+        <v>-20225</v>
+      </c>
+      <c r="F2217" s="34">
+        <f>E2217+F2206</f>
+        <v>-20170</v>
+      </c>
+    </row>
+    <row r="2220" spans="1:6" ht="18.75">
+      <c r="A2220" s="42" t="s">
+        <v>554</v>
+      </c>
+      <c r="B2220" s="43"/>
+      <c r="C2220" s="43"/>
+      <c r="D2220" s="43"/>
+      <c r="E2220" s="43"/>
+      <c r="F2220" s="44"/>
+    </row>
+    <row r="2221" spans="1:6">
+      <c r="A2221" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2221" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2221" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2221" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2221" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2221" s="34">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2222" spans="1:6">
+      <c r="A2222" s="7">
+        <f>E2217+D2222</f>
+        <v>-15225</v>
+      </c>
+      <c r="B2222" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="C2222" s="5">
+        <v>50</v>
+      </c>
+      <c r="D2222" s="8">
+        <v>5000</v>
+      </c>
+      <c r="E2222" s="36"/>
+      <c r="F2222" s="34"/>
+    </row>
+    <row r="2223" spans="1:6">
+      <c r="A2223" s="7"/>
+      <c r="B2223" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="C2223" s="5">
+        <v>50</v>
+      </c>
+      <c r="D2223" s="8"/>
+      <c r="E2223" s="36"/>
+      <c r="F2223" s="34"/>
+    </row>
+    <row r="2224" spans="1:6">
+      <c r="A2224" s="7"/>
+      <c r="B2224" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2224" s="5">
+        <v>350</v>
+      </c>
+      <c r="D2224" s="8"/>
+      <c r="E2224" s="36"/>
+      <c r="F2224" s="34"/>
+    </row>
+    <row r="2225" spans="1:6">
+      <c r="A2225" s="7"/>
+      <c r="B2225" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="C2225" s="5">
+        <v>1200</v>
+      </c>
+      <c r="D2225" s="8"/>
+      <c r="E2225" s="36"/>
+      <c r="F2225" s="34"/>
+    </row>
+    <row r="2226" spans="1:6">
+      <c r="A2226" s="7"/>
+      <c r="B2226" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2226" s="5">
+        <v>300</v>
+      </c>
+      <c r="D2226" s="8"/>
+      <c r="E2226" s="36"/>
+      <c r="F2226" s="34"/>
+    </row>
+    <row r="2227" spans="1:6">
+      <c r="A2227" s="7"/>
+      <c r="B2227" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="C2227" s="5">
+        <v>500</v>
+      </c>
+      <c r="D2227" s="8"/>
+      <c r="E2227" s="36"/>
+      <c r="F2227" s="34"/>
+    </row>
+    <row r="2228" spans="1:6">
+      <c r="A2228" s="7"/>
+      <c r="B2228" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="C2228" s="5">
+        <v>160</v>
+      </c>
+      <c r="D2228" s="8"/>
+      <c r="E2228" s="36"/>
+      <c r="F2228" s="34"/>
+    </row>
+    <row r="2229" spans="1:6">
+      <c r="A2229" s="34"/>
+      <c r="B2229" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2229" s="7">
+        <f>SUM(C2222:C2228)</f>
+        <v>2610</v>
+      </c>
+      <c r="D2229" s="34"/>
+      <c r="E2229" s="35">
+        <f>A2222-C2229</f>
+        <v>-17835</v>
+      </c>
+      <c r="F2229" s="34">
+        <f>E2229+F2221</f>
+        <v>-17780</v>
+      </c>
+    </row>
+    <row r="2232" spans="1:6" ht="18.75">
+      <c r="A2232" s="42" t="s">
+        <v>560</v>
+      </c>
+      <c r="B2232" s="43"/>
+      <c r="C2232" s="43"/>
+      <c r="D2232" s="43"/>
+      <c r="E2232" s="43"/>
+      <c r="F2232" s="44"/>
+    </row>
+    <row r="2233" spans="1:6">
+      <c r="A2233" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2233" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2233" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2233" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2233" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2233" s="34">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2234" spans="1:6">
+      <c r="A2234" s="7">
+        <f>E2229+D2234</f>
+        <v>-17835</v>
+      </c>
+      <c r="B2234" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="C2234" s="5">
+        <v>50</v>
+      </c>
+      <c r="D2234" s="8"/>
+      <c r="E2234" s="36"/>
+      <c r="F2234" s="34"/>
+    </row>
+    <row r="2235" spans="1:6">
+      <c r="A2235" s="7"/>
+      <c r="B2235" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="C2235" s="5">
+        <v>50</v>
+      </c>
+      <c r="D2235" s="8"/>
+      <c r="E2235" s="36"/>
+      <c r="F2235" s="34"/>
+    </row>
+    <row r="2236" spans="1:6">
+      <c r="A2236" s="7"/>
+      <c r="B2236" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2236" s="5">
+        <v>300</v>
+      </c>
+      <c r="D2236" s="8"/>
+      <c r="E2236" s="36"/>
+      <c r="F2236" s="34"/>
+    </row>
+    <row r="2237" spans="1:6">
+      <c r="A2237" s="34"/>
+      <c r="B2237" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2237" s="7">
+        <f>SUM(C2234:C2236)</f>
+        <v>400</v>
+      </c>
+      <c r="D2237" s="34"/>
+      <c r="E2237" s="35">
+        <f>A2234-C2237</f>
+        <v>-18235</v>
+      </c>
+      <c r="F2237" s="34">
+        <f>E2237+F2233</f>
+        <v>-18180</v>
+      </c>
+    </row>
+    <row r="2240" spans="1:6" ht="18.75">
+      <c r="A2240" s="42" t="s">
+        <v>561</v>
+      </c>
+      <c r="B2240" s="43"/>
+      <c r="C2240" s="43"/>
+      <c r="D2240" s="43"/>
+      <c r="E2240" s="43"/>
+      <c r="F2240" s="44"/>
+    </row>
+    <row r="2241" spans="1:6">
+      <c r="A2241" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2241" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2241" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2241" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2241" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2241" s="34">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2242" spans="1:6">
+      <c r="A2242" s="7">
+        <f>E2237+D2242</f>
+        <v>-18235</v>
+      </c>
+      <c r="B2242" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="C2242" s="5">
+        <v>50</v>
+      </c>
+      <c r="D2242" s="8"/>
+      <c r="E2242" s="36"/>
+      <c r="F2242" s="34"/>
+    </row>
+    <row r="2243" spans="1:6">
+      <c r="A2243" s="7"/>
+      <c r="B2243" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="C2243" s="5">
+        <v>60</v>
+      </c>
+      <c r="D2243" s="8"/>
+      <c r="E2243" s="36"/>
+      <c r="F2243" s="34"/>
+    </row>
+    <row r="2244" spans="1:6">
+      <c r="A2244" s="7"/>
+      <c r="B2244" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2244" s="5">
+        <v>300</v>
+      </c>
+      <c r="D2244" s="8"/>
+      <c r="E2244" s="36"/>
+      <c r="F2244" s="34"/>
+    </row>
+    <row r="2245" spans="1:6">
+      <c r="A2245" s="34"/>
+      <c r="B2245" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2245" s="7">
+        <f>SUM(C2242:C2244)</f>
+        <v>410</v>
+      </c>
+      <c r="D2245" s="34"/>
+      <c r="E2245" s="35">
+        <f>A2242-C2245</f>
+        <v>-18645</v>
+      </c>
+      <c r="F2245" s="34">
+        <f>E2245+F2241</f>
+        <v>-18590</v>
+      </c>
+    </row>
+    <row r="2248" spans="1:6" ht="18.75">
+      <c r="A2248" s="42" t="s">
+        <v>562</v>
+      </c>
+      <c r="B2248" s="43"/>
+      <c r="C2248" s="43"/>
+      <c r="D2248" s="43"/>
+      <c r="E2248" s="43"/>
+      <c r="F2248" s="44"/>
+    </row>
+    <row r="2249" spans="1:6">
+      <c r="A2249" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2249" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2249" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2249" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2249" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2249" s="34">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2250" spans="1:6">
+      <c r="A2250" s="7">
+        <f>E2245+D2250</f>
+        <v>-15645</v>
+      </c>
+      <c r="B2250" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="C2250" s="5">
+        <v>60</v>
+      </c>
+      <c r="D2250" s="8">
+        <v>3000</v>
+      </c>
+      <c r="E2250" s="36"/>
+      <c r="F2250" s="34"/>
+    </row>
+    <row r="2251" spans="1:6">
+      <c r="A2251" s="7"/>
+      <c r="B2251" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="C2251" s="5">
+        <v>60</v>
+      </c>
+      <c r="D2251" s="8"/>
+      <c r="E2251" s="36"/>
+      <c r="F2251" s="34"/>
+    </row>
+    <row r="2252" spans="1:6">
+      <c r="A2252" s="7"/>
+      <c r="B2252" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2252" s="5">
+        <v>300</v>
+      </c>
+      <c r="D2252" s="8"/>
+      <c r="E2252" s="36"/>
+      <c r="F2252" s="34"/>
+    </row>
+    <row r="2253" spans="1:6">
+      <c r="A2253" s="7"/>
+      <c r="B2253" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="C2253" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D2253" s="8"/>
+      <c r="E2253" s="36"/>
+      <c r="F2253" s="34"/>
+    </row>
+    <row r="2254" spans="1:6">
+      <c r="A2254" s="34"/>
+      <c r="B2254" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2254" s="7">
+        <f>SUM(C2250:C2253)</f>
+        <v>3420</v>
+      </c>
+      <c r="D2254" s="34"/>
+      <c r="E2254" s="35">
+        <f>A2250-C2254</f>
+        <v>-19065</v>
+      </c>
+      <c r="F2254" s="34">
+        <f>E2254+F2249</f>
+        <v>-19010</v>
+      </c>
+    </row>
+    <row r="2257" spans="1:6" ht="18.75">
+      <c r="A2257" s="42" t="s">
+        <v>564</v>
+      </c>
+      <c r="B2257" s="43"/>
+      <c r="C2257" s="43"/>
+      <c r="D2257" s="43"/>
+      <c r="E2257" s="43"/>
+      <c r="F2257" s="44"/>
+    </row>
+    <row r="2258" spans="1:6">
+      <c r="A2258" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2258" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2258" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2258" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2258" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2258" s="34">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2259" spans="1:6">
+      <c r="A2259" s="7">
+        <f>E2254+D2259</f>
+        <v>-19065</v>
+      </c>
+      <c r="B2259" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="C2259" s="5">
+        <v>60</v>
+      </c>
+      <c r="D2259" s="8"/>
+      <c r="E2259" s="36"/>
+      <c r="F2259" s="34"/>
+    </row>
+    <row r="2260" spans="1:6">
+      <c r="A2260" s="7"/>
+      <c r="B2260" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="C2260" s="5">
+        <v>60</v>
+      </c>
+      <c r="D2260" s="8"/>
+      <c r="E2260" s="36"/>
+      <c r="F2260" s="34"/>
+    </row>
+    <row r="2261" spans="1:6">
+      <c r="A2261" s="7"/>
+      <c r="B2261" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2261" s="5">
+        <v>300</v>
+      </c>
+      <c r="D2261" s="8"/>
+      <c r="E2261" s="36"/>
+      <c r="F2261" s="34"/>
+    </row>
+    <row r="2262" spans="1:6">
+      <c r="A2262" s="34"/>
+      <c r="B2262" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2262" s="7">
+        <f>SUM(C2259:C2261)</f>
+        <v>420</v>
+      </c>
+      <c r="D2262" s="34"/>
+      <c r="E2262" s="35">
+        <f>A2259-C2262</f>
+        <v>-19485</v>
+      </c>
+      <c r="F2262" s="34">
+        <f>E2262+F2258</f>
+        <v>-19430</v>
+      </c>
+    </row>
+    <row r="2265" spans="1:6" ht="18.75">
+      <c r="A2265" s="42" t="s">
+        <v>565</v>
+      </c>
+      <c r="B2265" s="43"/>
+      <c r="C2265" s="43"/>
+      <c r="D2265" s="43"/>
+      <c r="E2265" s="43"/>
+      <c r="F2265" s="44"/>
+    </row>
+    <row r="2266" spans="1:6">
+      <c r="A2266" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2266" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2266" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2266" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2266" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2266" s="34">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2267" spans="1:6">
+      <c r="A2267" s="7">
+        <f>E2262+D2267</f>
+        <v>-17485</v>
+      </c>
+      <c r="B2267" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="C2267" s="5">
+        <v>50</v>
+      </c>
+      <c r="D2267" s="8">
+        <v>2000</v>
+      </c>
+      <c r="E2267" s="36"/>
+      <c r="F2267" s="34"/>
+    </row>
+    <row r="2268" spans="1:6">
+      <c r="A2268" s="7"/>
+      <c r="B2268" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="C2268" s="5">
+        <v>50</v>
+      </c>
+      <c r="D2268" s="8"/>
+      <c r="E2268" s="36"/>
+      <c r="F2268" s="34"/>
+    </row>
+    <row r="2269" spans="1:6">
+      <c r="A2269" s="7"/>
+      <c r="B2269" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2269" s="5">
+        <v>300</v>
+      </c>
+      <c r="D2269" s="8"/>
+      <c r="E2269" s="36"/>
+      <c r="F2269" s="34"/>
+    </row>
+    <row r="2270" spans="1:6">
+      <c r="A2270" s="34"/>
+      <c r="B2270" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2270" s="7">
+        <f>SUM(C2267:C2269)</f>
+        <v>400</v>
+      </c>
+      <c r="D2270" s="34"/>
+      <c r="E2270" s="35">
+        <f>A2267-C2270</f>
+        <v>-17885</v>
+      </c>
+      <c r="F2270" s="34">
+        <f>E2270+F2266</f>
+        <v>-17830</v>
+      </c>
+    </row>
+    <row r="2273" spans="1:6" ht="18.75">
+      <c r="A2273" s="42" t="s">
+        <v>566</v>
+      </c>
+      <c r="B2273" s="43"/>
+      <c r="C2273" s="43"/>
+      <c r="D2273" s="43"/>
+      <c r="E2273" s="43"/>
+      <c r="F2273" s="44"/>
+    </row>
+    <row r="2274" spans="1:6">
+      <c r="A2274" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2274" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2274" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2274" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2274" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2274" s="34">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2275" spans="1:6">
+      <c r="A2275" s="7">
+        <f>E2270+D2275</f>
+        <v>-17885</v>
+      </c>
+      <c r="B2275" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="C2275" s="5">
+        <v>50</v>
+      </c>
+      <c r="D2275" s="8"/>
+      <c r="E2275" s="36"/>
+      <c r="F2275" s="34"/>
+    </row>
+    <row r="2276" spans="1:6">
+      <c r="A2276" s="7"/>
+      <c r="B2276" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="C2276" s="5">
+        <v>50</v>
+      </c>
+      <c r="D2276" s="8"/>
+      <c r="E2276" s="36"/>
+      <c r="F2276" s="34"/>
+    </row>
+    <row r="2277" spans="1:6">
+      <c r="A2277" s="7"/>
+      <c r="B2277" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2277" s="5">
+        <v>300</v>
+      </c>
+      <c r="D2277" s="8"/>
+      <c r="E2277" s="36"/>
+      <c r="F2277" s="34"/>
+    </row>
+    <row r="2278" spans="1:6">
+      <c r="A2278" s="7"/>
+      <c r="B2278" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="C2278" s="5">
+        <v>200</v>
+      </c>
+      <c r="D2278" s="8"/>
+      <c r="E2278" s="36"/>
+      <c r="F2278" s="34"/>
+    </row>
+    <row r="2279" spans="1:6">
+      <c r="A2279" s="34"/>
+      <c r="B2279" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2279" s="7">
+        <f>SUM(C2275:C2278)</f>
+        <v>600</v>
+      </c>
+      <c r="D2279" s="34"/>
+      <c r="E2279" s="35">
+        <f>A2275-C2279</f>
+        <v>-18485</v>
+      </c>
+      <c r="F2279" s="34">
+        <f>E2279+F2274</f>
+        <v>-18430</v>
+      </c>
+    </row>
+    <row r="2282" spans="1:6" ht="18.75">
+      <c r="A2282" s="42" t="s">
+        <v>568</v>
+      </c>
+      <c r="B2282" s="43"/>
+      <c r="C2282" s="43"/>
+      <c r="D2282" s="43"/>
+      <c r="E2282" s="43"/>
+      <c r="F2282" s="44"/>
+    </row>
+    <row r="2283" spans="1:6">
+      <c r="A2283" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2283" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2283" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2283" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2283" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2283" s="34">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2284" spans="1:6">
+      <c r="A2284" s="7">
+        <f>E2279+D2284</f>
+        <v>-18485</v>
+      </c>
+      <c r="B2284" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="C2284" s="5">
+        <v>50</v>
+      </c>
+      <c r="D2284" s="8"/>
+      <c r="E2284" s="36"/>
+      <c r="F2284" s="34"/>
+    </row>
+    <row r="2285" spans="1:6">
+      <c r="A2285" s="7"/>
+      <c r="B2285" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="C2285" s="5">
+        <v>50</v>
+      </c>
+      <c r="D2285" s="8"/>
+      <c r="E2285" s="36"/>
+      <c r="F2285" s="34"/>
+    </row>
+    <row r="2286" spans="1:6">
+      <c r="A2286" s="7"/>
+      <c r="B2286" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2286" s="5">
+        <v>300</v>
+      </c>
+      <c r="D2286" s="8"/>
+      <c r="E2286" s="36"/>
+      <c r="F2286" s="34"/>
+    </row>
+    <row r="2287" spans="1:6">
+      <c r="A2287" s="34"/>
+      <c r="B2287" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2287" s="7">
+        <f>SUM(C2284:C2286)</f>
+        <v>400</v>
+      </c>
+      <c r="D2287" s="34"/>
+      <c r="E2287" s="35">
+        <f>A2284-C2287</f>
+        <v>-18885</v>
+      </c>
+      <c r="F2287" s="34">
+        <f>E2287+F2283</f>
+        <v>-18830</v>
+      </c>
+    </row>
+    <row r="2290" spans="1:6" ht="18.75">
+      <c r="A2290" s="42" t="s">
+        <v>569</v>
+      </c>
+      <c r="B2290" s="43"/>
+      <c r="C2290" s="43"/>
+      <c r="D2290" s="43"/>
+      <c r="E2290" s="43"/>
+      <c r="F2290" s="44"/>
+    </row>
+    <row r="2291" spans="1:6">
+      <c r="A2291" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2291" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2291" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2291" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2291" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2291" s="34">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2292" spans="1:6">
+      <c r="A2292" s="7">
+        <f>E2287+D2292</f>
+        <v>-18885</v>
+      </c>
+      <c r="B2292" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="C2292" s="5">
+        <v>60</v>
+      </c>
+      <c r="D2292" s="8"/>
+      <c r="E2292" s="36"/>
+      <c r="F2292" s="34"/>
+    </row>
+    <row r="2293" spans="1:6">
+      <c r="A2293" s="7"/>
+      <c r="B2293" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="C2293" s="5">
+        <v>60</v>
+      </c>
+      <c r="D2293" s="8"/>
+      <c r="E2293" s="36"/>
+      <c r="F2293" s="34"/>
+    </row>
+    <row r="2294" spans="1:6">
+      <c r="A2294" s="7"/>
+      <c r="B2294" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2294" s="5">
+        <v>300</v>
+      </c>
+      <c r="D2294" s="8"/>
+      <c r="E2294" s="36"/>
+      <c r="F2294" s="34"/>
+    </row>
+    <row r="2295" spans="1:6">
+      <c r="A2295" s="34"/>
+      <c r="B2295" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2295" s="7">
+        <f>SUM(C2292:C2294)</f>
+        <v>420</v>
+      </c>
+      <c r="D2295" s="34"/>
+      <c r="E2295" s="35">
+        <f>A2292-C2295</f>
+        <v>-19305</v>
+      </c>
+      <c r="F2295" s="34">
+        <f>E2295+F2291</f>
+        <v>-19250</v>
+      </c>
+    </row>
+    <row r="2298" spans="1:6" ht="18.75">
+      <c r="A2298" s="42" t="s">
+        <v>570</v>
+      </c>
+      <c r="B2298" s="43"/>
+      <c r="C2298" s="43"/>
+      <c r="D2298" s="43"/>
+      <c r="E2298" s="43"/>
+      <c r="F2298" s="44"/>
+    </row>
+    <row r="2299" spans="1:6">
+      <c r="A2299" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2299" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2299" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2299" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2299" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2299" s="34">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2300" spans="1:6">
+      <c r="A2300" s="7">
+        <f>E2295+D2300</f>
+        <v>-19305</v>
+      </c>
+      <c r="B2300" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="C2300" s="5">
+        <v>40</v>
+      </c>
+      <c r="D2300" s="8"/>
+      <c r="E2300" s="36"/>
+      <c r="F2300" s="34"/>
+    </row>
+    <row r="2301" spans="1:6">
+      <c r="A2301" s="7"/>
+      <c r="B2301" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="C2301" s="5">
+        <v>40</v>
+      </c>
+      <c r="D2301" s="8"/>
+      <c r="E2301" s="36"/>
+      <c r="F2301" s="34"/>
+    </row>
+    <row r="2302" spans="1:6">
+      <c r="A2302" s="7"/>
+      <c r="B2302" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2302" s="5">
+        <v>300</v>
+      </c>
+      <c r="D2302" s="8"/>
+      <c r="E2302" s="36"/>
+      <c r="F2302" s="34"/>
+    </row>
+    <row r="2303" spans="1:6">
+      <c r="A2303" s="34"/>
+      <c r="B2303" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2303" s="7">
+        <f>SUM(C2300:C2302)</f>
+        <v>380</v>
+      </c>
+      <c r="D2303" s="34"/>
+      <c r="E2303" s="35">
+        <f>A2300-C2303</f>
+        <v>-19685</v>
+      </c>
+      <c r="F2303" s="34">
+        <f>E2303+F2299</f>
+        <v>-19630</v>
+      </c>
+    </row>
+    <row r="2306" spans="1:6" ht="18.75">
+      <c r="A2306" s="42" t="s">
+        <v>571</v>
+      </c>
+      <c r="B2306" s="43"/>
+      <c r="C2306" s="43"/>
+      <c r="D2306" s="43"/>
+      <c r="E2306" s="43"/>
+      <c r="F2306" s="44"/>
+    </row>
+    <row r="2307" spans="1:6">
+      <c r="A2307" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2307" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2307" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2307" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2307" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2307" s="34">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2308" spans="1:6">
+      <c r="A2308" s="7">
+        <f>E2303+D2308</f>
+        <v>-17685</v>
+      </c>
+      <c r="B2308" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="C2308" s="5">
+        <v>40</v>
+      </c>
+      <c r="D2308" s="8">
+        <v>2000</v>
+      </c>
+      <c r="E2308" s="36" t="s">
+        <v>572</v>
+      </c>
+      <c r="F2308" s="34"/>
+    </row>
+    <row r="2309" spans="1:6">
+      <c r="A2309" s="7"/>
+      <c r="B2309" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="C2309" s="5">
+        <v>40</v>
+      </c>
+      <c r="D2309" s="8"/>
+      <c r="E2309" s="36"/>
+      <c r="F2309" s="34"/>
+    </row>
+    <row r="2310" spans="1:6">
+      <c r="A2310" s="7"/>
+      <c r="B2310" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2310" s="5">
+        <v>300</v>
+      </c>
+      <c r="D2310" s="8"/>
+      <c r="E2310" s="36"/>
+      <c r="F2310" s="34"/>
+    </row>
+    <row r="2311" spans="1:6">
+      <c r="A2311" s="34"/>
+      <c r="B2311" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2311" s="7">
+        <f>SUM(C2308:C2310)</f>
+        <v>380</v>
+      </c>
+      <c r="D2311" s="34"/>
+      <c r="E2311" s="35">
+        <f>A2308-C2311</f>
+        <v>-18065</v>
+      </c>
+      <c r="F2311" s="34">
+        <f>E2311+F2307</f>
+        <v>-18010</v>
+      </c>
+    </row>
+    <row r="2314" spans="1:6" ht="18.75">
+      <c r="A2314" s="42" t="s">
+        <v>573</v>
+      </c>
+      <c r="B2314" s="43"/>
+      <c r="C2314" s="43"/>
+      <c r="D2314" s="43"/>
+      <c r="E2314" s="43"/>
+      <c r="F2314" s="44"/>
+    </row>
+    <row r="2315" spans="1:6">
+      <c r="A2315" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2315" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2315" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2315" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2315" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2315" s="34">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2316" spans="1:6">
+      <c r="A2316" s="7">
+        <f>E2311+D2316</f>
+        <v>-18065</v>
+      </c>
+      <c r="B2316" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="C2316" s="5">
+        <v>30</v>
+      </c>
+      <c r="D2316" s="8"/>
+      <c r="E2316" s="36"/>
+      <c r="F2316" s="34"/>
+    </row>
+    <row r="2317" spans="1:6">
+      <c r="A2317" s="7"/>
+      <c r="B2317" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="C2317" s="5">
+        <v>30</v>
+      </c>
+      <c r="D2317" s="8"/>
+      <c r="E2317" s="36"/>
+      <c r="F2317" s="34"/>
+    </row>
+    <row r="2318" spans="1:6">
+      <c r="A2318" s="7"/>
+      <c r="B2318" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2318" s="5">
+        <v>300</v>
+      </c>
+      <c r="D2318" s="8"/>
+      <c r="E2318" s="36"/>
+      <c r="F2318" s="34"/>
+    </row>
+    <row r="2319" spans="1:6">
+      <c r="A2319" s="34"/>
+      <c r="B2319" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2319" s="7">
+        <f>SUM(C2316:C2318)</f>
+        <v>360</v>
+      </c>
+      <c r="D2319" s="34"/>
+      <c r="E2319" s="35">
+        <f>A2316-C2319</f>
+        <v>-18425</v>
+      </c>
+      <c r="F2319" s="34">
+        <f>E2319+F2315</f>
+        <v>-18370</v>
+      </c>
+    </row>
+    <row r="2322" spans="1:6" ht="18.75">
+      <c r="A2322" s="42" t="s">
+        <v>574</v>
+      </c>
+      <c r="B2322" s="43"/>
+      <c r="C2322" s="43"/>
+      <c r="D2322" s="43"/>
+      <c r="E2322" s="43"/>
+      <c r="F2322" s="44"/>
+    </row>
+    <row r="2323" spans="1:6">
+      <c r="A2323" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2323" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2323" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2323" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2323" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2323" s="34">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2324" spans="1:6">
+      <c r="A2324" s="7">
+        <f>E2319+D2324</f>
+        <v>-18425</v>
+      </c>
+      <c r="B2324" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="C2324" s="5">
+        <v>40</v>
+      </c>
+      <c r="D2324" s="8"/>
+      <c r="E2324" s="36"/>
+      <c r="F2324" s="34"/>
+    </row>
+    <row r="2325" spans="1:6">
+      <c r="A2325" s="7"/>
+      <c r="B2325" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="C2325" s="5">
+        <v>40</v>
+      </c>
+      <c r="D2325" s="8"/>
+      <c r="E2325" s="36"/>
+      <c r="F2325" s="34"/>
+    </row>
+    <row r="2326" spans="1:6">
+      <c r="A2326" s="7"/>
+      <c r="B2326" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2326" s="5">
+        <v>300</v>
+      </c>
+      <c r="D2326" s="8"/>
+      <c r="E2326" s="36"/>
+      <c r="F2326" s="34"/>
+    </row>
+    <row r="2327" spans="1:6">
+      <c r="A2327" s="34"/>
+      <c r="B2327" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2327" s="7">
+        <f>SUM(C2324:C2326)</f>
+        <v>380</v>
+      </c>
+      <c r="D2327" s="34"/>
+      <c r="E2327" s="35">
+        <f>A2324-C2327</f>
+        <v>-18805</v>
+      </c>
+      <c r="F2327" s="34">
+        <f>E2327+F2323</f>
+        <v>-18750</v>
+      </c>
+    </row>
+    <row r="2330" spans="1:6" ht="18.75">
+      <c r="A2330" s="42" t="s">
+        <v>575</v>
+      </c>
+      <c r="B2330" s="43"/>
+      <c r="C2330" s="43"/>
+      <c r="D2330" s="43"/>
+      <c r="E2330" s="43"/>
+      <c r="F2330" s="44"/>
+    </row>
+    <row r="2331" spans="1:6">
+      <c r="A2331" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2331" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2331" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2331" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2331" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2331" s="34">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2332" spans="1:6">
+      <c r="A2332" s="7">
+        <f>E2327+D2332</f>
+        <v>-18805</v>
+      </c>
+      <c r="B2332" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="C2332" s="5">
+        <v>40</v>
+      </c>
+      <c r="D2332" s="8"/>
+      <c r="E2332" s="36"/>
+      <c r="F2332" s="34"/>
+    </row>
+    <row r="2333" spans="1:6">
+      <c r="A2333" s="7"/>
+      <c r="B2333" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="C2333" s="5">
+        <v>40</v>
+      </c>
+      <c r="D2333" s="8"/>
+      <c r="E2333" s="36"/>
+      <c r="F2333" s="34"/>
+    </row>
+    <row r="2334" spans="1:6">
+      <c r="A2334" s="7"/>
+      <c r="B2334" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2334" s="5">
+        <v>300</v>
+      </c>
+      <c r="D2334" s="8"/>
+      <c r="E2334" s="36"/>
+      <c r="F2334" s="34"/>
+    </row>
+    <row r="2335" spans="1:6">
+      <c r="A2335" s="34"/>
+      <c r="B2335" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2335" s="7">
+        <f>SUM(C2332:C2334)</f>
+        <v>380</v>
+      </c>
+      <c r="D2335" s="34"/>
+      <c r="E2335" s="35">
+        <f>A2332-C2335</f>
+        <v>-19185</v>
+      </c>
+      <c r="F2335" s="34">
+        <f>E2335+F2331</f>
+        <v>-19130</v>
+      </c>
+    </row>
+    <row r="2338" spans="1:6" ht="18.75">
+      <c r="A2338" s="42" t="s">
+        <v>576</v>
+      </c>
+      <c r="B2338" s="43"/>
+      <c r="C2338" s="43"/>
+      <c r="D2338" s="43"/>
+      <c r="E2338" s="43"/>
+      <c r="F2338" s="44"/>
+    </row>
+    <row r="2339" spans="1:6">
+      <c r="A2339" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2339" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2339" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2339" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2339" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2339" s="34">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2340" spans="1:6">
+      <c r="A2340" s="7">
+        <f>E2335+D2340</f>
+        <v>-19185</v>
+      </c>
+      <c r="B2340" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="C2340" s="5">
+        <v>40</v>
+      </c>
+      <c r="D2340" s="8"/>
+      <c r="E2340" s="36"/>
+      <c r="F2340" s="34"/>
+    </row>
+    <row r="2341" spans="1:6">
+      <c r="A2341" s="7"/>
+      <c r="B2341" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="C2341" s="5">
+        <v>40</v>
+      </c>
+      <c r="D2341" s="8"/>
+      <c r="E2341" s="36"/>
+      <c r="F2341" s="34"/>
+    </row>
+    <row r="2342" spans="1:6">
+      <c r="A2342" s="7"/>
+      <c r="B2342" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2342" s="5">
+        <v>300</v>
+      </c>
+      <c r="D2342" s="8"/>
+      <c r="E2342" s="36"/>
+      <c r="F2342" s="34"/>
+    </row>
+    <row r="2343" spans="1:6">
+      <c r="A2343" s="34"/>
+      <c r="B2343" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2343" s="7">
+        <f>SUM(C2340:C2342)</f>
+        <v>380</v>
+      </c>
+      <c r="D2343" s="34"/>
+      <c r="E2343" s="35">
+        <f>A2340-C2343</f>
+        <v>-19565</v>
+      </c>
+      <c r="F2343" s="34">
+        <f>E2343+F2339</f>
+        <v>-19510</v>
+      </c>
+    </row>
+    <row r="2346" spans="1:6" ht="18.75">
+      <c r="A2346" s="42" t="s">
+        <v>577</v>
+      </c>
+      <c r="B2346" s="43"/>
+      <c r="C2346" s="43"/>
+      <c r="D2346" s="43"/>
+      <c r="E2346" s="43"/>
+      <c r="F2346" s="44"/>
+    </row>
+    <row r="2347" spans="1:6">
+      <c r="A2347" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2347" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2347" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2347" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2347" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2347" s="34">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2348" spans="1:6">
+      <c r="A2348" s="7">
+        <f>E2343+D2348</f>
+        <v>-19565</v>
+      </c>
+      <c r="B2348" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="C2348" s="5">
+        <v>40</v>
+      </c>
+      <c r="D2348" s="8"/>
+      <c r="E2348" s="36"/>
+      <c r="F2348" s="34"/>
+    </row>
+    <row r="2349" spans="1:6">
+      <c r="A2349" s="7"/>
+      <c r="B2349" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="C2349" s="5">
+        <v>40</v>
+      </c>
+      <c r="D2349" s="8"/>
+      <c r="E2349" s="36"/>
+      <c r="F2349" s="34"/>
+    </row>
+    <row r="2350" spans="1:6">
+      <c r="A2350" s="7"/>
+      <c r="B2350" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2350" s="5">
+        <v>300</v>
+      </c>
+      <c r="D2350" s="8"/>
+      <c r="E2350" s="36"/>
+      <c r="F2350" s="34"/>
+    </row>
+    <row r="2351" spans="1:6">
+      <c r="A2351" s="34"/>
+      <c r="B2351" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2351" s="7">
+        <f>SUM(C2348:C2350)</f>
+        <v>380</v>
+      </c>
+      <c r="D2351" s="34"/>
+      <c r="E2351" s="35">
+        <f>A2348-C2351</f>
+        <v>-19945</v>
+      </c>
+      <c r="F2351" s="34">
+        <f>E2351+F2347</f>
+        <v>-19890</v>
+      </c>
+    </row>
+    <row r="2354" spans="1:6" ht="18.75">
+      <c r="A2354" s="42" t="s">
+        <v>578</v>
+      </c>
+      <c r="B2354" s="43"/>
+      <c r="C2354" s="43"/>
+      <c r="D2354" s="43"/>
+      <c r="E2354" s="43"/>
+      <c r="F2354" s="44"/>
+    </row>
+    <row r="2355" spans="1:6">
+      <c r="A2355" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2355" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2355" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2355" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2355" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2355" s="34">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2356" spans="1:6">
+      <c r="A2356" s="7">
+        <f>E2351+D2356</f>
+        <v>-19945</v>
+      </c>
+      <c r="B2356" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="C2356" s="5">
+        <v>40</v>
+      </c>
+      <c r="D2356" s="8"/>
+      <c r="E2356" s="36"/>
+      <c r="F2356" s="34"/>
+    </row>
+    <row r="2357" spans="1:6">
+      <c r="A2357" s="7"/>
+      <c r="B2357" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="C2357" s="5">
+        <v>40</v>
+      </c>
+      <c r="D2357" s="8"/>
+      <c r="E2357" s="36"/>
+      <c r="F2357" s="34"/>
+    </row>
+    <row r="2358" spans="1:6">
+      <c r="A2358" s="7"/>
+      <c r="B2358" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2358" s="5">
+        <v>300</v>
+      </c>
+      <c r="D2358" s="8"/>
+      <c r="E2358" s="36"/>
+      <c r="F2358" s="34"/>
+    </row>
+    <row r="2359" spans="1:6">
+      <c r="A2359" s="34"/>
+      <c r="B2359" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2359" s="7">
+        <f>SUM(C2356:C2358)</f>
+        <v>380</v>
+      </c>
+      <c r="D2359" s="34"/>
+      <c r="E2359" s="35">
+        <f>A2356-C2359</f>
+        <v>-20325</v>
+      </c>
+      <c r="F2359" s="34">
+        <f>E2359+F2355</f>
+        <v>-20270</v>
+      </c>
+    </row>
+    <row r="2362" spans="1:6" ht="18.75">
+      <c r="A2362" s="42" t="s">
+        <v>579</v>
+      </c>
+      <c r="B2362" s="43"/>
+      <c r="C2362" s="43"/>
+      <c r="D2362" s="43"/>
+      <c r="E2362" s="43"/>
+      <c r="F2362" s="44"/>
+    </row>
+    <row r="2363" spans="1:6">
+      <c r="A2363" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2363" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2363" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2363" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2363" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2363" s="34">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2364" spans="1:6">
+      <c r="A2364" s="7">
+        <f>E2359+D2364</f>
+        <v>-20325</v>
+      </c>
+      <c r="B2364" s="5"/>
+      <c r="C2364" s="5"/>
+      <c r="D2364" s="8"/>
+      <c r="E2364" s="36"/>
+      <c r="F2364" s="34"/>
+    </row>
+    <row r="2365" spans="1:6">
+      <c r="A2365" s="7"/>
+      <c r="B2365" s="5"/>
+      <c r="C2365" s="5"/>
+      <c r="D2365" s="8"/>
+      <c r="E2365" s="36"/>
+      <c r="F2365" s="34"/>
+    </row>
+    <row r="2366" spans="1:6">
+      <c r="A2366" s="7"/>
+      <c r="B2366" s="5"/>
+      <c r="C2366" s="5"/>
+      <c r="D2366" s="8"/>
+      <c r="E2366" s="36"/>
+      <c r="F2366" s="34"/>
+    </row>
+    <row r="2367" spans="1:6">
+      <c r="A2367" s="34"/>
+      <c r="B2367" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2367" s="7">
+        <f>SUM(C2364:C2366)</f>
+        <v>0</v>
+      </c>
+      <c r="D2367" s="34"/>
+      <c r="E2367" s="35">
+        <f>A2364-C2367</f>
+        <v>-20325</v>
+      </c>
+      <c r="F2367" s="34">
+        <f>E2367+F2363</f>
+        <v>-20270</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="173">
-    <mergeCell ref="A1746:F1746"/>
-    <mergeCell ref="A1755:F1755"/>
-    <mergeCell ref="A1765:F1765"/>
-    <mergeCell ref="A1775:F1775"/>
-    <mergeCell ref="A1784:F1784"/>
-    <mergeCell ref="A1793:F1793"/>
-    <mergeCell ref="A1804:F1804"/>
-    <mergeCell ref="A1819:F1819"/>
-    <mergeCell ref="A1835:F1835"/>
+  <mergeCells count="217">
+    <mergeCell ref="A2306:F2306"/>
+    <mergeCell ref="A2314:F2314"/>
+    <mergeCell ref="A2322:F2322"/>
+    <mergeCell ref="A2330:F2330"/>
+    <mergeCell ref="A2338:F2338"/>
+    <mergeCell ref="A2346:F2346"/>
+    <mergeCell ref="A2354:F2354"/>
+    <mergeCell ref="A2362:F2362"/>
+    <mergeCell ref="A2191:F2191"/>
+    <mergeCell ref="A2205:F2205"/>
+    <mergeCell ref="A2220:F2220"/>
+    <mergeCell ref="A2232:F2232"/>
+    <mergeCell ref="A1923:F1923"/>
+    <mergeCell ref="A1938:F1938"/>
+    <mergeCell ref="A1953:F1953"/>
+    <mergeCell ref="A1968:F1968"/>
+    <mergeCell ref="A1983:F1983"/>
+    <mergeCell ref="A2094:F2094"/>
+    <mergeCell ref="A2109:F2109"/>
+    <mergeCell ref="A2124:F2124"/>
+    <mergeCell ref="A2139:F2139"/>
+    <mergeCell ref="A2154:F2154"/>
+    <mergeCell ref="A2167:F2167"/>
+    <mergeCell ref="A2182:F2182"/>
     <mergeCell ref="A1578:F1578"/>
     <mergeCell ref="A1587:F1587"/>
     <mergeCell ref="A1596:F1596"/>
     <mergeCell ref="A1606:F1606"/>
     <mergeCell ref="A1616:F1616"/>
     <mergeCell ref="A1625:F1625"/>
-    <mergeCell ref="A1158:E1158"/>
+    <mergeCell ref="A1736:F1736"/>
+    <mergeCell ref="A1699:F1699"/>
+    <mergeCell ref="A1705:F1705"/>
+    <mergeCell ref="A1634:F1634"/>
+    <mergeCell ref="A1645:F1645"/>
+    <mergeCell ref="A1657:F1657"/>
+    <mergeCell ref="A1663:F1663"/>
+    <mergeCell ref="A1669:F1669"/>
+    <mergeCell ref="A1675:F1675"/>
+    <mergeCell ref="A1681:F1681"/>
+    <mergeCell ref="A1687:F1687"/>
+    <mergeCell ref="A1693:F1693"/>
+    <mergeCell ref="A1715:F1715"/>
+    <mergeCell ref="A1726:F1726"/>
     <mergeCell ref="A1231:E1231"/>
     <mergeCell ref="A1240:E1240"/>
     <mergeCell ref="A1249:E1249"/>
@@ -21824,6 +28037,7 @@
     <mergeCell ref="A1202:E1202"/>
     <mergeCell ref="A1211:E1211"/>
     <mergeCell ref="A1220:E1220"/>
+    <mergeCell ref="A1158:E1158"/>
     <mergeCell ref="A952:E952"/>
     <mergeCell ref="A964:E964"/>
     <mergeCell ref="A992:E992"/>
@@ -21924,8 +28138,7 @@
     <mergeCell ref="A877:E877"/>
     <mergeCell ref="A1135:E1135"/>
     <mergeCell ref="A1148:E1148"/>
-    <mergeCell ref="A1514:F1514"/>
-    <mergeCell ref="A1523:F1523"/>
+    <mergeCell ref="A1908:F1908"/>
     <mergeCell ref="A1532:F1532"/>
     <mergeCell ref="A1541:F1541"/>
     <mergeCell ref="A1550:F1550"/>
@@ -21943,20 +28156,36 @@
     <mergeCell ref="A1482:F1482"/>
     <mergeCell ref="A1491:F1491"/>
     <mergeCell ref="A1504:F1504"/>
-    <mergeCell ref="A1736:F1736"/>
-    <mergeCell ref="A1699:F1699"/>
-    <mergeCell ref="A1705:F1705"/>
-    <mergeCell ref="A1634:F1634"/>
-    <mergeCell ref="A1645:F1645"/>
-    <mergeCell ref="A1657:F1657"/>
-    <mergeCell ref="A1663:F1663"/>
-    <mergeCell ref="A1669:F1669"/>
-    <mergeCell ref="A1675:F1675"/>
-    <mergeCell ref="A1681:F1681"/>
-    <mergeCell ref="A1687:F1687"/>
-    <mergeCell ref="A1693:F1693"/>
-    <mergeCell ref="A1715:F1715"/>
-    <mergeCell ref="A1726:F1726"/>
+    <mergeCell ref="A1514:F1514"/>
+    <mergeCell ref="A1523:F1523"/>
+    <mergeCell ref="A1848:F1848"/>
+    <mergeCell ref="A1863:F1863"/>
+    <mergeCell ref="A1878:F1878"/>
+    <mergeCell ref="A1893:F1893"/>
+    <mergeCell ref="A2240:F2240"/>
+    <mergeCell ref="A2248:F2248"/>
+    <mergeCell ref="A2257:F2257"/>
+    <mergeCell ref="A2265:F2265"/>
+    <mergeCell ref="A2273:F2273"/>
+    <mergeCell ref="A2282:F2282"/>
+    <mergeCell ref="A2290:F2290"/>
+    <mergeCell ref="A2298:F2298"/>
+    <mergeCell ref="A1746:F1746"/>
+    <mergeCell ref="A1755:F1755"/>
+    <mergeCell ref="A1765:F1765"/>
+    <mergeCell ref="A1775:F1775"/>
+    <mergeCell ref="A1784:F1784"/>
+    <mergeCell ref="A1793:F1793"/>
+    <mergeCell ref="A2048:F2048"/>
+    <mergeCell ref="A2064:F2064"/>
+    <mergeCell ref="A2079:F2079"/>
+    <mergeCell ref="A1999:F1999"/>
+    <mergeCell ref="A2009:F2009"/>
+    <mergeCell ref="A2024:F2024"/>
+    <mergeCell ref="A2034:F2034"/>
+    <mergeCell ref="A1804:F1804"/>
+    <mergeCell ref="A1819:F1819"/>
+    <mergeCell ref="A1835:F1835"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/SANDEEP STAFF.xlsx
+++ b/SANDEEP STAFF.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2948" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3001" uniqueCount="590">
   <si>
     <t xml:space="preserve">opening balance </t>
   </si>
@@ -1755,6 +1755,36 @@
   </si>
   <si>
     <t>10.10.24</t>
+  </si>
+  <si>
+    <t>11.10.24</t>
+  </si>
+  <si>
+    <t>ROOM TO TANDA CHORAHA</t>
+  </si>
+  <si>
+    <t>TANDA CHORAHA TO MORADABAD</t>
+  </si>
+  <si>
+    <t>MORADABAD TO MEERUT BUS STAND</t>
+  </si>
+  <si>
+    <t>ROOM EXP.</t>
+  </si>
+  <si>
+    <t>12.10.24</t>
+  </si>
+  <si>
+    <t>SAKET TO MEERUT BUS STAND</t>
+  </si>
+  <si>
+    <t>13.10.24</t>
+  </si>
+  <si>
+    <t>MEERUT BUS STAND TO SAKET</t>
+  </si>
+  <si>
+    <t>14.10.24</t>
   </si>
 </sst>
 </file>
@@ -2667,10 +2697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2367"/>
+  <dimension ref="A1:F2417"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2348" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B2371" sqref="B2371"/>
+    <sheetView tabSelected="1" topLeftCell="A2395" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B2409" sqref="B2409"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27924,26 +27954,40 @@
     <row r="2364" spans="1:6">
       <c r="A2364" s="7">
         <f>E2359+D2364</f>
-        <v>-20325</v>
-      </c>
-      <c r="B2364" s="5"/>
-      <c r="C2364" s="5"/>
-      <c r="D2364" s="8"/>
+        <v>-16325</v>
+      </c>
+      <c r="B2364" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="C2364" s="5">
+        <v>40</v>
+      </c>
+      <c r="D2364" s="8">
+        <v>4000</v>
+      </c>
       <c r="E2364" s="36"/>
       <c r="F2364" s="34"/>
     </row>
     <row r="2365" spans="1:6">
       <c r="A2365" s="7"/>
-      <c r="B2365" s="5"/>
-      <c r="C2365" s="5"/>
+      <c r="B2365" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="C2365" s="5">
+        <v>40</v>
+      </c>
       <c r="D2365" s="8"/>
       <c r="E2365" s="36"/>
       <c r="F2365" s="34"/>
     </row>
     <row r="2366" spans="1:6">
       <c r="A2366" s="7"/>
-      <c r="B2366" s="5"/>
-      <c r="C2366" s="5"/>
+      <c r="B2366" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2366" s="5">
+        <v>300</v>
+      </c>
       <c r="D2366" s="8"/>
       <c r="E2366" s="36"/>
       <c r="F2366" s="34"/>
@@ -27955,89 +27999,680 @@
       </c>
       <c r="C2367" s="7">
         <f>SUM(C2364:C2366)</f>
-        <v>0</v>
+        <v>380</v>
       </c>
       <c r="D2367" s="34"/>
       <c r="E2367" s="35">
         <f>A2364-C2367</f>
-        <v>-20325</v>
+        <v>-16705</v>
       </c>
       <c r="F2367" s="34">
         <f>E2367+F2363</f>
-        <v>-20270</v>
+        <v>-16650</v>
+      </c>
+    </row>
+    <row r="2370" spans="1:6" ht="18.75">
+      <c r="A2370" s="42" t="s">
+        <v>580</v>
+      </c>
+      <c r="B2370" s="43"/>
+      <c r="C2370" s="43"/>
+      <c r="D2370" s="43"/>
+      <c r="E2370" s="43"/>
+      <c r="F2370" s="44"/>
+    </row>
+    <row r="2371" spans="1:6">
+      <c r="A2371" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2371" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2371" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2371" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2371" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2371" s="34">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2372" spans="1:6">
+      <c r="A2372" s="7">
+        <f>E2367+D2372</f>
+        <v>-16705</v>
+      </c>
+      <c r="B2372" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="C2372" s="5">
+        <v>20</v>
+      </c>
+      <c r="D2372" s="8"/>
+      <c r="E2372" s="36"/>
+      <c r="F2372" s="34"/>
+    </row>
+    <row r="2373" spans="1:6">
+      <c r="A2373" s="7"/>
+      <c r="B2373" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="C2373" s="5">
+        <v>100</v>
+      </c>
+      <c r="D2373" s="8"/>
+      <c r="E2373" s="36"/>
+      <c r="F2373" s="34"/>
+    </row>
+    <row r="2374" spans="1:6">
+      <c r="A2374" s="7"/>
+      <c r="B2374" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="C2374" s="5">
+        <v>350</v>
+      </c>
+      <c r="D2374" s="8"/>
+      <c r="E2374" s="36"/>
+      <c r="F2374" s="34"/>
+    </row>
+    <row r="2375" spans="1:6">
+      <c r="A2375" s="7"/>
+      <c r="B2375" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="C2375" s="5">
+        <v>550</v>
+      </c>
+      <c r="D2375" s="8"/>
+      <c r="E2375" s="36"/>
+      <c r="F2375" s="34"/>
+    </row>
+    <row r="2376" spans="1:6">
+      <c r="A2376" s="7"/>
+      <c r="B2376" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2376" s="5">
+        <v>300</v>
+      </c>
+      <c r="D2376" s="8"/>
+      <c r="E2376" s="36"/>
+      <c r="F2376" s="34"/>
+    </row>
+    <row r="2377" spans="1:6">
+      <c r="A2377" s="34"/>
+      <c r="B2377" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2377" s="7">
+        <f>SUM(C2372:C2376)</f>
+        <v>1320</v>
+      </c>
+      <c r="D2377" s="34"/>
+      <c r="E2377" s="35">
+        <f>A2372-C2377</f>
+        <v>-18025</v>
+      </c>
+      <c r="F2377" s="34">
+        <f>E2377+F2371</f>
+        <v>-17970</v>
+      </c>
+    </row>
+    <row r="2380" spans="1:6" ht="18.75">
+      <c r="A2380" s="42" t="s">
+        <v>585</v>
+      </c>
+      <c r="B2380" s="43"/>
+      <c r="C2380" s="43"/>
+      <c r="D2380" s="43"/>
+      <c r="E2380" s="43"/>
+      <c r="F2380" s="44"/>
+    </row>
+    <row r="2381" spans="1:6">
+      <c r="A2381" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2381" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2381" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2381" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2381" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2381" s="34">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2382" spans="1:6">
+      <c r="A2382" s="7">
+        <f>E2377+D2382</f>
+        <v>-18025</v>
+      </c>
+      <c r="B2382" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2382" s="5">
+        <v>10</v>
+      </c>
+      <c r="D2382" s="8"/>
+      <c r="E2382" s="36"/>
+      <c r="F2382" s="34"/>
+    </row>
+    <row r="2383" spans="1:6">
+      <c r="A2383" s="7"/>
+      <c r="B2383" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="C2383" s="5">
+        <v>20</v>
+      </c>
+      <c r="D2383" s="8"/>
+      <c r="E2383" s="36"/>
+      <c r="F2383" s="34"/>
+    </row>
+    <row r="2384" spans="1:6">
+      <c r="A2384" s="7"/>
+      <c r="B2384" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="C2384" s="5">
+        <v>20</v>
+      </c>
+      <c r="D2384" s="8"/>
+      <c r="E2384" s="36"/>
+      <c r="F2384" s="34"/>
+    </row>
+    <row r="2385" spans="1:6">
+      <c r="A2385" s="7"/>
+      <c r="B2385" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2385" s="5">
+        <v>10</v>
+      </c>
+      <c r="D2385" s="8"/>
+      <c r="E2385" s="36"/>
+      <c r="F2385" s="34"/>
+    </row>
+    <row r="2386" spans="1:6">
+      <c r="A2386" s="7"/>
+      <c r="B2386" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2386" s="5">
+        <v>10</v>
+      </c>
+      <c r="D2386" s="8"/>
+      <c r="E2386" s="36"/>
+      <c r="F2386" s="34"/>
+    </row>
+    <row r="2387" spans="1:6">
+      <c r="A2387" s="7"/>
+      <c r="B2387" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="C2387" s="5">
+        <v>20</v>
+      </c>
+      <c r="D2387" s="8"/>
+      <c r="E2387" s="36"/>
+      <c r="F2387" s="34"/>
+    </row>
+    <row r="2388" spans="1:6">
+      <c r="A2388" s="7"/>
+      <c r="B2388" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="C2388" s="5">
+        <v>30</v>
+      </c>
+      <c r="D2388" s="8"/>
+      <c r="E2388" s="36"/>
+      <c r="F2388" s="34"/>
+    </row>
+    <row r="2389" spans="1:6">
+      <c r="A2389" s="7"/>
+      <c r="B2389" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="C2389" s="5">
+        <v>550</v>
+      </c>
+      <c r="D2389" s="8"/>
+      <c r="E2389" s="36"/>
+      <c r="F2389" s="34"/>
+    </row>
+    <row r="2390" spans="1:6">
+      <c r="A2390" s="7"/>
+      <c r="B2390" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2390" s="5">
+        <v>300</v>
+      </c>
+      <c r="D2390" s="8"/>
+      <c r="E2390" s="36"/>
+      <c r="F2390" s="34"/>
+    </row>
+    <row r="2391" spans="1:6">
+      <c r="A2391" s="34"/>
+      <c r="B2391" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2391" s="7">
+        <f>SUM(C2382:C2390)</f>
+        <v>970</v>
+      </c>
+      <c r="D2391" s="34"/>
+      <c r="E2391" s="35">
+        <f>A2382-C2391</f>
+        <v>-18995</v>
+      </c>
+      <c r="F2391" s="34">
+        <f>E2391+F2381</f>
+        <v>-18940</v>
+      </c>
+    </row>
+    <row r="2394" spans="1:6" ht="18.75">
+      <c r="A2394" s="42" t="s">
+        <v>587</v>
+      </c>
+      <c r="B2394" s="43"/>
+      <c r="C2394" s="43"/>
+      <c r="D2394" s="43"/>
+      <c r="E2394" s="43"/>
+      <c r="F2394" s="44"/>
+    </row>
+    <row r="2395" spans="1:6">
+      <c r="A2395" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2395" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2395" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2395" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2395" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2395" s="34">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2396" spans="1:6">
+      <c r="A2396" s="7">
+        <f>E2391+D2396</f>
+        <v>-18995</v>
+      </c>
+      <c r="B2396" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="C2396" s="5">
+        <v>30</v>
+      </c>
+      <c r="D2396" s="8"/>
+      <c r="E2396" s="36"/>
+      <c r="F2396" s="34"/>
+    </row>
+    <row r="2397" spans="1:6">
+      <c r="A2397" s="7"/>
+      <c r="B2397" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="C2397" s="5">
+        <v>20</v>
+      </c>
+      <c r="D2397" s="8"/>
+      <c r="E2397" s="36"/>
+      <c r="F2397" s="34"/>
+    </row>
+    <row r="2398" spans="1:6">
+      <c r="A2398" s="7"/>
+      <c r="B2398" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2398" s="5">
+        <v>10</v>
+      </c>
+      <c r="D2398" s="8"/>
+      <c r="E2398" s="36"/>
+      <c r="F2398" s="34"/>
+    </row>
+    <row r="2399" spans="1:6">
+      <c r="A2399" s="7"/>
+      <c r="B2399" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2399" s="5">
+        <v>10</v>
+      </c>
+      <c r="D2399" s="8"/>
+      <c r="E2399" s="36"/>
+      <c r="F2399" s="34"/>
+    </row>
+    <row r="2400" spans="1:6">
+      <c r="A2400" s="7"/>
+      <c r="B2400" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="C2400" s="5">
+        <v>20</v>
+      </c>
+      <c r="D2400" s="8"/>
+      <c r="E2400" s="36"/>
+      <c r="F2400" s="34"/>
+    </row>
+    <row r="2401" spans="1:6">
+      <c r="A2401" s="7"/>
+      <c r="B2401" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="C2401" s="5">
+        <v>30</v>
+      </c>
+      <c r="D2401" s="8"/>
+      <c r="E2401" s="36"/>
+      <c r="F2401" s="34"/>
+    </row>
+    <row r="2402" spans="1:6">
+      <c r="A2402" s="7"/>
+      <c r="B2402" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="C2402" s="5">
+        <v>550</v>
+      </c>
+      <c r="D2402" s="8"/>
+      <c r="E2402" s="36"/>
+      <c r="F2402" s="34"/>
+    </row>
+    <row r="2403" spans="1:6">
+      <c r="A2403" s="7"/>
+      <c r="B2403" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2403" s="5">
+        <v>300</v>
+      </c>
+      <c r="D2403" s="8"/>
+      <c r="E2403" s="36"/>
+      <c r="F2403" s="34"/>
+    </row>
+    <row r="2404" spans="1:6">
+      <c r="A2404" s="34"/>
+      <c r="B2404" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2404" s="7">
+        <f>SUM(C2396:C2403)</f>
+        <v>970</v>
+      </c>
+      <c r="D2404" s="34"/>
+      <c r="E2404" s="35">
+        <f>A2396-C2404</f>
+        <v>-19965</v>
+      </c>
+      <c r="F2404" s="34">
+        <f>E2404+F2395</f>
+        <v>-19910</v>
+      </c>
+    </row>
+    <row r="2407" spans="1:6" ht="18.75">
+      <c r="A2407" s="42" t="s">
+        <v>589</v>
+      </c>
+      <c r="B2407" s="43"/>
+      <c r="C2407" s="43"/>
+      <c r="D2407" s="43"/>
+      <c r="E2407" s="43"/>
+      <c r="F2407" s="44"/>
+    </row>
+    <row r="2408" spans="1:6">
+      <c r="A2408" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2408" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2408" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2408" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2408" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2408" s="34">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2409" spans="1:6">
+      <c r="A2409" s="7">
+        <f>E2404+D2409</f>
+        <v>-19965</v>
+      </c>
+      <c r="B2409" s="5"/>
+      <c r="C2409" s="5"/>
+      <c r="D2409" s="8"/>
+      <c r="E2409" s="36"/>
+      <c r="F2409" s="34"/>
+    </row>
+    <row r="2410" spans="1:6">
+      <c r="A2410" s="7"/>
+      <c r="B2410" s="5"/>
+      <c r="C2410" s="5"/>
+      <c r="D2410" s="8"/>
+      <c r="E2410" s="36"/>
+      <c r="F2410" s="34"/>
+    </row>
+    <row r="2411" spans="1:6">
+      <c r="A2411" s="7"/>
+      <c r="B2411" s="5"/>
+      <c r="C2411" s="5"/>
+      <c r="D2411" s="8"/>
+      <c r="E2411" s="36"/>
+      <c r="F2411" s="34"/>
+    </row>
+    <row r="2412" spans="1:6">
+      <c r="A2412" s="7"/>
+      <c r="B2412" s="5"/>
+      <c r="C2412" s="5"/>
+      <c r="D2412" s="8"/>
+      <c r="E2412" s="36"/>
+      <c r="F2412" s="34"/>
+    </row>
+    <row r="2413" spans="1:6">
+      <c r="A2413" s="7"/>
+      <c r="B2413" s="5"/>
+      <c r="C2413" s="5"/>
+      <c r="D2413" s="8"/>
+      <c r="E2413" s="36"/>
+      <c r="F2413" s="34"/>
+    </row>
+    <row r="2414" spans="1:6">
+      <c r="A2414" s="7"/>
+      <c r="B2414" s="5"/>
+      <c r="C2414" s="5"/>
+      <c r="D2414" s="8"/>
+      <c r="E2414" s="36"/>
+      <c r="F2414" s="34"/>
+    </row>
+    <row r="2415" spans="1:6">
+      <c r="A2415" s="7"/>
+      <c r="B2415" s="5"/>
+      <c r="C2415" s="5"/>
+      <c r="D2415" s="8"/>
+      <c r="E2415" s="36"/>
+      <c r="F2415" s="34"/>
+    </row>
+    <row r="2416" spans="1:6">
+      <c r="A2416" s="7"/>
+      <c r="B2416" s="5"/>
+      <c r="C2416" s="5"/>
+      <c r="D2416" s="8"/>
+      <c r="E2416" s="36"/>
+      <c r="F2416" s="34"/>
+    </row>
+    <row r="2417" spans="1:6">
+      <c r="A2417" s="34"/>
+      <c r="B2417" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2417" s="7">
+        <f>SUM(C2409:C2416)</f>
+        <v>0</v>
+      </c>
+      <c r="D2417" s="34"/>
+      <c r="E2417" s="35">
+        <f>A2409-C2417</f>
+        <v>-19965</v>
+      </c>
+      <c r="F2417" s="34">
+        <f>E2417+F2408</f>
+        <v>-19910</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="217">
-    <mergeCell ref="A2306:F2306"/>
-    <mergeCell ref="A2314:F2314"/>
-    <mergeCell ref="A2322:F2322"/>
-    <mergeCell ref="A2330:F2330"/>
-    <mergeCell ref="A2338:F2338"/>
-    <mergeCell ref="A2346:F2346"/>
-    <mergeCell ref="A2354:F2354"/>
-    <mergeCell ref="A2362:F2362"/>
-    <mergeCell ref="A2191:F2191"/>
-    <mergeCell ref="A2205:F2205"/>
-    <mergeCell ref="A2220:F2220"/>
-    <mergeCell ref="A2232:F2232"/>
-    <mergeCell ref="A1923:F1923"/>
-    <mergeCell ref="A1938:F1938"/>
-    <mergeCell ref="A1953:F1953"/>
-    <mergeCell ref="A1968:F1968"/>
-    <mergeCell ref="A1983:F1983"/>
-    <mergeCell ref="A2094:F2094"/>
-    <mergeCell ref="A2109:F2109"/>
-    <mergeCell ref="A2124:F2124"/>
-    <mergeCell ref="A2139:F2139"/>
-    <mergeCell ref="A2154:F2154"/>
-    <mergeCell ref="A2167:F2167"/>
-    <mergeCell ref="A2182:F2182"/>
-    <mergeCell ref="A1578:F1578"/>
-    <mergeCell ref="A1587:F1587"/>
-    <mergeCell ref="A1596:F1596"/>
-    <mergeCell ref="A1606:F1606"/>
-    <mergeCell ref="A1616:F1616"/>
-    <mergeCell ref="A1625:F1625"/>
-    <mergeCell ref="A1736:F1736"/>
-    <mergeCell ref="A1699:F1699"/>
-    <mergeCell ref="A1705:F1705"/>
-    <mergeCell ref="A1634:F1634"/>
-    <mergeCell ref="A1645:F1645"/>
-    <mergeCell ref="A1657:F1657"/>
-    <mergeCell ref="A1663:F1663"/>
-    <mergeCell ref="A1669:F1669"/>
-    <mergeCell ref="A1675:F1675"/>
-    <mergeCell ref="A1681:F1681"/>
-    <mergeCell ref="A1687:F1687"/>
-    <mergeCell ref="A1693:F1693"/>
-    <mergeCell ref="A1715:F1715"/>
-    <mergeCell ref="A1726:F1726"/>
-    <mergeCell ref="A1231:E1231"/>
-    <mergeCell ref="A1240:E1240"/>
-    <mergeCell ref="A1249:E1249"/>
-    <mergeCell ref="A1375:F1375"/>
-    <mergeCell ref="A1386:F1386"/>
-    <mergeCell ref="A1352:F1352"/>
-    <mergeCell ref="A1363:F1363"/>
-    <mergeCell ref="A1262:F1262"/>
-    <mergeCell ref="A1275:F1275"/>
-    <mergeCell ref="A1289:F1289"/>
-    <mergeCell ref="A1301:F1301"/>
-    <mergeCell ref="A1309:F1309"/>
-    <mergeCell ref="A1315:F1315"/>
-    <mergeCell ref="A1329:F1329"/>
-    <mergeCell ref="A1341:F1341"/>
-    <mergeCell ref="A1089:E1089"/>
-    <mergeCell ref="A1098:E1098"/>
-    <mergeCell ref="A1108:E1108"/>
-    <mergeCell ref="A1117:E1117"/>
-    <mergeCell ref="A1126:E1126"/>
-    <mergeCell ref="A1193:E1193"/>
-    <mergeCell ref="A1202:E1202"/>
-    <mergeCell ref="A1211:E1211"/>
-    <mergeCell ref="A1220:E1220"/>
-    <mergeCell ref="A1158:E1158"/>
+  <mergeCells count="221">
+    <mergeCell ref="A2370:F2370"/>
+    <mergeCell ref="A2380:F2380"/>
+    <mergeCell ref="A2394:F2394"/>
+    <mergeCell ref="A2407:F2407"/>
+    <mergeCell ref="A1746:F1746"/>
+    <mergeCell ref="A1755:F1755"/>
+    <mergeCell ref="A1765:F1765"/>
+    <mergeCell ref="A1775:F1775"/>
+    <mergeCell ref="A1784:F1784"/>
+    <mergeCell ref="A1793:F1793"/>
+    <mergeCell ref="A2048:F2048"/>
+    <mergeCell ref="A2064:F2064"/>
+    <mergeCell ref="A2079:F2079"/>
+    <mergeCell ref="A1999:F1999"/>
+    <mergeCell ref="A2009:F2009"/>
+    <mergeCell ref="A2024:F2024"/>
+    <mergeCell ref="A2034:F2034"/>
+    <mergeCell ref="A1804:F1804"/>
+    <mergeCell ref="A1819:F1819"/>
+    <mergeCell ref="A1835:F1835"/>
+    <mergeCell ref="A1848:F1848"/>
+    <mergeCell ref="A1863:F1863"/>
+    <mergeCell ref="A1878:F1878"/>
+    <mergeCell ref="A1893:F1893"/>
+    <mergeCell ref="A2240:F2240"/>
+    <mergeCell ref="A2248:F2248"/>
+    <mergeCell ref="A2257:F2257"/>
+    <mergeCell ref="A2265:F2265"/>
+    <mergeCell ref="A2273:F2273"/>
+    <mergeCell ref="A1532:F1532"/>
+    <mergeCell ref="A1541:F1541"/>
+    <mergeCell ref="A1550:F1550"/>
+    <mergeCell ref="A1559:F1559"/>
+    <mergeCell ref="A1569:F1569"/>
+    <mergeCell ref="A1399:F1399"/>
+    <mergeCell ref="A1409:F1409"/>
+    <mergeCell ref="A1418:F1418"/>
+    <mergeCell ref="A1427:F1427"/>
+    <mergeCell ref="A1436:F1436"/>
+    <mergeCell ref="A1445:F1445"/>
+    <mergeCell ref="A1454:F1454"/>
+    <mergeCell ref="A1463:F1463"/>
+    <mergeCell ref="A1472:F1472"/>
+    <mergeCell ref="A1482:F1482"/>
+    <mergeCell ref="A1491:F1491"/>
+    <mergeCell ref="A1504:F1504"/>
+    <mergeCell ref="A1514:F1514"/>
+    <mergeCell ref="A1523:F1523"/>
+    <mergeCell ref="A887:E887"/>
+    <mergeCell ref="A894:E894"/>
+    <mergeCell ref="A794:E794"/>
+    <mergeCell ref="A803:E803"/>
+    <mergeCell ref="A812:E812"/>
+    <mergeCell ref="A606:E606"/>
+    <mergeCell ref="A624:E624"/>
+    <mergeCell ref="A1168:E1168"/>
+    <mergeCell ref="A1183:E1183"/>
+    <mergeCell ref="A1001:E1001"/>
+    <mergeCell ref="A1011:E1011"/>
+    <mergeCell ref="A1020:E1020"/>
+    <mergeCell ref="A1029:E1029"/>
+    <mergeCell ref="A1039:E1039"/>
+    <mergeCell ref="A983:E983"/>
+    <mergeCell ref="A903:E903"/>
+    <mergeCell ref="A912:E912"/>
+    <mergeCell ref="A974:E974"/>
+    <mergeCell ref="A921:E921"/>
+    <mergeCell ref="A931:E931"/>
+    <mergeCell ref="A942:E942"/>
+    <mergeCell ref="A877:E877"/>
+    <mergeCell ref="A1135:E1135"/>
+    <mergeCell ref="A1148:E1148"/>
+    <mergeCell ref="A785:E785"/>
+    <mergeCell ref="A868:E868"/>
+    <mergeCell ref="A821:E821"/>
+    <mergeCell ref="A831:E831"/>
+    <mergeCell ref="A841:E841"/>
+    <mergeCell ref="A850:E850"/>
+    <mergeCell ref="A859:E859"/>
+    <mergeCell ref="A634:E634"/>
+    <mergeCell ref="A649:E649"/>
+    <mergeCell ref="A664:E664"/>
+    <mergeCell ref="A679:E679"/>
+    <mergeCell ref="A694:E694"/>
+    <mergeCell ref="A767:E767"/>
+    <mergeCell ref="A709:E709"/>
+    <mergeCell ref="A724:E724"/>
+    <mergeCell ref="A740:E740"/>
+    <mergeCell ref="A750:E750"/>
+    <mergeCell ref="A758:E758"/>
+    <mergeCell ref="A776:E776"/>
+    <mergeCell ref="A250:E250"/>
+    <mergeCell ref="A260:E260"/>
+    <mergeCell ref="A270:E270"/>
+    <mergeCell ref="A282:E282"/>
+    <mergeCell ref="A294:E294"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A62:E62"/>
+    <mergeCell ref="A72:E72"/>
+    <mergeCell ref="A95:E95"/>
+    <mergeCell ref="A110:E110"/>
+    <mergeCell ref="A125:E125"/>
+    <mergeCell ref="A82:E82"/>
+    <mergeCell ref="A215:E215"/>
+    <mergeCell ref="A230:E230"/>
+    <mergeCell ref="A240:E240"/>
+    <mergeCell ref="A140:E140"/>
+    <mergeCell ref="A155:E155"/>
+    <mergeCell ref="A170:E170"/>
+    <mergeCell ref="A185:E185"/>
+    <mergeCell ref="A200:E200"/>
+    <mergeCell ref="A366:E366"/>
+    <mergeCell ref="A375:E375"/>
+    <mergeCell ref="A306:E306"/>
+    <mergeCell ref="A318:E318"/>
+    <mergeCell ref="A330:E330"/>
+    <mergeCell ref="A343:E343"/>
+    <mergeCell ref="A353:E353"/>
+    <mergeCell ref="A383:E383"/>
+    <mergeCell ref="A392:E392"/>
     <mergeCell ref="A952:E952"/>
     <mergeCell ref="A964:E964"/>
     <mergeCell ref="A992:E992"/>
@@ -28062,130 +28697,79 @@
     <mergeCell ref="A567:E567"/>
     <mergeCell ref="A576:E576"/>
     <mergeCell ref="A591:E591"/>
-    <mergeCell ref="A366:E366"/>
-    <mergeCell ref="A375:E375"/>
-    <mergeCell ref="A306:E306"/>
-    <mergeCell ref="A318:E318"/>
-    <mergeCell ref="A330:E330"/>
-    <mergeCell ref="A343:E343"/>
-    <mergeCell ref="A353:E353"/>
-    <mergeCell ref="A383:E383"/>
-    <mergeCell ref="A392:E392"/>
-    <mergeCell ref="A250:E250"/>
-    <mergeCell ref="A260:E260"/>
-    <mergeCell ref="A270:E270"/>
-    <mergeCell ref="A282:E282"/>
-    <mergeCell ref="A294:E294"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A62:E62"/>
-    <mergeCell ref="A72:E72"/>
-    <mergeCell ref="A95:E95"/>
-    <mergeCell ref="A110:E110"/>
-    <mergeCell ref="A125:E125"/>
-    <mergeCell ref="A82:E82"/>
-    <mergeCell ref="A215:E215"/>
-    <mergeCell ref="A230:E230"/>
-    <mergeCell ref="A240:E240"/>
-    <mergeCell ref="A140:E140"/>
-    <mergeCell ref="A155:E155"/>
-    <mergeCell ref="A170:E170"/>
-    <mergeCell ref="A185:E185"/>
-    <mergeCell ref="A200:E200"/>
-    <mergeCell ref="A785:E785"/>
-    <mergeCell ref="A868:E868"/>
-    <mergeCell ref="A821:E821"/>
-    <mergeCell ref="A831:E831"/>
-    <mergeCell ref="A841:E841"/>
-    <mergeCell ref="A850:E850"/>
-    <mergeCell ref="A859:E859"/>
-    <mergeCell ref="A634:E634"/>
-    <mergeCell ref="A649:E649"/>
-    <mergeCell ref="A664:E664"/>
-    <mergeCell ref="A679:E679"/>
-    <mergeCell ref="A694:E694"/>
-    <mergeCell ref="A767:E767"/>
-    <mergeCell ref="A709:E709"/>
-    <mergeCell ref="A724:E724"/>
-    <mergeCell ref="A740:E740"/>
-    <mergeCell ref="A750:E750"/>
-    <mergeCell ref="A758:E758"/>
-    <mergeCell ref="A776:E776"/>
-    <mergeCell ref="A887:E887"/>
-    <mergeCell ref="A894:E894"/>
-    <mergeCell ref="A794:E794"/>
-    <mergeCell ref="A803:E803"/>
-    <mergeCell ref="A812:E812"/>
-    <mergeCell ref="A606:E606"/>
-    <mergeCell ref="A624:E624"/>
-    <mergeCell ref="A1168:E1168"/>
-    <mergeCell ref="A1183:E1183"/>
-    <mergeCell ref="A1001:E1001"/>
-    <mergeCell ref="A1011:E1011"/>
-    <mergeCell ref="A1020:E1020"/>
-    <mergeCell ref="A1029:E1029"/>
-    <mergeCell ref="A1039:E1039"/>
-    <mergeCell ref="A983:E983"/>
-    <mergeCell ref="A903:E903"/>
-    <mergeCell ref="A912:E912"/>
-    <mergeCell ref="A974:E974"/>
-    <mergeCell ref="A921:E921"/>
-    <mergeCell ref="A931:E931"/>
-    <mergeCell ref="A942:E942"/>
-    <mergeCell ref="A877:E877"/>
-    <mergeCell ref="A1135:E1135"/>
-    <mergeCell ref="A1148:E1148"/>
+    <mergeCell ref="A1089:E1089"/>
+    <mergeCell ref="A1098:E1098"/>
+    <mergeCell ref="A1108:E1108"/>
+    <mergeCell ref="A1117:E1117"/>
+    <mergeCell ref="A1126:E1126"/>
+    <mergeCell ref="A1193:E1193"/>
+    <mergeCell ref="A1202:E1202"/>
+    <mergeCell ref="A1211:E1211"/>
+    <mergeCell ref="A1220:E1220"/>
+    <mergeCell ref="A1158:E1158"/>
+    <mergeCell ref="A1231:E1231"/>
+    <mergeCell ref="A1240:E1240"/>
+    <mergeCell ref="A1249:E1249"/>
+    <mergeCell ref="A1375:F1375"/>
+    <mergeCell ref="A1386:F1386"/>
+    <mergeCell ref="A1352:F1352"/>
+    <mergeCell ref="A1363:F1363"/>
+    <mergeCell ref="A1262:F1262"/>
+    <mergeCell ref="A1275:F1275"/>
+    <mergeCell ref="A1289:F1289"/>
+    <mergeCell ref="A1301:F1301"/>
+    <mergeCell ref="A1309:F1309"/>
+    <mergeCell ref="A1315:F1315"/>
+    <mergeCell ref="A1329:F1329"/>
+    <mergeCell ref="A1341:F1341"/>
+    <mergeCell ref="A2154:F2154"/>
+    <mergeCell ref="A2167:F2167"/>
+    <mergeCell ref="A2182:F2182"/>
+    <mergeCell ref="A1578:F1578"/>
+    <mergeCell ref="A1587:F1587"/>
+    <mergeCell ref="A1596:F1596"/>
+    <mergeCell ref="A1606:F1606"/>
+    <mergeCell ref="A1616:F1616"/>
+    <mergeCell ref="A1625:F1625"/>
+    <mergeCell ref="A1736:F1736"/>
+    <mergeCell ref="A1699:F1699"/>
+    <mergeCell ref="A1705:F1705"/>
+    <mergeCell ref="A1634:F1634"/>
+    <mergeCell ref="A1645:F1645"/>
+    <mergeCell ref="A1657:F1657"/>
+    <mergeCell ref="A1663:F1663"/>
+    <mergeCell ref="A1669:F1669"/>
+    <mergeCell ref="A1675:F1675"/>
+    <mergeCell ref="A1681:F1681"/>
+    <mergeCell ref="A1687:F1687"/>
+    <mergeCell ref="A1693:F1693"/>
+    <mergeCell ref="A1715:F1715"/>
+    <mergeCell ref="A1726:F1726"/>
     <mergeCell ref="A1908:F1908"/>
-    <mergeCell ref="A1532:F1532"/>
-    <mergeCell ref="A1541:F1541"/>
-    <mergeCell ref="A1550:F1550"/>
-    <mergeCell ref="A1559:F1559"/>
-    <mergeCell ref="A1569:F1569"/>
-    <mergeCell ref="A1399:F1399"/>
-    <mergeCell ref="A1409:F1409"/>
-    <mergeCell ref="A1418:F1418"/>
-    <mergeCell ref="A1427:F1427"/>
-    <mergeCell ref="A1436:F1436"/>
-    <mergeCell ref="A1445:F1445"/>
-    <mergeCell ref="A1454:F1454"/>
-    <mergeCell ref="A1463:F1463"/>
-    <mergeCell ref="A1472:F1472"/>
-    <mergeCell ref="A1482:F1482"/>
-    <mergeCell ref="A1491:F1491"/>
-    <mergeCell ref="A1504:F1504"/>
-    <mergeCell ref="A1514:F1514"/>
-    <mergeCell ref="A1523:F1523"/>
-    <mergeCell ref="A1848:F1848"/>
-    <mergeCell ref="A1863:F1863"/>
-    <mergeCell ref="A1878:F1878"/>
-    <mergeCell ref="A1893:F1893"/>
-    <mergeCell ref="A2240:F2240"/>
-    <mergeCell ref="A2248:F2248"/>
-    <mergeCell ref="A2257:F2257"/>
-    <mergeCell ref="A2265:F2265"/>
-    <mergeCell ref="A2273:F2273"/>
+    <mergeCell ref="A1923:F1923"/>
+    <mergeCell ref="A1938:F1938"/>
+    <mergeCell ref="A1953:F1953"/>
+    <mergeCell ref="A1968:F1968"/>
+    <mergeCell ref="A1983:F1983"/>
+    <mergeCell ref="A2094:F2094"/>
+    <mergeCell ref="A2109:F2109"/>
+    <mergeCell ref="A2124:F2124"/>
+    <mergeCell ref="A2139:F2139"/>
+    <mergeCell ref="A2306:F2306"/>
+    <mergeCell ref="A2314:F2314"/>
+    <mergeCell ref="A2322:F2322"/>
+    <mergeCell ref="A2330:F2330"/>
+    <mergeCell ref="A2338:F2338"/>
+    <mergeCell ref="A2346:F2346"/>
+    <mergeCell ref="A2354:F2354"/>
+    <mergeCell ref="A2362:F2362"/>
+    <mergeCell ref="A2191:F2191"/>
+    <mergeCell ref="A2205:F2205"/>
+    <mergeCell ref="A2220:F2220"/>
+    <mergeCell ref="A2232:F2232"/>
     <mergeCell ref="A2282:F2282"/>
     <mergeCell ref="A2290:F2290"/>
     <mergeCell ref="A2298:F2298"/>
-    <mergeCell ref="A1746:F1746"/>
-    <mergeCell ref="A1755:F1755"/>
-    <mergeCell ref="A1765:F1765"/>
-    <mergeCell ref="A1775:F1775"/>
-    <mergeCell ref="A1784:F1784"/>
-    <mergeCell ref="A1793:F1793"/>
-    <mergeCell ref="A2048:F2048"/>
-    <mergeCell ref="A2064:F2064"/>
-    <mergeCell ref="A2079:F2079"/>
-    <mergeCell ref="A1999:F1999"/>
-    <mergeCell ref="A2009:F2009"/>
-    <mergeCell ref="A2024:F2024"/>
-    <mergeCell ref="A2034:F2034"/>
-    <mergeCell ref="A1804:F1804"/>
-    <mergeCell ref="A1819:F1819"/>
-    <mergeCell ref="A1835:F1835"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
